--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE710717-0AA1-4D90-9174-C36E65372A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EEF13-4752-4B95-B1A0-7E3E290E13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1995,21 +1995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2035,23 +2020,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2059,6 +2041,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2079,10 +2067,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8455,14 +8455,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -8479,7 +8479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="1638298"/>
+          <a:off x="9591675" y="1638298"/>
           <a:ext cx="3162300" cy="4638677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8525,14 +8525,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -8549,7 +8549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5686425" y="2628900"/>
+          <a:off x="6772275" y="2628900"/>
           <a:ext cx="1619250" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8596,14 +8596,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -8620,7 +8620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057525" y="1666873"/>
+          <a:off x="3533775" y="1666873"/>
           <a:ext cx="2305050" cy="4610102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8672,8 +8672,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8691,7 +8691,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2219325" y="2352675"/>
-          <a:ext cx="1276350" cy="0"/>
+          <a:ext cx="1704975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8984,8 +8984,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
@@ -9003,7 +9003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3895725" y="1981200"/>
+          <a:off x="4371975" y="1981200"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9039,14 +9039,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -9063,7 +9063,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="1990725"/>
+          <a:off x="3848100" y="1990725"/>
           <a:ext cx="1657350" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9128,8 +9128,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -9147,7 +9147,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2228850" y="3286125"/>
-          <a:ext cx="1257300" cy="0"/>
+          <a:ext cx="1600200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9181,8 +9181,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -9200,7 +9200,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1790700" y="3067050"/>
-          <a:ext cx="1562100" cy="0"/>
+          <a:ext cx="2047875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9237,8 +9237,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9254,7 +9254,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="571501" y="1666873"/>
-          <a:ext cx="1657350" cy="3495677"/>
+          <a:ext cx="1657350" cy="3771902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9295,6 +9295,12 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>HTML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -9303,14 +9309,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -9327,8 +9333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7038975" y="3162300"/>
-          <a:ext cx="638175" cy="0"/>
+          <a:off x="8124825" y="3162300"/>
+          <a:ext cx="1457325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9357,16 +9363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>114154</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>85751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9389,8 +9395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7991475" y="2047876"/>
-          <a:ext cx="752329" cy="742950"/>
+          <a:off x="9886950" y="2047876"/>
+          <a:ext cx="762000" cy="752500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9401,16 +9407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>237390</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>198955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>198955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9421,12 +9427,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="76" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4676775" y="3143250"/>
-          <a:ext cx="1114425" cy="0"/>
+          <a:off x="5980965" y="3151705"/>
+          <a:ext cx="781785" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9455,14 +9463,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>263501</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34901</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -9487,7 +9495,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="2857500"/>
+          <a:off x="6905625" y="2857500"/>
           <a:ext cx="1244576" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9499,14 +9507,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -9523,7 +9531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="2847975"/>
+          <a:off x="3848100" y="2847975"/>
           <a:ext cx="1657350" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9567,14 +9575,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -9594,7 +9602,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4200525" y="3505200"/>
+          <a:off x="4676775" y="3505200"/>
           <a:ext cx="0" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9623,14 +9631,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -9647,7 +9655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="3829050"/>
+          <a:off x="3848100" y="3829050"/>
           <a:ext cx="1657349" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -9707,16 +9715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9734,8 +9742,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4200525" y="4667250"/>
-          <a:ext cx="0" cy="314325"/>
+          <a:off x="4676775" y="4667250"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9763,16 +9771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9787,7 +9795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="4981575"/>
+          <a:off x="3848100" y="5029200"/>
           <a:ext cx="1657350" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9858,16 +9866,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>237391</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9880,13 +9888,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="24" idx="3"/>
+          <a:endCxn id="81" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4983957" y="3931444"/>
-          <a:ext cx="1543050" cy="1452563"/>
+          <a:off x="6081881" y="3785285"/>
+          <a:ext cx="1399105" cy="1600935"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9914,14 +9922,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>105</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>95355</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -9945,7 +9953,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7962899" y="3000375"/>
+          <a:off x="9858374" y="3000375"/>
           <a:ext cx="2467081" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9961,15 +9969,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>101539</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>207410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>107053</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9980,12 +9988,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1457325" y="4953000"/>
-          <a:ext cx="0" cy="657225"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1387414" y="5303285"/>
+          <a:ext cx="5514" cy="449815"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10014,15 +10025,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>166481</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>128381</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10045,7 +10056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="5581650"/>
+          <a:off x="857250" y="5753100"/>
           <a:ext cx="1071356" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10057,8 +10068,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -10076,7 +10087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="3267075"/>
+          <a:off x="7991475" y="3267075"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10112,14 +10123,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>3756</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>60906</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>208481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
     </xdr:to>
@@ -10139,8 +10150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7090356" y="3399356"/>
-          <a:ext cx="939219" cy="1706047"/>
+          <a:off x="8176206" y="3399356"/>
+          <a:ext cx="1748844" cy="1706047"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10168,14 +10179,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>12146</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>107396</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>143036</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238286</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>165</xdr:rowOff>
     </xdr:to>
@@ -10200,7 +10211,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8092798" y="4911451"/>
+          <a:off x="9988273" y="4911451"/>
           <a:ext cx="457362" cy="388065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10212,14 +10223,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>200027</xdr:rowOff>
     </xdr:to>
@@ -10236,7 +10247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="4914902"/>
+          <a:off x="9925050" y="4914902"/>
           <a:ext cx="114300" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10280,8 +10291,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
@@ -10299,7 +10310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943850" y="5895976"/>
+          <a:off x="9839325" y="5895976"/>
           <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10339,16 +10350,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>178657</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
+      <xdr:rowOff>65605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:rowOff>185751</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10361,13 +10372,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
+          <a:endCxn id="75" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5029201" y="2319339"/>
-          <a:ext cx="2962275" cy="100013"/>
+          <a:off x="5922232" y="2303980"/>
+          <a:ext cx="3964719" cy="120146"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10395,14 +10406,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>60907</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>237391</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
@@ -10417,13 +10428,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="37" idx="1"/>
-          <a:endCxn id="38" idx="3"/>
+          <a:endCxn id="82" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5032957" y="5656780"/>
-          <a:ext cx="2996619" cy="1072"/>
+          <a:off x="5980966" y="5656780"/>
+          <a:ext cx="3944085" cy="1072"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10454,14 +10465,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>12146</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>107396</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>143036</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238286</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76365</xdr:rowOff>
     </xdr:to>
@@ -10486,7 +10497,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8092798" y="5463901"/>
+          <a:off x="9988273" y="5463901"/>
           <a:ext cx="457362" cy="388065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10498,14 +10509,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
@@ -10522,7 +10533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="5467352"/>
+          <a:off x="9925050" y="5467352"/>
           <a:ext cx="114300" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10566,8 +10577,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
@@ -10585,7 +10596,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="5524500"/>
+          <a:off x="5324475" y="5524500"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10621,8 +10632,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -10640,7 +10651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553075" y="5734050"/>
+          <a:off x="6029325" y="5734050"/>
           <a:ext cx="1877437" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10696,14 +10707,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>197100</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10718,7 +10729,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="2133600"/>
+          <a:off x="704850" y="2295525"/>
           <a:ext cx="1314450" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10766,14 +10777,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>155825</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10788,7 +10799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="2806700"/>
+          <a:off x="704850" y="3006725"/>
           <a:ext cx="1314450" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10836,14 +10847,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114550</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10858,7 +10869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="3479800"/>
+          <a:off x="704850" y="3679825"/>
           <a:ext cx="1314450" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10907,13 +10918,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10928,7 +10939,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="4152900"/>
+          <a:off x="704850" y="4352925"/>
           <a:ext cx="1314450" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10972,6 +10983,1112 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89B0785-794E-55CA-3230-A58707FF6CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="2743200"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>操作文字列</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A54F16B-5C41-790C-DF89-55553A63D936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="3314700"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>状態文字列</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C0A7CF-C382-6596-5E04-32F0EFBF591D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="2676525"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4AC0D8-77B2-14EE-39F7-5BD95B35C9E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="4972050"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881094FE-FD15-9662-5408-85D68430D10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="2809875"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気的な何か</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6056561F-1717-B1B7-8AEA-58F5A2EE5493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="4514850"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D3A45C-FD26-F57C-81E3-E679A04E191D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="5314950"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D84BD44-73B5-679C-943E-3EDA1DA1CCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="2105025"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カメラ映像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615E4671-199E-A012-65A4-78FF38079411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="2238375"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前、後、右、左、雪射出口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37AA065-5CCF-51A2-EB4E-3513E9EC5620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="5219700"/>
+          <a:ext cx="1172116" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前、後、右、左</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C7D5DC-C874-870A-F707-235D14C258D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="2019300"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カメラ映像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="416781" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B8B92C-9A83-5379-1E7D-52D1AFCB7E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="2171700"/>
+          <a:ext cx="416781" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>USB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="475515" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EDBFD8-D729-1D8C-4080-CE4470F3576C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="3019425"/>
+          <a:ext cx="475515" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GOIP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="475515" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D189F76-F116-9614-C463-BC25AB33DA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="5153025"/>
+          <a:ext cx="475515" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GOIP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="475515" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD977E6-9D4C-9416-C65F-DE11C2467C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="5524500"/>
+          <a:ext cx="475515" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GOIP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="755528" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1356EFC-D649-7F3E-6AE4-B796981BBD95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="5038725"/>
+          <a:ext cx="755528" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Bluetooth</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145E4EBE-BC92-7352-F844-7A5F6D1A17DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5438775"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>操作信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3488071" cy="343364"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FC2E0C-0E59-75B9-2EE4-8BB1A8656026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="6410325"/>
+          <a:ext cx="3488071" cy="343364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※ RS-232C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>はどのあたりで使うのかは、定例会で聞く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11243,7 +12360,7 @@
   </sheetPr>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11254,11 +12371,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="48" customFormat="1" ht="19.5">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:2" s="43" customFormat="1" ht="19.5">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>166</v>
       </c>
     </row>
@@ -11287,11 +12404,11 @@
       </c>
     </row>
     <row r="3" spans="1:90" ht="18.75"/>
-    <row r="4" spans="1:90" s="48" customFormat="1" ht="19.5">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:90" s="43" customFormat="1" ht="19.5">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>164</v>
       </c>
     </row>
@@ -11378,26 +12495,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="41">
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70">
         <v>9999</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="R10" s="42" t="s">
+      <c r="P10" s="70"/>
+      <c r="R10" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="41">
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="70">
         <v>9999</v>
       </c>
-      <c r="W10" s="41"/>
+      <c r="W10" s="70"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -11440,22 +12557,22 @@
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="R11" s="42" t="s">
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="R11" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -11557,9 +12674,9 @@
         <v>0</v>
       </c>
       <c r="M16" s="27"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
       <c r="V16" s="6"/>
       <c r="X16" s="33"/>
       <c r="Z16" s="32"/>
@@ -11591,15 +12708,15 @@
       <c r="M17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="66"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="44" t="s">
+      <c r="U17" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
       <c r="X17" s="39"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="4"/>
@@ -11615,11 +12732,11 @@
         <v>3</v>
       </c>
       <c r="M18" s="27"/>
-      <c r="S18" s="44" t="s">
+      <c r="S18" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
       <c r="V18" s="1"/>
       <c r="X18" s="33"/>
       <c r="Z18" s="32"/>
@@ -11665,11 +12782,11 @@
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
-      <c r="S20" s="67" t="s">
+      <c r="S20" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="68"/>
-      <c r="U20" s="69"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="65"/>
       <c r="X20" s="33"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="4"/>
@@ -11748,12 +12865,12 @@
     </row>
     <row r="24" spans="10:90" ht="18" customHeight="1">
       <c r="J24" s="32"/>
-      <c r="O24" s="70" t="s">
+      <c r="O24" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="68"/>
       <c r="X24" s="33"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="4"/>
@@ -12030,17 +13147,17 @@
       <c r="K33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="55">
         <v>9999</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="55"/>
       <c r="U33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V33" s="73">
+      <c r="V33" s="56">
         <v>9999</v>
       </c>
-      <c r="W33" s="74"/>
+      <c r="W33" s="57"/>
       <c r="X33" s="33"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="4"/>
@@ -12054,17 +13171,17 @@
       <c r="K34" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="55">
         <v>9999</v>
       </c>
-      <c r="M34" s="43"/>
+      <c r="M34" s="55"/>
       <c r="U34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V34" s="73">
+      <c r="V34" s="56">
         <v>9999</v>
       </c>
-      <c r="W34" s="74"/>
+      <c r="W34" s="57"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -12296,12 +13413,18 @@
       <c r="CL45" s="38"/>
     </row>
     <row r="49" spans="2:2" ht="24">
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="54" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="L34:M34"/>
@@ -12312,12 +13435,6 @@
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="O24:R24"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12329,9 +13446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D4A41-55D3-406A-BC39-7C7515A5F04A}">
   <dimension ref="A2:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <cols>
@@ -12344,35 +13459,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="48" customFormat="1" ht="19.5">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:3" s="43" customFormat="1" ht="19.5">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="51"/>
+      <c r="C7" s="46"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
@@ -12380,7 +13495,7 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
@@ -12388,7 +13503,7 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
@@ -12396,7 +13511,7 @@
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
@@ -12404,23 +13519,23 @@
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="45" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:23">
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:23">
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
@@ -12428,7 +13543,7 @@
       </c>
     </row>
     <row r="37" spans="1:23">
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E37" t="s">
@@ -12436,39 +13551,39 @@
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="48" customFormat="1" ht="19.5">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:23" s="43" customFormat="1" ht="19.5">
+      <c r="A42" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:23">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="45" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:23">
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="50" t="s">
+      <c r="W46" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12509,7 +13624,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="53" t="s">
+      <c r="X53" s="48" t="s">
         <v>17</v>
       </c>
       <c r="Y53" t="s">
@@ -12520,7 +13635,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="53"/>
+      <c r="X54" s="48"/>
     </row>
     <row r="55" spans="4:25">
       <c r="D55" s="5" t="s">
@@ -12558,7 +13673,7 @@
     <row r="59" spans="4:25">
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
@@ -12570,7 +13685,7 @@
     <row r="60" spans="4:25">
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
@@ -12604,15 +13719,15 @@
       <c r="X63" s="4"/>
     </row>
     <row r="65" spans="2:29">
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="45" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="67" spans="2:29">
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="W67" s="50" t="s">
+      <c r="W67" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12671,9 +13786,9 @@
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="53"/>
-      <c r="Y76" s="54"/>
-      <c r="AB76" s="51" t="s">
+      <c r="X76" s="48"/>
+      <c r="Y76" s="49"/>
+      <c r="AB76" s="46" t="s">
         <v>48</v>
       </c>
       <c r="AC76" t="s">
@@ -12703,7 +13818,7 @@
       <c r="E79" s="4"/>
       <c r="W79" s="5"/>
       <c r="X79" s="4"/>
-      <c r="AB79" s="51" t="s">
+      <c r="AB79" s="46" t="s">
         <v>48</v>
       </c>
       <c r="AC79" t="s">
@@ -12715,7 +13830,7 @@
       <c r="E80" s="4"/>
       <c r="W80" s="5"/>
       <c r="X80" s="4"/>
-      <c r="AB80" s="51" t="s">
+      <c r="AB80" s="46" t="s">
         <v>48</v>
       </c>
       <c r="AC80" t="s">
@@ -12736,7 +13851,7 @@
       <c r="E82" s="4"/>
       <c r="W82" s="5"/>
       <c r="X82" s="4"/>
-      <c r="AB82" s="51" t="s">
+      <c r="AB82" s="46" t="s">
         <v>48</v>
       </c>
       <c r="AC82" t="s">
@@ -12757,7 +13872,7 @@
       <c r="E84" s="4"/>
       <c r="W84" s="5"/>
       <c r="X84" s="4"/>
-      <c r="AA84" s="51" t="s">
+      <c r="AA84" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AB84" t="s">
@@ -12773,35 +13888,35 @@
     <row r="86" spans="4:29">
       <c r="D86" s="5"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="54"/>
+      <c r="F86" s="49"/>
       <c r="W86" s="5"/>
       <c r="X86" s="4"/>
       <c r="Y86" t="s">
         <v>57</v>
       </c>
-      <c r="AC86" s="51"/>
+      <c r="AC86" s="46"/>
     </row>
     <row r="87" spans="4:29">
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="54"/>
+      <c r="F87" s="49"/>
       <c r="W87" s="5"/>
       <c r="X87" s="4"/>
-      <c r="Z87" s="51" t="s">
+      <c r="Z87" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AA87" t="s">
         <v>58</v>
       </c>
-      <c r="AC87" s="51"/>
+      <c r="AC87" s="46"/>
     </row>
     <row r="88" spans="4:29">
       <c r="D88" s="5"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="54"/>
+      <c r="F88" s="49"/>
       <c r="W88" s="5"/>
       <c r="X88" s="4"/>
-      <c r="Z88" s="51" t="s">
+      <c r="Z88" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AA88" t="s">
@@ -12811,21 +13926,21 @@
     <row r="89" spans="4:29">
       <c r="D89" s="5"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="54"/>
+      <c r="F89" s="49"/>
       <c r="W89" s="5"/>
       <c r="X89" s="4"/>
       <c r="Y89" t="s">
         <v>55</v>
       </c>
-      <c r="AC89" s="51"/>
+      <c r="AC89" s="46"/>
     </row>
     <row r="90" spans="4:29">
       <c r="D90" s="5"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="54"/>
+      <c r="F90" s="49"/>
       <c r="W90" s="5"/>
       <c r="X90" s="4"/>
-      <c r="AC90" s="51"/>
+      <c r="AC90" s="46"/>
     </row>
     <row r="91" spans="4:29">
       <c r="D91" s="5"/>
@@ -12855,12 +13970,12 @@
       </c>
     </row>
     <row r="95" spans="4:29">
-      <c r="F95" s="55" t="s">
+      <c r="F95" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="96" spans="4:29">
-      <c r="G96" s="51" t="s">
+      <c r="G96" s="46" t="s">
         <v>17</v>
       </c>
       <c r="H96" t="s">
@@ -12873,7 +13988,7 @@
       </c>
     </row>
     <row r="98" spans="2:30">
-      <c r="F98" s="51" t="s">
+      <c r="F98" s="46" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
@@ -12886,15 +14001,15 @@
       </c>
     </row>
     <row r="101" spans="2:30">
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="103" spans="2:30">
-      <c r="C103" s="50" t="s">
+      <c r="C103" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="W103" s="50" t="s">
+      <c r="W103" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12914,7 +14029,7 @@
     <row r="107" spans="2:30">
       <c r="D107" s="5"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="54"/>
+      <c r="F107" s="49"/>
       <c r="W107" s="5"/>
       <c r="X107" s="4"/>
       <c r="Z107" s="5" t="s">
@@ -12924,7 +14039,7 @@
     <row r="108" spans="2:30">
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="54"/>
+      <c r="F108" s="49"/>
       <c r="W108" s="5"/>
       <c r="X108" s="4"/>
       <c r="AA108" t="s">
@@ -12934,7 +14049,7 @@
     <row r="109" spans="2:30">
       <c r="D109" s="5"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="54"/>
+      <c r="F109" s="49"/>
       <c r="W109" s="5"/>
       <c r="X109" s="4"/>
       <c r="AB109" t="s">
@@ -12944,10 +14059,10 @@
     <row r="110" spans="2:30">
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="54"/>
+      <c r="F110" s="49"/>
       <c r="W110" s="5"/>
       <c r="X110" s="4"/>
-      <c r="AB110" s="51" t="s">
+      <c r="AB110" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AC110" t="s">
@@ -12957,7 +14072,7 @@
     <row r="111" spans="2:30">
       <c r="D111" s="5"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="54"/>
+      <c r="F111" s="49"/>
       <c r="W111" s="5"/>
       <c r="X111" s="4"/>
       <c r="AC111" t="s">
@@ -12967,7 +14082,7 @@
     <row r="112" spans="2:30">
       <c r="D112" s="5"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="54"/>
+      <c r="F112" s="49"/>
       <c r="W112" s="5"/>
       <c r="X112" s="4"/>
       <c r="AD112" t="s">
@@ -12977,7 +14092,7 @@
     <row r="113" spans="4:30">
       <c r="D113" s="5"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="54"/>
+      <c r="F113" s="49"/>
       <c r="W113" s="5"/>
       <c r="X113" s="4"/>
       <c r="AD113" t="s">
@@ -12987,10 +14102,10 @@
     <row r="114" spans="4:30">
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="54"/>
+      <c r="F114" s="49"/>
       <c r="W114" s="5"/>
       <c r="X114" s="4"/>
-      <c r="AB114" s="51" t="s">
+      <c r="AB114" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AC114" t="s">
@@ -13000,7 +14115,7 @@
     <row r="115" spans="4:30">
       <c r="D115" s="5"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="54"/>
+      <c r="F115" s="49"/>
       <c r="W115" s="5"/>
       <c r="X115" s="4"/>
       <c r="AB115" t="s">
@@ -13010,10 +14125,10 @@
     <row r="116" spans="4:30">
       <c r="D116" s="5"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="54"/>
+      <c r="F116" s="49"/>
       <c r="W116" s="5"/>
       <c r="X116" s="4"/>
-      <c r="AB116" s="51" t="s">
+      <c r="AB116" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AC116" t="s">
@@ -13023,21 +14138,21 @@
     <row r="117" spans="4:30">
       <c r="D117" s="5"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="54"/>
+      <c r="F117" s="49"/>
       <c r="W117" s="5"/>
       <c r="X117" s="4"/>
       <c r="AB117" t="s">
         <v>55</v>
       </c>
-      <c r="AC117" s="51"/>
+      <c r="AC117" s="46"/>
     </row>
     <row r="118" spans="4:30">
       <c r="D118" s="5"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="54"/>
+      <c r="F118" s="49"/>
       <c r="W118" s="5"/>
       <c r="X118" s="4"/>
-      <c r="AB118" s="51" t="s">
+      <c r="AB118" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AC118" t="s">
@@ -13047,35 +14162,35 @@
     <row r="119" spans="4:30">
       <c r="D119" s="5"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="54"/>
+      <c r="F119" s="49"/>
       <c r="W119" s="5"/>
       <c r="X119" s="4"/>
       <c r="Y119" t="s">
         <v>57</v>
       </c>
-      <c r="AC119" s="51"/>
+      <c r="AC119" s="46"/>
     </row>
     <row r="120" spans="4:30">
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="54"/>
+      <c r="F120" s="49"/>
       <c r="W120" s="5"/>
       <c r="X120" s="4"/>
-      <c r="Z120" s="51" t="s">
+      <c r="Z120" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AA120" t="s">
         <v>58</v>
       </c>
-      <c r="AC120" s="51"/>
+      <c r="AC120" s="46"/>
     </row>
     <row r="121" spans="4:30">
       <c r="D121" s="5"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="54"/>
+      <c r="F121" s="49"/>
       <c r="W121" s="5"/>
       <c r="X121" s="4"/>
-      <c r="Z121" s="51" t="s">
+      <c r="Z121" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AA121" t="s">
@@ -13085,21 +14200,21 @@
     <row r="122" spans="4:30">
       <c r="D122" s="5"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="54"/>
+      <c r="F122" s="49"/>
       <c r="W122" s="5"/>
       <c r="X122" s="4"/>
       <c r="Y122" t="s">
         <v>55</v>
       </c>
-      <c r="AC122" s="51"/>
+      <c r="AC122" s="46"/>
     </row>
     <row r="123" spans="4:30">
       <c r="D123" s="5"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="54"/>
+      <c r="F123" s="49"/>
       <c r="W123" s="5"/>
       <c r="X123" s="4"/>
-      <c r="AC123" s="51"/>
+      <c r="AC123" s="46"/>
     </row>
     <row r="124" spans="4:30">
       <c r="D124" s="5"/>
@@ -13129,12 +14244,12 @@
       </c>
     </row>
     <row r="128" spans="4:30">
-      <c r="F128" s="55" t="s">
+      <c r="F128" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="G129" s="51" t="s">
+      <c r="G129" s="46" t="s">
         <v>17</v>
       </c>
       <c r="H129" t="s">
@@ -13147,7 +14262,7 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="F131" s="51" t="s">
+      <c r="F131" s="46" t="s">
         <v>17</v>
       </c>
       <c r="G131" t="s">
@@ -13159,11 +14274,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="48" customFormat="1" ht="19.5">
-      <c r="A134" s="46" t="s">
+    <row r="134" spans="1:8" s="43" customFormat="1" ht="19.5">
+      <c r="A134" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B134" s="42" t="s">
         <v>73</v>
       </c>
     </row>
@@ -13183,7 +14298,7 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="50" t="s">
+      <c r="B140" s="45" t="s">
         <v>178</v>
       </c>
     </row>
@@ -13209,11 +14324,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="48" customFormat="1" ht="19.5">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:25" s="43" customFormat="1" ht="19.5">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>168</v>
       </c>
     </row>
@@ -13223,12 +14338,12 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="19.5">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="51" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="45" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13243,22 +14358,22 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="45" t="s">
         <v>79</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="50" t="s">
+      <c r="P15" s="45" t="s">
         <v>174</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="50" t="s">
+      <c r="Y15" s="45" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="D16" s="50"/>
+      <c r="D16" s="45"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4"/>
       <c r="W16" s="5"/>
@@ -13433,596 +14548,596 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="4:29">
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="45" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="4:29">
-      <c r="D30" s="50"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:29">
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57" t="s">
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57" t="s">
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57" t="s">
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="Y31" s="57"/>
+      <c r="Y31" s="74"/>
     </row>
     <row r="32" spans="4:29">
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="59">
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="43" t="s">
+      <c r="T32" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43">
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55">
         <v>1</v>
       </c>
-      <c r="Y32" s="43"/>
+      <c r="Y32" s="55"/>
     </row>
     <row r="33" spans="5:25">
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="59">
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="43" t="s">
+      <c r="T33" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43">
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55">
         <v>1</v>
       </c>
-      <c r="Y33" s="43"/>
+      <c r="Y33" s="55"/>
     </row>
     <row r="34" spans="5:25">
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60" t="s">
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="59">
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43">
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55">
         <v>1</v>
       </c>
-      <c r="Y34" s="43"/>
+      <c r="Y34" s="55"/>
     </row>
     <row r="35" spans="5:25">
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60" t="s">
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="59">
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43">
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55">
         <v>1</v>
       </c>
-      <c r="Y35" s="43"/>
+      <c r="Y35" s="55"/>
     </row>
     <row r="36" spans="5:25">
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60" t="s">
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="59">
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43">
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55">
         <v>1</v>
       </c>
-      <c r="Y36" s="43"/>
+      <c r="Y36" s="55"/>
     </row>
     <row r="37" spans="5:25">
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60" t="s">
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="59">
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="52">
         <v>1</v>
       </c>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43">
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55">
         <v>1</v>
       </c>
-      <c r="Y37" s="43"/>
+      <c r="Y37" s="55"/>
     </row>
     <row r="38" spans="5:25">
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60" t="s">
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="59">
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43">
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55">
         <v>1</v>
       </c>
-      <c r="Y38" s="43"/>
+      <c r="Y38" s="55"/>
     </row>
     <row r="39" spans="5:25">
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="59">
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43">
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55">
         <v>1</v>
       </c>
-      <c r="Y39" s="43"/>
+      <c r="Y39" s="55"/>
     </row>
     <row r="40" spans="5:25">
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60" t="s">
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="59">
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43">
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55">
         <v>1</v>
       </c>
-      <c r="Y40" s="43"/>
+      <c r="Y40" s="55"/>
     </row>
     <row r="41" spans="5:25">
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60" t="s">
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="59">
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43">
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55">
         <v>1</v>
       </c>
-      <c r="Y41" s="43"/>
+      <c r="Y41" s="55"/>
     </row>
     <row r="42" spans="5:25">
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60" t="s">
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="59">
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43">
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55">
         <v>1</v>
       </c>
-      <c r="Y42" s="43"/>
+      <c r="Y42" s="55"/>
     </row>
     <row r="43" spans="5:25">
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60" t="s">
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="59">
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43">
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55">
         <v>1</v>
       </c>
-      <c r="Y43" s="43"/>
+      <c r="Y43" s="55"/>
     </row>
     <row r="44" spans="5:25">
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60" t="s">
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="59">
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43">
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55">
         <v>1</v>
       </c>
-      <c r="Y44" s="43"/>
+      <c r="Y44" s="55"/>
     </row>
     <row r="45" spans="5:25">
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60" t="s">
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="59">
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43">
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55">
         <v>1</v>
       </c>
-      <c r="Y45" s="43"/>
+      <c r="Y45" s="55"/>
     </row>
     <row r="46" spans="5:25">
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60" t="s">
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="59">
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43">
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55">
         <v>1</v>
       </c>
-      <c r="Y46" s="43"/>
+      <c r="Y46" s="55"/>
     </row>
     <row r="47" spans="5:25">
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60" t="s">
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="59">
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43">
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55">
         <v>1</v>
       </c>
-      <c r="Y47" s="43"/>
+      <c r="Y47" s="55"/>
     </row>
     <row r="48" spans="5:25">
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60" t="s">
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="59">
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43">
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55">
         <v>1</v>
       </c>
-      <c r="Y48" s="43"/>
+      <c r="Y48" s="55"/>
     </row>
     <row r="49" spans="3:25">
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
     </row>
     <row r="51" spans="3:25">
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14032,12 +15147,12 @@
       </c>
     </row>
     <row r="55" spans="3:25">
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="3:25">
-      <c r="D56" s="50"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="3:25">
       <c r="E57" t="s">
@@ -14063,7 +15178,7 @@
       <c r="H61" t="s">
         <v>83</v>
       </c>
-      <c r="L61" s="61" t="s">
+      <c r="L61" s="53" t="s">
         <v>84</v>
       </c>
       <c r="M61" t="s">
@@ -14081,7 +15196,7 @@
       </c>
     </row>
     <row r="64" spans="3:25">
-      <c r="F64" s="51" t="s">
+      <c r="F64" s="46" t="s">
         <v>127</v>
       </c>
       <c r="G64" t="s">
@@ -14092,7 +15207,7 @@
       <c r="H65" t="s">
         <v>128</v>
       </c>
-      <c r="L65" s="61" t="s">
+      <c r="L65" s="53" t="s">
         <v>84</v>
       </c>
       <c r="M65" t="s">
@@ -14100,8 +15215,8 @@
       </c>
     </row>
     <row r="66" spans="4:39">
-      <c r="G66" s="54"/>
-      <c r="J66" s="61"/>
+      <c r="G66" s="49"/>
+      <c r="J66" s="53"/>
       <c r="N66" t="s">
         <v>129</v>
       </c>
@@ -14113,8 +15228,8 @@
       </c>
     </row>
     <row r="67" spans="4:39">
-      <c r="J67" s="61"/>
-      <c r="M67" s="54" t="s">
+      <c r="J67" s="53"/>
+      <c r="M67" s="49" t="s">
         <v>127</v>
       </c>
       <c r="N67" t="s">
@@ -14128,7 +15243,7 @@
       </c>
     </row>
     <row r="68" spans="4:39">
-      <c r="J68" s="61"/>
+      <c r="J68" s="53"/>
       <c r="M68" t="s">
         <v>55</v>
       </c>
@@ -14159,7 +15274,7 @@
       </c>
     </row>
     <row r="75" spans="4:39">
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="45" t="s">
         <v>88</v>
       </c>
     </row>
@@ -14174,550 +15289,440 @@
       </c>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="57" t="s">
+      <c r="E79" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57" t="s">
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57" t="s">
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="T79" s="57"/>
-      <c r="U79" s="57"/>
-      <c r="V79" s="57"/>
-      <c r="W79" s="57"/>
-      <c r="X79" s="57" t="s">
+      <c r="T79" s="74"/>
+      <c r="U79" s="74"/>
+      <c r="V79" s="74"/>
+      <c r="W79" s="74"/>
+      <c r="X79" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="Y79" s="57"/>
-      <c r="Z79" s="57" t="s">
+      <c r="Y79" s="74"/>
+      <c r="Z79" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="AA79" s="57"/>
-      <c r="AB79" s="57"/>
-      <c r="AC79" s="57"/>
-      <c r="AD79" s="57"/>
-      <c r="AE79" s="57"/>
-      <c r="AF79" s="57"/>
-      <c r="AG79" s="57" t="s">
+      <c r="AA79" s="74"/>
+      <c r="AB79" s="74"/>
+      <c r="AC79" s="74"/>
+      <c r="AD79" s="74"/>
+      <c r="AE79" s="74"/>
+      <c r="AF79" s="74"/>
+      <c r="AG79" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="AH79" s="57"/>
-      <c r="AI79" s="57"/>
-      <c r="AJ79" s="57"/>
-      <c r="AK79" s="57"/>
-      <c r="AL79" s="57"/>
-      <c r="AM79" s="57"/>
+      <c r="AH79" s="74"/>
+      <c r="AI79" s="74"/>
+      <c r="AJ79" s="74"/>
+      <c r="AK79" s="74"/>
+      <c r="AL79" s="74"/>
+      <c r="AM79" s="74"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="58" t="s">
+      <c r="E80" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58" t="s">
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="K80" s="58"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="58"/>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="58"/>
-      <c r="S80" s="59">
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="52">
         <v>1</v>
       </c>
-      <c r="T80" s="43" t="s">
+      <c r="T80" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43">
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55">
         <v>1</v>
       </c>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="62" t="s">
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="AA80" s="62"/>
-      <c r="AB80" s="62"/>
-      <c r="AC80" s="43" t="s">
+      <c r="AA80" s="72"/>
+      <c r="AB80" s="72"/>
+      <c r="AC80" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="43"/>
-      <c r="AG80" s="60" t="s">
+      <c r="AD80" s="55"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="55"/>
+      <c r="AG80" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AH80" s="60"/>
-      <c r="AI80" s="60"/>
-      <c r="AJ80" s="60"/>
-      <c r="AK80" s="60"/>
-      <c r="AL80" s="60"/>
-      <c r="AM80" s="60"/>
+      <c r="AH80" s="71"/>
+      <c r="AI80" s="71"/>
+      <c r="AJ80" s="71"/>
+      <c r="AK80" s="71"/>
+      <c r="AL80" s="71"/>
+      <c r="AM80" s="71"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="58"/>
-      <c r="S81" s="59">
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="73"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="52">
         <v>0</v>
       </c>
-      <c r="T81" s="43" t="s">
+      <c r="T81" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43">
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55">
         <v>1</v>
       </c>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="62"/>
-      <c r="AA81" s="62"/>
-      <c r="AB81" s="62"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="60"/>
-      <c r="AH81" s="60"/>
-      <c r="AI81" s="60"/>
-      <c r="AJ81" s="60"/>
-      <c r="AK81" s="60"/>
-      <c r="AL81" s="60"/>
-      <c r="AM81" s="60"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="72"/>
+      <c r="AA81" s="72"/>
+      <c r="AB81" s="72"/>
+      <c r="AC81" s="55"/>
+      <c r="AD81" s="55"/>
+      <c r="AE81" s="55"/>
+      <c r="AF81" s="55"/>
+      <c r="AG81" s="71"/>
+      <c r="AH81" s="71"/>
+      <c r="AI81" s="71"/>
+      <c r="AJ81" s="71"/>
+      <c r="AK81" s="71"/>
+      <c r="AL81" s="71"/>
+      <c r="AM81" s="71"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="58" t="s">
+      <c r="E82" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58" t="s">
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
-      <c r="S82" s="59">
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="52">
         <v>1</v>
       </c>
-      <c r="T82" s="43" t="s">
+      <c r="T82" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43">
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55">
         <v>1</v>
       </c>
-      <c r="Y82" s="43"/>
-      <c r="Z82" s="62" t="s">
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="AA82" s="62"/>
-      <c r="AB82" s="62"/>
-      <c r="AC82" s="43" t="s">
+      <c r="AA82" s="72"/>
+      <c r="AB82" s="72"/>
+      <c r="AC82" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="AD82" s="43"/>
-      <c r="AE82" s="43"/>
-      <c r="AF82" s="43"/>
-      <c r="AG82" s="60" t="s">
+      <c r="AD82" s="55"/>
+      <c r="AE82" s="55"/>
+      <c r="AF82" s="55"/>
+      <c r="AG82" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AH82" s="60"/>
-      <c r="AI82" s="60"/>
-      <c r="AJ82" s="60"/>
-      <c r="AK82" s="60"/>
-      <c r="AL82" s="60"/>
-      <c r="AM82" s="60"/>
+      <c r="AH82" s="71"/>
+      <c r="AI82" s="71"/>
+      <c r="AJ82" s="71"/>
+      <c r="AK82" s="71"/>
+      <c r="AL82" s="71"/>
+      <c r="AM82" s="71"/>
     </row>
     <row r="83" spans="5:39">
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="58"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="58"/>
-      <c r="S83" s="59">
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="73"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="73"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="52">
         <v>0</v>
       </c>
-      <c r="T83" s="43" t="s">
+      <c r="T83" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43">
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
+      <c r="X83" s="55">
         <v>1</v>
       </c>
-      <c r="Y83" s="43"/>
-      <c r="Z83" s="62"/>
-      <c r="AA83" s="62"/>
-      <c r="AB83" s="62"/>
-      <c r="AC83" s="43"/>
-      <c r="AD83" s="43"/>
-      <c r="AE83" s="43"/>
-      <c r="AF83" s="43"/>
-      <c r="AG83" s="60"/>
-      <c r="AH83" s="60"/>
-      <c r="AI83" s="60"/>
-      <c r="AJ83" s="60"/>
-      <c r="AK83" s="60"/>
-      <c r="AL83" s="60"/>
-      <c r="AM83" s="60"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="72"/>
+      <c r="AA83" s="72"/>
+      <c r="AB83" s="72"/>
+      <c r="AC83" s="55"/>
+      <c r="AD83" s="55"/>
+      <c r="AE83" s="55"/>
+      <c r="AF83" s="55"/>
+      <c r="AG83" s="71"/>
+      <c r="AH83" s="71"/>
+      <c r="AI83" s="71"/>
+      <c r="AJ83" s="71"/>
+      <c r="AK83" s="71"/>
+      <c r="AL83" s="71"/>
+      <c r="AM83" s="71"/>
     </row>
     <row r="84" spans="5:39" ht="18" customHeight="1">
-      <c r="E84" s="58" t="s">
+      <c r="E84" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58" t="s">
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="58"/>
-      <c r="S84" s="59">
+      <c r="K84" s="73"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="52">
         <v>1</v>
       </c>
-      <c r="T84" s="43" t="s">
+      <c r="T84" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43">
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55">
         <v>1</v>
       </c>
-      <c r="Y84" s="43"/>
-      <c r="Z84" s="62" t="s">
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="AA84" s="62"/>
-      <c r="AB84" s="62"/>
-      <c r="AC84" s="43" t="s">
+      <c r="AA84" s="72"/>
+      <c r="AB84" s="72"/>
+      <c r="AC84" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="AD84" s="43"/>
-      <c r="AE84" s="43"/>
-      <c r="AF84" s="43"/>
-      <c r="AG84" s="60" t="s">
+      <c r="AD84" s="55"/>
+      <c r="AE84" s="55"/>
+      <c r="AF84" s="55"/>
+      <c r="AG84" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AH84" s="60"/>
-      <c r="AI84" s="60"/>
-      <c r="AJ84" s="60"/>
-      <c r="AK84" s="60"/>
-      <c r="AL84" s="60"/>
-      <c r="AM84" s="60"/>
+      <c r="AH84" s="71"/>
+      <c r="AI84" s="71"/>
+      <c r="AJ84" s="71"/>
+      <c r="AK84" s="71"/>
+      <c r="AL84" s="71"/>
+      <c r="AM84" s="71"/>
     </row>
     <row r="85" spans="5:39">
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="58"/>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="58"/>
-      <c r="S85" s="59">
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="73"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
+      <c r="N85" s="73"/>
+      <c r="O85" s="73"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="52">
         <v>0</v>
       </c>
-      <c r="T85" s="43" t="s">
+      <c r="T85" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43"/>
-      <c r="W85" s="43"/>
-      <c r="X85" s="43">
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+      <c r="X85" s="55">
         <v>1</v>
       </c>
-      <c r="Y85" s="43"/>
-      <c r="Z85" s="62"/>
-      <c r="AA85" s="62"/>
-      <c r="AB85" s="62"/>
-      <c r="AC85" s="43"/>
-      <c r="AD85" s="43"/>
-      <c r="AE85" s="43"/>
-      <c r="AF85" s="43"/>
-      <c r="AG85" s="60"/>
-      <c r="AH85" s="60"/>
-      <c r="AI85" s="60"/>
-      <c r="AJ85" s="60"/>
-      <c r="AK85" s="60"/>
-      <c r="AL85" s="60"/>
-      <c r="AM85" s="60"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="72"/>
+      <c r="AA85" s="72"/>
+      <c r="AB85" s="72"/>
+      <c r="AC85" s="55"/>
+      <c r="AD85" s="55"/>
+      <c r="AE85" s="55"/>
+      <c r="AF85" s="55"/>
+      <c r="AG85" s="71"/>
+      <c r="AH85" s="71"/>
+      <c r="AI85" s="71"/>
+      <c r="AJ85" s="71"/>
+      <c r="AK85" s="71"/>
+      <c r="AL85" s="71"/>
+      <c r="AM85" s="71"/>
     </row>
     <row r="86" spans="5:39" ht="18" customHeight="1">
-      <c r="E86" s="58" t="s">
+      <c r="E86" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58" t="s">
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
-      <c r="R86" s="58"/>
-      <c r="S86" s="59">
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="52">
         <v>1</v>
       </c>
-      <c r="T86" s="43" t="s">
+      <c r="T86" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="U86" s="43"/>
-      <c r="V86" s="43"/>
-      <c r="W86" s="43"/>
-      <c r="X86" s="43">
+      <c r="U86" s="55"/>
+      <c r="V86" s="55"/>
+      <c r="W86" s="55"/>
+      <c r="X86" s="55">
         <v>1</v>
       </c>
-      <c r="Y86" s="43"/>
-      <c r="Z86" s="62" t="s">
+      <c r="Y86" s="55"/>
+      <c r="Z86" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="AA86" s="62"/>
-      <c r="AB86" s="62"/>
-      <c r="AC86" s="43" t="s">
+      <c r="AA86" s="72"/>
+      <c r="AB86" s="72"/>
+      <c r="AC86" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="AD86" s="43"/>
-      <c r="AE86" s="43"/>
-      <c r="AF86" s="43"/>
-      <c r="AG86" s="60" t="s">
+      <c r="AD86" s="55"/>
+      <c r="AE86" s="55"/>
+      <c r="AF86" s="55"/>
+      <c r="AG86" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AH86" s="60"/>
-      <c r="AI86" s="60"/>
-      <c r="AJ86" s="60"/>
-      <c r="AK86" s="60"/>
-      <c r="AL86" s="60"/>
-      <c r="AM86" s="60"/>
+      <c r="AH86" s="71"/>
+      <c r="AI86" s="71"/>
+      <c r="AJ86" s="71"/>
+      <c r="AK86" s="71"/>
+      <c r="AL86" s="71"/>
+      <c r="AM86" s="71"/>
     </row>
     <row r="87" spans="5:39">
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="58"/>
-      <c r="P87" s="58"/>
-      <c r="Q87" s="58"/>
-      <c r="R87" s="58"/>
-      <c r="S87" s="59">
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="73"/>
+      <c r="O87" s="73"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="52">
         <v>0</v>
       </c>
-      <c r="T87" s="43" t="s">
+      <c r="T87" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="43">
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="55"/>
+      <c r="X87" s="55">
         <v>1</v>
       </c>
-      <c r="Y87" s="43"/>
-      <c r="Z87" s="62"/>
-      <c r="AA87" s="62"/>
-      <c r="AB87" s="62"/>
-      <c r="AC87" s="43"/>
-      <c r="AD87" s="43"/>
-      <c r="AE87" s="43"/>
-      <c r="AF87" s="43"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
-      <c r="AL87" s="60"/>
-      <c r="AM87" s="60"/>
+      <c r="Y87" s="55"/>
+      <c r="Z87" s="72"/>
+      <c r="AA87" s="72"/>
+      <c r="AB87" s="72"/>
+      <c r="AC87" s="55"/>
+      <c r="AD87" s="55"/>
+      <c r="AE87" s="55"/>
+      <c r="AF87" s="55"/>
+      <c r="AG87" s="71"/>
+      <c r="AH87" s="71"/>
+      <c r="AI87" s="71"/>
+      <c r="AJ87" s="71"/>
+      <c r="AK87" s="71"/>
+      <c r="AL87" s="71"/>
+      <c r="AM87" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="Z87:AB87"/>
-    <mergeCell ref="AC87:AF87"/>
-    <mergeCell ref="AG87:AM87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="J86:R87"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="E84:I85"/>
-    <mergeCell ref="J84:R85"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="E82:I83"/>
-    <mergeCell ref="J82:R83"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="E80:I81"/>
-    <mergeCell ref="J80:R81"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="J79:R79"/>
-    <mergeCell ref="S79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AF79"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -14736,6 +15741,116 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="J79:R79"/>
+    <mergeCell ref="S79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AF79"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="E80:I81"/>
+    <mergeCell ref="J80:R81"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="E82:I83"/>
+    <mergeCell ref="J82:R83"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="E84:I85"/>
+    <mergeCell ref="J84:R85"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="Z87:AB87"/>
+    <mergeCell ref="AC87:AF87"/>
+    <mergeCell ref="AG87:AM87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="J86:R87"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EEF13-4752-4B95-B1A0-7E3E290E13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A5E04-26B1-4D92-BB4D-2E21BD0F71B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17310" yWindow="0" windowWidth="11595" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -1911,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2025,6 +2025,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,22 +2073,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5968,13 +5971,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>6368</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>13243</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161313</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5990,8 +5993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7661004" y="4797136"/>
-          <a:ext cx="2708512" cy="2724404"/>
+          <a:off x="7891411" y="5132958"/>
+          <a:ext cx="2789832" cy="2805725"/>
           <a:chOff x="7730277" y="5489864"/>
           <a:chExt cx="2708512" cy="2724404"/>
         </a:xfrm>
@@ -6473,13 +6476,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>148883</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6631,7 +6634,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>212913</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1759324" cy="864660"/>
@@ -6720,13 +6723,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6893,7 +6896,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1848971" cy="349776"/>
@@ -6953,7 +6956,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1759324" cy="349776"/>
@@ -7012,13 +7015,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>140252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>132435</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7070,7 +7073,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="941295" cy="349776"/>
@@ -7130,13 +7133,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>29212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7188,7 +7191,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="941295" cy="349776"/>
@@ -7248,13 +7251,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>51623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>201705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7306,7 +7309,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>212909</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>115115</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1367119" cy="349776"/>
@@ -7373,13 +7376,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>64867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>212909</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>4076</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7431,7 +7434,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>212909</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>115115</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1367119" cy="349776"/>
@@ -7498,13 +7501,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>149751</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>5095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>212909</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>64867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7556,7 +7559,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123262</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>212913</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1367119" cy="349776"/>
@@ -7616,13 +7619,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>134469</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>212913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7674,7 +7677,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>11203</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>212913</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="907679" cy="366703"/>
@@ -7738,13 +7741,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>16808</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>212913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7796,13 +7799,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7852,7 +7855,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>168085</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="907679" cy="349776"/>
@@ -7912,7 +7915,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>207815</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>184389</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1759324" cy="349776"/>
@@ -7971,13 +7974,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8134,13 +8137,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>197301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8189,13 +8192,13 @@
     <xdr:from>
       <xdr:col>65</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>136668</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8211,8 +8214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14772409" y="5593772"/>
-          <a:ext cx="1870364" cy="1903123"/>
+          <a:off x="15212893" y="5956701"/>
+          <a:ext cx="1924577" cy="1957337"/>
           <a:chOff x="5724526" y="2114550"/>
           <a:chExt cx="1104900" cy="1123950"/>
         </a:xfrm>
@@ -8448,6 +8451,125 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>217519</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1759324" cy="607218"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C92F18-4E62-D350-29B9-B76380E8CF77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696489" y="4516193"/>
+          <a:ext cx="1759324" cy="607218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>移動の状況を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>数値で表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42168</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>754</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917053B2-498E-3ED0-4095-A2515BBDEECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1665559" y="4203800"/>
+          <a:ext cx="654325" cy="377235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12389,10 +12511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
-  <dimension ref="A1:CL49"/>
+  <dimension ref="A1:CL50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL49" sqref="AL49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
@@ -12410,6 +12532,33 @@
       </c>
       <c r="B4" s="42" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:90" ht="18" customHeight="1">
+      <c r="J8" s="53">
+        <v>1</v>
+      </c>
+      <c r="K8" s="75">
+        <v>2</v>
+      </c>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="53">
+        <v>3</v>
+      </c>
+      <c r="R8" s="75">
+        <v>4</v>
+      </c>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="53">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -12495,26 +12644,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70">
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56">
         <v>9999</v>
       </c>
-      <c r="P10" s="70"/>
-      <c r="R10" s="69" t="s">
+      <c r="P10" s="56"/>
+      <c r="R10" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="70">
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56">
         <v>9999</v>
       </c>
-      <c r="W10" s="70"/>
+      <c r="W10" s="56"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -12557,22 +12706,22 @@
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="R11" s="69" t="s">
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="R11" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -12669,124 +12818,119 @@
     </row>
     <row r="16" spans="1:90" ht="18" customHeight="1">
       <c r="J16" s="32"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="27"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="6"/>
+      <c r="M16" s="52"/>
       <c r="X16" s="33"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="4"/>
       <c r="AU16" s="5"/>
       <c r="AV16" s="33"/>
       <c r="AX16" s="32"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="7"/>
-      <c r="BO16" s="7"/>
-      <c r="BP16" s="7"/>
-      <c r="BQ16" s="7"/>
-      <c r="BR16" s="7"/>
-      <c r="BS16" s="7"/>
-      <c r="BT16" s="7"/>
-      <c r="BU16" s="7"/>
-      <c r="BV16" s="7"/>
-      <c r="BW16" s="7"/>
-      <c r="BX16" s="8"/>
+      <c r="BL16" s="4"/>
+      <c r="BX16" s="5"/>
       <c r="CL16" s="33"/>
     </row>
     <row r="17" spans="10:90" ht="18" customHeight="1">
       <c r="J17" s="32"/>
-      <c r="K17" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="L17" s="27"/>
       <c r="M17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="27"/>
       <c r="S17" s="60"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="39"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="6"/>
+      <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="4"/>
       <c r="AU17" s="5"/>
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="8"/>
       <c r="CL17" s="33"/>
     </row>
     <row r="18" spans="10:90" ht="18" customHeight="1">
       <c r="J18" s="32"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" s="27"/>
-      <c r="S18" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="1"/>
-      <c r="X18" s="33"/>
+      <c r="N18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="52"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
       <c r="AU18" s="5"/>
       <c r="AV18" s="33"/>
       <c r="AX18" s="32"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="2"/>
-      <c r="BQ18" s="2"/>
-      <c r="BR18" s="2"/>
-      <c r="BS18" s="2"/>
-      <c r="BT18" s="2"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="3"/>
       <c r="CL18" s="33"/>
     </row>
     <row r="19" spans="10:90" ht="18" customHeight="1">
       <c r="J19" s="32"/>
-      <c r="K19" s="27"/>
       <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="M19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="S19" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="4"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="33"/>
       <c r="AX19" s="32"/>
-      <c r="BL19" s="4"/>
-      <c r="BX19" s="5"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="3"/>
       <c r="CL19" s="33"/>
     </row>
     <row r="20" spans="10:90" ht="18" customHeight="1">
       <c r="J20" s="32"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="S20" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="T20" s="64"/>
-      <c r="U20" s="65"/>
+      <c r="M20" s="52"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
       <c r="X20" s="33"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="4"/>
@@ -12798,34 +12942,41 @@
       <c r="CL20" s="33"/>
     </row>
     <row r="21" spans="10:90" ht="18" customHeight="1">
-      <c r="J21" s="34"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="S21" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="T21" s="66"/>
+      <c r="U21" s="67"/>
+      <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
       <c r="BL21" s="4"/>
-      <c r="BQ21" t="s">
-        <v>11</v>
-      </c>
       <c r="BX21" s="5"/>
       <c r="CL21" s="33"/>
     </row>
     <row r="22" spans="10:90" ht="18" customHeight="1">
+      <c r="J22" s="34"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="4"/>
       <c r="AU22" s="5"/>
@@ -12833,158 +12984,151 @@
       <c r="AX22" s="32"/>
       <c r="BL22" s="4"/>
       <c r="BQ22" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="BX22" s="5"/>
       <c r="CL22" s="33"/>
     </row>
     <row r="23" spans="10:90" ht="18" customHeight="1">
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="31"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="4"/>
       <c r="AU23" s="5"/>
       <c r="AV23" s="33"/>
       <c r="AX23" s="32"/>
       <c r="BL23" s="4"/>
+      <c r="BQ23" t="s">
+        <v>157</v>
+      </c>
       <c r="BX23" s="5"/>
       <c r="CL23" s="33"/>
     </row>
     <row r="24" spans="10:90" ht="18" customHeight="1">
-      <c r="J24" s="32"/>
-      <c r="O24" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="68"/>
-      <c r="X24" s="33"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="31"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="4"/>
       <c r="AU24" s="5"/>
       <c r="AV24" s="33"/>
       <c r="AX24" s="32"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7"/>
-      <c r="BO24" s="7"/>
-      <c r="BP24" s="7"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7"/>
-      <c r="BS24" s="7"/>
-      <c r="BT24" s="7"/>
-      <c r="BU24" s="7"/>
-      <c r="BV24" s="7"/>
-      <c r="BW24" s="7"/>
-      <c r="BX24" s="8"/>
+      <c r="BL24" s="4"/>
+      <c r="BX24" s="5"/>
       <c r="CL24" s="33"/>
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
-      <c r="J25" s="34"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
+      <c r="J25" s="32"/>
+      <c r="O25" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="70"/>
+      <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
       <c r="AU25" s="5"/>
       <c r="AV25" s="33"/>
       <c r="AX25" s="32"/>
+      <c r="BL25" s="6"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
+      <c r="BU25" s="7"/>
+      <c r="BV25" s="7"/>
+      <c r="BW25" s="7"/>
+      <c r="BX25" s="8"/>
       <c r="CL25" s="33"/>
     </row>
     <row r="26" spans="10:90" ht="18" customHeight="1">
+      <c r="J26" s="34"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="38"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="4"/>
       <c r="AU26" s="5"/>
       <c r="AV26" s="33"/>
       <c r="AX26" s="32"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="2"/>
-      <c r="BJ26" s="2"/>
-      <c r="BK26" s="3"/>
-      <c r="BY26" s="1"/>
-      <c r="BZ26" s="2"/>
-      <c r="CA26" s="2"/>
-      <c r="CB26" s="2"/>
-      <c r="CC26" s="2"/>
-      <c r="CD26" s="2"/>
-      <c r="CE26" s="2"/>
-      <c r="CF26" s="2"/>
-      <c r="CG26" s="2"/>
-      <c r="CH26" s="2"/>
-      <c r="CI26" s="2"/>
-      <c r="CJ26" s="2"/>
-      <c r="CK26" s="3"/>
       <c r="CL26" s="33"/>
     </row>
     <row r="27" spans="10:90" ht="18" customHeight="1">
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="4"/>
       <c r="AU27" s="5"/>
       <c r="AV27" s="33"/>
       <c r="AX27" s="32"/>
-      <c r="AY27" s="4"/>
-      <c r="BK27" s="5"/>
-      <c r="BY27" s="4"/>
-      <c r="CK27" s="5"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="3"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="2"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="2"/>
+      <c r="CJ27" s="2"/>
+      <c r="CK27" s="3"/>
       <c r="CL27" s="33"/>
     </row>
     <row r="28" spans="10:90" ht="18" customHeight="1">
-      <c r="J28" s="32"/>
-      <c r="K28" t="s">
-        <v>158</v>
-      </c>
-      <c r="T28" t="s">
-        <v>159</v>
-      </c>
-      <c r="X28" s="33"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="31"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="4"/>
       <c r="AU28" s="5"/>
@@ -12998,23 +13142,11 @@
     </row>
     <row r="29" spans="10:90" ht="18" customHeight="1">
       <c r="J29" s="32"/>
-      <c r="K29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="22" t="s">
-        <v>5</v>
+      <c r="K29" t="s">
+        <v>158</v>
+      </c>
+      <c r="T29" t="s">
+        <v>159</v>
       </c>
       <c r="X29" s="33"/>
       <c r="Z29" s="32"/>
@@ -13023,32 +13155,30 @@
       <c r="AV29" s="33"/>
       <c r="AX29" s="32"/>
       <c r="AY29" s="4"/>
-      <c r="BD29" t="s">
-        <v>11</v>
-      </c>
       <c r="BK29" s="5"/>
       <c r="BY29" s="4"/>
-      <c r="CD29" t="s">
-        <v>11</v>
-      </c>
       <c r="CK29" s="5"/>
       <c r="CL29" s="33"/>
     </row>
     <row r="30" spans="10:90" ht="18" customHeight="1">
       <c r="J30" s="32"/>
-      <c r="K30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="28"/>
+      <c r="K30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V30" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V30" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="W30" s="22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X30" s="33"/>
       <c r="Z30" s="32"/>
@@ -13058,35 +13188,31 @@
       <c r="AX30" s="32"/>
       <c r="AY30" s="4"/>
       <c r="BD30" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="BK30" s="5"/>
       <c r="BY30" s="4"/>
       <c r="CD30" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="CK30" s="5"/>
       <c r="CL30" s="33"/>
     </row>
     <row r="31" spans="10:90" ht="18" customHeight="1">
       <c r="J31" s="32"/>
-      <c r="K31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="U31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="V31" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="W31" s="24" t="s">
-        <v>6</v>
+      <c r="K31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="28"/>
+      <c r="M31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="28"/>
+      <c r="W31" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="X31" s="33"/>
       <c r="Z31" s="32"/>
@@ -13095,140 +13221,168 @@
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
       <c r="AY31" s="4"/>
+      <c r="BD31" t="s">
+        <v>160</v>
+      </c>
       <c r="BK31" s="5"/>
       <c r="BY31" s="4"/>
+      <c r="CD31" t="s">
+        <v>161</v>
+      </c>
       <c r="CK31" s="5"/>
       <c r="CL31" s="33"/>
     </row>
     <row r="32" spans="10:90" ht="18" customHeight="1">
       <c r="J32" s="32"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="12"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="10"/>
+      <c r="K32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="X32" s="33"/>
       <c r="Z32" s="32"/>
       <c r="AA32" s="4"/>
       <c r="AU32" s="5"/>
       <c r="AV32" s="33"/>
       <c r="AX32" s="32"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="7"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="7"/>
-      <c r="BI32" s="7"/>
-      <c r="BJ32" s="7"/>
-      <c r="BK32" s="8"/>
-      <c r="BY32" s="6"/>
-      <c r="BZ32" s="7"/>
-      <c r="CA32" s="7"/>
-      <c r="CB32" s="7"/>
-      <c r="CC32" s="7"/>
-      <c r="CD32" s="7"/>
-      <c r="CE32" s="7"/>
-      <c r="CF32" s="7"/>
-      <c r="CG32" s="7"/>
-      <c r="CH32" s="7"/>
-      <c r="CI32" s="7"/>
-      <c r="CJ32" s="7"/>
-      <c r="CK32" s="8"/>
+      <c r="AY32" s="4"/>
+      <c r="BK32" s="5"/>
+      <c r="BY32" s="4"/>
+      <c r="CK32" s="5"/>
       <c r="CL32" s="33"/>
     </row>
     <row r="33" spans="10:90" ht="18" customHeight="1">
       <c r="J33" s="32"/>
-      <c r="K33" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="55">
-        <v>9999</v>
-      </c>
-      <c r="M33" s="55"/>
-      <c r="U33" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="56">
-        <v>9999</v>
-      </c>
-      <c r="W33" s="57"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="12"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="10"/>
       <c r="X33" s="33"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="4"/>
       <c r="AU33" s="5"/>
       <c r="AV33" s="33"/>
       <c r="AX33" s="32"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="7"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7"/>
+      <c r="BI33" s="7"/>
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="8"/>
+      <c r="BY33" s="6"/>
+      <c r="BZ33" s="7"/>
+      <c r="CA33" s="7"/>
+      <c r="CB33" s="7"/>
+      <c r="CC33" s="7"/>
+      <c r="CD33" s="7"/>
+      <c r="CE33" s="7"/>
+      <c r="CF33" s="7"/>
+      <c r="CG33" s="7"/>
+      <c r="CH33" s="7"/>
+      <c r="CI33" s="7"/>
+      <c r="CJ33" s="7"/>
+      <c r="CK33" s="8"/>
       <c r="CL33" s="33"/>
     </row>
     <row r="34" spans="10:90" ht="18" customHeight="1">
       <c r="J34" s="32"/>
-      <c r="K34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="55">
+      <c r="K34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="57">
         <v>9999</v>
       </c>
-      <c r="M34" s="55"/>
-      <c r="U34" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="V34" s="56">
+      <c r="M34" s="57"/>
+      <c r="U34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" s="58">
         <v>9999</v>
       </c>
-      <c r="W34" s="57"/>
+      <c r="W34" s="59"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
       <c r="AU34" s="5"/>
       <c r="AV34" s="33"/>
       <c r="AX34" s="32"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
-      <c r="BQ34" s="2"/>
-      <c r="BR34" s="2"/>
-      <c r="BS34" s="2"/>
-      <c r="BT34" s="2"/>
-      <c r="BU34" s="2"/>
-      <c r="BV34" s="2"/>
-      <c r="BW34" s="2"/>
-      <c r="BX34" s="3"/>
       <c r="CL34" s="33"/>
     </row>
     <row r="35" spans="10:90" ht="18" customHeight="1">
-      <c r="J35" s="34"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="38"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="57">
+        <v>9999</v>
+      </c>
+      <c r="M35" s="57"/>
+      <c r="U35" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="58">
+        <v>9999</v>
+      </c>
+      <c r="W35" s="59"/>
+      <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
       <c r="AU35" s="5"/>
       <c r="AV35" s="33"/>
       <c r="AX35" s="32"/>
-      <c r="BL35" s="4"/>
-      <c r="BX35" s="5"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="3"/>
       <c r="CL35" s="33"/>
     </row>
     <row r="36" spans="10:90" ht="18" customHeight="1">
+      <c r="J36" s="34"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="38"/>
       <c r="Z36" s="32"/>
       <c r="AA36" s="4"/>
       <c r="AU36" s="5"/>
@@ -13245,9 +13399,6 @@
       <c r="AV37" s="33"/>
       <c r="AX37" s="32"/>
       <c r="BL37" s="4"/>
-      <c r="BQ37" t="s">
-        <v>11</v>
-      </c>
       <c r="BX37" s="5"/>
       <c r="CL37" s="33"/>
     </row>
@@ -13259,7 +13410,7 @@
       <c r="AX38" s="32"/>
       <c r="BL38" s="4"/>
       <c r="BQ38" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="BX38" s="5"/>
       <c r="CL38" s="33"/>
@@ -13271,6 +13422,9 @@
       <c r="AV39" s="33"/>
       <c r="AX39" s="32"/>
       <c r="BL39" s="4"/>
+      <c r="BQ39" t="s">
+        <v>162</v>
+      </c>
       <c r="BX39" s="5"/>
       <c r="CL39" s="33"/>
     </row>
@@ -13280,19 +13434,8 @@
       <c r="AU40" s="5"/>
       <c r="AV40" s="33"/>
       <c r="AX40" s="32"/>
-      <c r="BL40" s="6"/>
-      <c r="BM40" s="7"/>
-      <c r="BN40" s="7"/>
-      <c r="BO40" s="7"/>
-      <c r="BP40" s="7"/>
-      <c r="BQ40" s="7"/>
-      <c r="BR40" s="7"/>
-      <c r="BS40" s="7"/>
-      <c r="BT40" s="7"/>
-      <c r="BU40" s="7"/>
-      <c r="BV40" s="7"/>
-      <c r="BW40" s="7"/>
-      <c r="BX40" s="8"/>
+      <c r="BL40" s="4"/>
+      <c r="BX40" s="5"/>
       <c r="CL40" s="33"/>
     </row>
     <row r="41" spans="10:90" ht="18" customHeight="1">
@@ -13301,9 +13444,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
+      <c r="BL41" s="6"/>
+      <c r="BM41" s="7"/>
+      <c r="BN41" s="7"/>
+      <c r="BO41" s="7"/>
+      <c r="BP41" s="7"/>
+      <c r="BQ41" s="7"/>
+      <c r="BR41" s="7"/>
+      <c r="BS41" s="7"/>
+      <c r="BT41" s="7"/>
+      <c r="BU41" s="7"/>
+      <c r="BV41" s="7"/>
+      <c r="BW41" s="7"/>
+      <c r="BX41" s="8"/>
       <c r="CL41" s="33"/>
     </row>
-    <row r="42" spans="10:90" ht="18.75">
+    <row r="42" spans="10:90" ht="18" customHeight="1">
       <c r="Z42" s="32"/>
       <c r="AA42" s="4"/>
       <c r="AU42" s="5"/>
@@ -13311,7 +13467,7 @@
       <c r="AX42" s="32"/>
       <c r="CL42" s="33"/>
     </row>
-    <row r="43" spans="10:90" ht="18" customHeight="1">
+    <row r="43" spans="10:90" ht="18.75">
       <c r="Z43" s="32"/>
       <c r="AA43" s="4"/>
       <c r="AU43" s="5"/>
@@ -13321,120 +13477,130 @@
     </row>
     <row r="44" spans="10:90" ht="18" customHeight="1">
       <c r="Z44" s="32"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="8"/>
+      <c r="AA44" s="4"/>
+      <c r="AU44" s="5"/>
       <c r="AV44" s="33"/>
       <c r="AX44" s="32"/>
       <c r="CL44" s="33"/>
     </row>
     <row r="45" spans="10:90" ht="18" customHeight="1">
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
-      <c r="AM45" s="37"/>
-      <c r="AN45" s="37"/>
-      <c r="AO45" s="37"/>
-      <c r="AP45" s="37"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="37"/>
-      <c r="AS45" s="37"/>
-      <c r="AT45" s="37"/>
-      <c r="AU45" s="37"/>
-      <c r="AV45" s="38"/>
-      <c r="AX45" s="34"/>
-      <c r="AY45" s="37"/>
-      <c r="AZ45" s="37"/>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="37"/>
-      <c r="BC45" s="37"/>
-      <c r="BD45" s="37"/>
-      <c r="BE45" s="37"/>
-      <c r="BF45" s="37"/>
-      <c r="BG45" s="37"/>
-      <c r="BH45" s="37"/>
-      <c r="BI45" s="37"/>
-      <c r="BJ45" s="37"/>
-      <c r="BK45" s="37"/>
-      <c r="BL45" s="37"/>
-      <c r="BM45" s="37"/>
-      <c r="BN45" s="37"/>
-      <c r="BO45" s="37"/>
-      <c r="BP45" s="37"/>
-      <c r="BQ45" s="37"/>
-      <c r="BR45" s="37"/>
-      <c r="BS45" s="37"/>
-      <c r="BT45" s="37"/>
-      <c r="BU45" s="37"/>
-      <c r="BV45" s="37"/>
-      <c r="BW45" s="37"/>
-      <c r="BX45" s="37"/>
-      <c r="BY45" s="37"/>
-      <c r="BZ45" s="37"/>
-      <c r="CA45" s="37"/>
-      <c r="CB45" s="37"/>
-      <c r="CC45" s="37"/>
-      <c r="CD45" s="37"/>
-      <c r="CE45" s="37"/>
-      <c r="CF45" s="37"/>
-      <c r="CG45" s="37"/>
-      <c r="CH45" s="37"/>
-      <c r="CI45" s="37"/>
-      <c r="CJ45" s="37"/>
-      <c r="CK45" s="37"/>
-      <c r="CL45" s="38"/>
-    </row>
-    <row r="49" spans="2:2" ht="24">
-      <c r="B49" s="54" t="s">
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="33"/>
+      <c r="AX45" s="32"/>
+      <c r="CL45" s="33"/>
+    </row>
+    <row r="46" spans="10:90" ht="18" customHeight="1">
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+      <c r="AO46" s="37"/>
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="38"/>
+      <c r="AX46" s="34"/>
+      <c r="AY46" s="37"/>
+      <c r="AZ46" s="37"/>
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="37"/>
+      <c r="BD46" s="37"/>
+      <c r="BE46" s="37"/>
+      <c r="BF46" s="37"/>
+      <c r="BG46" s="37"/>
+      <c r="BH46" s="37"/>
+      <c r="BI46" s="37"/>
+      <c r="BJ46" s="37"/>
+      <c r="BK46" s="37"/>
+      <c r="BL46" s="37"/>
+      <c r="BM46" s="37"/>
+      <c r="BN46" s="37"/>
+      <c r="BO46" s="37"/>
+      <c r="BP46" s="37"/>
+      <c r="BQ46" s="37"/>
+      <c r="BR46" s="37"/>
+      <c r="BS46" s="37"/>
+      <c r="BT46" s="37"/>
+      <c r="BU46" s="37"/>
+      <c r="BV46" s="37"/>
+      <c r="BW46" s="37"/>
+      <c r="BX46" s="37"/>
+      <c r="BY46" s="37"/>
+      <c r="BZ46" s="37"/>
+      <c r="CA46" s="37"/>
+      <c r="CB46" s="37"/>
+      <c r="CC46" s="37"/>
+      <c r="CD46" s="37"/>
+      <c r="CE46" s="37"/>
+      <c r="CF46" s="37"/>
+      <c r="CG46" s="37"/>
+      <c r="CH46" s="37"/>
+      <c r="CI46" s="37"/>
+      <c r="CJ46" s="37"/>
+      <c r="CK46" s="37"/>
+      <c r="CL46" s="38"/>
+    </row>
+    <row r="50" spans="2:2" ht="24">
+      <c r="B50" s="54" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="O25:R25"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:P11"/>
     <mergeCell ref="R10:U10"/>
     <mergeCell ref="V10:W11"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="R11:U11"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="O24:R24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13446,7 +13612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D4A41-55D3-406A-BC39-7C7515A5F04A}">
   <dimension ref="A2:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <cols>
@@ -14556,35 +14724,35 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:29">
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74" t="s">
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74" t="s">
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74" t="s">
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Y31" s="74"/>
+      <c r="Y31" s="72"/>
     </row>
     <row r="32" spans="4:29">
       <c r="E32" s="73" t="s">
@@ -14608,16 +14776,16 @@
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="55" t="s">
+      <c r="T32" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55">
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57">
         <v>1</v>
       </c>
-      <c r="Y32" s="55"/>
+      <c r="Y32" s="57"/>
     </row>
     <row r="33" spans="5:25">
       <c r="E33" s="73"/>
@@ -14637,16 +14805,16 @@
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="55" t="s">
+      <c r="T33" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55">
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57">
         <v>1</v>
       </c>
-      <c r="Y33" s="55"/>
+      <c r="Y33" s="57"/>
     </row>
     <row r="34" spans="5:25">
       <c r="E34" s="71" t="s">
@@ -14670,14 +14838,14 @@
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55">
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57">
         <v>1</v>
       </c>
-      <c r="Y34" s="55"/>
+      <c r="Y34" s="57"/>
     </row>
     <row r="35" spans="5:25">
       <c r="E35" s="71" t="s">
@@ -14701,14 +14869,14 @@
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55">
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57">
         <v>1</v>
       </c>
-      <c r="Y35" s="55"/>
+      <c r="Y35" s="57"/>
     </row>
     <row r="36" spans="5:25">
       <c r="E36" s="71" t="s">
@@ -14732,14 +14900,14 @@
       <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55">
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57">
         <v>1</v>
       </c>
-      <c r="Y36" s="55"/>
+      <c r="Y36" s="57"/>
     </row>
     <row r="37" spans="5:25">
       <c r="E37" s="71" t="s">
@@ -14763,14 +14931,14 @@
       <c r="S37" s="52">
         <v>1</v>
       </c>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55">
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <v>1</v>
       </c>
-      <c r="Y37" s="55"/>
+      <c r="Y37" s="57"/>
     </row>
     <row r="38" spans="5:25">
       <c r="E38" s="71" t="s">
@@ -14794,14 +14962,14 @@
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55">
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57">
         <v>1</v>
       </c>
-      <c r="Y38" s="55"/>
+      <c r="Y38" s="57"/>
     </row>
     <row r="39" spans="5:25">
       <c r="E39" s="71" t="s">
@@ -14825,14 +14993,14 @@
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55">
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57">
         <v>1</v>
       </c>
-      <c r="Y39" s="55"/>
+      <c r="Y39" s="57"/>
     </row>
     <row r="40" spans="5:25">
       <c r="E40" s="71" t="s">
@@ -14856,14 +15024,14 @@
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55">
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57">
         <v>1</v>
       </c>
-      <c r="Y40" s="55"/>
+      <c r="Y40" s="57"/>
     </row>
     <row r="41" spans="5:25">
       <c r="E41" s="71" t="s">
@@ -14887,14 +15055,14 @@
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55">
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57">
         <v>1</v>
       </c>
-      <c r="Y41" s="55"/>
+      <c r="Y41" s="57"/>
     </row>
     <row r="42" spans="5:25">
       <c r="E42" s="71" t="s">
@@ -14918,14 +15086,14 @@
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55">
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57">
         <v>1</v>
       </c>
-      <c r="Y42" s="55"/>
+      <c r="Y42" s="57"/>
     </row>
     <row r="43" spans="5:25">
       <c r="E43" s="71" t="s">
@@ -14949,14 +15117,14 @@
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55">
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57">
         <v>1</v>
       </c>
-      <c r="Y43" s="55"/>
+      <c r="Y43" s="57"/>
     </row>
     <row r="44" spans="5:25">
       <c r="E44" s="71" t="s">
@@ -14980,14 +15148,14 @@
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55">
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57">
         <v>1</v>
       </c>
-      <c r="Y44" s="55"/>
+      <c r="Y44" s="57"/>
     </row>
     <row r="45" spans="5:25">
       <c r="E45" s="71" t="s">
@@ -15011,14 +15179,14 @@
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55">
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57">
         <v>1</v>
       </c>
-      <c r="Y45" s="55"/>
+      <c r="Y45" s="57"/>
     </row>
     <row r="46" spans="5:25">
       <c r="E46" s="71" t="s">
@@ -15042,14 +15210,14 @@
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55">
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57">
         <v>1</v>
       </c>
-      <c r="Y46" s="55"/>
+      <c r="Y46" s="57"/>
     </row>
     <row r="47" spans="5:25">
       <c r="E47" s="71" t="s">
@@ -15073,14 +15241,14 @@
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55">
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57">
         <v>1</v>
       </c>
-      <c r="Y47" s="55"/>
+      <c r="Y47" s="57"/>
     </row>
     <row r="48" spans="5:25">
       <c r="E48" s="71" t="s">
@@ -15104,14 +15272,14 @@
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55">
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="57">
         <v>1</v>
       </c>
-      <c r="Y48" s="55"/>
+      <c r="Y48" s="57"/>
     </row>
     <row r="49" spans="3:25">
       <c r="E49" s="71"/>
@@ -15129,12 +15297,12 @@
       <c r="Q49" s="71"/>
       <c r="R49" s="71"/>
       <c r="S49" s="52"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
     </row>
     <row r="51" spans="3:25">
       <c r="C51" s="45" t="s">
@@ -15289,53 +15457,53 @@
       </c>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74" t="s">
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74" t="s">
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="74"/>
-      <c r="W79" s="74"/>
-      <c r="X79" s="74" t="s">
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
+      <c r="V79" s="72"/>
+      <c r="W79" s="72"/>
+      <c r="X79" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Y79" s="74"/>
-      <c r="Z79" s="74" t="s">
+      <c r="Y79" s="72"/>
+      <c r="Z79" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="AA79" s="74"/>
-      <c r="AB79" s="74"/>
-      <c r="AC79" s="74"/>
-      <c r="AD79" s="74"/>
-      <c r="AE79" s="74"/>
-      <c r="AF79" s="74"/>
-      <c r="AG79" s="74" t="s">
+      <c r="AA79" s="72"/>
+      <c r="AB79" s="72"/>
+      <c r="AC79" s="72"/>
+      <c r="AD79" s="72"/>
+      <c r="AE79" s="72"/>
+      <c r="AF79" s="72"/>
+      <c r="AG79" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="AH79" s="74"/>
-      <c r="AI79" s="74"/>
-      <c r="AJ79" s="74"/>
-      <c r="AK79" s="74"/>
-      <c r="AL79" s="74"/>
-      <c r="AM79" s="74"/>
+      <c r="AH79" s="72"/>
+      <c r="AI79" s="72"/>
+      <c r="AJ79" s="72"/>
+      <c r="AK79" s="72"/>
+      <c r="AL79" s="72"/>
+      <c r="AM79" s="72"/>
     </row>
     <row r="80" spans="4:39">
       <c r="E80" s="73" t="s">
@@ -15359,27 +15527,27 @@
       <c r="S80" s="52">
         <v>1</v>
       </c>
-      <c r="T80" s="55" t="s">
+      <c r="T80" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55">
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57">
         <v>1</v>
       </c>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="72" t="s">
+      <c r="Y80" s="57"/>
+      <c r="Z80" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="AA80" s="72"/>
-      <c r="AB80" s="72"/>
-      <c r="AC80" s="55" t="s">
+      <c r="AA80" s="74"/>
+      <c r="AB80" s="74"/>
+      <c r="AC80" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
+      <c r="AD80" s="57"/>
+      <c r="AE80" s="57"/>
+      <c r="AF80" s="57"/>
       <c r="AG80" s="71" t="s">
         <v>139</v>
       </c>
@@ -15408,23 +15576,23 @@
       <c r="S81" s="52">
         <v>0</v>
       </c>
-      <c r="T81" s="55" t="s">
+      <c r="T81" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-      <c r="W81" s="55"/>
-      <c r="X81" s="55">
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="57">
         <v>1</v>
       </c>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="72"/>
-      <c r="AA81" s="72"/>
-      <c r="AB81" s="72"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="74"/>
+      <c r="AA81" s="74"/>
+      <c r="AB81" s="74"/>
+      <c r="AC81" s="57"/>
+      <c r="AD81" s="57"/>
+      <c r="AE81" s="57"/>
+      <c r="AF81" s="57"/>
       <c r="AG81" s="71"/>
       <c r="AH81" s="71"/>
       <c r="AI81" s="71"/>
@@ -15455,27 +15623,27 @@
       <c r="S82" s="52">
         <v>1</v>
       </c>
-      <c r="T82" s="55" t="s">
+      <c r="T82" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
-      <c r="X82" s="55">
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
+      <c r="W82" s="57"/>
+      <c r="X82" s="57">
         <v>1</v>
       </c>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="72" t="s">
+      <c r="Y82" s="57"/>
+      <c r="Z82" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="AA82" s="72"/>
-      <c r="AB82" s="72"/>
-      <c r="AC82" s="55" t="s">
+      <c r="AA82" s="74"/>
+      <c r="AB82" s="74"/>
+      <c r="AC82" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
+      <c r="AD82" s="57"/>
+      <c r="AE82" s="57"/>
+      <c r="AF82" s="57"/>
       <c r="AG82" s="71" t="s">
         <v>139</v>
       </c>
@@ -15504,23 +15672,23 @@
       <c r="S83" s="52">
         <v>0</v>
       </c>
-      <c r="T83" s="55" t="s">
+      <c r="T83" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="55"/>
-      <c r="X83" s="55">
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="57">
         <v>1</v>
       </c>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="72"/>
-      <c r="AA83" s="72"/>
-      <c r="AB83" s="72"/>
-      <c r="AC83" s="55"/>
-      <c r="AD83" s="55"/>
-      <c r="AE83" s="55"/>
-      <c r="AF83" s="55"/>
+      <c r="Y83" s="57"/>
+      <c r="Z83" s="74"/>
+      <c r="AA83" s="74"/>
+      <c r="AB83" s="74"/>
+      <c r="AC83" s="57"/>
+      <c r="AD83" s="57"/>
+      <c r="AE83" s="57"/>
+      <c r="AF83" s="57"/>
       <c r="AG83" s="71"/>
       <c r="AH83" s="71"/>
       <c r="AI83" s="71"/>
@@ -15551,27 +15719,27 @@
       <c r="S84" s="52">
         <v>1</v>
       </c>
-      <c r="T84" s="55" t="s">
+      <c r="T84" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
-      <c r="W84" s="55"/>
-      <c r="X84" s="55">
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
+      <c r="W84" s="57"/>
+      <c r="X84" s="57">
         <v>1</v>
       </c>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="72" t="s">
+      <c r="Y84" s="57"/>
+      <c r="Z84" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="AA84" s="72"/>
-      <c r="AB84" s="72"/>
-      <c r="AC84" s="55" t="s">
+      <c r="AA84" s="74"/>
+      <c r="AB84" s="74"/>
+      <c r="AC84" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AD84" s="55"/>
-      <c r="AE84" s="55"/>
-      <c r="AF84" s="55"/>
+      <c r="AD84" s="57"/>
+      <c r="AE84" s="57"/>
+      <c r="AF84" s="57"/>
       <c r="AG84" s="71" t="s">
         <v>139</v>
       </c>
@@ -15600,23 +15768,23 @@
       <c r="S85" s="52">
         <v>0</v>
       </c>
-      <c r="T85" s="55" t="s">
+      <c r="T85" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="U85" s="55"/>
-      <c r="V85" s="55"/>
-      <c r="W85" s="55"/>
-      <c r="X85" s="55">
+      <c r="U85" s="57"/>
+      <c r="V85" s="57"/>
+      <c r="W85" s="57"/>
+      <c r="X85" s="57">
         <v>1</v>
       </c>
-      <c r="Y85" s="55"/>
-      <c r="Z85" s="72"/>
-      <c r="AA85" s="72"/>
-      <c r="AB85" s="72"/>
-      <c r="AC85" s="55"/>
-      <c r="AD85" s="55"/>
-      <c r="AE85" s="55"/>
-      <c r="AF85" s="55"/>
+      <c r="Y85" s="57"/>
+      <c r="Z85" s="74"/>
+      <c r="AA85" s="74"/>
+      <c r="AB85" s="74"/>
+      <c r="AC85" s="57"/>
+      <c r="AD85" s="57"/>
+      <c r="AE85" s="57"/>
+      <c r="AF85" s="57"/>
       <c r="AG85" s="71"/>
       <c r="AH85" s="71"/>
       <c r="AI85" s="71"/>
@@ -15647,27 +15815,27 @@
       <c r="S86" s="52">
         <v>1</v>
       </c>
-      <c r="T86" s="55" t="s">
+      <c r="T86" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="U86" s="55"/>
-      <c r="V86" s="55"/>
-      <c r="W86" s="55"/>
-      <c r="X86" s="55">
+      <c r="U86" s="57"/>
+      <c r="V86" s="57"/>
+      <c r="W86" s="57"/>
+      <c r="X86" s="57">
         <v>1</v>
       </c>
-      <c r="Y86" s="55"/>
-      <c r="Z86" s="72" t="s">
+      <c r="Y86" s="57"/>
+      <c r="Z86" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="AA86" s="72"/>
-      <c r="AB86" s="72"/>
-      <c r="AC86" s="55" t="s">
+      <c r="AA86" s="74"/>
+      <c r="AB86" s="74"/>
+      <c r="AC86" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AD86" s="55"/>
-      <c r="AE86" s="55"/>
-      <c r="AF86" s="55"/>
+      <c r="AD86" s="57"/>
+      <c r="AE86" s="57"/>
+      <c r="AF86" s="57"/>
       <c r="AG86" s="71" t="s">
         <v>139</v>
       </c>
@@ -15696,23 +15864,23 @@
       <c r="S87" s="52">
         <v>0</v>
       </c>
-      <c r="T87" s="55" t="s">
+      <c r="T87" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="U87" s="55"/>
-      <c r="V87" s="55"/>
-      <c r="W87" s="55"/>
-      <c r="X87" s="55">
+      <c r="U87" s="57"/>
+      <c r="V87" s="57"/>
+      <c r="W87" s="57"/>
+      <c r="X87" s="57">
         <v>1</v>
       </c>
-      <c r="Y87" s="55"/>
-      <c r="Z87" s="72"/>
-      <c r="AA87" s="72"/>
-      <c r="AB87" s="72"/>
-      <c r="AC87" s="55"/>
-      <c r="AD87" s="55"/>
-      <c r="AE87" s="55"/>
-      <c r="AF87" s="55"/>
+      <c r="Y87" s="57"/>
+      <c r="Z87" s="74"/>
+      <c r="AA87" s="74"/>
+      <c r="AB87" s="74"/>
+      <c r="AC87" s="57"/>
+      <c r="AD87" s="57"/>
+      <c r="AE87" s="57"/>
+      <c r="AF87" s="57"/>
       <c r="AG87" s="71"/>
       <c r="AH87" s="71"/>
       <c r="AI87" s="71"/>
@@ -15723,6 +15891,116 @@
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="Z87:AB87"/>
+    <mergeCell ref="AC87:AF87"/>
+    <mergeCell ref="AG87:AM87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="J86:R87"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="E84:I85"/>
+    <mergeCell ref="J84:R85"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="E82:I83"/>
+    <mergeCell ref="J82:R83"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="E80:I81"/>
+    <mergeCell ref="J80:R81"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="J79:R79"/>
+    <mergeCell ref="S79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AF79"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -15741,116 +16019,6 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="J79:R79"/>
-    <mergeCell ref="S79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AF79"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="E80:I81"/>
-    <mergeCell ref="J80:R81"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="E82:I83"/>
-    <mergeCell ref="J82:R83"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="E84:I85"/>
-    <mergeCell ref="J84:R85"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="Z87:AB87"/>
-    <mergeCell ref="AC87:AF87"/>
-    <mergeCell ref="AG87:AM87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="J86:R87"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A5E04-26B1-4D92-BB4D-2E21BD0F71B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D79DF5E-A6B4-44A2-A235-DE745D94FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17310" yWindow="0" windowWidth="11595" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17670" yWindow="270" windowWidth="11235" windowHeight="15780" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="サーバ関連" sheetId="5" r:id="rId3"/>
     <sheet name="送受信Json" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -724,16 +724,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブラウザ側から送られてくるJson</t>
-    <rPh sb="4" eb="5">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>操作に関係する値群</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -1080,31 +1070,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※受信側と同じ内容に加えて、以下の値を返す</t>
-    <rPh sb="1" eb="4">
-      <t>ジュシンガワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※送信側と同じnameのvalueについては、装置の現在の数値が設定される。</t>
     <rPh sb="1" eb="4">
       <t>ソウシンガワ</t>
@@ -1555,6 +1520,49 @@
     <rPh sb="18" eb="20">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※送信側と同じ内容に加えて以下を返す</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ側から送信するJson</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum Button Type{</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2025,11 +2033,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2073,19 +2078,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12498,7 +12506,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -12513,8 +12521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
   <dimension ref="A1:CL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
@@ -12522,7 +12530,7 @@
     <row r="1" spans="1:90" ht="18.75"/>
     <row r="2" spans="1:90" ht="25.5">
       <c r="A2" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:90" ht="18.75"/>
@@ -12531,32 +12539,32 @@
         <v>13</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:90" ht="18" customHeight="1">
       <c r="J8" s="53">
         <v>1</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="55">
         <v>2</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="53">
         <v>3</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="55">
         <v>4</v>
       </c>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
       <c r="X8" s="53">
         <v>5</v>
       </c>
@@ -12644,26 +12652,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56">
+      <c r="K10" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="71">
         <v>9999</v>
       </c>
-      <c r="P10" s="56"/>
-      <c r="R10" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="56">
+      <c r="P10" s="71"/>
+      <c r="R10" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="71">
         <v>9999</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="71"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -12706,22 +12714,22 @@
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="R11" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
+      <c r="K11" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="R11" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -12793,7 +12801,7 @@
       <c r="AX14" s="32"/>
       <c r="BL14" s="4"/>
       <c r="BQ14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BX14" s="5"/>
       <c r="CL14" s="33"/>
@@ -12801,10 +12809,10 @@
     <row r="15" spans="1:90" ht="18" customHeight="1">
       <c r="J15" s="32"/>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X15" s="33"/>
       <c r="Z15" s="32"/>
@@ -12836,9 +12844,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -12872,15 +12880,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="62"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="61"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
+      <c r="U18" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -12896,11 +12904,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
+      <c r="S19" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -12946,11 +12954,11 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="T21" s="66"/>
-      <c r="U21" s="67"/>
+      <c r="S21" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="T21" s="65"/>
+      <c r="U21" s="66"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
@@ -12997,7 +13005,7 @@
       <c r="AX23" s="32"/>
       <c r="BL23" s="4"/>
       <c r="BQ23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BX23" s="5"/>
       <c r="CL23" s="33"/>
@@ -13029,12 +13037,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="70"/>
+      <c r="O25" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -13143,10 +13151,10 @@
     <row r="29" spans="10:90" ht="18" customHeight="1">
       <c r="J29" s="32"/>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X29" s="33"/>
       <c r="Z29" s="32"/>
@@ -13222,12 +13230,12 @@
       <c r="AX31" s="32"/>
       <c r="AY31" s="4"/>
       <c r="BD31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BK31" s="5"/>
       <c r="BY31" s="4"/>
       <c r="CD31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CK31" s="5"/>
       <c r="CL31" s="33"/>
@@ -13311,17 +13319,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="57">
+      <c r="L34" s="56">
         <v>9999</v>
       </c>
-      <c r="M34" s="57"/>
+      <c r="M34" s="56"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="58">
+      <c r="V34" s="57">
         <v>9999</v>
       </c>
-      <c r="W34" s="59"/>
+      <c r="W34" s="58"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -13335,17 +13343,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="57">
+      <c r="L35" s="56">
         <v>9999</v>
       </c>
-      <c r="M35" s="57"/>
+      <c r="M35" s="56"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="58">
+      <c r="V35" s="57">
         <v>9999</v>
       </c>
-      <c r="W35" s="59"/>
+      <c r="W35" s="58"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -13423,7 +13431,7 @@
       <c r="AX39" s="32"/>
       <c r="BL39" s="4"/>
       <c r="BQ39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BX39" s="5"/>
       <c r="CL39" s="33"/>
@@ -13578,11 +13586,13 @@
     </row>
     <row r="50" spans="2:2" ht="24">
       <c r="B50" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
     <mergeCell ref="K8:P8"/>
     <mergeCell ref="R8:W8"/>
     <mergeCell ref="L34:M34"/>
@@ -13599,8 +13609,6 @@
     <mergeCell ref="O10:P11"/>
     <mergeCell ref="R10:U10"/>
     <mergeCell ref="V10:W11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13744,7 +13752,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="B44" s="45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -13888,7 +13896,7 @@
     </row>
     <row r="65" spans="2:29">
       <c r="B65" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -14170,7 +14178,7 @@
     </row>
     <row r="101" spans="2:30">
       <c r="B101" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="2:30">
@@ -14462,12 +14470,12 @@
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -14479,17 +14487,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB40B8-5003-4279-AB08-F68CE513E0DB}">
-  <dimension ref="A2:AM87"/>
+  <dimension ref="A2:AM86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="K25" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31:AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="1:25" ht="25.5">
       <c r="A2" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="43" customFormat="1" ht="19.5">
@@ -14497,47 +14505,47 @@
         <v>13</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="19.5">
       <c r="B8" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="C10" s="45" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="D12" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="D15" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="4"/>
       <c r="P15" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -14549,83 +14557,83 @@
     </row>
     <row r="17" spans="4:29">
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="4"/>
       <c r="Z17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="4:29">
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="4"/>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="4"/>
       <c r="AA18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="4:29">
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="4"/>
       <c r="R19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="4"/>
       <c r="AA19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="4:29">
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="4"/>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="4"/>
       <c r="AB20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="4:29">
       <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" t="s">
         <v>83</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>84</v>
-      </c>
-      <c r="M21" t="s">
-        <v>85</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4"/>
       <c r="T21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="4"/>
       <c r="AC21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="4:29">
@@ -14643,27 +14651,27 @@
         <v>55</v>
       </c>
       <c r="AC22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="4:29">
       <c r="G23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
       <c r="R23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W23" s="5"/>
       <c r="X23" s="4"/>
       <c r="AB23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="4:29">
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="4"/>
@@ -14673,12 +14681,12 @@
       <c r="W24" s="5"/>
       <c r="X24" s="4"/>
       <c r="AC24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="4:29">
       <c r="F25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="4"/>
@@ -14697,7 +14705,7 @@
       <c r="W26" s="5"/>
       <c r="X26" s="4"/>
       <c r="AA26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="4:29">
@@ -14717,786 +14725,888 @@
     </row>
     <row r="29" spans="4:29">
       <c r="D29" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="4:29">
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:29">
-      <c r="E31" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72" t="s">
+      <c r="E31" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72" t="s">
+      <c r="Y31" s="75"/>
+      <c r="AA31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29">
+      <c r="E32" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="Y31" s="72"/>
-    </row>
-    <row r="32" spans="4:29">
-      <c r="E32" s="73" t="s">
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57">
+      <c r="T32" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56">
         <v>1</v>
       </c>
-      <c r="Y32" s="57"/>
-    </row>
-    <row r="33" spans="5:25">
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
+      <c r="Y32" s="56"/>
+      <c r="AA32" t="str">
+        <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
+        <v>conn = 'conn',    //接続/接続解除</v>
+      </c>
+    </row>
+    <row r="33" spans="5:27">
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="57" t="s">
+      <c r="T33" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="56"/>
+    </row>
+    <row r="34" spans="5:27">
+      <c r="E34" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="57"/>
-    </row>
-    <row r="34" spans="5:25">
-      <c r="E34" s="71" t="s">
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57">
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56">
         <v>1</v>
       </c>
-      <c r="Y34" s="57"/>
-    </row>
-    <row r="35" spans="5:25">
-      <c r="E35" s="71" t="s">
+      <c r="Y34" s="56"/>
+      <c r="AA34" t="str">
+        <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
+        <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
+      </c>
+    </row>
+    <row r="35" spans="5:27">
+      <c r="E35" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57">
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56">
         <v>1</v>
       </c>
-      <c r="Y35" s="57"/>
-    </row>
-    <row r="36" spans="5:25">
-      <c r="E36" s="71" t="s">
+      <c r="Y35" s="56"/>
+      <c r="AA35" t="str">
+        <f t="shared" si="0"/>
+        <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
+      </c>
+    </row>
+    <row r="36" spans="5:27">
+      <c r="E36" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
       <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57">
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56">
         <v>1</v>
       </c>
-      <c r="Y36" s="57"/>
-    </row>
-    <row r="37" spans="5:25">
-      <c r="E37" s="71" t="s">
+      <c r="Y36" s="56"/>
+      <c r="AA36" t="str">
+        <f t="shared" si="0"/>
+        <v>accel_up = 'accel_up',    //アクセル アップ</v>
+      </c>
+    </row>
+    <row r="37" spans="5:27">
+      <c r="E37" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
       <c r="S37" s="52">
         <v>1</v>
       </c>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56">
         <v>1</v>
       </c>
-      <c r="Y37" s="57"/>
-    </row>
-    <row r="38" spans="5:25">
-      <c r="E38" s="71" t="s">
+      <c r="Y37" s="56"/>
+      <c r="AA37" t="str">
+        <f t="shared" si="0"/>
+        <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
+      </c>
+    </row>
+    <row r="38" spans="5:27">
+      <c r="E38" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57">
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56">
         <v>1</v>
       </c>
-      <c r="Y38" s="57"/>
-    </row>
-    <row r="39" spans="5:25">
-      <c r="E39" s="71" t="s">
+      <c r="Y38" s="56"/>
+      <c r="AA38" t="str">
+        <f t="shared" si="0"/>
+        <v>move_up = 'move_up',    //移動 前進</v>
+      </c>
+    </row>
+    <row r="39" spans="5:27">
+      <c r="E39" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57">
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56">
         <v>1</v>
       </c>
-      <c r="Y39" s="57"/>
-    </row>
-    <row r="40" spans="5:25">
-      <c r="E40" s="71" t="s">
+      <c r="Y39" s="56"/>
+      <c r="AA39" t="str">
+        <f t="shared" si="0"/>
+        <v>move_dw = 'move_dw',    //移動 後進</v>
+      </c>
+    </row>
+    <row r="40" spans="5:27">
+      <c r="E40" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57">
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56">
         <v>1</v>
       </c>
-      <c r="Y40" s="57"/>
-    </row>
-    <row r="41" spans="5:25">
-      <c r="E41" s="71" t="s">
+      <c r="Y40" s="56"/>
+      <c r="AA40" t="str">
+        <f t="shared" si="0"/>
+        <v>move_right = 'move_right',    //移動 右</v>
+      </c>
+    </row>
+    <row r="41" spans="5:27">
+      <c r="E41" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57">
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56">
         <v>1</v>
       </c>
-      <c r="Y41" s="57"/>
-    </row>
-    <row r="42" spans="5:25">
-      <c r="E42" s="71" t="s">
+      <c r="Y41" s="56"/>
+      <c r="AA41" t="str">
+        <f t="shared" si="0"/>
+        <v>move_left = 'move_left',    //移動 左</v>
+      </c>
+    </row>
+    <row r="42" spans="5:27">
+      <c r="E42" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57">
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56">
         <v>1</v>
       </c>
-      <c r="Y42" s="57"/>
-    </row>
-    <row r="43" spans="5:25">
-      <c r="E43" s="71" t="s">
+      <c r="Y42" s="56"/>
+      <c r="AA42" t="str">
+        <f t="shared" si="0"/>
+        <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
+      </c>
+    </row>
+    <row r="43" spans="5:27">
+      <c r="E43" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57">
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56">
         <v>1</v>
       </c>
-      <c r="Y43" s="57"/>
-    </row>
-    <row r="44" spans="5:25">
-      <c r="E44" s="71" t="s">
+      <c r="Y43" s="56"/>
+      <c r="AA43" t="str">
+        <f t="shared" si="0"/>
+        <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
+      </c>
+    </row>
+    <row r="44" spans="5:27">
+      <c r="E44" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57">
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56">
         <v>1</v>
       </c>
-      <c r="Y44" s="57"/>
-    </row>
-    <row r="45" spans="5:25">
-      <c r="E45" s="71" t="s">
+      <c r="Y44" s="56"/>
+      <c r="AA44" t="str">
+        <f t="shared" si="0"/>
+        <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
+      </c>
+    </row>
+    <row r="45" spans="5:27">
+      <c r="E45" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57">
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56">
         <v>1</v>
       </c>
-      <c r="Y45" s="57"/>
-    </row>
-    <row r="46" spans="5:25">
-      <c r="E46" s="71" t="s">
+      <c r="Y45" s="56"/>
+      <c r="AA45" t="str">
+        <f t="shared" si="0"/>
+        <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
+      </c>
+    </row>
+    <row r="46" spans="5:27">
+      <c r="E46" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57">
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56">
         <v>1</v>
       </c>
-      <c r="Y46" s="57"/>
-    </row>
-    <row r="47" spans="5:25">
-      <c r="E47" s="71" t="s">
+      <c r="Y46" s="56"/>
+      <c r="AA46" t="str">
+        <f t="shared" si="0"/>
+        <v>btn_on = 'btn_on',    //歯の回転のON</v>
+      </c>
+    </row>
+    <row r="47" spans="5:27">
+      <c r="E47" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57">
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56">
         <v>1</v>
       </c>
-      <c r="Y47" s="57"/>
-    </row>
-    <row r="48" spans="5:25">
-      <c r="E48" s="71" t="s">
+      <c r="Y47" s="56"/>
+      <c r="AA47" t="str">
+        <f t="shared" si="0"/>
+        <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
+      </c>
+    </row>
+    <row r="48" spans="5:27">
+      <c r="E48" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57">
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56">
         <v>1</v>
       </c>
-      <c r="Y48" s="57"/>
-    </row>
-    <row r="49" spans="3:25">
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-    </row>
-    <row r="51" spans="3:25">
-      <c r="C51" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25">
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25">
-      <c r="D55" s="45" t="s">
+      <c r="Y48" s="56"/>
+      <c r="AA48" t="str">
+        <f t="shared" si="0"/>
+        <v>btn_em = 'btn_em',    //緊急停止</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27">
+      <c r="AA49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27">
+      <c r="C50" s="45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27">
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27">
+      <c r="D54" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27">
+      <c r="D55" s="45"/>
+    </row>
+    <row r="56" spans="3:27">
+      <c r="E56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="3:25">
-      <c r="D56" s="45"/>
-    </row>
-    <row r="57" spans="3:25">
-      <c r="E57" t="s">
+    <row r="57" spans="3:27">
+      <c r="F57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="3:25">
+    <row r="58" spans="3:27">
       <c r="F58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="3:25">
-      <c r="F59" t="s">
+    <row r="59" spans="3:27">
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27">
+      <c r="H60" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="3:25">
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25">
-      <c r="H61" t="s">
+      <c r="L60" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="L61" s="53" t="s">
+      <c r="M60" t="s">
         <v>84</v>
       </c>
-      <c r="M61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25">
+    </row>
+    <row r="61" spans="3:27">
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27">
       <c r="G62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27">
+      <c r="F63" s="46" t="s">
+        <v>126</v>
+      </c>
       <c r="G63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27">
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="M64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="4:39">
+      <c r="G65" s="49"/>
+      <c r="J65" s="53"/>
+      <c r="N65" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="4:39">
+      <c r="J66" s="53"/>
+      <c r="M66" s="49" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="3:25">
-      <c r="F64" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="4:39">
-      <c r="H65" t="s">
-        <v>128</v>
-      </c>
-      <c r="L65" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="M65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="4:39">
-      <c r="G66" s="49"/>
-      <c r="J66" s="53"/>
       <c r="N66" t="s">
         <v>129</v>
       </c>
       <c r="P66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q66" t="s">
         <v>84</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="67" spans="4:39">
       <c r="J67" s="53"/>
-      <c r="M67" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="N67" t="s">
-        <v>130</v>
-      </c>
-      <c r="P67" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>85</v>
+      <c r="M67" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="4:39">
-      <c r="J68" s="53"/>
-      <c r="M68" t="s">
+      <c r="G68" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="4:39">
       <c r="G69" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="4:39">
       <c r="G70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="4:39">
-      <c r="G71" t="s">
+      <c r="F71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="72" spans="4:39">
-      <c r="F72" t="s">
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="4:39">
+      <c r="D74" s="45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="4:39">
-      <c r="E73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="4:39">
-      <c r="D75" s="45" t="s">
-        <v>88</v>
+    <row r="76" spans="4:39">
+      <c r="E76" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="4:39">
       <c r="E77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="4:39">
+      <c r="E78" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="75"/>
+      <c r="R78" s="75"/>
+      <c r="S78" s="75" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="4:39">
-      <c r="E78" t="s">
+      <c r="T78" s="75"/>
+      <c r="U78" s="75"/>
+      <c r="V78" s="75"/>
+      <c r="W78" s="75"/>
+      <c r="X78" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y78" s="75"/>
+      <c r="Z78" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA78" s="75"/>
+      <c r="AB78" s="75"/>
+      <c r="AC78" s="75"/>
+      <c r="AD78" s="75"/>
+      <c r="AE78" s="75"/>
+      <c r="AF78" s="75"/>
+      <c r="AG78" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH78" s="75"/>
+      <c r="AI78" s="75"/>
+      <c r="AJ78" s="75"/>
+      <c r="AK78" s="75"/>
+      <c r="AL78" s="75"/>
+      <c r="AM78" s="75"/>
+    </row>
+    <row r="79" spans="4:39">
+      <c r="E79" s="74" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="79" spans="4:39">
-      <c r="E79" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="72"/>
-      <c r="O79" s="72"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="72"/>
-      <c r="R79" s="72"/>
-      <c r="S79" s="72" t="s">
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="T79" s="72"/>
-      <c r="U79" s="72"/>
-      <c r="V79" s="72"/>
-      <c r="W79" s="72"/>
-      <c r="X79" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y79" s="72"/>
-      <c r="Z79" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA79" s="72"/>
-      <c r="AB79" s="72"/>
-      <c r="AC79" s="72"/>
-      <c r="AD79" s="72"/>
-      <c r="AE79" s="72"/>
-      <c r="AF79" s="72"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="52">
+        <v>1</v>
+      </c>
+      <c r="T79" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="56"/>
+      <c r="Z79" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA79" s="73"/>
+      <c r="AB79" s="73"/>
+      <c r="AC79" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD79" s="56"/>
+      <c r="AE79" s="56"/>
+      <c r="AF79" s="56"/>
       <c r="AG79" s="72" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="AH79" s="72"/>
       <c r="AI79" s="72"/>
@@ -15506,501 +15616,338 @@
       <c r="AM79" s="72"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="73" t="s">
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="74"/>
+      <c r="S80" s="52">
+        <v>0</v>
+      </c>
+      <c r="T80" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="73"/>
+      <c r="AA80" s="73"/>
+      <c r="AB80" s="73"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="72"/>
+      <c r="AH80" s="72"/>
+      <c r="AI80" s="72"/>
+      <c r="AJ80" s="72"/>
+      <c r="AK80" s="72"/>
+      <c r="AL80" s="72"/>
+      <c r="AM80" s="72"/>
+    </row>
+    <row r="81" spans="5:39">
+      <c r="E81" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="74"/>
+      <c r="S81" s="52">
+        <v>1</v>
+      </c>
+      <c r="T81" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73" t="s">
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="73"/>
-      <c r="S80" s="52">
+      <c r="AA81" s="73"/>
+      <c r="AB81" s="73"/>
+      <c r="AC81" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH81" s="72"/>
+      <c r="AI81" s="72"/>
+      <c r="AJ81" s="72"/>
+      <c r="AK81" s="72"/>
+      <c r="AL81" s="72"/>
+      <c r="AM81" s="72"/>
+    </row>
+    <row r="82" spans="5:39">
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="74"/>
+      <c r="Q82" s="74"/>
+      <c r="R82" s="74"/>
+      <c r="S82" s="52">
+        <v>0</v>
+      </c>
+      <c r="T82" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56">
         <v>1</v>
       </c>
-      <c r="T80" s="57" t="s">
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="73"/>
+      <c r="AA82" s="73"/>
+      <c r="AB82" s="73"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="72"/>
+      <c r="AH82" s="72"/>
+      <c r="AI82" s="72"/>
+      <c r="AJ82" s="72"/>
+      <c r="AK82" s="72"/>
+      <c r="AL82" s="72"/>
+      <c r="AM82" s="72"/>
+    </row>
+    <row r="83" spans="5:39" ht="18" customHeight="1">
+      <c r="E83" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="74"/>
+      <c r="S83" s="52">
+        <v>1</v>
+      </c>
+      <c r="T83" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA83" s="73"/>
+      <c r="AB83" s="73"/>
+      <c r="AC83" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="U80" s="57"/>
-      <c r="V80" s="57"/>
-      <c r="W80" s="57"/>
-      <c r="X80" s="57">
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH83" s="72"/>
+      <c r="AI83" s="72"/>
+      <c r="AJ83" s="72"/>
+      <c r="AK83" s="72"/>
+      <c r="AL83" s="72"/>
+      <c r="AM83" s="72"/>
+    </row>
+    <row r="84" spans="5:39">
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="74"/>
+      <c r="S84" s="52">
+        <v>0</v>
+      </c>
+      <c r="T84" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56">
         <v>1</v>
       </c>
-      <c r="Y80" s="57"/>
-      <c r="Z80" s="74" t="s">
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="73"/>
+      <c r="AA84" s="73"/>
+      <c r="AB84" s="73"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="72"/>
+      <c r="AH84" s="72"/>
+      <c r="AI84" s="72"/>
+      <c r="AJ84" s="72"/>
+      <c r="AK84" s="72"/>
+      <c r="AL84" s="72"/>
+      <c r="AM84" s="72"/>
+    </row>
+    <row r="85" spans="5:39" ht="18" customHeight="1">
+      <c r="E85" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="74"/>
+      <c r="S85" s="52">
+        <v>1</v>
+      </c>
+      <c r="T85" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA85" s="73"/>
+      <c r="AB85" s="73"/>
+      <c r="AC85" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="AA80" s="74"/>
-      <c r="AB80" s="74"/>
-      <c r="AC80" s="57" t="s">
+      <c r="AH85" s="72"/>
+      <c r="AI85" s="72"/>
+      <c r="AJ85" s="72"/>
+      <c r="AK85" s="72"/>
+      <c r="AL85" s="72"/>
+      <c r="AM85" s="72"/>
+    </row>
+    <row r="86" spans="5:39">
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="74"/>
+      <c r="S86" s="52">
+        <v>0</v>
+      </c>
+      <c r="T86" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="AD80" s="57"/>
-      <c r="AE80" s="57"/>
-      <c r="AF80" s="57"/>
-      <c r="AG80" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH80" s="71"/>
-      <c r="AI80" s="71"/>
-      <c r="AJ80" s="71"/>
-      <c r="AK80" s="71"/>
-      <c r="AL80" s="71"/>
-      <c r="AM80" s="71"/>
-    </row>
-    <row r="81" spans="5:39">
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
-      <c r="M81" s="73"/>
-      <c r="N81" s="73"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="73"/>
-      <c r="Q81" s="73"/>
-      <c r="R81" s="73"/>
-      <c r="S81" s="52">
-        <v>0</v>
-      </c>
-      <c r="T81" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="U81" s="57"/>
-      <c r="V81" s="57"/>
-      <c r="W81" s="57"/>
-      <c r="X81" s="57">
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56">
         <v>1</v>
       </c>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="74"/>
-      <c r="AA81" s="74"/>
-      <c r="AB81" s="74"/>
-      <c r="AC81" s="57"/>
-      <c r="AD81" s="57"/>
-      <c r="AE81" s="57"/>
-      <c r="AF81" s="57"/>
-      <c r="AG81" s="71"/>
-      <c r="AH81" s="71"/>
-      <c r="AI81" s="71"/>
-      <c r="AJ81" s="71"/>
-      <c r="AK81" s="71"/>
-      <c r="AL81" s="71"/>
-      <c r="AM81" s="71"/>
-    </row>
-    <row r="82" spans="5:39">
-      <c r="E82" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
-      <c r="M82" s="73"/>
-      <c r="N82" s="73"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="73"/>
-      <c r="Q82" s="73"/>
-      <c r="R82" s="73"/>
-      <c r="S82" s="52">
-        <v>1</v>
-      </c>
-      <c r="T82" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="U82" s="57"/>
-      <c r="V82" s="57"/>
-      <c r="W82" s="57"/>
-      <c r="X82" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="57"/>
-      <c r="Z82" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA82" s="74"/>
-      <c r="AB82" s="74"/>
-      <c r="AC82" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD82" s="57"/>
-      <c r="AE82" s="57"/>
-      <c r="AF82" s="57"/>
-      <c r="AG82" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH82" s="71"/>
-      <c r="AI82" s="71"/>
-      <c r="AJ82" s="71"/>
-      <c r="AK82" s="71"/>
-      <c r="AL82" s="71"/>
-      <c r="AM82" s="71"/>
-    </row>
-    <row r="83" spans="5:39">
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="73"/>
-      <c r="M83" s="73"/>
-      <c r="N83" s="73"/>
-      <c r="O83" s="73"/>
-      <c r="P83" s="73"/>
-      <c r="Q83" s="73"/>
-      <c r="R83" s="73"/>
-      <c r="S83" s="52">
-        <v>0</v>
-      </c>
-      <c r="T83" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="U83" s="57"/>
-      <c r="V83" s="57"/>
-      <c r="W83" s="57"/>
-      <c r="X83" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y83" s="57"/>
-      <c r="Z83" s="74"/>
-      <c r="AA83" s="74"/>
-      <c r="AB83" s="74"/>
-      <c r="AC83" s="57"/>
-      <c r="AD83" s="57"/>
-      <c r="AE83" s="57"/>
-      <c r="AF83" s="57"/>
-      <c r="AG83" s="71"/>
-      <c r="AH83" s="71"/>
-      <c r="AI83" s="71"/>
-      <c r="AJ83" s="71"/>
-      <c r="AK83" s="71"/>
-      <c r="AL83" s="71"/>
-      <c r="AM83" s="71"/>
-    </row>
-    <row r="84" spans="5:39" ht="18" customHeight="1">
-      <c r="E84" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K84" s="73"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="73"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="73"/>
-      <c r="R84" s="73"/>
-      <c r="S84" s="52">
-        <v>1</v>
-      </c>
-      <c r="T84" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="U84" s="57"/>
-      <c r="V84" s="57"/>
-      <c r="W84" s="57"/>
-      <c r="X84" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="57"/>
-      <c r="Z84" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA84" s="74"/>
-      <c r="AB84" s="74"/>
-      <c r="AC84" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD84" s="57"/>
-      <c r="AE84" s="57"/>
-      <c r="AF84" s="57"/>
-      <c r="AG84" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH84" s="71"/>
-      <c r="AI84" s="71"/>
-      <c r="AJ84" s="71"/>
-      <c r="AK84" s="71"/>
-      <c r="AL84" s="71"/>
-      <c r="AM84" s="71"/>
-    </row>
-    <row r="85" spans="5:39">
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="73"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="73"/>
-      <c r="R85" s="73"/>
-      <c r="S85" s="52">
-        <v>0</v>
-      </c>
-      <c r="T85" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="U85" s="57"/>
-      <c r="V85" s="57"/>
-      <c r="W85" s="57"/>
-      <c r="X85" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="57"/>
-      <c r="Z85" s="74"/>
-      <c r="AA85" s="74"/>
-      <c r="AB85" s="74"/>
-      <c r="AC85" s="57"/>
-      <c r="AD85" s="57"/>
-      <c r="AE85" s="57"/>
-      <c r="AF85" s="57"/>
-      <c r="AG85" s="71"/>
-      <c r="AH85" s="71"/>
-      <c r="AI85" s="71"/>
-      <c r="AJ85" s="71"/>
-      <c r="AK85" s="71"/>
-      <c r="AL85" s="71"/>
-      <c r="AM85" s="71"/>
-    </row>
-    <row r="86" spans="5:39" ht="18" customHeight="1">
-      <c r="E86" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="73"/>
-      <c r="O86" s="73"/>
-      <c r="P86" s="73"/>
-      <c r="Q86" s="73"/>
-      <c r="R86" s="73"/>
-      <c r="S86" s="52">
-        <v>1</v>
-      </c>
-      <c r="T86" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="U86" s="57"/>
-      <c r="V86" s="57"/>
-      <c r="W86" s="57"/>
-      <c r="X86" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y86" s="57"/>
-      <c r="Z86" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA86" s="74"/>
-      <c r="AB86" s="74"/>
-      <c r="AC86" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD86" s="57"/>
-      <c r="AE86" s="57"/>
-      <c r="AF86" s="57"/>
-      <c r="AG86" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH86" s="71"/>
-      <c r="AI86" s="71"/>
-      <c r="AJ86" s="71"/>
-      <c r="AK86" s="71"/>
-      <c r="AL86" s="71"/>
-      <c r="AM86" s="71"/>
-    </row>
-    <row r="87" spans="5:39">
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
-      <c r="K87" s="73"/>
-      <c r="L87" s="73"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="73"/>
-      <c r="O87" s="73"/>
-      <c r="P87" s="73"/>
-      <c r="Q87" s="73"/>
-      <c r="R87" s="73"/>
-      <c r="S87" s="52">
-        <v>0</v>
-      </c>
-      <c r="T87" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="U87" s="57"/>
-      <c r="V87" s="57"/>
-      <c r="W87" s="57"/>
-      <c r="X87" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="57"/>
-      <c r="Z87" s="74"/>
-      <c r="AA87" s="74"/>
-      <c r="AB87" s="74"/>
-      <c r="AC87" s="57"/>
-      <c r="AD87" s="57"/>
-      <c r="AE87" s="57"/>
-      <c r="AF87" s="57"/>
-      <c r="AG87" s="71"/>
-      <c r="AH87" s="71"/>
-      <c r="AI87" s="71"/>
-      <c r="AJ87" s="71"/>
-      <c r="AK87" s="71"/>
-      <c r="AL87" s="71"/>
-      <c r="AM87" s="71"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="73"/>
+      <c r="AA86" s="73"/>
+      <c r="AB86" s="73"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="72"/>
+      <c r="AH86" s="72"/>
+      <c r="AI86" s="72"/>
+      <c r="AJ86" s="72"/>
+      <c r="AK86" s="72"/>
+      <c r="AL86" s="72"/>
+      <c r="AM86" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="Z87:AB87"/>
-    <mergeCell ref="AC87:AF87"/>
-    <mergeCell ref="AG87:AM87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="J86:R87"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="E84:I85"/>
-    <mergeCell ref="J84:R85"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="E82:I83"/>
-    <mergeCell ref="J82:R83"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="E80:I81"/>
-    <mergeCell ref="J80:R81"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="J79:R79"/>
-    <mergeCell ref="S79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AF79"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
+  <mergeCells count="124">
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -16019,8 +15966,115 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8769130D-0872-42A3-9C17-BDCF66318878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944FF60-0BA9-40BB-9942-51EC03A00E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="390" windowWidth="14685" windowHeight="14145" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -1698,7 +1698,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -2188,10 +2188,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2236,45 +2253,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -14165,6 +14165,1386 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>44032</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E98CA79-7571-4BF8-BE84-6C2639BA6E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11090412" y="28036631"/>
+          <a:ext cx="1013098" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Joystick [0]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>207069</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A575D936-76DA-C612-0E2F-E2D872B8955D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13426112" y="28276828"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF4F9BC-641F-1839-6580-DF4EF7DE6699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12167153" y="28384501"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D34325-3AF5-7655-EB5C-90A36FF95839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10866783" y="28293392"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD309121-0BDE-A22E-CFB6-611F279AABAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11140109" y="28417630"/>
+          <a:ext cx="2319130" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>151707</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>87866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D333F6E-19CA-5C13-8E1D-B0E0DB6B45C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13981044" y="28583283"/>
+          <a:ext cx="1013098" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Joystick [1]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>185530</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>218661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>185530</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>218661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD801BC0-20A9-4A4D-93F4-2B5D0606F2C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12708835" y="29721313"/>
+          <a:ext cx="2319130" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>41416</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1E2A0E-C957-9854-7BE0-3C1AB3886852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13724286" y="28276828"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>41416</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E6C8B7-3F48-C142-9EFA-3BAB6D5F85A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13724286" y="30910697"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83F349E-BD76-B1C3-023A-9BF45CF3BF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13641457" y="29568914"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="134" name="グループ化 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F7538B-3785-474E-9231-1BA38D6702BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11131826" y="28583283"/>
+          <a:ext cx="2319131" cy="2310847"/>
+          <a:chOff x="11131826" y="28583283"/>
+          <a:chExt cx="2319131" cy="2310847"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="127" name="直線矢印コネクタ 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F401B05-E68B-3664-0CCC-E449726EFA21}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11131826" y="29146500"/>
+            <a:ext cx="2319131" cy="1159565"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42923878-A170-4151-9327-DF483EA564F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11719891" y="28583283"/>
+            <a:ext cx="1159566" cy="2310847"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>7452</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>7452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>231082</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>7453</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="137" name="グループ化 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8AA76-C9CB-4BC4-90F3-1D77F5A7F1CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11135136" y="28586594"/>
+          <a:ext cx="2319131" cy="2310847"/>
+          <a:chOff x="11131826" y="28583283"/>
+          <a:chExt cx="2319131" cy="2310847"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3913A78-E060-CCA3-6A0D-61CD0754C51D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11131826" y="29146500"/>
+            <a:ext cx="2319131" cy="1159565"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="145" name="直線矢印コネクタ 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B2FB38-2672-E913-A5E5-533AB1CBA09E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11719891" y="28583283"/>
+            <a:ext cx="1159566" cy="2310847"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FF9D24-5544-5243-6F4B-ACC9922A7B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12067761" y="30513129"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="テキスト ボックス 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07475B4-77A9-02A2-4B16-B49D9A6A53DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11206370" y="30513129"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↙</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="テキスト ボックス 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FF0624-93BF-8776-AFA5-D225D0BD3FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12896023" y="30513129"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↘</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="テキスト ボックス 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE9ACC2-5823-E434-97B9-0BD3F7801BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11181522" y="29577194"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>←</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="テキスト ボックス 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9921A275-8413-32F4-3720-C16902FEB684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12896023" y="29577194"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A371D7F-9C3A-0598-B748-07FE6489B76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12059478" y="28666108"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↑</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="テキスト ボックス 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7DF5C6-7E81-F3F1-445F-53AFC0283E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11198087" y="28666108"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↖</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>132523</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="テキスト ボックス 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C2C981-3C17-A848-D73C-932762EA6BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12887740" y="28666108"/>
+          <a:ext cx="505239" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19106,8 +20486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
   <dimension ref="A1:CL150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O122" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ131" sqref="AQ131"/>
+    <sheetView topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AS129" sqref="AS129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
@@ -19131,25 +20511,25 @@
       <c r="J8" s="53">
         <v>1</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="80">
         <v>2</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="53">
         <v>3</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R8" s="80">
         <v>4</v>
       </c>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
       <c r="X8" s="53">
         <v>5</v>
       </c>
@@ -19237,26 +20617,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="72">
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="81">
         <v>9999</v>
       </c>
-      <c r="P10" s="72"/>
-      <c r="R10" s="56" t="s">
+      <c r="P10" s="81"/>
+      <c r="R10" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="72">
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="81">
         <v>9999</v>
       </c>
-      <c r="W10" s="72"/>
+      <c r="W10" s="81"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -19299,22 +20679,22 @@
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="R11" s="56" t="s">
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="R11" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -19429,9 +20809,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -19465,15 +20845,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="63"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="64" t="s">
+      <c r="U18" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -19489,11 +20869,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="64" t="s">
+      <c r="S19" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -19539,11 +20919,11 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="66" t="s">
+      <c r="S21" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="75"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
@@ -19622,12 +21002,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="69" t="s">
+      <c r="O25" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="71"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="78"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -19904,17 +21284,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="65">
         <v>9999</v>
       </c>
-      <c r="M34" s="58"/>
+      <c r="M34" s="65"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="59">
+      <c r="V34" s="66">
         <v>9999</v>
       </c>
-      <c r="W34" s="60"/>
+      <c r="W34" s="67"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -19928,17 +21308,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="65">
         <v>9999</v>
       </c>
-      <c r="M35" s="58"/>
+      <c r="M35" s="65"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="59">
+      <c r="V35" s="66">
         <v>9999</v>
       </c>
-      <c r="W35" s="60"/>
+      <c r="W35" s="67"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -20180,12 +21560,12 @@
       </c>
     </row>
     <row r="53" spans="2:3" ht="18" customHeight="1">
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="18" customHeight="1">
-      <c r="C54" s="77"/>
+      <c r="C54" s="56"/>
     </row>
     <row r="79" spans="3:17" ht="18" customHeight="1">
       <c r="C79" t="s">
@@ -20211,520 +21591,626 @@
       </c>
     </row>
     <row r="95" spans="2:31" ht="18" customHeight="1">
-      <c r="C95" s="77" t="s">
+      <c r="C95" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96" spans="2:31" ht="18" customHeight="1">
-      <c r="C96" s="77"/>
-    </row>
-    <row r="119" spans="3:18" ht="18" customHeight="1">
-      <c r="R119" s="79"/>
-    </row>
-    <row r="120" spans="3:18" ht="18" customHeight="1">
-      <c r="R120" s="79"/>
-    </row>
-    <row r="122" spans="3:18" ht="18" customHeight="1">
+      <c r="C96" s="56"/>
+    </row>
+    <row r="119" spans="3:58" ht="18" customHeight="1">
+      <c r="R119" s="58"/>
+    </row>
+    <row r="120" spans="3:58" ht="18" customHeight="1">
+      <c r="R120" s="58"/>
+    </row>
+    <row r="122" spans="3:58" ht="18" customHeight="1">
       <c r="C122" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="19:46" ht="18" customHeight="1">
+    <row r="123" spans="3:58" ht="18" customHeight="1">
+      <c r="AW123" s="1"/>
+      <c r="AX123" s="2"/>
+      <c r="AY123" s="2"/>
+      <c r="AZ123" s="2"/>
+      <c r="BA123" s="2"/>
+      <c r="BB123" s="1"/>
+      <c r="BC123" s="2"/>
+      <c r="BD123" s="2"/>
+      <c r="BE123" s="2"/>
+      <c r="BF123" s="3"/>
+    </row>
+    <row r="124" spans="3:58" ht="18" customHeight="1">
+      <c r="AW124" s="4"/>
+      <c r="AX124" s="86"/>
+      <c r="AY124" s="86"/>
+      <c r="AZ124" s="86"/>
+      <c r="BA124" s="86"/>
+      <c r="BB124" s="4"/>
+      <c r="BC124" s="86"/>
+      <c r="BD124" s="86"/>
+      <c r="BE124" s="86"/>
+      <c r="BF124" s="5"/>
+    </row>
+    <row r="125" spans="3:58" ht="18" customHeight="1">
+      <c r="AW125" s="4"/>
+      <c r="AX125" s="86"/>
+      <c r="AY125" s="86"/>
+      <c r="AZ125" s="86"/>
+      <c r="BA125" s="86"/>
+      <c r="BB125" s="4"/>
+      <c r="BC125" s="86"/>
+      <c r="BD125" s="86"/>
+      <c r="BE125" s="86"/>
+      <c r="BF125" s="5"/>
+    </row>
+    <row r="126" spans="3:58" ht="18" customHeight="1">
+      <c r="AW126" s="4"/>
+      <c r="AX126" s="86"/>
+      <c r="AY126" s="86"/>
+      <c r="AZ126" s="86"/>
+      <c r="BA126" s="86"/>
+      <c r="BB126" s="4"/>
+      <c r="BC126" s="86"/>
+      <c r="BD126" s="86"/>
+      <c r="BE126" s="86"/>
+      <c r="BF126" s="5"/>
+    </row>
+    <row r="127" spans="3:58" ht="18" customHeight="1">
+      <c r="AW127" s="6"/>
+      <c r="AX127" s="7"/>
+      <c r="AY127" s="7"/>
+      <c r="AZ127" s="7"/>
+      <c r="BA127" s="7"/>
+      <c r="BB127" s="6"/>
+      <c r="BC127" s="7"/>
+      <c r="BD127" s="7"/>
+      <c r="BE127" s="7"/>
+      <c r="BF127" s="8"/>
+    </row>
+    <row r="128" spans="3:58" ht="18" customHeight="1">
+      <c r="AW128" s="4"/>
+      <c r="AX128" s="86"/>
+      <c r="AY128" s="86"/>
+      <c r="AZ128" s="86"/>
+      <c r="BA128" s="86"/>
+      <c r="BB128" s="4"/>
+      <c r="BC128" s="86"/>
+      <c r="BD128" s="86"/>
+      <c r="BE128" s="86"/>
+      <c r="BF128" s="5"/>
+    </row>
+    <row r="129" spans="19:58" ht="18" customHeight="1">
+      <c r="AW129" s="4"/>
+      <c r="AX129" s="86"/>
+      <c r="AY129" s="86"/>
+      <c r="AZ129" s="86"/>
+      <c r="BA129" s="86"/>
+      <c r="BB129" s="4"/>
+      <c r="BC129" s="86"/>
+      <c r="BD129" s="86"/>
+      <c r="BE129" s="86"/>
+      <c r="BF129" s="5"/>
+    </row>
+    <row r="130" spans="19:58" ht="18" customHeight="1">
       <c r="AE130" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="133" spans="19:46" ht="18" customHeight="1">
-      <c r="T133" s="80"/>
-      <c r="U133" s="80"/>
-      <c r="V133" s="80"/>
-      <c r="W133" s="80"/>
-      <c r="X133" s="80"/>
-      <c r="Z133" s="80"/>
-      <c r="AA133" s="80"/>
-      <c r="AB133" s="80"/>
-      <c r="AC133" s="80"/>
-      <c r="AD133" s="80"/>
-    </row>
-    <row r="134" spans="19:46" ht="18" customHeight="1">
+      <c r="AW130" s="4"/>
+      <c r="AX130" s="86"/>
+      <c r="AY130" s="86"/>
+      <c r="AZ130" s="86"/>
+      <c r="BA130" s="86"/>
+      <c r="BB130" s="4"/>
+      <c r="BC130" s="86"/>
+      <c r="BD130" s="86"/>
+      <c r="BE130" s="86"/>
+      <c r="BF130" s="5"/>
+    </row>
+    <row r="131" spans="19:58" ht="18" customHeight="1">
+      <c r="AW131" s="4"/>
+      <c r="AX131" s="86"/>
+      <c r="AY131" s="86"/>
+      <c r="AZ131" s="86"/>
+      <c r="BA131" s="86"/>
+      <c r="BB131" s="4"/>
+      <c r="BC131" s="86"/>
+      <c r="BD131" s="86"/>
+      <c r="BE131" s="86"/>
+      <c r="BF131" s="5"/>
+    </row>
+    <row r="132" spans="19:58" ht="18" customHeight="1">
+      <c r="AW132" s="6"/>
+      <c r="AX132" s="7"/>
+      <c r="AY132" s="7"/>
+      <c r="AZ132" s="7"/>
+      <c r="BA132" s="7"/>
+      <c r="BB132" s="6"/>
+      <c r="BC132" s="7"/>
+      <c r="BD132" s="7"/>
+      <c r="BE132" s="7"/>
+      <c r="BF132" s="8"/>
+    </row>
+    <row r="134" spans="19:58" ht="18" customHeight="1">
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="82">
+      <c r="T134" s="63">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="83"/>
-      <c r="V134" s="85" t="s">
+      <c r="U134" s="64"/>
+      <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="84" t="s">
+      <c r="W134" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="84"/>
-      <c r="Y134" s="84"/>
-      <c r="Z134" s="85" t="s">
+      <c r="X134" s="61"/>
+      <c r="Y134" s="61"/>
+      <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="84" t="s">
+      <c r="AA134" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="84"/>
-      <c r="AC134" s="84"/>
+      <c r="AB134" s="61"/>
+      <c r="AC134" s="61"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="81">
+      <c r="AE134" s="62">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="82"/>
+      <c r="AF134" s="63"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="82">
+      <c r="AH134" s="63">
         <v>-1</v>
       </c>
-      <c r="AI134" s="83"/>
-      <c r="AJ134" s="86" t="s">
+      <c r="AI134" s="64"/>
+      <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="84" t="s">
+      <c r="AK134" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="84"/>
-      <c r="AM134" s="84"/>
-      <c r="AN134" s="85"/>
-      <c r="AO134" s="84"/>
-      <c r="AP134" s="84"/>
-      <c r="AQ134" s="84"/>
+      <c r="AL134" s="61"/>
+      <c r="AM134" s="61"/>
+      <c r="AN134" s="59"/>
+      <c r="AO134" s="61"/>
+      <c r="AP134" s="61"/>
+      <c r="AQ134" s="61"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="81"/>
-      <c r="AT134" s="82"/>
-    </row>
-    <row r="135" spans="19:46" ht="18" customHeight="1">
+      <c r="AS134" s="62"/>
+      <c r="AT134" s="63"/>
+    </row>
+    <row r="135" spans="19:58" ht="18" customHeight="1">
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="82">
+      <c r="T135" s="63">
         <v>0.5</v>
       </c>
-      <c r="U135" s="83"/>
-      <c r="V135" s="85" t="s">
+      <c r="U135" s="64"/>
+      <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="84" t="s">
+      <c r="W135" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="84"/>
-      <c r="Y135" s="84"/>
-      <c r="Z135" s="85" t="s">
+      <c r="X135" s="61"/>
+      <c r="Y135" s="61"/>
+      <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="84" t="s">
+      <c r="AA135" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="84"/>
-      <c r="AC135" s="84"/>
+      <c r="AB135" s="61"/>
+      <c r="AC135" s="61"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="81">
+      <c r="AE135" s="62">
         <v>1</v>
       </c>
-      <c r="AF135" s="82"/>
+      <c r="AF135" s="63"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="82">
+      <c r="AH135" s="63">
         <v>-1</v>
       </c>
-      <c r="AI135" s="83"/>
-      <c r="AJ135" s="85" t="s">
+      <c r="AI135" s="64"/>
+      <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="84" t="s">
+      <c r="AK135" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="84"/>
-      <c r="AM135" s="84"/>
-      <c r="AN135" s="85" t="s">
+      <c r="AL135" s="61"/>
+      <c r="AM135" s="61"/>
+      <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="84" t="s">
+      <c r="AO135" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="84"/>
-      <c r="AQ135" s="84"/>
+      <c r="AP135" s="61"/>
+      <c r="AQ135" s="61"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="81">
+      <c r="AS135" s="62">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="82"/>
-    </row>
-    <row r="136" spans="19:46" ht="18" customHeight="1">
+      <c r="AT135" s="63"/>
+    </row>
+    <row r="136" spans="19:58" ht="18" customHeight="1">
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="82">
+      <c r="T136" s="63">
         <v>1</v>
       </c>
-      <c r="U136" s="83"/>
-      <c r="V136" s="86" t="s">
+      <c r="U136" s="64"/>
+      <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="84" t="s">
+      <c r="W136" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="84"/>
-      <c r="Y136" s="84"/>
-      <c r="Z136" s="85"/>
-      <c r="AA136" s="84"/>
-      <c r="AB136" s="84"/>
-      <c r="AC136" s="84"/>
+      <c r="X136" s="61"/>
+      <c r="Y136" s="61"/>
+      <c r="Z136" s="59"/>
+      <c r="AA136" s="61"/>
+      <c r="AB136" s="61"/>
+      <c r="AC136" s="61"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="81"/>
-      <c r="AF136" s="82"/>
+      <c r="AE136" s="62"/>
+      <c r="AF136" s="63"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="82">
+      <c r="AH136" s="63">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="83"/>
-      <c r="AJ136" s="86" t="s">
+      <c r="AI136" s="64"/>
+      <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="84" t="s">
+      <c r="AK136" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="84"/>
-      <c r="AM136" s="84"/>
-      <c r="AN136" s="85" t="s">
+      <c r="AL136" s="61"/>
+      <c r="AM136" s="61"/>
+      <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="84" t="s">
+      <c r="AO136" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="84"/>
-      <c r="AQ136" s="84"/>
+      <c r="AP136" s="61"/>
+      <c r="AQ136" s="61"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="81">
+      <c r="AS136" s="62">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="82"/>
-    </row>
-    <row r="137" spans="19:46" ht="18" customHeight="1">
+      <c r="AT136" s="63"/>
+    </row>
+    <row r="137" spans="19:58" ht="18" customHeight="1">
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="82">
+      <c r="T137" s="63">
         <v>0.5</v>
       </c>
-      <c r="U137" s="83"/>
-      <c r="V137" s="85" t="s">
+      <c r="U137" s="64"/>
+      <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="84" t="s">
+      <c r="W137" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="84"/>
-      <c r="Y137" s="84"/>
-      <c r="Z137" s="85" t="s">
+      <c r="X137" s="61"/>
+      <c r="Y137" s="61"/>
+      <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="84" t="s">
+      <c r="AA137" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="84"/>
-      <c r="AC137" s="84"/>
+      <c r="AB137" s="61"/>
+      <c r="AC137" s="61"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="81">
+      <c r="AE137" s="62">
         <v>1</v>
       </c>
-      <c r="AF137" s="82"/>
+      <c r="AF137" s="63"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="82">
+      <c r="AH137" s="63">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="83"/>
-      <c r="AJ137" s="85" t="s">
+      <c r="AI137" s="64"/>
+      <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="84" t="s">
+      <c r="AK137" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="84"/>
-      <c r="AM137" s="84"/>
-      <c r="AN137" s="85" t="s">
+      <c r="AL137" s="61"/>
+      <c r="AM137" s="61"/>
+      <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="84" t="s">
+      <c r="AO137" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="84"/>
-      <c r="AQ137" s="84"/>
+      <c r="AP137" s="61"/>
+      <c r="AQ137" s="61"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="81">
+      <c r="AS137" s="62">
         <v>1</v>
       </c>
-      <c r="AT137" s="82"/>
-    </row>
-    <row r="138" spans="19:46" ht="18" customHeight="1">
+      <c r="AT137" s="63"/>
+    </row>
+    <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="82">
+      <c r="T138" s="63">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="83"/>
-      <c r="V138" s="85" t="s">
+      <c r="U138" s="64"/>
+      <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="84" t="s">
+      <c r="W138" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="84"/>
-      <c r="Y138" s="84"/>
-      <c r="Z138" s="85" t="s">
+      <c r="X138" s="61"/>
+      <c r="Y138" s="61"/>
+      <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="84" t="s">
+      <c r="AA138" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="84"/>
-      <c r="AC138" s="84"/>
+      <c r="AB138" s="61"/>
+      <c r="AC138" s="61"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="81">
+      <c r="AE138" s="62">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="82"/>
+      <c r="AF138" s="63"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="82">
+      <c r="AH138" s="63">
         <v>1</v>
       </c>
-      <c r="AI138" s="83"/>
-      <c r="AJ138" s="86" t="s">
+      <c r="AI138" s="64"/>
+      <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="84" t="s">
+      <c r="AK138" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="84"/>
-      <c r="AM138" s="84"/>
-      <c r="AN138" s="85"/>
-      <c r="AO138" s="84"/>
-      <c r="AP138" s="84"/>
-      <c r="AQ138" s="84"/>
+      <c r="AL138" s="61"/>
+      <c r="AM138" s="61"/>
+      <c r="AN138" s="59"/>
+      <c r="AO138" s="61"/>
+      <c r="AP138" s="61"/>
+      <c r="AQ138" s="61"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="81"/>
-      <c r="AT138" s="82"/>
-    </row>
-    <row r="139" spans="19:46" ht="18" customHeight="1">
+      <c r="AS138" s="62"/>
+      <c r="AT138" s="63"/>
+    </row>
+    <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="82">
+      <c r="T139" s="63">
         <v>-1</v>
       </c>
-      <c r="U139" s="83"/>
-      <c r="V139" s="85" t="s">
+      <c r="U139" s="64"/>
+      <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="84" t="s">
+      <c r="W139" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="84"/>
-      <c r="Y139" s="84"/>
-      <c r="Z139" s="85" t="s">
+      <c r="X139" s="61"/>
+      <c r="Y139" s="61"/>
+      <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="84" t="s">
+      <c r="AA139" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="84"/>
-      <c r="AC139" s="84"/>
+      <c r="AB139" s="61"/>
+      <c r="AC139" s="61"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="81">
+      <c r="AE139" s="62">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="82"/>
+      <c r="AF139" s="63"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="82">
+      <c r="AH139" s="63">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="83"/>
-      <c r="AJ139" s="85" t="s">
+      <c r="AI139" s="64"/>
+      <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="84" t="s">
+      <c r="AK139" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="84"/>
-      <c r="AM139" s="84"/>
-      <c r="AN139" s="85" t="s">
+      <c r="AL139" s="61"/>
+      <c r="AM139" s="61"/>
+      <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="84" t="s">
+      <c r="AO139" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="84"/>
-      <c r="AQ139" s="84"/>
+      <c r="AP139" s="61"/>
+      <c r="AQ139" s="61"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="81">
+      <c r="AS139" s="62">
         <v>1</v>
       </c>
-      <c r="AT139" s="82"/>
-    </row>
-    <row r="140" spans="19:46" ht="18" customHeight="1">
+      <c r="AT139" s="63"/>
+    </row>
+    <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="82">
+      <c r="T140" s="63">
         <v>-1</v>
       </c>
-      <c r="U140" s="83"/>
-      <c r="V140" s="86" t="s">
+      <c r="U140" s="64"/>
+      <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="84" t="s">
+      <c r="W140" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="84"/>
-      <c r="Y140" s="84"/>
-      <c r="Z140" s="85"/>
-      <c r="AA140" s="84"/>
-      <c r="AB140" s="84"/>
-      <c r="AC140" s="84"/>
+      <c r="X140" s="61"/>
+      <c r="Y140" s="61"/>
+      <c r="Z140" s="59"/>
+      <c r="AA140" s="61"/>
+      <c r="AB140" s="61"/>
+      <c r="AC140" s="61"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="81"/>
-      <c r="AF140" s="82"/>
+      <c r="AE140" s="62"/>
+      <c r="AF140" s="63"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="82">
+      <c r="AH140" s="63">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="83"/>
-      <c r="AJ140" s="86" t="s">
+      <c r="AI140" s="64"/>
+      <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="84" t="s">
+      <c r="AK140" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="84"/>
-      <c r="AM140" s="84"/>
-      <c r="AN140" s="85" t="s">
+      <c r="AL140" s="61"/>
+      <c r="AM140" s="61"/>
+      <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="84" t="s">
+      <c r="AO140" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="84"/>
-      <c r="AQ140" s="84"/>
+      <c r="AP140" s="61"/>
+      <c r="AQ140" s="61"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="81">
+      <c r="AS140" s="62">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="82"/>
-    </row>
-    <row r="141" spans="19:46" ht="18" customHeight="1">
+      <c r="AT140" s="63"/>
+    </row>
+    <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="82">
+      <c r="T141" s="63">
         <v>-1</v>
       </c>
-      <c r="U141" s="83"/>
-      <c r="V141" s="85" t="s">
+      <c r="U141" s="64"/>
+      <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="84" t="s">
+      <c r="W141" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="84"/>
-      <c r="Y141" s="84"/>
-      <c r="Z141" s="85" t="s">
+      <c r="X141" s="61"/>
+      <c r="Y141" s="61"/>
+      <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="84" t="s">
+      <c r="AA141" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="84"/>
-      <c r="AC141" s="84"/>
+      <c r="AB141" s="61"/>
+      <c r="AC141" s="61"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="81">
+      <c r="AE141" s="62">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="82"/>
+      <c r="AF141" s="63"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="82">
+      <c r="AH141" s="63">
         <v>-1</v>
       </c>
-      <c r="AI141" s="83"/>
-      <c r="AJ141" s="86" t="s">
+      <c r="AI141" s="64"/>
+      <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="84" t="s">
+      <c r="AK141" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="84"/>
-      <c r="AM141" s="84"/>
-      <c r="AN141" s="85" t="s">
+      <c r="AL141" s="61"/>
+      <c r="AM141" s="61"/>
+      <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="84" t="s">
+      <c r="AO141" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="84"/>
-      <c r="AQ141" s="84"/>
+      <c r="AP141" s="61"/>
+      <c r="AQ141" s="61"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="81">
+      <c r="AS141" s="62">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="82"/>
-    </row>
-    <row r="143" spans="19:46" ht="18" customHeight="1">
+      <c r="AT141" s="63"/>
+    </row>
+    <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
         <v>0</v>
       </c>
       <c r="T143" t="str">
-        <f>"if("&amp;T134&amp;" "&amp;V134&amp;" "&amp;W134&amp;" "&amp;Z134&amp;" "&amp;AA134&amp;" "&amp;AD134&amp;" "&amp;AE134&amp;" "&amp;AG134&amp;" "&amp;AH134&amp;" "&amp;AJ134&amp;" "&amp;AK134&amp;" "&amp;AN134&amp;" "&amp;AO134&amp;" "&amp;AR134&amp;" "&amp;AS134&amp;"){"</f>
+        <f t="shared" ref="T143:T150" si="0">"if("&amp;T134&amp;" "&amp;V134&amp;" "&amp;W134&amp;" "&amp;Z134&amp;" "&amp;AA134&amp;" "&amp;AD134&amp;" "&amp;AE134&amp;" "&amp;AG134&amp;" "&amp;AH134&amp;" "&amp;AJ134&amp;" "&amp;AK134&amp;" "&amp;AN134&amp;" "&amp;AO134&amp;" "&amp;AR134&amp;" "&amp;AS134&amp;"){"</f>
         <v>if(-0.5 &lt;= joystick[0] &amp;&amp; joystick[0] &lt; 0.5 &amp;&amp; -1 == joystick[1]    ){</v>
       </c>
     </row>
-    <row r="144" spans="19:46" ht="18" customHeight="1">
+    <row r="144" spans="19:58" ht="18" customHeight="1">
       <c r="S144" s="53" t="s">
         <v>5</v>
       </c>
       <c r="T144" t="str">
-        <f>"if("&amp;T135&amp;" "&amp;V135&amp;" "&amp;W135&amp;" "&amp;Z135&amp;" "&amp;AA135&amp;" "&amp;AD135&amp;" "&amp;AE135&amp;" "&amp;AG135&amp;" "&amp;AH135&amp;" "&amp;AJ135&amp;" "&amp;AK135&amp;" "&amp;AN135&amp;" "&amp;AO135&amp;" "&amp;AR135&amp;" "&amp;AS135&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(0.5 &lt;= joystick[0] &amp;&amp; joystick[0] &lt;= 1 &amp;&amp; -1 &lt;= joystick[1] &amp;&amp; joystick[1] &lt; -0.5){</v>
       </c>
     </row>
@@ -20733,7 +22219,7 @@
         <v>2</v>
       </c>
       <c r="T145" t="str">
-        <f>"if("&amp;T136&amp;" "&amp;V136&amp;" "&amp;W136&amp;" "&amp;Z136&amp;" "&amp;AA136&amp;" "&amp;AD136&amp;" "&amp;AE136&amp;" "&amp;AG136&amp;" "&amp;AH136&amp;" "&amp;AJ136&amp;" "&amp;AK136&amp;" "&amp;AN136&amp;" "&amp;AO136&amp;" "&amp;AR136&amp;" "&amp;AS136&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(1 == joystick[0]     &amp;&amp; -0.5 &lt;= joystick[1] &amp;&amp; joystick[1] &lt; 0.5){</v>
       </c>
     </row>
@@ -20742,7 +22228,7 @@
         <v>6</v>
       </c>
       <c r="T146" t="str">
-        <f>"if("&amp;T137&amp;" "&amp;V137&amp;" "&amp;W137&amp;" "&amp;Z137&amp;" "&amp;AA137&amp;" "&amp;AD137&amp;" "&amp;AE137&amp;" "&amp;AG137&amp;" "&amp;AH137&amp;" "&amp;AJ137&amp;" "&amp;AK137&amp;" "&amp;AN137&amp;" "&amp;AO137&amp;" "&amp;AR137&amp;" "&amp;AS137&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(0.5 &lt;= joystick[0] &amp;&amp; joystick[0] &lt;= 1 &amp;&amp; 0.5 &lt;= joystick[1] &amp;&amp; joystick[1] &lt;= 1){</v>
       </c>
     </row>
@@ -20751,7 +22237,7 @@
         <v>3</v>
       </c>
       <c r="T147" t="str">
-        <f>"if("&amp;T138&amp;" "&amp;V138&amp;" "&amp;W138&amp;" "&amp;Z138&amp;" "&amp;AA138&amp;" "&amp;AD138&amp;" "&amp;AE138&amp;" "&amp;AG138&amp;" "&amp;AH138&amp;" "&amp;AJ138&amp;" "&amp;AK138&amp;" "&amp;AN138&amp;" "&amp;AO138&amp;" "&amp;AR138&amp;" "&amp;AS138&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(-0.5 &lt;= joystick[0] &amp;&amp; joystick[0] &lt; 0.5 &amp;&amp; 1 == joystick[1]    ){</v>
       </c>
     </row>
@@ -20760,7 +22246,7 @@
         <v>7</v>
       </c>
       <c r="T148" t="str">
-        <f>"if("&amp;T139&amp;" "&amp;V139&amp;" "&amp;W139&amp;" "&amp;Z139&amp;" "&amp;AA139&amp;" "&amp;AD139&amp;" "&amp;AE139&amp;" "&amp;AG139&amp;" "&amp;AH139&amp;" "&amp;AJ139&amp;" "&amp;AK139&amp;" "&amp;AN139&amp;" "&amp;AO139&amp;" "&amp;AR139&amp;" "&amp;AS139&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(-1 &lt;= joystick[0] &amp;&amp; joystick[0] &lt; -0.5 &amp;&amp; 0.5 &lt;= joystick[1] &amp;&amp; joystick[1] &lt;= 1){</v>
       </c>
     </row>
@@ -20769,7 +22255,7 @@
         <v>1</v>
       </c>
       <c r="T149" t="str">
-        <f>"if("&amp;T140&amp;" "&amp;V140&amp;" "&amp;W140&amp;" "&amp;Z140&amp;" "&amp;AA140&amp;" "&amp;AD140&amp;" "&amp;AE140&amp;" "&amp;AG140&amp;" "&amp;AH140&amp;" "&amp;AJ140&amp;" "&amp;AK140&amp;" "&amp;AN140&amp;" "&amp;AO140&amp;" "&amp;AR140&amp;" "&amp;AS140&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(-1 == joystick[0]     &amp;&amp; -0.5 &lt;= joystick[1] &amp;&amp; joystick[1] &lt; 0.5){</v>
       </c>
     </row>
@@ -20778,20 +22264,70 @@
         <v>8</v>
       </c>
       <c r="T150" t="str">
-        <f>"if("&amp;T141&amp;" "&amp;V141&amp;" "&amp;W141&amp;" "&amp;Z141&amp;" "&amp;AA141&amp;" "&amp;AD141&amp;" "&amp;AE141&amp;" "&amp;AG141&amp;" "&amp;AH141&amp;" "&amp;AJ141&amp;" "&amp;AK141&amp;" "&amp;AN141&amp;" "&amp;AO141&amp;" "&amp;AR141&amp;" "&amp;AS141&amp;"){"</f>
+        <f t="shared" si="0"/>
         <v>if(-1 &lt;= joystick[0] &amp;&amp; joystick[0] &lt; -0.5 &amp;&amp; -1 &lt;= joystick[1] &amp;&amp; joystick[1] &lt;= -0.5){</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AK137:AM137"/>
-    <mergeCell ref="AO137:AQ137"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="W137:Y137"/>
-    <mergeCell ref="AA137:AC137"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AH137:AI137"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AH135:AI135"/>
+    <mergeCell ref="AS135:AT135"/>
+    <mergeCell ref="T136:U136"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="AH136:AI136"/>
+    <mergeCell ref="AS136:AT136"/>
+    <mergeCell ref="W135:Y135"/>
+    <mergeCell ref="W136:Y136"/>
+    <mergeCell ref="AK135:AM135"/>
+    <mergeCell ref="AK136:AM136"/>
+    <mergeCell ref="AA135:AC135"/>
+    <mergeCell ref="AA136:AC136"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
     <mergeCell ref="T140:U140"/>
     <mergeCell ref="AE140:AF140"/>
     <mergeCell ref="AH140:AI140"/>
@@ -20808,64 +22344,14 @@
     <mergeCell ref="AA141:AC141"/>
     <mergeCell ref="AO140:AQ140"/>
     <mergeCell ref="AO141:AQ141"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AH135:AI135"/>
-    <mergeCell ref="AS135:AT135"/>
-    <mergeCell ref="T136:U136"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="AH136:AI136"/>
-    <mergeCell ref="AS136:AT136"/>
-    <mergeCell ref="W135:Y135"/>
-    <mergeCell ref="W136:Y136"/>
-    <mergeCell ref="AK135:AM135"/>
-    <mergeCell ref="AK136:AM136"/>
-    <mergeCell ref="AA135:AC135"/>
-    <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="AK137:AM137"/>
+    <mergeCell ref="AO137:AQ137"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="W137:Y137"/>
+    <mergeCell ref="AA137:AC137"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AH137:AI137"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -20883,7 +22369,7 @@
   <dimension ref="A2:AD140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -21751,8 +23237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB40B8-5003-4279-AB08-F68CE513E0DB}">
   <dimension ref="A2:AM86"/>
   <sheetViews>
-    <sheetView topLeftCell="K25" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31:AA49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -21994,625 +23480,625 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:29">
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74" t="s">
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74" t="s">
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74" t="s">
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="74"/>
+      <c r="Y31" s="85"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" spans="4:29">
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="58" t="s">
+      <c r="T32" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58">
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65">
         <v>1</v>
       </c>
-      <c r="Y32" s="58"/>
+      <c r="Y32" s="65"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
     <row r="33" spans="5:27">
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="58" t="s">
+      <c r="T33" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58">
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65">
         <v>1</v>
       </c>
-      <c r="Y33" s="58"/>
+      <c r="Y33" s="65"/>
     </row>
     <row r="34" spans="5:27">
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73" t="s">
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58">
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65">
         <v>1</v>
       </c>
-      <c r="Y34" s="58"/>
+      <c r="Y34" s="65"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
       </c>
     </row>
     <row r="35" spans="5:27">
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73" t="s">
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58">
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65">
         <v>1</v>
       </c>
-      <c r="Y35" s="58"/>
+      <c r="Y35" s="65"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
       </c>
     </row>
     <row r="36" spans="5:27">
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73" t="s">
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
       <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58">
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65">
         <v>1</v>
       </c>
-      <c r="Y36" s="58"/>
+      <c r="Y36" s="65"/>
       <c r="AA36" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
       </c>
     </row>
     <row r="37" spans="5:27">
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73" t="s">
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
       <c r="S37" s="52">
         <v>1</v>
       </c>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58">
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65">
         <v>1</v>
       </c>
-      <c r="Y37" s="58"/>
+      <c r="Y37" s="65"/>
       <c r="AA37" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
       </c>
     </row>
     <row r="38" spans="5:27">
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73" t="s">
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="58">
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65">
         <v>1</v>
       </c>
-      <c r="Y38" s="58"/>
+      <c r="Y38" s="65"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
       </c>
     </row>
     <row r="39" spans="5:27">
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73" t="s">
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58">
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65">
         <v>1</v>
       </c>
-      <c r="Y39" s="58"/>
+      <c r="Y39" s="65"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
       </c>
     </row>
     <row r="40" spans="5:27">
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73" t="s">
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58">
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65">
         <v>1</v>
       </c>
-      <c r="Y40" s="58"/>
+      <c r="Y40" s="65"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
       </c>
     </row>
     <row r="41" spans="5:27">
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73" t="s">
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58">
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65">
         <v>1</v>
       </c>
-      <c r="Y41" s="58"/>
+      <c r="Y41" s="65"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
       </c>
     </row>
     <row r="42" spans="5:27">
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73" t="s">
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58">
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65">
         <v>1</v>
       </c>
-      <c r="Y42" s="58"/>
+      <c r="Y42" s="65"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
       </c>
     </row>
     <row r="43" spans="5:27">
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73" t="s">
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58">
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65">
         <v>1</v>
       </c>
-      <c r="Y43" s="58"/>
+      <c r="Y43" s="65"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
       </c>
     </row>
     <row r="44" spans="5:27">
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73" t="s">
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="58"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="58"/>
-      <c r="W44" s="58"/>
-      <c r="X44" s="58">
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65">
         <v>1</v>
       </c>
-      <c r="Y44" s="58"/>
+      <c r="Y44" s="65"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
       </c>
     </row>
     <row r="45" spans="5:27">
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73" t="s">
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="58">
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65">
         <v>1</v>
       </c>
-      <c r="Y45" s="58"/>
+      <c r="Y45" s="65"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
       </c>
     </row>
     <row r="46" spans="5:27">
-      <c r="E46" s="73" t="s">
+      <c r="E46" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73" t="s">
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58">
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65">
         <v>1</v>
       </c>
-      <c r="Y46" s="58"/>
+      <c r="Y46" s="65"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
       </c>
     </row>
     <row r="47" spans="5:27">
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73" t="s">
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="58"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="58">
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65">
         <v>1</v>
       </c>
-      <c r="Y47" s="58"/>
+      <c r="Y47" s="65"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
       </c>
     </row>
     <row r="48" spans="5:27">
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73" t="s">
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="58">
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65">
         <v>1</v>
       </c>
-      <c r="Y48" s="58"/>
+      <c r="Y48" s="65"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -22776,546 +24262,440 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="74" t="s">
+      <c r="E78" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="74" t="s">
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="74"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="74"/>
-      <c r="S78" s="74" t="s">
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="85"/>
+      <c r="O78" s="85"/>
+      <c r="P78" s="85"/>
+      <c r="Q78" s="85"/>
+      <c r="R78" s="85"/>
+      <c r="S78" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="74"/>
-      <c r="U78" s="74"/>
-      <c r="V78" s="74"/>
-      <c r="W78" s="74"/>
-      <c r="X78" s="74" t="s">
+      <c r="T78" s="85"/>
+      <c r="U78" s="85"/>
+      <c r="V78" s="85"/>
+      <c r="W78" s="85"/>
+      <c r="X78" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="74"/>
-      <c r="Z78" s="74" t="s">
+      <c r="Y78" s="85"/>
+      <c r="Z78" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="74"/>
-      <c r="AB78" s="74"/>
-      <c r="AC78" s="74"/>
-      <c r="AD78" s="74"/>
-      <c r="AE78" s="74"/>
-      <c r="AF78" s="74"/>
-      <c r="AG78" s="74" t="s">
+      <c r="AA78" s="85"/>
+      <c r="AB78" s="85"/>
+      <c r="AC78" s="85"/>
+      <c r="AD78" s="85"/>
+      <c r="AE78" s="85"/>
+      <c r="AF78" s="85"/>
+      <c r="AG78" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="74"/>
-      <c r="AI78" s="74"/>
-      <c r="AJ78" s="74"/>
-      <c r="AK78" s="74"/>
-      <c r="AL78" s="74"/>
-      <c r="AM78" s="74"/>
+      <c r="AH78" s="85"/>
+      <c r="AI78" s="85"/>
+      <c r="AJ78" s="85"/>
+      <c r="AK78" s="85"/>
+      <c r="AL78" s="85"/>
+      <c r="AM78" s="85"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="75" t="s">
+      <c r="E79" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75" t="s">
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="58" t="s">
+      <c r="T79" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="58"/>
-      <c r="V79" s="58"/>
-      <c r="W79" s="58"/>
-      <c r="X79" s="58">
+      <c r="U79" s="65"/>
+      <c r="V79" s="65"/>
+      <c r="W79" s="65"/>
+      <c r="X79" s="65">
         <v>1</v>
       </c>
-      <c r="Y79" s="58"/>
-      <c r="Z79" s="76" t="s">
+      <c r="Y79" s="65"/>
+      <c r="Z79" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="76"/>
-      <c r="AB79" s="76"/>
-      <c r="AC79" s="58" t="s">
+      <c r="AA79" s="83"/>
+      <c r="AB79" s="83"/>
+      <c r="AC79" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="58"/>
-      <c r="AE79" s="58"/>
-      <c r="AF79" s="58"/>
-      <c r="AG79" s="73" t="s">
+      <c r="AD79" s="65"/>
+      <c r="AE79" s="65"/>
+      <c r="AF79" s="65"/>
+      <c r="AG79" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="73"/>
-      <c r="AI79" s="73"/>
-      <c r="AJ79" s="73"/>
-      <c r="AK79" s="73"/>
-      <c r="AL79" s="73"/>
-      <c r="AM79" s="73"/>
+      <c r="AH79" s="82"/>
+      <c r="AI79" s="82"/>
+      <c r="AJ79" s="82"/>
+      <c r="AK79" s="82"/>
+      <c r="AL79" s="82"/>
+      <c r="AM79" s="82"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="75"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="58" t="s">
+      <c r="T80" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="58"/>
-      <c r="V80" s="58"/>
-      <c r="W80" s="58"/>
-      <c r="X80" s="58">
+      <c r="U80" s="65"/>
+      <c r="V80" s="65"/>
+      <c r="W80" s="65"/>
+      <c r="X80" s="65">
         <v>1</v>
       </c>
-      <c r="Y80" s="58"/>
-      <c r="Z80" s="76"/>
-      <c r="AA80" s="76"/>
-      <c r="AB80" s="76"/>
-      <c r="AC80" s="58"/>
-      <c r="AD80" s="58"/>
-      <c r="AE80" s="58"/>
-      <c r="AF80" s="58"/>
-      <c r="AG80" s="73"/>
-      <c r="AH80" s="73"/>
-      <c r="AI80" s="73"/>
-      <c r="AJ80" s="73"/>
-      <c r="AK80" s="73"/>
-      <c r="AL80" s="73"/>
-      <c r="AM80" s="73"/>
+      <c r="Y80" s="65"/>
+      <c r="Z80" s="83"/>
+      <c r="AA80" s="83"/>
+      <c r="AB80" s="83"/>
+      <c r="AC80" s="65"/>
+      <c r="AD80" s="65"/>
+      <c r="AE80" s="65"/>
+      <c r="AF80" s="65"/>
+      <c r="AG80" s="82"/>
+      <c r="AH80" s="82"/>
+      <c r="AI80" s="82"/>
+      <c r="AJ80" s="82"/>
+      <c r="AK80" s="82"/>
+      <c r="AL80" s="82"/>
+      <c r="AM80" s="82"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="75" t="s">
+      <c r="E81" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75" t="s">
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="75"/>
-      <c r="P81" s="75"/>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="75"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+      <c r="Q81" s="84"/>
+      <c r="R81" s="84"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="58" t="s">
+      <c r="T81" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="58"/>
-      <c r="V81" s="58"/>
-      <c r="W81" s="58"/>
-      <c r="X81" s="58">
+      <c r="U81" s="65"/>
+      <c r="V81" s="65"/>
+      <c r="W81" s="65"/>
+      <c r="X81" s="65">
         <v>1</v>
       </c>
-      <c r="Y81" s="58"/>
-      <c r="Z81" s="76" t="s">
+      <c r="Y81" s="65"/>
+      <c r="Z81" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="58" t="s">
+      <c r="AA81" s="83"/>
+      <c r="AB81" s="83"/>
+      <c r="AC81" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="58"/>
-      <c r="AE81" s="58"/>
-      <c r="AF81" s="58"/>
-      <c r="AG81" s="73" t="s">
+      <c r="AD81" s="65"/>
+      <c r="AE81" s="65"/>
+      <c r="AF81" s="65"/>
+      <c r="AG81" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="73"/>
-      <c r="AI81" s="73"/>
-      <c r="AJ81" s="73"/>
-      <c r="AK81" s="73"/>
-      <c r="AL81" s="73"/>
-      <c r="AM81" s="73"/>
+      <c r="AH81" s="82"/>
+      <c r="AI81" s="82"/>
+      <c r="AJ81" s="82"/>
+      <c r="AK81" s="82"/>
+      <c r="AL81" s="82"/>
+      <c r="AM81" s="82"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="58" t="s">
+      <c r="T82" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="58"/>
-      <c r="V82" s="58"/>
-      <c r="W82" s="58"/>
-      <c r="X82" s="58">
+      <c r="U82" s="65"/>
+      <c r="V82" s="65"/>
+      <c r="W82" s="65"/>
+      <c r="X82" s="65">
         <v>1</v>
       </c>
-      <c r="Y82" s="58"/>
-      <c r="Z82" s="76"/>
-      <c r="AA82" s="76"/>
-      <c r="AB82" s="76"/>
-      <c r="AC82" s="58"/>
-      <c r="AD82" s="58"/>
-      <c r="AE82" s="58"/>
-      <c r="AF82" s="58"/>
-      <c r="AG82" s="73"/>
-      <c r="AH82" s="73"/>
-      <c r="AI82" s="73"/>
-      <c r="AJ82" s="73"/>
-      <c r="AK82" s="73"/>
-      <c r="AL82" s="73"/>
-      <c r="AM82" s="73"/>
+      <c r="Y82" s="65"/>
+      <c r="Z82" s="83"/>
+      <c r="AA82" s="83"/>
+      <c r="AB82" s="83"/>
+      <c r="AC82" s="65"/>
+      <c r="AD82" s="65"/>
+      <c r="AE82" s="65"/>
+      <c r="AF82" s="65"/>
+      <c r="AG82" s="82"/>
+      <c r="AH82" s="82"/>
+      <c r="AI82" s="82"/>
+      <c r="AJ82" s="82"/>
+      <c r="AK82" s="82"/>
+      <c r="AL82" s="82"/>
+      <c r="AM82" s="82"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="75" t="s">
+      <c r="E83" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75" t="s">
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
+      <c r="Q83" s="84"/>
+      <c r="R83" s="84"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="58" t="s">
+      <c r="T83" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="58"/>
-      <c r="V83" s="58"/>
-      <c r="W83" s="58"/>
-      <c r="X83" s="58">
+      <c r="U83" s="65"/>
+      <c r="V83" s="65"/>
+      <c r="W83" s="65"/>
+      <c r="X83" s="65">
         <v>1</v>
       </c>
-      <c r="Y83" s="58"/>
-      <c r="Z83" s="76" t="s">
+      <c r="Y83" s="65"/>
+      <c r="Z83" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="76"/>
-      <c r="AB83" s="76"/>
-      <c r="AC83" s="58" t="s">
+      <c r="AA83" s="83"/>
+      <c r="AB83" s="83"/>
+      <c r="AC83" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="58"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="73" t="s">
+      <c r="AD83" s="65"/>
+      <c r="AE83" s="65"/>
+      <c r="AF83" s="65"/>
+      <c r="AG83" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="73"/>
-      <c r="AI83" s="73"/>
-      <c r="AJ83" s="73"/>
-      <c r="AK83" s="73"/>
-      <c r="AL83" s="73"/>
-      <c r="AM83" s="73"/>
+      <c r="AH83" s="82"/>
+      <c r="AI83" s="82"/>
+      <c r="AJ83" s="82"/>
+      <c r="AK83" s="82"/>
+      <c r="AL83" s="82"/>
+      <c r="AM83" s="82"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="58" t="s">
+      <c r="T84" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
-      <c r="W84" s="58"/>
-      <c r="X84" s="58">
+      <c r="U84" s="65"/>
+      <c r="V84" s="65"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="65">
         <v>1</v>
       </c>
-      <c r="Y84" s="58"/>
-      <c r="Z84" s="76"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="76"/>
-      <c r="AC84" s="58"/>
-      <c r="AD84" s="58"/>
-      <c r="AE84" s="58"/>
-      <c r="AF84" s="58"/>
-      <c r="AG84" s="73"/>
-      <c r="AH84" s="73"/>
-      <c r="AI84" s="73"/>
-      <c r="AJ84" s="73"/>
-      <c r="AK84" s="73"/>
-      <c r="AL84" s="73"/>
-      <c r="AM84" s="73"/>
+      <c r="Y84" s="65"/>
+      <c r="Z84" s="83"/>
+      <c r="AA84" s="83"/>
+      <c r="AB84" s="83"/>
+      <c r="AC84" s="65"/>
+      <c r="AD84" s="65"/>
+      <c r="AE84" s="65"/>
+      <c r="AF84" s="65"/>
+      <c r="AG84" s="82"/>
+      <c r="AH84" s="82"/>
+      <c r="AI84" s="82"/>
+      <c r="AJ84" s="82"/>
+      <c r="AK84" s="82"/>
+      <c r="AL84" s="82"/>
+      <c r="AM84" s="82"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="75" t="s">
+      <c r="E85" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75" t="s">
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="58" t="s">
+      <c r="T85" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="58"/>
-      <c r="V85" s="58"/>
-      <c r="W85" s="58"/>
-      <c r="X85" s="58">
+      <c r="U85" s="65"/>
+      <c r="V85" s="65"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="65">
         <v>1</v>
       </c>
-      <c r="Y85" s="58"/>
-      <c r="Z85" s="76" t="s">
+      <c r="Y85" s="65"/>
+      <c r="Z85" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="76"/>
-      <c r="AB85" s="76"/>
-      <c r="AC85" s="58" t="s">
+      <c r="AA85" s="83"/>
+      <c r="AB85" s="83"/>
+      <c r="AC85" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="58"/>
-      <c r="AE85" s="58"/>
-      <c r="AF85" s="58"/>
-      <c r="AG85" s="73" t="s">
+      <c r="AD85" s="65"/>
+      <c r="AE85" s="65"/>
+      <c r="AF85" s="65"/>
+      <c r="AG85" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="73"/>
-      <c r="AI85" s="73"/>
-      <c r="AJ85" s="73"/>
-      <c r="AK85" s="73"/>
-      <c r="AL85" s="73"/>
-      <c r="AM85" s="73"/>
+      <c r="AH85" s="82"/>
+      <c r="AI85" s="82"/>
+      <c r="AJ85" s="82"/>
+      <c r="AK85" s="82"/>
+      <c r="AL85" s="82"/>
+      <c r="AM85" s="82"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="84"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="84"/>
+      <c r="P86" s="84"/>
+      <c r="Q86" s="84"/>
+      <c r="R86" s="84"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="58" t="s">
+      <c r="T86" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="58"/>
-      <c r="V86" s="58"/>
-      <c r="W86" s="58"/>
-      <c r="X86" s="58">
+      <c r="U86" s="65"/>
+      <c r="V86" s="65"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="65">
         <v>1</v>
       </c>
-      <c r="Y86" s="58"/>
-      <c r="Z86" s="76"/>
-      <c r="AA86" s="76"/>
-      <c r="AB86" s="76"/>
-      <c r="AC86" s="58"/>
-      <c r="AD86" s="58"/>
-      <c r="AE86" s="58"/>
-      <c r="AF86" s="58"/>
-      <c r="AG86" s="73"/>
-      <c r="AH86" s="73"/>
-      <c r="AI86" s="73"/>
-      <c r="AJ86" s="73"/>
-      <c r="AK86" s="73"/>
-      <c r="AL86" s="73"/>
-      <c r="AM86" s="73"/>
+      <c r="Y86" s="65"/>
+      <c r="Z86" s="83"/>
+      <c r="AA86" s="83"/>
+      <c r="AB86" s="83"/>
+      <c r="AC86" s="65"/>
+      <c r="AD86" s="65"/>
+      <c r="AE86" s="65"/>
+      <c r="AF86" s="65"/>
+      <c r="AG86" s="82"/>
+      <c r="AH86" s="82"/>
+      <c r="AI86" s="82"/>
+      <c r="AJ86" s="82"/>
+      <c r="AK86" s="82"/>
+      <c r="AL86" s="82"/>
+      <c r="AM86" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -23334,6 +24714,112 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23401,7 +24887,7 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="56" t="s">
         <v>188</v>
       </c>
     </row>
@@ -23419,7 +24905,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="57" t="s">
         <v>193</v>
       </c>
       <c r="D22" t="s">
@@ -23427,7 +24913,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="57" t="s">
         <v>193</v>
       </c>
       <c r="E23" t="s">

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944FF60-0BA9-40BB-9942-51EC03A00E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630EF6A-D8CF-4622-836F-86BB90628DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
     <sheet name="操作画面" sheetId="8" r:id="rId2"/>
     <sheet name="サーバ関連" sheetId="5" r:id="rId3"/>
-    <sheet name="送受信Json" sheetId="6" r:id="rId4"/>
-    <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId5"/>
+    <sheet name="サイトの設定" sheetId="13" r:id="rId4"/>
+    <sheet name="送受信Json" sheetId="6" r:id="rId5"/>
+    <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId6"/>
+    <sheet name="momo関連" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="292">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -1690,6 +1692,503 @@
   </si>
   <si>
     <t>&amp;&amp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧で表示される</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v4l2-ctl --list-devices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HD USB Camera: USB Camera (usb-3f980000.usb-1.3.1):
+        /dev/video0
+        /dev/video1
+        /dev/video2
+        /dev/video3
+        /dev/media0
+UVC Camera (046d:0825) (usb-3f980000.usb-1.3.3):
+        /dev/video4
+        /dev/video5
+        /dev/media1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・接続されているデバイスの一覧</t>
+    <rPh sb="1" eb="3">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・デバイスの詳細</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v4l2-ctl --device=/dev/video0 --all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+　：
+Video input : 0 (Input 1: ok)
+Format Video Capture:
+        Width/Height      : 1280/720
+        Pixel Format      : 'MJPG' (Motion-JPEG)
+        Field             : None
+        Bytes per Line    : 0
+        Size Image        : 1843789
+        Colorspace        : sRGB
+        Transfer Function : Default (maps to sRGB)
+        YCbCr/HSV Encoding: Default (maps to ITU-R 601)
+        Quantization      : Default (maps to Full Range)
+　：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Format Video Capture: の後に、解像度などが表示されればビデオのデバイスという事になる</t>
+    <rPh sb="23" eb="24">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイゾウド</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HD USB Camera: USB Camera (usb-3f980000.usb-1.3.1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/video1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/video2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/video3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/media0</t>
+  </si>
+  <si>
+    <t>UVC Camera (046d:0825) (usb-3f980000.usb-1.3.3):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/video4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/video5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/media1</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラデバイスの探し方</t>
+    <rPh sb="8" eb="9">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・momo起動のパラメタ</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momoの起動</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動パラメータ設定</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動パラメータ</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momoパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./momo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーディオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--no-audio-device</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトへのアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ipアドレスを調べる</t>
+    <rPh sb="8" eb="9">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hostname -I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・momo終了</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ps -ef | grep momo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスIDを調べる</t>
+    <rPh sb="7" eb="8">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスを終了する</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kill [プロセスID]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPアドレス:ポート番号</t>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ一覧取得</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        /dev/video0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dev/video1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dev/video4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切断</t>
+    <rPh sb="0" eb="2">
+      <t>セツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイス名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainServer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■サイトの設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.envファイルに設定を記載</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.envファイル内容</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBSOCKET_MODE</t>
+  </si>
+  <si>
+    <t>env….envファイルに設定されている内容で設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBSOCKET_HOST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBSOCKET_PORT</t>
+  </si>
+  <si>
+    <t>WEBSOCKET_PROTOCOL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ws</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ws_mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ws_host</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ws_port</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ws_protcol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓使用しない場合は#を設定</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓説明を記載</t>
+    <rPh sb="1" eb="3">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto…自動設定（現在のサーバ、プロトコルは自動選択、ポート番号は.envより）</t>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBSOCKET_MODE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1700,7 +2199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,8 +2284,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,6 +2348,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,7 +2617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2199,18 +2745,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2218,6 +2752,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2244,37 +2793,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6181,8 +6799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7891411" y="5132958"/>
-          <a:ext cx="2789832" cy="2805725"/>
+          <a:off x="7778768" y="5072495"/>
+          <a:ext cx="2750075" cy="2765968"/>
           <a:chOff x="7730277" y="5489864"/>
           <a:chExt cx="2708512" cy="2724404"/>
         </a:xfrm>
@@ -6662,10 +7280,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>35566</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1613647" cy="564514"/>
     <xdr:sp macro="" textlink="">
@@ -6681,7 +7299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4511488" y="762000"/>
+          <a:off x="5369566" y="1664804"/>
           <a:ext cx="1613647" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6722,15 +7340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60250</xdr:rowOff>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>146651</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6747,8 +7365,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5029200" y="1279450"/>
-          <a:ext cx="307041" cy="509008"/>
+          <a:off x="5209761" y="2229318"/>
+          <a:ext cx="966629" cy="122943"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7377,13 +7995,13 @@
     <xdr:from>
       <xdr:col>65</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>136668</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7399,8 +8017,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15212893" y="5956701"/>
-          <a:ext cx="1924577" cy="1957337"/>
+          <a:off x="14997545" y="6797386"/>
+          <a:ext cx="1898073" cy="1930832"/>
           <a:chOff x="5724526" y="2114550"/>
           <a:chExt cx="1104900" cy="1123950"/>
         </a:xfrm>
@@ -7781,8 +8399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="620707" y="12780066"/>
-          <a:ext cx="6263115" cy="5119393"/>
+          <a:off x="614081" y="12613171"/>
+          <a:ext cx="6173663" cy="5046506"/>
           <a:chOff x="620707" y="12084326"/>
           <a:chExt cx="6263115" cy="5119393"/>
         </a:xfrm>
@@ -8960,8 +9578,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="496957" y="18652434"/>
-          <a:ext cx="2482618" cy="2489165"/>
+          <a:off x="490331" y="18402713"/>
+          <a:ext cx="2449487" cy="2452722"/>
           <a:chOff x="836544" y="18031239"/>
           <a:chExt cx="2482618" cy="2489165"/>
         </a:xfrm>
@@ -9432,8 +10050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3362739" y="18693847"/>
-          <a:ext cx="2663696" cy="1846535"/>
+          <a:off x="3316356" y="18444126"/>
+          <a:ext cx="2627253" cy="1820031"/>
           <a:chOff x="3462131" y="18031239"/>
           <a:chExt cx="2663696" cy="1846535"/>
         </a:xfrm>
@@ -9877,8 +10495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="620707" y="22594957"/>
-          <a:ext cx="6263115" cy="5119393"/>
+          <a:off x="614081" y="22290571"/>
+          <a:ext cx="6173663" cy="5046506"/>
           <a:chOff x="620707" y="12084326"/>
           <a:chExt cx="6263115" cy="5119393"/>
         </a:xfrm>
@@ -11193,8 +11811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="496957" y="28699238"/>
-          <a:ext cx="2482618" cy="2489165"/>
+          <a:off x="490331" y="28308713"/>
+          <a:ext cx="2449487" cy="2452722"/>
           <a:chOff x="836544" y="18031239"/>
           <a:chExt cx="2482618" cy="2489165"/>
         </a:xfrm>
@@ -11665,8 +12283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3611218" y="27986930"/>
-          <a:ext cx="6089137" cy="2874071"/>
+          <a:off x="3561522" y="27606344"/>
+          <a:ext cx="6002998" cy="2834315"/>
           <a:chOff x="3611218" y="27986930"/>
           <a:chExt cx="6089137" cy="2874071"/>
         </a:xfrm>
@@ -12995,8 +13613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6626087" y="27986930"/>
-          <a:ext cx="3048429" cy="2865312"/>
+          <a:off x="6533322" y="27606344"/>
+          <a:ext cx="3005359" cy="2825556"/>
           <a:chOff x="3611218" y="27986930"/>
           <a:chExt cx="3048429" cy="2865312"/>
         </a:xfrm>
@@ -13953,8 +14571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4641575" y="28636746"/>
-          <a:ext cx="1424610" cy="1914837"/>
+          <a:off x="4575314" y="28246221"/>
+          <a:ext cx="1404732" cy="1888333"/>
           <a:chOff x="4641575" y="28636746"/>
           <a:chExt cx="1424610" cy="1914837"/>
         </a:xfrm>
@@ -14072,8 +14690,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="7676323" y="28648343"/>
-          <a:ext cx="1424610" cy="1914837"/>
+          <a:off x="7566992" y="28257819"/>
+          <a:ext cx="1404732" cy="1888332"/>
           <a:chOff x="4641575" y="28636746"/>
           <a:chExt cx="1424610" cy="1914837"/>
         </a:xfrm>
@@ -14233,7 +14851,7 @@
     <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>207069</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>165654</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -14292,7 +14910,7 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>41414</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -14464,13 +15082,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>151707</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>87866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14528,13 +15146,13 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>218661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>218661</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14582,7 +15200,7 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>41416</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>165654</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="299377" cy="264560"/>
@@ -14641,7 +15259,7 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>41416</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>16567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -14700,7 +15318,7 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -14781,8 +15399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11131826" y="28583283"/>
-          <a:ext cx="2319131" cy="2310847"/>
+          <a:off x="10972800" y="28192758"/>
+          <a:ext cx="2286000" cy="2277717"/>
           <a:chOff x="11131826" y="28583283"/>
           <a:chExt cx="2319131" cy="2310847"/>
         </a:xfrm>
@@ -14892,8 +15510,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="11135136" y="28586594"/>
-          <a:ext cx="2319131" cy="2310847"/>
+          <a:off x="10977766" y="28194413"/>
+          <a:ext cx="2286001" cy="2281030"/>
           <a:chOff x="11131826" y="28583283"/>
           <a:chExt cx="2319131" cy="2310847"/>
         </a:xfrm>
@@ -14981,13 +15599,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15123,13 +15741,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>182219</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15265,13 +15883,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>74542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>182219</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15336,13 +15954,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>91108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15478,13 +16096,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>132523</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>91108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15543,6 +16161,732 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCD2DAF-0D2E-2214-C45E-B4C352F21DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16830260" y="3230218"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>接続可能なカメラのリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5697AB67-EA1A-CDE4-8AFD-F71374E6B480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16217348" y="2501348"/>
+          <a:ext cx="828261" cy="745435"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2034806" cy="1379608"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB30A5A8-26C2-57DD-F705-1266BC2382B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12415630" y="4820478"/>
+          <a:ext cx="2034806" cy="1379608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>・起動を押すと、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>momo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>のサービスが起動する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>・起動したら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>のボタンに変わる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>・終了を押すと、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>momo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>のサービスが終了する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B44CCAC-AFC2-4EFC-CE3F-FC5126D97BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13889935" y="3818283"/>
+          <a:ext cx="8282" cy="1018760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1413610" cy="306879"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8502B84D-D541-0C76-0CFC-2E8FD01B2E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13036826" y="4240696"/>
+          <a:ext cx="1413610" cy="306879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ポート番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FBC6B0-2CD9-9AD5-D9D6-3054C85F52C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13442674" y="3859696"/>
+          <a:ext cx="16565" cy="430695"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1457739" cy="679174"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1759AFB0-E6C2-1A27-7F90-7542ED067DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11438283" y="4389783"/>
+          <a:ext cx="1457739" cy="679174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>デバイスの詳細が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>alert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線矢印コネクタ 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8E03A1-DAD8-097F-D002-CFC5C3BF5010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="157" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12167153" y="3752022"/>
+          <a:ext cx="662608" cy="637761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573695" cy="314740"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="テキスト ボックス 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B64944-20DB-116A-8C5F-14F63D0A9BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12954000" y="2203173"/>
+          <a:ext cx="1573695" cy="314740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>デバイス名が表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD13FA96-A6BC-E9B2-63D7-E5EA18985652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12614413" y="2360543"/>
+          <a:ext cx="339587" cy="364435"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1871870" cy="314740"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="テキスト ボックス 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53281CAC-F95C-8760-172A-731C7A4E5B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12316239" y="1615107"/>
+          <a:ext cx="1871870" cy="314740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>デバイスの一覧が表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直線矢印コネクタ 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D567DFEB-F4AE-3678-989B-36583F75C548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12117457" y="1772477"/>
+          <a:ext cx="198782" cy="405849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20486,8 +21830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
   <dimension ref="A1:CL150"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS129" sqref="AS129"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
@@ -20507,32 +21851,28 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:90" ht="18" customHeight="1">
-      <c r="J8" s="53">
-        <v>1</v>
-      </c>
-      <c r="K8" s="80">
-        <v>2</v>
-      </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="53">
-        <v>3</v>
-      </c>
-      <c r="R8" s="80">
-        <v>4</v>
-      </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="53">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:90" ht="18" customHeight="1">
+      <c r="J6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:90" ht="18" customHeight="1">
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="U7" s="73"/>
+      <c r="V7" s="99"/>
+      <c r="X7" s="105"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
       <c r="J9" s="29"/>
@@ -20617,26 +21957,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="81">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65">
         <v>9999</v>
       </c>
-      <c r="P10" s="81"/>
-      <c r="R10" s="79" t="s">
+      <c r="P10" s="65"/>
+      <c r="R10" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="81">
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="65">
         <v>9999</v>
       </c>
-      <c r="W10" s="81"/>
+      <c r="W10" s="65"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -20662,47 +22002,56 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="3"/>
+      <c r="AY10" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ10" s="101"/>
+      <c r="BA10" s="101"/>
+      <c r="BB10" s="101"/>
+      <c r="BC10" s="102"/>
+      <c r="BL10" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT10" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU10" s="73"/>
+      <c r="BV10" s="99"/>
+      <c r="BX10" s="104"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="R11" s="79" t="s">
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="R11" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
       <c r="AU11" s="5"/>
       <c r="AV11" s="33"/>
       <c r="AX11" s="32"/>
-      <c r="BL11" s="4"/>
-      <c r="BX11" s="5"/>
       <c r="CL11" s="33"/>
     </row>
     <row r="12" spans="1:90" ht="18" customHeight="1">
@@ -20726,8 +22075,41 @@
       <c r="AU12" s="5"/>
       <c r="AV12" s="33"/>
       <c r="AX12" s="32"/>
-      <c r="BL12" s="4"/>
-      <c r="BX12" s="5"/>
+      <c r="AY12" s="113">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="116"/>
+      <c r="BD12" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE12" s="99"/>
+      <c r="BF12" s="111">
+        <v>50000</v>
+      </c>
+      <c r="BG12" s="112"/>
+      <c r="BH12" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI12" s="99"/>
+      <c r="BJ12" s="106"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="3"/>
       <c r="CL12" s="33"/>
     </row>
     <row r="13" spans="1:90" ht="18" customHeight="1">
@@ -20736,10 +22118,29 @@
       <c r="AU13" s="5"/>
       <c r="AV13" s="33"/>
       <c r="AX13" s="32"/>
+      <c r="AY13" s="113">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="116"/>
+      <c r="BD13" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE13" s="99"/>
+      <c r="BF13" s="111">
+        <v>50001</v>
+      </c>
+      <c r="BG13" s="112"/>
+      <c r="BH13" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI13" s="99"/>
+      <c r="BJ13" s="107"/>
       <c r="BL13" s="4"/>
-      <c r="BQ13" t="s">
-        <v>11</v>
-      </c>
       <c r="BX13" s="5"/>
       <c r="CL13" s="33"/>
     </row>
@@ -20764,10 +22165,29 @@
       <c r="AU14" s="5"/>
       <c r="AV14" s="33"/>
       <c r="AX14" s="32"/>
+      <c r="AY14" s="113">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="116"/>
+      <c r="BD14" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE14" s="99"/>
+      <c r="BF14" s="111">
+        <v>50002</v>
+      </c>
+      <c r="BG14" s="112"/>
+      <c r="BH14" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI14" s="99"/>
+      <c r="BJ14" s="107"/>
       <c r="BL14" s="4"/>
-      <c r="BQ14" t="s">
-        <v>149</v>
-      </c>
       <c r="BX14" s="5"/>
       <c r="CL14" s="33"/>
     </row>
@@ -20785,7 +22205,30 @@
       <c r="AU15" s="5"/>
       <c r="AV15" s="33"/>
       <c r="AX15" s="32"/>
+      <c r="AY15" s="113">
+        <v>4</v>
+      </c>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="116"/>
+      <c r="BD15" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE15" s="99"/>
+      <c r="BF15" s="111">
+        <v>50003</v>
+      </c>
+      <c r="BG15" s="112"/>
+      <c r="BH15" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI15" s="99"/>
+      <c r="BJ15" s="106"/>
       <c r="BL15" s="4"/>
+      <c r="BQ15" t="s">
+        <v>11</v>
+      </c>
       <c r="BX15" s="5"/>
       <c r="CL15" s="33"/>
     </row>
@@ -20798,7 +22241,30 @@
       <c r="AU16" s="5"/>
       <c r="AV16" s="33"/>
       <c r="AX16" s="32"/>
+      <c r="AY16" s="113">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="116"/>
+      <c r="BD16" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE16" s="99"/>
+      <c r="BF16" s="111">
+        <v>50004</v>
+      </c>
+      <c r="BG16" s="112"/>
+      <c r="BH16" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI16" s="99"/>
+      <c r="BJ16" s="106"/>
       <c r="BL16" s="4"/>
+      <c r="BQ16" t="s">
+        <v>149</v>
+      </c>
       <c r="BX16" s="5"/>
       <c r="CL16" s="33"/>
     </row>
@@ -20809,9 +22275,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -20819,19 +22285,20 @@
       <c r="AU17" s="5"/>
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="7"/>
-      <c r="BN17" s="7"/>
-      <c r="BO17" s="7"/>
-      <c r="BP17" s="7"/>
-      <c r="BQ17" s="7"/>
-      <c r="BR17" s="7"/>
-      <c r="BS17" s="7"/>
-      <c r="BT17" s="7"/>
-      <c r="BU17" s="7"/>
-      <c r="BV17" s="7"/>
-      <c r="BW17" s="7"/>
-      <c r="BX17" s="8"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="116"/>
+      <c r="BD17" s="72"/>
+      <c r="BE17" s="99"/>
+      <c r="BF17" s="111"/>
+      <c r="BG17" s="112"/>
+      <c r="BH17" s="72"/>
+      <c r="BI17" s="99"/>
+      <c r="BJ17" s="52"/>
+      <c r="BL17" s="4"/>
+      <c r="BX17" s="5"/>
       <c r="CL17" s="33"/>
     </row>
     <row r="18" spans="10:90" ht="18" customHeight="1">
@@ -20845,21 +22312,23 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="70"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="71"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="71" t="s">
+      <c r="U18" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
       <c r="AU18" s="5"/>
       <c r="AV18" s="33"/>
       <c r="AX18" s="32"/>
+      <c r="BL18" s="4"/>
+      <c r="BX18" s="5"/>
       <c r="CL18" s="33"/>
     </row>
     <row r="19" spans="10:90" ht="18" customHeight="1">
@@ -20869,11 +22338,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="71" t="s">
+      <c r="S19" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -20881,19 +22350,19 @@
       <c r="AU19" s="5"/>
       <c r="AV19" s="33"/>
       <c r="AX19" s="32"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="3"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="8"/>
       <c r="CL19" s="33"/>
     </row>
     <row r="20" spans="10:90" ht="18" customHeight="1">
@@ -20910,8 +22379,6 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="33"/>
       <c r="AX20" s="32"/>
-      <c r="BL20" s="4"/>
-      <c r="BX20" s="5"/>
       <c r="CL20" s="33"/>
     </row>
     <row r="21" spans="10:90" ht="18" customHeight="1">
@@ -20919,19 +22386,34 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="73" t="s">
+      <c r="S21" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="74"/>
-      <c r="U21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="76"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="4"/>
-      <c r="BX21" s="5"/>
+      <c r="BL21" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM21" s="109"/>
+      <c r="BN21" s="109"/>
+      <c r="BO21" s="109"/>
+      <c r="BP21" s="109"/>
+      <c r="BQ21" s="110"/>
+      <c r="BR21" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT21" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU21" s="73"/>
+      <c r="BV21" s="99"/>
+      <c r="BX21" s="105"/>
       <c r="CL21" s="33"/>
     </row>
     <row r="22" spans="10:90" ht="18" customHeight="1">
@@ -20955,11 +22437,6 @@
       <c r="AU22" s="5"/>
       <c r="AV22" s="33"/>
       <c r="AX22" s="32"/>
-      <c r="BL22" s="4"/>
-      <c r="BQ22" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX22" s="5"/>
       <c r="CL22" s="33"/>
     </row>
     <row r="23" spans="10:90" ht="18" customHeight="1">
@@ -20968,11 +22445,19 @@
       <c r="AU23" s="5"/>
       <c r="AV23" s="33"/>
       <c r="AX23" s="32"/>
-      <c r="BL23" s="4"/>
-      <c r="BQ23" t="s">
-        <v>155</v>
-      </c>
-      <c r="BX23" s="5"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="3"/>
       <c r="CL23" s="33"/>
     </row>
     <row r="24" spans="10:90" ht="18" customHeight="1">
@@ -21002,31 +22487,20 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="76" t="s">
+      <c r="O25" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="78"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
       <c r="AU25" s="5"/>
       <c r="AV25" s="33"/>
       <c r="AX25" s="32"/>
-      <c r="BL25" s="6"/>
-      <c r="BM25" s="7"/>
-      <c r="BN25" s="7"/>
-      <c r="BO25" s="7"/>
-      <c r="BP25" s="7"/>
-      <c r="BQ25" s="7"/>
-      <c r="BR25" s="7"/>
-      <c r="BS25" s="7"/>
-      <c r="BT25" s="7"/>
-      <c r="BU25" s="7"/>
-      <c r="BV25" s="7"/>
-      <c r="BW25" s="7"/>
-      <c r="BX25" s="8"/>
+      <c r="BL25" s="4"/>
+      <c r="BX25" s="5"/>
       <c r="CL25" s="33"/>
     </row>
     <row r="26" spans="10:90" ht="18" customHeight="1">
@@ -21050,6 +22524,11 @@
       <c r="AU26" s="5"/>
       <c r="AV26" s="33"/>
       <c r="AX26" s="32"/>
+      <c r="BL26" s="4"/>
+      <c r="BQ26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX26" s="5"/>
       <c r="CL26" s="33"/>
     </row>
     <row r="27" spans="10:90" ht="18" customHeight="1">
@@ -21058,32 +22537,11 @@
       <c r="AU27" s="5"/>
       <c r="AV27" s="33"/>
       <c r="AX27" s="32"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="2"/>
-      <c r="BI27" s="2"/>
-      <c r="BJ27" s="2"/>
-      <c r="BK27" s="3"/>
-      <c r="BY27" s="1"/>
-      <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
-      <c r="CC27" s="2"/>
-      <c r="CD27" s="2"/>
-      <c r="CE27" s="2"/>
-      <c r="CF27" s="2"/>
-      <c r="CG27" s="2"/>
-      <c r="CH27" s="2"/>
-      <c r="CI27" s="2"/>
-      <c r="CJ27" s="2"/>
-      <c r="CK27" s="3"/>
+      <c r="BL27" s="4"/>
+      <c r="BQ27" t="s">
+        <v>155</v>
+      </c>
+      <c r="BX27" s="5"/>
       <c r="CL27" s="33"/>
     </row>
     <row r="28" spans="10:90" ht="18" customHeight="1">
@@ -21107,10 +22565,8 @@
       <c r="AU28" s="5"/>
       <c r="AV28" s="33"/>
       <c r="AX28" s="32"/>
-      <c r="AY28" s="4"/>
-      <c r="BK28" s="5"/>
-      <c r="BY28" s="4"/>
-      <c r="CK28" s="5"/>
+      <c r="BL28" s="4"/>
+      <c r="BX28" s="5"/>
       <c r="CL28" s="33"/>
     </row>
     <row r="29" spans="10:90" ht="18" customHeight="1">
@@ -21127,10 +22583,19 @@
       <c r="AU29" s="5"/>
       <c r="AV29" s="33"/>
       <c r="AX29" s="32"/>
-      <c r="AY29" s="4"/>
-      <c r="BK29" s="5"/>
-      <c r="BY29" s="4"/>
-      <c r="CK29" s="5"/>
+      <c r="BL29" s="6"/>
+      <c r="BM29" s="7"/>
+      <c r="BN29" s="7"/>
+      <c r="BO29" s="7"/>
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7"/>
+      <c r="BR29" s="7"/>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7"/>
+      <c r="BU29" s="7"/>
+      <c r="BV29" s="7"/>
+      <c r="BW29" s="7"/>
+      <c r="BX29" s="8"/>
       <c r="CL29" s="33"/>
     </row>
     <row r="30" spans="10:90" ht="18" customHeight="1">
@@ -21159,16 +22624,6 @@
       <c r="AU30" s="5"/>
       <c r="AV30" s="33"/>
       <c r="AX30" s="32"/>
-      <c r="AY30" s="4"/>
-      <c r="BD30" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK30" s="5"/>
-      <c r="BY30" s="4"/>
-      <c r="CD30" t="s">
-        <v>11</v>
-      </c>
-      <c r="CK30" s="5"/>
       <c r="CL30" s="33"/>
     </row>
     <row r="31" spans="10:90" ht="18" customHeight="1">
@@ -21193,16 +22648,40 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="4"/>
-      <c r="BD31" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK31" s="5"/>
-      <c r="BY31" s="4"/>
-      <c r="CD31" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK31" s="5"/>
+      <c r="AY31" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ31" s="109"/>
+      <c r="BA31" s="109"/>
+      <c r="BB31" s="109"/>
+      <c r="BC31" s="109"/>
+      <c r="BD31" s="110"/>
+      <c r="BE31" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG31" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="99"/>
+      <c r="BK31" s="105"/>
+      <c r="BY31" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="BZ31" s="109"/>
+      <c r="CA31" s="109"/>
+      <c r="CB31" s="109"/>
+      <c r="CC31" s="109"/>
+      <c r="CD31" s="110"/>
+      <c r="CE31" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG31" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="CH31" s="73"/>
+      <c r="CI31" s="99"/>
+      <c r="CK31" s="105"/>
       <c r="CL31" s="33"/>
     </row>
     <row r="32" spans="10:90" ht="18" customHeight="1">
@@ -21231,10 +22710,6 @@
       <c r="AU32" s="5"/>
       <c r="AV32" s="33"/>
       <c r="AX32" s="32"/>
-      <c r="AY32" s="4"/>
-      <c r="BK32" s="5"/>
-      <c r="BY32" s="4"/>
-      <c r="CK32" s="5"/>
       <c r="CL32" s="33"/>
     </row>
     <row r="33" spans="10:90" ht="18" customHeight="1">
@@ -21251,32 +22726,32 @@
       <c r="AU33" s="5"/>
       <c r="AV33" s="33"/>
       <c r="AX33" s="32"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="7"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
-      <c r="BC33" s="7"/>
-      <c r="BD33" s="7"/>
-      <c r="BE33" s="7"/>
-      <c r="BF33" s="7"/>
-      <c r="BG33" s="7"/>
-      <c r="BH33" s="7"/>
-      <c r="BI33" s="7"/>
-      <c r="BJ33" s="7"/>
-      <c r="BK33" s="8"/>
-      <c r="BY33" s="6"/>
-      <c r="BZ33" s="7"/>
-      <c r="CA33" s="7"/>
-      <c r="CB33" s="7"/>
-      <c r="CC33" s="7"/>
-      <c r="CD33" s="7"/>
-      <c r="CE33" s="7"/>
-      <c r="CF33" s="7"/>
-      <c r="CG33" s="7"/>
-      <c r="CH33" s="7"/>
-      <c r="CI33" s="7"/>
-      <c r="CJ33" s="7"/>
-      <c r="CK33" s="8"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="3"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="2"/>
+      <c r="CK33" s="3"/>
       <c r="CL33" s="33"/>
     </row>
     <row r="34" spans="10:90" ht="18" customHeight="1">
@@ -21284,23 +22759,27 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="65">
+      <c r="L34" s="61">
         <v>9999</v>
       </c>
-      <c r="M34" s="65"/>
+      <c r="M34" s="61"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="66">
+      <c r="V34" s="62">
         <v>9999</v>
       </c>
-      <c r="W34" s="67"/>
+      <c r="W34" s="63"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
       <c r="AU34" s="5"/>
       <c r="AV34" s="33"/>
       <c r="AX34" s="32"/>
+      <c r="AY34" s="4"/>
+      <c r="BK34" s="5"/>
+      <c r="BY34" s="4"/>
+      <c r="CK34" s="5"/>
       <c r="CL34" s="33"/>
     </row>
     <row r="35" spans="10:90" ht="18" customHeight="1">
@@ -21308,36 +22787,27 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="65">
+      <c r="L35" s="61">
         <v>9999</v>
       </c>
-      <c r="M35" s="65"/>
+      <c r="M35" s="61"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="66">
+      <c r="V35" s="62">
         <v>9999</v>
       </c>
-      <c r="W35" s="67"/>
+      <c r="W35" s="63"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
       <c r="AU35" s="5"/>
       <c r="AV35" s="33"/>
       <c r="AX35" s="32"/>
-      <c r="BL35" s="1"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35" s="2"/>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
-      <c r="BQ35" s="2"/>
-      <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="2"/>
-      <c r="BV35" s="2"/>
-      <c r="BW35" s="2"/>
-      <c r="BX35" s="3"/>
+      <c r="AY35" s="4"/>
+      <c r="BK35" s="5"/>
+      <c r="BY35" s="4"/>
+      <c r="CK35" s="5"/>
       <c r="CL35" s="33"/>
     </row>
     <row r="36" spans="10:90" ht="18" customHeight="1">
@@ -21361,8 +22831,16 @@
       <c r="AU36" s="5"/>
       <c r="AV36" s="33"/>
       <c r="AX36" s="32"/>
-      <c r="BL36" s="4"/>
-      <c r="BX36" s="5"/>
+      <c r="AY36" s="4"/>
+      <c r="BD36" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK36" s="5"/>
+      <c r="BY36" s="4"/>
+      <c r="CD36" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK36" s="5"/>
       <c r="CL36" s="33"/>
     </row>
     <row r="37" spans="10:90" ht="18" customHeight="1">
@@ -21371,8 +22849,16 @@
       <c r="AU37" s="5"/>
       <c r="AV37" s="33"/>
       <c r="AX37" s="32"/>
-      <c r="BL37" s="4"/>
-      <c r="BX37" s="5"/>
+      <c r="AY37" s="4"/>
+      <c r="BD37" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK37" s="5"/>
+      <c r="BY37" s="4"/>
+      <c r="CD37" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK37" s="5"/>
       <c r="CL37" s="33"/>
     </row>
     <row r="38" spans="10:90" ht="18" customHeight="1">
@@ -21381,11 +22867,10 @@
       <c r="AU38" s="5"/>
       <c r="AV38" s="33"/>
       <c r="AX38" s="32"/>
-      <c r="BL38" s="4"/>
-      <c r="BQ38" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX38" s="5"/>
+      <c r="AY38" s="4"/>
+      <c r="BK38" s="5"/>
+      <c r="BY38" s="4"/>
+      <c r="CK38" s="5"/>
       <c r="CL38" s="33"/>
     </row>
     <row r="39" spans="10:90" ht="18" customHeight="1">
@@ -21394,11 +22879,32 @@
       <c r="AU39" s="5"/>
       <c r="AV39" s="33"/>
       <c r="AX39" s="32"/>
-      <c r="BL39" s="4"/>
-      <c r="BQ39" t="s">
-        <v>160</v>
-      </c>
-      <c r="BX39" s="5"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7"/>
+      <c r="BC39" s="7"/>
+      <c r="BD39" s="7"/>
+      <c r="BE39" s="7"/>
+      <c r="BF39" s="7"/>
+      <c r="BG39" s="7"/>
+      <c r="BH39" s="7"/>
+      <c r="BI39" s="7"/>
+      <c r="BJ39" s="7"/>
+      <c r="BK39" s="8"/>
+      <c r="BY39" s="6"/>
+      <c r="BZ39" s="7"/>
+      <c r="CA39" s="7"/>
+      <c r="CB39" s="7"/>
+      <c r="CC39" s="7"/>
+      <c r="CD39" s="7"/>
+      <c r="CE39" s="7"/>
+      <c r="CF39" s="7"/>
+      <c r="CG39" s="7"/>
+      <c r="CH39" s="7"/>
+      <c r="CI39" s="7"/>
+      <c r="CJ39" s="7"/>
+      <c r="CK39" s="8"/>
       <c r="CL39" s="33"/>
     </row>
     <row r="40" spans="10:90" ht="18" customHeight="1">
@@ -21407,8 +22913,6 @@
       <c r="AU40" s="5"/>
       <c r="AV40" s="33"/>
       <c r="AX40" s="32"/>
-      <c r="BL40" s="4"/>
-      <c r="BX40" s="5"/>
       <c r="CL40" s="33"/>
     </row>
     <row r="41" spans="10:90" ht="18" customHeight="1">
@@ -21417,19 +22921,23 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="6"/>
-      <c r="BM41" s="7"/>
-      <c r="BN41" s="7"/>
-      <c r="BO41" s="7"/>
-      <c r="BP41" s="7"/>
-      <c r="BQ41" s="7"/>
-      <c r="BR41" s="7"/>
-      <c r="BS41" s="7"/>
-      <c r="BT41" s="7"/>
-      <c r="BU41" s="7"/>
-      <c r="BV41" s="7"/>
-      <c r="BW41" s="7"/>
-      <c r="BX41" s="8"/>
+      <c r="BL41" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM41" s="109"/>
+      <c r="BN41" s="109"/>
+      <c r="BO41" s="109"/>
+      <c r="BP41" s="109"/>
+      <c r="BQ41" s="110"/>
+      <c r="BR41" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT41" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU41" s="73"/>
+      <c r="BV41" s="99"/>
+      <c r="BX41" s="105"/>
       <c r="CL41" s="33"/>
     </row>
     <row r="42" spans="10:90" ht="18" customHeight="1">
@@ -21446,6 +22954,19 @@
       <c r="AU43" s="5"/>
       <c r="AV43" s="33"/>
       <c r="AX43" s="32"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="2"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
+      <c r="BW43" s="2"/>
+      <c r="BX43" s="3"/>
       <c r="CL43" s="33"/>
     </row>
     <row r="44" spans="10:90" ht="18" customHeight="1">
@@ -21454,6 +22975,8 @@
       <c r="AU44" s="5"/>
       <c r="AV44" s="33"/>
       <c r="AX44" s="32"/>
+      <c r="BL44" s="4"/>
+      <c r="BX44" s="5"/>
       <c r="CL44" s="33"/>
     </row>
     <row r="45" spans="10:90" ht="18" customHeight="1">
@@ -21481,6 +23004,8 @@
       <c r="AU45" s="8"/>
       <c r="AV45" s="33"/>
       <c r="AX45" s="32"/>
+      <c r="BL45" s="4"/>
+      <c r="BX45" s="5"/>
       <c r="CL45" s="33"/>
     </row>
     <row r="46" spans="10:90" ht="18" customHeight="1">
@@ -21507,64 +23032,103 @@
       <c r="AT46" s="37"/>
       <c r="AU46" s="37"/>
       <c r="AV46" s="38"/>
-      <c r="AX46" s="34"/>
-      <c r="AY46" s="37"/>
-      <c r="AZ46" s="37"/>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="37"/>
-      <c r="BD46" s="37"/>
-      <c r="BE46" s="37"/>
-      <c r="BF46" s="37"/>
-      <c r="BG46" s="37"/>
-      <c r="BH46" s="37"/>
-      <c r="BI46" s="37"/>
-      <c r="BJ46" s="37"/>
-      <c r="BK46" s="37"/>
-      <c r="BL46" s="37"/>
-      <c r="BM46" s="37"/>
-      <c r="BN46" s="37"/>
-      <c r="BO46" s="37"/>
-      <c r="BP46" s="37"/>
-      <c r="BQ46" s="37"/>
-      <c r="BR46" s="37"/>
-      <c r="BS46" s="37"/>
-      <c r="BT46" s="37"/>
-      <c r="BU46" s="37"/>
-      <c r="BV46" s="37"/>
-      <c r="BW46" s="37"/>
-      <c r="BX46" s="37"/>
-      <c r="BY46" s="37"/>
-      <c r="BZ46" s="37"/>
-      <c r="CA46" s="37"/>
-      <c r="CB46" s="37"/>
-      <c r="CC46" s="37"/>
-      <c r="CD46" s="37"/>
-      <c r="CE46" s="37"/>
-      <c r="CF46" s="37"/>
-      <c r="CG46" s="37"/>
-      <c r="CH46" s="37"/>
-      <c r="CI46" s="37"/>
-      <c r="CJ46" s="37"/>
-      <c r="CK46" s="37"/>
-      <c r="CL46" s="38"/>
-    </row>
-    <row r="50" spans="2:3" ht="24">
+      <c r="AX46" s="32"/>
+      <c r="BL46" s="4"/>
+      <c r="BQ46" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX46" s="5"/>
+      <c r="CL46" s="33"/>
+    </row>
+    <row r="47" spans="10:90" ht="18" customHeight="1">
+      <c r="AX47" s="32"/>
+      <c r="BL47" s="4"/>
+      <c r="BQ47" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX47" s="5"/>
+      <c r="CL47" s="33"/>
+    </row>
+    <row r="48" spans="10:90" ht="18" customHeight="1">
+      <c r="AX48" s="32"/>
+      <c r="BL48" s="4"/>
+      <c r="BX48" s="5"/>
+      <c r="CL48" s="33"/>
+    </row>
+    <row r="49" spans="2:90" ht="18" customHeight="1">
+      <c r="AX49" s="32"/>
+      <c r="BL49" s="6"/>
+      <c r="BM49" s="7"/>
+      <c r="BN49" s="7"/>
+      <c r="BO49" s="7"/>
+      <c r="BP49" s="7"/>
+      <c r="BQ49" s="7"/>
+      <c r="BR49" s="7"/>
+      <c r="BS49" s="7"/>
+      <c r="BT49" s="7"/>
+      <c r="BU49" s="7"/>
+      <c r="BV49" s="7"/>
+      <c r="BW49" s="7"/>
+      <c r="BX49" s="8"/>
+      <c r="CL49" s="33"/>
+    </row>
+    <row r="50" spans="2:90" ht="24">
       <c r="B50" s="54" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" ht="18" customHeight="1">
+      <c r="AX50" s="34"/>
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="37"/>
+      <c r="BF50" s="37"/>
+      <c r="BG50" s="37"/>
+      <c r="BH50" s="37"/>
+      <c r="BI50" s="37"/>
+      <c r="BJ50" s="37"/>
+      <c r="BK50" s="37"/>
+      <c r="BL50" s="37"/>
+      <c r="BM50" s="37"/>
+      <c r="BN50" s="37"/>
+      <c r="BO50" s="37"/>
+      <c r="BP50" s="37"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37"/>
+      <c r="BS50" s="37"/>
+      <c r="BT50" s="37"/>
+      <c r="BU50" s="37"/>
+      <c r="BV50" s="37"/>
+      <c r="BW50" s="37"/>
+      <c r="BX50" s="37"/>
+      <c r="BY50" s="37"/>
+      <c r="BZ50" s="37"/>
+      <c r="CA50" s="37"/>
+      <c r="CB50" s="37"/>
+      <c r="CC50" s="37"/>
+      <c r="CD50" s="37"/>
+      <c r="CE50" s="37"/>
+      <c r="CF50" s="37"/>
+      <c r="CG50" s="37"/>
+      <c r="CH50" s="37"/>
+      <c r="CI50" s="37"/>
+      <c r="CJ50" s="37"/>
+      <c r="CK50" s="37"/>
+      <c r="CL50" s="38"/>
+    </row>
+    <row r="52" spans="2:90" ht="18" customHeight="1">
       <c r="C52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="18" customHeight="1">
+    <row r="53" spans="2:90" ht="18" customHeight="1">
       <c r="C53" s="56" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="18" customHeight="1">
+    <row r="54" spans="2:90" ht="18" customHeight="1">
       <c r="C54" s="56"/>
     </row>
     <row r="79" spans="3:17" ht="18" customHeight="1">
@@ -21611,86 +23175,36 @@
     </row>
     <row r="123" spans="3:58" ht="18" customHeight="1">
       <c r="AW123" s="1"/>
-      <c r="AX123" s="2"/>
-      <c r="AY123" s="2"/>
-      <c r="AZ123" s="2"/>
-      <c r="BA123" s="2"/>
-      <c r="BB123" s="1"/>
-      <c r="BC123" s="2"/>
-      <c r="BD123" s="2"/>
-      <c r="BE123" s="2"/>
-      <c r="BF123" s="3"/>
     </row>
     <row r="124" spans="3:58" ht="18" customHeight="1">
       <c r="AW124" s="4"/>
-      <c r="AX124" s="86"/>
-      <c r="AY124" s="86"/>
-      <c r="AZ124" s="86"/>
-      <c r="BA124" s="86"/>
-      <c r="BB124" s="4"/>
-      <c r="BC124" s="86"/>
-      <c r="BD124" s="86"/>
-      <c r="BE124" s="86"/>
-      <c r="BF124" s="5"/>
     </row>
     <row r="125" spans="3:58" ht="18" customHeight="1">
       <c r="AW125" s="4"/>
-      <c r="AX125" s="86"/>
-      <c r="AY125" s="86"/>
-      <c r="AZ125" s="86"/>
-      <c r="BA125" s="86"/>
-      <c r="BB125" s="4"/>
-      <c r="BC125" s="86"/>
-      <c r="BD125" s="86"/>
-      <c r="BE125" s="86"/>
-      <c r="BF125" s="5"/>
     </row>
     <row r="126" spans="3:58" ht="18" customHeight="1">
       <c r="AW126" s="4"/>
-      <c r="AX126" s="86"/>
-      <c r="AY126" s="86"/>
-      <c r="AZ126" s="86"/>
-      <c r="BA126" s="86"/>
-      <c r="BB126" s="4"/>
-      <c r="BC126" s="86"/>
-      <c r="BD126" s="86"/>
-      <c r="BE126" s="86"/>
-      <c r="BF126" s="5"/>
+      <c r="AX126" s="2"/>
     </row>
     <row r="127" spans="3:58" ht="18" customHeight="1">
       <c r="AW127" s="6"/>
-      <c r="AX127" s="7"/>
-      <c r="AY127" s="7"/>
-      <c r="AZ127" s="7"/>
-      <c r="BA127" s="7"/>
-      <c r="BB127" s="6"/>
-      <c r="BC127" s="7"/>
-      <c r="BD127" s="7"/>
-      <c r="BE127" s="7"/>
-      <c r="BF127" s="8"/>
+      <c r="AY127" s="2"/>
+      <c r="AZ127" s="2"/>
+      <c r="BA127" s="2"/>
+      <c r="BB127" s="1"/>
+      <c r="BC127" s="2"/>
+      <c r="BD127" s="2"/>
+      <c r="BE127" s="2"/>
+      <c r="BF127" s="3"/>
     </row>
     <row r="128" spans="3:58" ht="18" customHeight="1">
       <c r="AW128" s="4"/>
-      <c r="AX128" s="86"/>
-      <c r="AY128" s="86"/>
-      <c r="AZ128" s="86"/>
-      <c r="BA128" s="86"/>
       <c r="BB128" s="4"/>
-      <c r="BC128" s="86"/>
-      <c r="BD128" s="86"/>
-      <c r="BE128" s="86"/>
       <c r="BF128" s="5"/>
     </row>
     <row r="129" spans="19:58" ht="18" customHeight="1">
       <c r="AW129" s="4"/>
-      <c r="AX129" s="86"/>
-      <c r="AY129" s="86"/>
-      <c r="AZ129" s="86"/>
-      <c r="BA129" s="86"/>
       <c r="BB129" s="4"/>
-      <c r="BC129" s="86"/>
-      <c r="BD129" s="86"/>
-      <c r="BE129" s="86"/>
       <c r="BF129" s="5"/>
     </row>
     <row r="130" spans="19:58" ht="18" customHeight="1">
@@ -21698,503 +23212,506 @@
         <v>198</v>
       </c>
       <c r="AW130" s="4"/>
-      <c r="AX130" s="86"/>
-      <c r="AY130" s="86"/>
-      <c r="AZ130" s="86"/>
-      <c r="BA130" s="86"/>
+      <c r="AX130" s="7"/>
       <c r="BB130" s="4"/>
-      <c r="BC130" s="86"/>
-      <c r="BD130" s="86"/>
-      <c r="BE130" s="86"/>
       <c r="BF130" s="5"/>
     </row>
     <row r="131" spans="19:58" ht="18" customHeight="1">
       <c r="AW131" s="4"/>
-      <c r="AX131" s="86"/>
-      <c r="AY131" s="86"/>
-      <c r="AZ131" s="86"/>
-      <c r="BA131" s="86"/>
-      <c r="BB131" s="4"/>
-      <c r="BC131" s="86"/>
-      <c r="BD131" s="86"/>
-      <c r="BE131" s="86"/>
-      <c r="BF131" s="5"/>
+      <c r="AY131" s="7"/>
+      <c r="AZ131" s="7"/>
+      <c r="BA131" s="7"/>
+      <c r="BB131" s="6"/>
+      <c r="BC131" s="7"/>
+      <c r="BD131" s="7"/>
+      <c r="BE131" s="7"/>
+      <c r="BF131" s="8"/>
     </row>
     <row r="132" spans="19:58" ht="18" customHeight="1">
       <c r="AW132" s="6"/>
-      <c r="AX132" s="7"/>
-      <c r="AY132" s="7"/>
-      <c r="AZ132" s="7"/>
-      <c r="BA132" s="7"/>
-      <c r="BB132" s="6"/>
-      <c r="BC132" s="7"/>
-      <c r="BD132" s="7"/>
-      <c r="BE132" s="7"/>
-      <c r="BF132" s="8"/>
+      <c r="BB132" s="4"/>
+      <c r="BF132" s="5"/>
+    </row>
+    <row r="133" spans="19:58" ht="18" customHeight="1">
+      <c r="BB133" s="4"/>
+      <c r="BF133" s="5"/>
     </row>
     <row r="134" spans="19:58" ht="18" customHeight="1">
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="63">
+      <c r="T134" s="77">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="64"/>
+      <c r="U134" s="78"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="61" t="s">
+      <c r="W134" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="61"/>
-      <c r="Y134" s="61"/>
+      <c r="X134" s="80"/>
+      <c r="Y134" s="80"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="61" t="s">
+      <c r="AA134" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="61"/>
-      <c r="AC134" s="61"/>
+      <c r="AB134" s="80"/>
+      <c r="AC134" s="80"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="62">
+      <c r="AE134" s="79">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="63"/>
+      <c r="AF134" s="77"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="63">
+      <c r="AH134" s="77">
         <v>-1</v>
       </c>
-      <c r="AI134" s="64"/>
+      <c r="AI134" s="78"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="61" t="s">
+      <c r="AK134" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="61"/>
-      <c r="AM134" s="61"/>
+      <c r="AL134" s="80"/>
+      <c r="AM134" s="80"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="61"/>
-      <c r="AP134" s="61"/>
-      <c r="AQ134" s="61"/>
+      <c r="AO134" s="80"/>
+      <c r="AP134" s="80"/>
+      <c r="AQ134" s="80"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="62"/>
-      <c r="AT134" s="63"/>
+      <c r="AS134" s="79"/>
+      <c r="AT134" s="77"/>
+      <c r="BB134" s="4"/>
+      <c r="BF134" s="5"/>
     </row>
     <row r="135" spans="19:58" ht="18" customHeight="1">
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="63">
+      <c r="T135" s="77">
         <v>0.5</v>
       </c>
-      <c r="U135" s="64"/>
+      <c r="U135" s="78"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="61" t="s">
+      <c r="W135" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="61"/>
-      <c r="Y135" s="61"/>
+      <c r="X135" s="80"/>
+      <c r="Y135" s="80"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="61" t="s">
+      <c r="AA135" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="61"/>
-      <c r="AC135" s="61"/>
+      <c r="AB135" s="80"/>
+      <c r="AC135" s="80"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="62">
+      <c r="AE135" s="79">
         <v>1</v>
       </c>
-      <c r="AF135" s="63"/>
+      <c r="AF135" s="77"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="63">
+      <c r="AH135" s="77">
         <v>-1</v>
       </c>
-      <c r="AI135" s="64"/>
+      <c r="AI135" s="78"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="61" t="s">
+      <c r="AK135" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="61"/>
-      <c r="AM135" s="61"/>
+      <c r="AL135" s="80"/>
+      <c r="AM135" s="80"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="61" t="s">
+      <c r="AO135" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="61"/>
-      <c r="AQ135" s="61"/>
+      <c r="AP135" s="80"/>
+      <c r="AQ135" s="80"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="62">
+      <c r="AS135" s="79">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="63"/>
+      <c r="AT135" s="77"/>
+      <c r="AX135" s="7"/>
+      <c r="BB135" s="4"/>
+      <c r="BF135" s="5"/>
     </row>
     <row r="136" spans="19:58" ht="18" customHeight="1">
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="63">
+      <c r="T136" s="77">
         <v>1</v>
       </c>
-      <c r="U136" s="64"/>
+      <c r="U136" s="78"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="61" t="s">
+      <c r="W136" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="61"/>
-      <c r="Y136" s="61"/>
+      <c r="X136" s="80"/>
+      <c r="Y136" s="80"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="61"/>
-      <c r="AB136" s="61"/>
-      <c r="AC136" s="61"/>
+      <c r="AA136" s="80"/>
+      <c r="AB136" s="80"/>
+      <c r="AC136" s="80"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="62"/>
-      <c r="AF136" s="63"/>
+      <c r="AE136" s="79"/>
+      <c r="AF136" s="77"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="63">
+      <c r="AH136" s="77">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="64"/>
+      <c r="AI136" s="78"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="61" t="s">
+      <c r="AK136" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="61"/>
-      <c r="AM136" s="61"/>
+      <c r="AL136" s="80"/>
+      <c r="AM136" s="80"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="61" t="s">
+      <c r="AO136" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="61"/>
-      <c r="AQ136" s="61"/>
+      <c r="AP136" s="80"/>
+      <c r="AQ136" s="80"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="62">
+      <c r="AS136" s="79">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="63"/>
+      <c r="AT136" s="77"/>
+      <c r="AY136" s="7"/>
+      <c r="AZ136" s="7"/>
+      <c r="BA136" s="7"/>
+      <c r="BB136" s="6"/>
+      <c r="BC136" s="7"/>
+      <c r="BD136" s="7"/>
+      <c r="BE136" s="7"/>
+      <c r="BF136" s="8"/>
     </row>
     <row r="137" spans="19:58" ht="18" customHeight="1">
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="63">
+      <c r="T137" s="77">
         <v>0.5</v>
       </c>
-      <c r="U137" s="64"/>
+      <c r="U137" s="78"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="61" t="s">
+      <c r="W137" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="61"/>
-      <c r="Y137" s="61"/>
+      <c r="X137" s="80"/>
+      <c r="Y137" s="80"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="61" t="s">
+      <c r="AA137" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="61"/>
-      <c r="AC137" s="61"/>
+      <c r="AB137" s="80"/>
+      <c r="AC137" s="80"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="62">
+      <c r="AE137" s="79">
         <v>1</v>
       </c>
-      <c r="AF137" s="63"/>
+      <c r="AF137" s="77"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="63">
+      <c r="AH137" s="77">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="64"/>
+      <c r="AI137" s="78"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="61" t="s">
+      <c r="AK137" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="61"/>
-      <c r="AM137" s="61"/>
+      <c r="AL137" s="80"/>
+      <c r="AM137" s="80"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="61" t="s">
+      <c r="AO137" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="61"/>
-      <c r="AQ137" s="61"/>
+      <c r="AP137" s="80"/>
+      <c r="AQ137" s="80"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="62">
+      <c r="AS137" s="79">
         <v>1</v>
       </c>
-      <c r="AT137" s="63"/>
+      <c r="AT137" s="77"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="63">
+      <c r="T138" s="77">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="64"/>
+      <c r="U138" s="78"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="61" t="s">
+      <c r="W138" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="61"/>
-      <c r="Y138" s="61"/>
+      <c r="X138" s="80"/>
+      <c r="Y138" s="80"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="61" t="s">
+      <c r="AA138" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="61"/>
-      <c r="AC138" s="61"/>
+      <c r="AB138" s="80"/>
+      <c r="AC138" s="80"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="62">
+      <c r="AE138" s="79">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="63"/>
+      <c r="AF138" s="77"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="63">
+      <c r="AH138" s="77">
         <v>1</v>
       </c>
-      <c r="AI138" s="64"/>
+      <c r="AI138" s="78"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="61" t="s">
+      <c r="AK138" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="61"/>
-      <c r="AM138" s="61"/>
+      <c r="AL138" s="80"/>
+      <c r="AM138" s="80"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="61"/>
-      <c r="AP138" s="61"/>
-      <c r="AQ138" s="61"/>
+      <c r="AO138" s="80"/>
+      <c r="AP138" s="80"/>
+      <c r="AQ138" s="80"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="62"/>
-      <c r="AT138" s="63"/>
+      <c r="AS138" s="79"/>
+      <c r="AT138" s="77"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="63">
+      <c r="T139" s="77">
         <v>-1</v>
       </c>
-      <c r="U139" s="64"/>
+      <c r="U139" s="78"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="61" t="s">
+      <c r="W139" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="61"/>
-      <c r="Y139" s="61"/>
+      <c r="X139" s="80"/>
+      <c r="Y139" s="80"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="61" t="s">
+      <c r="AA139" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="61"/>
-      <c r="AC139" s="61"/>
+      <c r="AB139" s="80"/>
+      <c r="AC139" s="80"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="62">
+      <c r="AE139" s="79">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="63"/>
+      <c r="AF139" s="77"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="63">
+      <c r="AH139" s="77">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="64"/>
+      <c r="AI139" s="78"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="61" t="s">
+      <c r="AK139" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="61"/>
-      <c r="AM139" s="61"/>
+      <c r="AL139" s="80"/>
+      <c r="AM139" s="80"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="61" t="s">
+      <c r="AO139" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="61"/>
-      <c r="AQ139" s="61"/>
+      <c r="AP139" s="80"/>
+      <c r="AQ139" s="80"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="62">
+      <c r="AS139" s="79">
         <v>1</v>
       </c>
-      <c r="AT139" s="63"/>
+      <c r="AT139" s="77"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="63">
+      <c r="T140" s="77">
         <v>-1</v>
       </c>
-      <c r="U140" s="64"/>
+      <c r="U140" s="78"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="61" t="s">
+      <c r="W140" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="61"/>
-      <c r="Y140" s="61"/>
+      <c r="X140" s="80"/>
+      <c r="Y140" s="80"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="61"/>
-      <c r="AB140" s="61"/>
-      <c r="AC140" s="61"/>
+      <c r="AA140" s="80"/>
+      <c r="AB140" s="80"/>
+      <c r="AC140" s="80"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="62"/>
-      <c r="AF140" s="63"/>
+      <c r="AE140" s="79"/>
+      <c r="AF140" s="77"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="63">
+      <c r="AH140" s="77">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="64"/>
+      <c r="AI140" s="78"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="61" t="s">
+      <c r="AK140" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="61"/>
-      <c r="AM140" s="61"/>
+      <c r="AL140" s="80"/>
+      <c r="AM140" s="80"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="61" t="s">
+      <c r="AO140" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="61"/>
-      <c r="AQ140" s="61"/>
+      <c r="AP140" s="80"/>
+      <c r="AQ140" s="80"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="62">
+      <c r="AS140" s="79">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="63"/>
+      <c r="AT140" s="77"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="63">
+      <c r="T141" s="77">
         <v>-1</v>
       </c>
-      <c r="U141" s="64"/>
+      <c r="U141" s="78"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="61" t="s">
+      <c r="W141" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="61"/>
-      <c r="Y141" s="61"/>
+      <c r="X141" s="80"/>
+      <c r="Y141" s="80"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="61" t="s">
+      <c r="AA141" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="61"/>
-      <c r="AC141" s="61"/>
+      <c r="AB141" s="80"/>
+      <c r="AC141" s="80"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="62">
+      <c r="AE141" s="79">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="63"/>
+      <c r="AF141" s="77"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="63">
+      <c r="AH141" s="77">
         <v>-1</v>
       </c>
-      <c r="AI141" s="64"/>
+      <c r="AI141" s="78"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="61" t="s">
+      <c r="AK141" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="61"/>
-      <c r="AM141" s="61"/>
+      <c r="AL141" s="80"/>
+      <c r="AM141" s="80"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="61" t="s">
+      <c r="AO141" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="61"/>
-      <c r="AQ141" s="61"/>
+      <c r="AP141" s="80"/>
+      <c r="AQ141" s="80"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="62">
+      <c r="AS141" s="79">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="63"/>
+      <c r="AT141" s="77"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -22269,33 +23786,83 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
+  <mergeCells count="116">
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BL10:BQ10"/>
+    <mergeCell ref="AK137:AM137"/>
+    <mergeCell ref="AO137:AQ137"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="W137:Y137"/>
+    <mergeCell ref="AA137:AC137"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AH137:AI137"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
     <mergeCell ref="T135:U135"/>
     <mergeCell ref="AE135:AF135"/>
     <mergeCell ref="AH135:AI135"/>
@@ -22312,46 +23879,30 @@
     <mergeCell ref="AA136:AC136"/>
     <mergeCell ref="AO135:AQ135"/>
     <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
-    <mergeCell ref="AK137:AM137"/>
-    <mergeCell ref="AO137:AQ137"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="W137:Y137"/>
-    <mergeCell ref="AA137:AC137"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AH137:AI137"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -22368,7 +23919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D4A41-55D3-406A-BC39-7C7515A5F04A}">
   <dimension ref="A2:AD140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -23234,11 +24785,188 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328A0956-1227-46B6-B3CC-E120B0E9D0BC}">
+  <dimension ref="A1:AS13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="C6" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD6" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ6" s="45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="C7" t="str">
+        <f>"#"&amp;AS7</f>
+        <v>#auto…自動設定（現在のサーバ、プロトコルは自動選択、ポート番号は.envより）</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="C8" t="str">
+        <f>AQ8&amp;"REACT_APP_"&amp;AH8&amp;"="&amp;AR8</f>
+        <v>REACT_APP_WEBSOCKET_MODE=auto</v>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(OR(AQ8="#",AR8=""),"","const " &amp; AD8&amp;" = process.env."&amp;AH8&amp;";")</f>
+        <v>const ws_mode = process.env.WEBSOCKET_MODE;</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR8" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="C9" t="str">
+        <f>"#"&amp;AS9</f>
+        <v>#env….envファイルに設定されている内容で設定</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" ref="P9:P13" si="0">IF(OR(AQ9="#",AR9=""),"","const " &amp; AD9&amp;" = process.env."&amp;AH9&amp;";")</f>
+        <v/>
+      </c>
+      <c r="AR9" s="50"/>
+      <c r="AS9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="C10" t="str">
+        <f>AQ10&amp;"REACT_APP_"&amp;AH10&amp;"="&amp;AR10</f>
+        <v>#REACT_APP_WEBSOCKET_MODE=env</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR10" s="50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="C11" t="str">
+        <f>AQ11&amp;"REACT_APP_"&amp;AH11&amp;"="&amp;AR11</f>
+        <v>REACT_APP_WEBSOCKET_HOST=127.0.0.1</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>const ws_host = process.env.WEBSOCKET_HOST;</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR11" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="C12" t="str">
+        <f>AQ12&amp;"REACT_APP_"&amp;AH12&amp;"="&amp;AR12</f>
+        <v>REACT_APP_WEBSOCKET_PORT=50001</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>const ws_port = process.env.WEBSOCKET_PORT;</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR12" s="50">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="C13" t="str">
+        <f>AQ13&amp;"REACT_APP_"&amp;AH13&amp;"="&amp;AR13</f>
+        <v>REACT_APP_WEBSOCKET_PROTOCOL=ws</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>const ws_protcol = process.env.WEBSOCKET_PROTOCOL;</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR13" s="50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB40B8-5003-4279-AB08-F68CE513E0DB}">
   <dimension ref="A2:AM86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -23480,625 +25208,625 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:29">
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85" t="s">
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85" t="s">
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85" t="s">
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="85"/>
+      <c r="Y31" s="82"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" spans="4:29">
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84" t="s">
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="65" t="s">
+      <c r="T32" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65">
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61">
         <v>1</v>
       </c>
-      <c r="Y32" s="65"/>
+      <c r="Y32" s="61"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
     <row r="33" spans="5:27">
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="65" t="s">
+      <c r="T33" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65">
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61">
         <v>1</v>
       </c>
-      <c r="Y33" s="65"/>
+      <c r="Y33" s="61"/>
     </row>
     <row r="34" spans="5:27">
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82" t="s">
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65">
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61">
         <v>1</v>
       </c>
-      <c r="Y34" s="65"/>
+      <c r="Y34" s="61"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
       </c>
     </row>
     <row r="35" spans="5:27">
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82" t="s">
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65">
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61">
         <v>1</v>
       </c>
-      <c r="Y35" s="65"/>
+      <c r="Y35" s="61"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
       </c>
     </row>
     <row r="36" spans="5:27">
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82" t="s">
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
       <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65">
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61">
         <v>1</v>
       </c>
-      <c r="Y36" s="65"/>
+      <c r="Y36" s="61"/>
       <c r="AA36" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
       </c>
     </row>
     <row r="37" spans="5:27">
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82" t="s">
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
       <c r="S37" s="52">
         <v>1</v>
       </c>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65">
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61">
         <v>1</v>
       </c>
-      <c r="Y37" s="65"/>
+      <c r="Y37" s="61"/>
       <c r="AA37" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
       </c>
     </row>
     <row r="38" spans="5:27">
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82" t="s">
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65">
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61">
         <v>1</v>
       </c>
-      <c r="Y38" s="65"/>
+      <c r="Y38" s="61"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
       </c>
     </row>
     <row r="39" spans="5:27">
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82" t="s">
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65">
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61">
         <v>1</v>
       </c>
-      <c r="Y39" s="65"/>
+      <c r="Y39" s="61"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
       </c>
     </row>
     <row r="40" spans="5:27">
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82" t="s">
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65">
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61">
         <v>1</v>
       </c>
-      <c r="Y40" s="65"/>
+      <c r="Y40" s="61"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
       </c>
     </row>
     <row r="41" spans="5:27">
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82" t="s">
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65">
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61">
         <v>1</v>
       </c>
-      <c r="Y41" s="65"/>
+      <c r="Y41" s="61"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
       </c>
     </row>
     <row r="42" spans="5:27">
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82" t="s">
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65">
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61">
         <v>1</v>
       </c>
-      <c r="Y42" s="65"/>
+      <c r="Y42" s="61"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
       </c>
     </row>
     <row r="43" spans="5:27">
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82" t="s">
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65">
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61">
         <v>1</v>
       </c>
-      <c r="Y43" s="65"/>
+      <c r="Y43" s="61"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
       </c>
     </row>
     <row r="44" spans="5:27">
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82" t="s">
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65">
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61">
         <v>1</v>
       </c>
-      <c r="Y44" s="65"/>
+      <c r="Y44" s="61"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
       </c>
     </row>
     <row r="45" spans="5:27">
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82" t="s">
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65">
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61">
         <v>1</v>
       </c>
-      <c r="Y45" s="65"/>
+      <c r="Y45" s="61"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
       </c>
     </row>
     <row r="46" spans="5:27">
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82" t="s">
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65">
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61">
         <v>1</v>
       </c>
-      <c r="Y46" s="65"/>
+      <c r="Y46" s="61"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
       </c>
     </row>
     <row r="47" spans="5:27">
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82" t="s">
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65">
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61">
         <v>1</v>
       </c>
-      <c r="Y47" s="65"/>
+      <c r="Y47" s="61"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
       </c>
     </row>
     <row r="48" spans="5:27">
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82" t="s">
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65">
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61">
         <v>1</v>
       </c>
-      <c r="Y48" s="65"/>
+      <c r="Y48" s="61"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -24262,440 +25990,546 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="85" t="s">
+      <c r="E78" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85" t="s">
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="85"/>
-      <c r="O78" s="85"/>
-      <c r="P78" s="85"/>
-      <c r="Q78" s="85"/>
-      <c r="R78" s="85"/>
-      <c r="S78" s="85" t="s">
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+      <c r="P78" s="82"/>
+      <c r="Q78" s="82"/>
+      <c r="R78" s="82"/>
+      <c r="S78" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="85"/>
-      <c r="U78" s="85"/>
-      <c r="V78" s="85"/>
-      <c r="W78" s="85"/>
-      <c r="X78" s="85" t="s">
+      <c r="T78" s="82"/>
+      <c r="U78" s="82"/>
+      <c r="V78" s="82"/>
+      <c r="W78" s="82"/>
+      <c r="X78" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="85"/>
-      <c r="Z78" s="85" t="s">
+      <c r="Y78" s="82"/>
+      <c r="Z78" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="85"/>
-      <c r="AB78" s="85"/>
-      <c r="AC78" s="85"/>
-      <c r="AD78" s="85"/>
-      <c r="AE78" s="85"/>
-      <c r="AF78" s="85"/>
-      <c r="AG78" s="85" t="s">
+      <c r="AA78" s="82"/>
+      <c r="AB78" s="82"/>
+      <c r="AC78" s="82"/>
+      <c r="AD78" s="82"/>
+      <c r="AE78" s="82"/>
+      <c r="AF78" s="82"/>
+      <c r="AG78" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="85"/>
-      <c r="AI78" s="85"/>
-      <c r="AJ78" s="85"/>
-      <c r="AK78" s="85"/>
-      <c r="AL78" s="85"/>
-      <c r="AM78" s="85"/>
+      <c r="AH78" s="82"/>
+      <c r="AI78" s="82"/>
+      <c r="AJ78" s="82"/>
+      <c r="AK78" s="82"/>
+      <c r="AL78" s="82"/>
+      <c r="AM78" s="82"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="84" t="s">
+      <c r="E79" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84" t="s">
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="65" t="s">
+      <c r="T79" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="65"/>
-      <c r="X79" s="65">
+      <c r="U79" s="61"/>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61"/>
+      <c r="X79" s="61">
         <v>1</v>
       </c>
-      <c r="Y79" s="65"/>
-      <c r="Z79" s="83" t="s">
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="83"/>
-      <c r="AB79" s="83"/>
-      <c r="AC79" s="65" t="s">
+      <c r="AA79" s="84"/>
+      <c r="AB79" s="84"/>
+      <c r="AC79" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="65"/>
-      <c r="AE79" s="65"/>
-      <c r="AF79" s="65"/>
-      <c r="AG79" s="82" t="s">
+      <c r="AD79" s="61"/>
+      <c r="AE79" s="61"/>
+      <c r="AF79" s="61"/>
+      <c r="AG79" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="82"/>
-      <c r="AI79" s="82"/>
-      <c r="AJ79" s="82"/>
-      <c r="AK79" s="82"/>
-      <c r="AL79" s="82"/>
-      <c r="AM79" s="82"/>
+      <c r="AH79" s="81"/>
+      <c r="AI79" s="81"/>
+      <c r="AJ79" s="81"/>
+      <c r="AK79" s="81"/>
+      <c r="AL79" s="81"/>
+      <c r="AM79" s="81"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="83"/>
+      <c r="L80" s="83"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="Q80" s="83"/>
+      <c r="R80" s="83"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="65" t="s">
+      <c r="T80" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="65"/>
-      <c r="V80" s="65"/>
-      <c r="W80" s="65"/>
-      <c r="X80" s="65">
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="61">
         <v>1</v>
       </c>
-      <c r="Y80" s="65"/>
-      <c r="Z80" s="83"/>
-      <c r="AA80" s="83"/>
-      <c r="AB80" s="83"/>
-      <c r="AC80" s="65"/>
-      <c r="AD80" s="65"/>
-      <c r="AE80" s="65"/>
-      <c r="AF80" s="65"/>
-      <c r="AG80" s="82"/>
-      <c r="AH80" s="82"/>
-      <c r="AI80" s="82"/>
-      <c r="AJ80" s="82"/>
-      <c r="AK80" s="82"/>
-      <c r="AL80" s="82"/>
-      <c r="AM80" s="82"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="84"/>
+      <c r="AA80" s="84"/>
+      <c r="AB80" s="84"/>
+      <c r="AC80" s="61"/>
+      <c r="AD80" s="61"/>
+      <c r="AE80" s="61"/>
+      <c r="AF80" s="61"/>
+      <c r="AG80" s="81"/>
+      <c r="AH80" s="81"/>
+      <c r="AI80" s="81"/>
+      <c r="AJ80" s="81"/>
+      <c r="AK80" s="81"/>
+      <c r="AL80" s="81"/>
+      <c r="AM80" s="81"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="84" t="s">
+      <c r="E81" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84" t="s">
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="84"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="83"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="83"/>
+      <c r="Q81" s="83"/>
+      <c r="R81" s="83"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="65" t="s">
+      <c r="T81" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="65"/>
-      <c r="V81" s="65"/>
-      <c r="W81" s="65"/>
-      <c r="X81" s="65">
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="61">
         <v>1</v>
       </c>
-      <c r="Y81" s="65"/>
-      <c r="Z81" s="83" t="s">
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="83"/>
-      <c r="AB81" s="83"/>
-      <c r="AC81" s="65" t="s">
+      <c r="AA81" s="84"/>
+      <c r="AB81" s="84"/>
+      <c r="AC81" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="65"/>
-      <c r="AE81" s="65"/>
-      <c r="AF81" s="65"/>
-      <c r="AG81" s="82" t="s">
+      <c r="AD81" s="61"/>
+      <c r="AE81" s="61"/>
+      <c r="AF81" s="61"/>
+      <c r="AG81" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="82"/>
-      <c r="AI81" s="82"/>
-      <c r="AJ81" s="82"/>
-      <c r="AK81" s="82"/>
-      <c r="AL81" s="82"/>
-      <c r="AM81" s="82"/>
+      <c r="AH81" s="81"/>
+      <c r="AI81" s="81"/>
+      <c r="AJ81" s="81"/>
+      <c r="AK81" s="81"/>
+      <c r="AL81" s="81"/>
+      <c r="AM81" s="81"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="83"/>
+      <c r="L82" s="83"/>
+      <c r="M82" s="83"/>
+      <c r="N82" s="83"/>
+      <c r="O82" s="83"/>
+      <c r="P82" s="83"/>
+      <c r="Q82" s="83"/>
+      <c r="R82" s="83"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="65" t="s">
+      <c r="T82" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="65"/>
-      <c r="V82" s="65"/>
-      <c r="W82" s="65"/>
-      <c r="X82" s="65">
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61">
         <v>1</v>
       </c>
-      <c r="Y82" s="65"/>
-      <c r="Z82" s="83"/>
-      <c r="AA82" s="83"/>
-      <c r="AB82" s="83"/>
-      <c r="AC82" s="65"/>
-      <c r="AD82" s="65"/>
-      <c r="AE82" s="65"/>
-      <c r="AF82" s="65"/>
-      <c r="AG82" s="82"/>
-      <c r="AH82" s="82"/>
-      <c r="AI82" s="82"/>
-      <c r="AJ82" s="82"/>
-      <c r="AK82" s="82"/>
-      <c r="AL82" s="82"/>
-      <c r="AM82" s="82"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="84"/>
+      <c r="AA82" s="84"/>
+      <c r="AB82" s="84"/>
+      <c r="AC82" s="61"/>
+      <c r="AD82" s="61"/>
+      <c r="AE82" s="61"/>
+      <c r="AF82" s="61"/>
+      <c r="AG82" s="81"/>
+      <c r="AH82" s="81"/>
+      <c r="AI82" s="81"/>
+      <c r="AJ82" s="81"/>
+      <c r="AK82" s="81"/>
+      <c r="AL82" s="81"/>
+      <c r="AM82" s="81"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="84" t="s">
+      <c r="E83" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84" t="s">
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="84"/>
-      <c r="R83" s="84"/>
+      <c r="K83" s="83"/>
+      <c r="L83" s="83"/>
+      <c r="M83" s="83"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="83"/>
+      <c r="Q83" s="83"/>
+      <c r="R83" s="83"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="65" t="s">
+      <c r="T83" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="65"/>
-      <c r="V83" s="65"/>
-      <c r="W83" s="65"/>
-      <c r="X83" s="65">
+      <c r="U83" s="61"/>
+      <c r="V83" s="61"/>
+      <c r="W83" s="61"/>
+      <c r="X83" s="61">
         <v>1</v>
       </c>
-      <c r="Y83" s="65"/>
-      <c r="Z83" s="83" t="s">
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="83"/>
-      <c r="AB83" s="83"/>
-      <c r="AC83" s="65" t="s">
+      <c r="AA83" s="84"/>
+      <c r="AB83" s="84"/>
+      <c r="AC83" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="65"/>
-      <c r="AE83" s="65"/>
-      <c r="AF83" s="65"/>
-      <c r="AG83" s="82" t="s">
+      <c r="AD83" s="61"/>
+      <c r="AE83" s="61"/>
+      <c r="AF83" s="61"/>
+      <c r="AG83" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="82"/>
-      <c r="AI83" s="82"/>
-      <c r="AJ83" s="82"/>
-      <c r="AK83" s="82"/>
-      <c r="AL83" s="82"/>
-      <c r="AM83" s="82"/>
+      <c r="AH83" s="81"/>
+      <c r="AI83" s="81"/>
+      <c r="AJ83" s="81"/>
+      <c r="AK83" s="81"/>
+      <c r="AL83" s="81"/>
+      <c r="AM83" s="81"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="84"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="83"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="83"/>
+      <c r="Q84" s="83"/>
+      <c r="R84" s="83"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="65" t="s">
+      <c r="T84" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="65"/>
-      <c r="V84" s="65"/>
-      <c r="W84" s="65"/>
-      <c r="X84" s="65">
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="61">
         <v>1</v>
       </c>
-      <c r="Y84" s="65"/>
-      <c r="Z84" s="83"/>
-      <c r="AA84" s="83"/>
-      <c r="AB84" s="83"/>
-      <c r="AC84" s="65"/>
-      <c r="AD84" s="65"/>
-      <c r="AE84" s="65"/>
-      <c r="AF84" s="65"/>
-      <c r="AG84" s="82"/>
-      <c r="AH84" s="82"/>
-      <c r="AI84" s="82"/>
-      <c r="AJ84" s="82"/>
-      <c r="AK84" s="82"/>
-      <c r="AL84" s="82"/>
-      <c r="AM84" s="82"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="84"/>
+      <c r="AA84" s="84"/>
+      <c r="AB84" s="84"/>
+      <c r="AC84" s="61"/>
+      <c r="AD84" s="61"/>
+      <c r="AE84" s="61"/>
+      <c r="AF84" s="61"/>
+      <c r="AG84" s="81"/>
+      <c r="AH84" s="81"/>
+      <c r="AI84" s="81"/>
+      <c r="AJ84" s="81"/>
+      <c r="AK84" s="81"/>
+      <c r="AL84" s="81"/>
+      <c r="AM84" s="81"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="84" t="s">
+      <c r="E85" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84" t="s">
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
+      <c r="K85" s="83"/>
+      <c r="L85" s="83"/>
+      <c r="M85" s="83"/>
+      <c r="N85" s="83"/>
+      <c r="O85" s="83"/>
+      <c r="P85" s="83"/>
+      <c r="Q85" s="83"/>
+      <c r="R85" s="83"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="65" t="s">
+      <c r="T85" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="65"/>
-      <c r="V85" s="65"/>
-      <c r="W85" s="65"/>
-      <c r="X85" s="65">
+      <c r="U85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61">
         <v>1</v>
       </c>
-      <c r="Y85" s="65"/>
-      <c r="Z85" s="83" t="s">
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="83"/>
-      <c r="AB85" s="83"/>
-      <c r="AC85" s="65" t="s">
+      <c r="AA85" s="84"/>
+      <c r="AB85" s="84"/>
+      <c r="AC85" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="65"/>
-      <c r="AE85" s="65"/>
-      <c r="AF85" s="65"/>
-      <c r="AG85" s="82" t="s">
+      <c r="AD85" s="61"/>
+      <c r="AE85" s="61"/>
+      <c r="AF85" s="61"/>
+      <c r="AG85" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="82"/>
-      <c r="AI85" s="82"/>
-      <c r="AJ85" s="82"/>
-      <c r="AK85" s="82"/>
-      <c r="AL85" s="82"/>
-      <c r="AM85" s="82"/>
+      <c r="AH85" s="81"/>
+      <c r="AI85" s="81"/>
+      <c r="AJ85" s="81"/>
+      <c r="AK85" s="81"/>
+      <c r="AL85" s="81"/>
+      <c r="AM85" s="81"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="84"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="83"/>
+      <c r="K86" s="83"/>
+      <c r="L86" s="83"/>
+      <c r="M86" s="83"/>
+      <c r="N86" s="83"/>
+      <c r="O86" s="83"/>
+      <c r="P86" s="83"/>
+      <c r="Q86" s="83"/>
+      <c r="R86" s="83"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="65" t="s">
+      <c r="T86" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="65"/>
-      <c r="V86" s="65"/>
-      <c r="W86" s="65"/>
-      <c r="X86" s="65">
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="61"/>
+      <c r="X86" s="61">
         <v>1</v>
       </c>
-      <c r="Y86" s="65"/>
-      <c r="Z86" s="83"/>
-      <c r="AA86" s="83"/>
-      <c r="AB86" s="83"/>
-      <c r="AC86" s="65"/>
-      <c r="AD86" s="65"/>
-      <c r="AE86" s="65"/>
-      <c r="AF86" s="65"/>
-      <c r="AG86" s="82"/>
-      <c r="AH86" s="82"/>
-      <c r="AI86" s="82"/>
-      <c r="AJ86" s="82"/>
-      <c r="AK86" s="82"/>
-      <c r="AL86" s="82"/>
-      <c r="AM86" s="82"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="84"/>
+      <c r="AA86" s="84"/>
+      <c r="AB86" s="84"/>
+      <c r="AC86" s="61"/>
+      <c r="AD86" s="61"/>
+      <c r="AE86" s="61"/>
+      <c r="AF86" s="61"/>
+      <c r="AG86" s="81"/>
+      <c r="AH86" s="81"/>
+      <c r="AI86" s="81"/>
+      <c r="AJ86" s="81"/>
+      <c r="AK86" s="81"/>
+      <c r="AL86" s="81"/>
+      <c r="AM86" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -24714,112 +26548,6 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24827,7 +26555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E417801-9B9B-48AB-918D-0D0CB4603D2E}">
   <dimension ref="B2:E23"/>
   <sheetViews>
@@ -24928,4 +26656,1303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
+  <dimension ref="A1:AA89"/>
+  <sheetViews>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="AH48" sqref="AH48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="43" customFormat="1">
+      <c r="A1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="C3" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5"/>
+      <c r="C5" s="46"/>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7"/>
+      <c r="C7" s="46"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8"/>
+      <c r="C8" s="46"/>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9"/>
+      <c r="C9" s="46"/>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="B23" s="46"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="C24" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26"/>
+      <c r="C26" s="46"/>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28"/>
+      <c r="C28" s="46"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29"/>
+      <c r="C29" s="46"/>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30"/>
+      <c r="C30" s="46"/>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="85"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="85"/>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="85"/>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="85"/>
+      <c r="AA40" s="85"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
+      <c r="AA41" s="85"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="B46" s="46"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="B47" s="46"/>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="B48" s="46"/>
+      <c r="D48" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45" t="str">
+        <f>"v4l2-ctl --device="&amp;TRIM(D48)&amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video0 --all</v>
+      </c>
+      <c r="N48" s="45"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="46"/>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ref="M49:M52" si="0">"v4l2-ctl --device="&amp;TRIM(D49)&amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video1 --all</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="46"/>
+      <c r="D50" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>v4l2-ctl --device=/dev/video2 --all</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="46"/>
+      <c r="D51" t="s">
+        <v>225</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>v4l2-ctl --device=/dev/video3 --all</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="46"/>
+      <c r="D52" t="s">
+        <v>226</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>v4l2-ctl --device=/dev/media0 --all</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="46"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="46"/>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" s="46"/>
+      <c r="D55" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45" t="str">
+        <f t="shared" ref="M55:M57" si="1">"v4l2-ctl --device="&amp;TRIM(D55)&amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video4 --all</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56" s="46"/>
+      <c r="D56" t="s">
+        <v>229</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v>v4l2-ctl --device=/dev/video5 --all</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="46"/>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v>v4l2-ctl --device=/dev/media1 --all</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="43" customFormat="1">
+      <c r="A59" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="91" customFormat="1">
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="B61" s="46"/>
+      <c r="C61" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="E65" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+    </row>
+    <row r="67" spans="2:24">
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="E67" t="s">
+        <v>242</v>
+      </c>
+      <c r="M67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>243</v>
+      </c>
+      <c r="T67" t="s">
+        <v>241</v>
+      </c>
+      <c r="W67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="E68" s="92" t="str">
+        <f>"--video-device " &amp; TRIM(D48)</f>
+        <v>--video-device /dev/video0</v>
+      </c>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="94"/>
+      <c r="M68" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="N68" s="93"/>
+      <c r="O68" s="94"/>
+      <c r="Q68" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="R68" s="76"/>
+      <c r="T68" s="74">
+        <v>8080</v>
+      </c>
+      <c r="U68" s="76"/>
+      <c r="W68" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="X68" s="76"/>
+    </row>
+    <row r="69" spans="2:24">
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="E69" s="92" t="str">
+        <f>"--video-device " &amp; TRIM(D55)</f>
+        <v>--video-device /dev/video4</v>
+      </c>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="94"/>
+      <c r="M69" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="N69" s="93"/>
+      <c r="O69" s="94"/>
+      <c r="Q69" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="R69" s="76"/>
+      <c r="T69" s="74">
+        <v>8081</v>
+      </c>
+      <c r="U69" s="76"/>
+      <c r="W69" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="X69" s="76"/>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="D72" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24">
+      <c r="E74" t="str">
+        <f>$H$65&amp;" "&amp;M68&amp;" "&amp;E68&amp;" "&amp;Q68&amp;" "&amp;"--port "&amp;T68 &amp; " " &amp;W68</f>
+        <v>./momo --no-audio-device --video-device /dev/video0 test --port 8080 &amp;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24">
+      <c r="E75" t="str">
+        <f>$H$65&amp;" "&amp;M69&amp;" "&amp;E69&amp;" "&amp;Q69&amp;" "&amp;"--port "&amp;T69 &amp; " " &amp;W69</f>
+        <v>./momo --no-audio-device --video-device /dev/video4 test --port 8081 &amp;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24">
+      <c r="B77" s="46"/>
+      <c r="C77" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24">
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+    </row>
+    <row r="79" spans="2:24">
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="94"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="94"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+    </row>
+    <row r="85" spans="1:11" s="43" customFormat="1">
+      <c r="A85" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="D89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D83:K83"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="D10:AA22"/>
+    <mergeCell ref="D6:AA6"/>
+    <mergeCell ref="D27:AA27"/>
+    <mergeCell ref="D31:AA45"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="Q68:R68"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630EF6A-D8CF-4622-836F-86BB90628DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D87157-2AC8-4EDE-B07F-B1520F9A8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="1080" windowWidth="16515" windowHeight="14970" tabRatio="745" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="298">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -1747,10 +1747,6 @@
     <rPh sb="6" eb="8">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>v4l2-ctl --device=/dev/video0 --all</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2191,6 +2187,37 @@
     <t>WEBSOCKET_MODE</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>/dev/video0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dev/video8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QVGA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dev/video28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dev/video24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dev/video30</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2199,7 +2226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2313,6 +2340,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2370,7 +2420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2612,12 +2662,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2745,6 +2832,82 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2752,6 +2915,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2769,21 +2941,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2793,45 +2950,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2844,53 +2974,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -21830,8 +21956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
   <dimension ref="A1:CL150"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="AU13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CH25" sqref="CH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
@@ -21853,26 +21979,26 @@
     </row>
     <row r="6" spans="1:90" ht="18" customHeight="1">
       <c r="J6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:90" ht="18" customHeight="1">
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="U7" s="73"/>
-      <c r="V7" s="99"/>
-      <c r="X7" s="105"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="U7" s="74"/>
+      <c r="V7" s="75"/>
+      <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
       <c r="J9" s="29"/>
@@ -21957,26 +22083,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65">
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="98">
         <v>9999</v>
       </c>
-      <c r="P10" s="65"/>
-      <c r="R10" s="64" t="s">
+      <c r="P10" s="98"/>
+      <c r="R10" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="65">
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="98">
         <v>9999</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="98"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -22002,50 +22128,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="AZ10" s="101"/>
-      <c r="BA10" s="101"/>
-      <c r="BB10" s="101"/>
-      <c r="BC10" s="102"/>
-      <c r="BL10" s="108" t="s">
+      <c r="AY10" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="BM10" s="109"/>
-      <c r="BN10" s="109"/>
-      <c r="BO10" s="109"/>
-      <c r="BP10" s="109"/>
-      <c r="BQ10" s="110"/>
-      <c r="BR10" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="BT10" s="72" t="s">
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="86"/>
+      <c r="BL10" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM10" s="80"/>
+      <c r="BN10" s="80"/>
+      <c r="BO10" s="80"/>
+      <c r="BP10" s="80"/>
+      <c r="BQ10" s="81"/>
+      <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BU10" s="73"/>
-      <c r="BV10" s="99"/>
-      <c r="BX10" s="104"/>
+      <c r="BT10" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU10" s="74"/>
+      <c r="BV10" s="75"/>
+      <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="R11" s="64" t="s">
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="R11" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -22075,28 +22201,28 @@
       <c r="AU12" s="5"/>
       <c r="AV12" s="33"/>
       <c r="AX12" s="32"/>
-      <c r="AY12" s="113">
+      <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA12" s="115"/>
-      <c r="BB12" s="115"/>
-      <c r="BC12" s="116"/>
-      <c r="BD12" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE12" s="99"/>
-      <c r="BF12" s="111">
+      <c r="AZ12" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="82">
         <v>50000</v>
       </c>
-      <c r="BG12" s="112"/>
-      <c r="BH12" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI12" s="99"/>
-      <c r="BJ12" s="106"/>
+      <c r="BG12" s="83"/>
+      <c r="BH12" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
       <c r="BN12" s="2"/>
@@ -22118,28 +22244,28 @@
       <c r="AU13" s="5"/>
       <c r="AV13" s="33"/>
       <c r="AX13" s="32"/>
-      <c r="AY13" s="113">
+      <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="114" t="s">
+      <c r="AZ13" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="78"/>
+      <c r="BD13" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="BA13" s="115"/>
-      <c r="BB13" s="115"/>
-      <c r="BC13" s="116"/>
-      <c r="BD13" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE13" s="99"/>
-      <c r="BF13" s="111">
+      <c r="BE13" s="75"/>
+      <c r="BF13" s="82">
         <v>50001</v>
       </c>
-      <c r="BG13" s="112"/>
-      <c r="BH13" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI13" s="99"/>
-      <c r="BJ13" s="107"/>
+      <c r="BG13" s="83"/>
+      <c r="BH13" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI13" s="75"/>
+      <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
       <c r="CL13" s="33"/>
@@ -22165,28 +22291,28 @@
       <c r="AU14" s="5"/>
       <c r="AV14" s="33"/>
       <c r="AX14" s="32"/>
-      <c r="AY14" s="113">
+      <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="116"/>
-      <c r="BD14" s="72" t="s">
+      <c r="AZ14" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="111">
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="77"/>
+      <c r="BC14" s="78"/>
+      <c r="BD14" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="82">
         <v>50002</v>
       </c>
-      <c r="BG14" s="112"/>
-      <c r="BH14" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI14" s="99"/>
-      <c r="BJ14" s="107"/>
+      <c r="BG14" s="83"/>
+      <c r="BH14" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI14" s="75"/>
+      <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
       <c r="CL14" s="33"/>
@@ -22205,26 +22331,26 @@
       <c r="AU15" s="5"/>
       <c r="AV15" s="33"/>
       <c r="AX15" s="32"/>
-      <c r="AY15" s="113">
+      <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="114"/>
-      <c r="BA15" s="115"/>
-      <c r="BB15" s="115"/>
-      <c r="BC15" s="116"/>
-      <c r="BD15" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE15" s="99"/>
-      <c r="BF15" s="111">
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="77"/>
+      <c r="BB15" s="77"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE15" s="75"/>
+      <c r="BF15" s="82">
         <v>50003</v>
       </c>
-      <c r="BG15" s="112"/>
-      <c r="BH15" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI15" s="99"/>
-      <c r="BJ15" s="106"/>
+      <c r="BG15" s="83"/>
+      <c r="BH15" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI15" s="75"/>
+      <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
         <v>11</v>
@@ -22241,26 +22367,26 @@
       <c r="AU16" s="5"/>
       <c r="AV16" s="33"/>
       <c r="AX16" s="32"/>
-      <c r="AY16" s="113">
+      <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="114"/>
-      <c r="BA16" s="115"/>
-      <c r="BB16" s="115"/>
-      <c r="BC16" s="116"/>
-      <c r="BD16" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE16" s="99"/>
-      <c r="BF16" s="111">
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="77"/>
+      <c r="BB16" s="77"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE16" s="75"/>
+      <c r="BF16" s="82">
         <v>50004</v>
       </c>
-      <c r="BG16" s="112"/>
-      <c r="BH16" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI16" s="99"/>
-      <c r="BJ16" s="106"/>
+      <c r="BG16" s="83"/>
+      <c r="BH16" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI16" s="75"/>
+      <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
         <v>149</v>
@@ -22275,9 +22401,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -22285,17 +22411,17 @@
       <c r="AU17" s="5"/>
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="115"/>
-      <c r="BB17" s="115"/>
-      <c r="BC17" s="116"/>
-      <c r="BD17" s="72"/>
-      <c r="BE17" s="99"/>
-      <c r="BF17" s="111"/>
-      <c r="BG17" s="112"/>
-      <c r="BH17" s="72"/>
-      <c r="BI17" s="99"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="78"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="75"/>
+      <c r="BF17" s="82"/>
+      <c r="BG17" s="83"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="75"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -22312,15 +22438,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="71"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="72" t="s">
+      <c r="U18" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -22338,11 +22464,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="72" t="s">
+      <c r="S19" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -22386,34 +22512,34 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="74" t="s">
+      <c r="S21" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="75"/>
-      <c r="U21" s="76"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="104"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM21" s="109"/>
-      <c r="BN21" s="109"/>
-      <c r="BO21" s="109"/>
-      <c r="BP21" s="109"/>
-      <c r="BQ21" s="110"/>
-      <c r="BR21" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="BT21" s="72" t="s">
+      <c r="BL21" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="BU21" s="73"/>
-      <c r="BV21" s="99"/>
-      <c r="BX21" s="105"/>
+      <c r="BM21" s="80"/>
+      <c r="BN21" s="80"/>
+      <c r="BO21" s="80"/>
+      <c r="BP21" s="80"/>
+      <c r="BQ21" s="81"/>
+      <c r="BR21" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT21" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="BU21" s="74"/>
+      <c r="BV21" s="75"/>
+      <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
     <row r="22" spans="10:90" ht="18" customHeight="1">
@@ -22487,12 +22613,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="66" t="s">
+      <c r="O25" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -22648,40 +22774,40 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="AZ31" s="109"/>
-      <c r="BA31" s="109"/>
-      <c r="BB31" s="109"/>
-      <c r="BC31" s="109"/>
-      <c r="BD31" s="110"/>
-      <c r="BE31" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="BG31" s="72" t="s">
+      <c r="AY31" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="BH31" s="73"/>
-      <c r="BI31" s="99"/>
-      <c r="BK31" s="105"/>
-      <c r="BY31" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="BZ31" s="109"/>
-      <c r="CA31" s="109"/>
-      <c r="CB31" s="109"/>
-      <c r="CC31" s="109"/>
-      <c r="CD31" s="110"/>
-      <c r="CE31" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="CG31" s="72" t="s">
+      <c r="AZ31" s="80"/>
+      <c r="BA31" s="80"/>
+      <c r="BB31" s="80"/>
+      <c r="BC31" s="80"/>
+      <c r="BD31" s="81"/>
+      <c r="BE31" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG31" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH31" s="74"/>
+      <c r="BI31" s="75"/>
+      <c r="BK31" s="69"/>
+      <c r="BY31" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="CH31" s="73"/>
-      <c r="CI31" s="99"/>
-      <c r="CK31" s="105"/>
+      <c r="BZ31" s="80"/>
+      <c r="CA31" s="80"/>
+      <c r="CB31" s="80"/>
+      <c r="CC31" s="80"/>
+      <c r="CD31" s="81"/>
+      <c r="CE31" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="CG31" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH31" s="74"/>
+      <c r="CI31" s="75"/>
+      <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
     <row r="32" spans="10:90" ht="18" customHeight="1">
@@ -22759,17 +22885,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="61">
+      <c r="L34" s="91">
         <v>9999</v>
       </c>
-      <c r="M34" s="61"/>
+      <c r="M34" s="91"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="62">
+      <c r="V34" s="92">
         <v>9999</v>
       </c>
-      <c r="W34" s="63"/>
+      <c r="W34" s="93"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -22787,17 +22913,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="61">
+      <c r="L35" s="91">
         <v>9999</v>
       </c>
-      <c r="M35" s="61"/>
+      <c r="M35" s="91"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="62">
+      <c r="V35" s="92">
         <v>9999</v>
       </c>
-      <c r="W35" s="63"/>
+      <c r="W35" s="93"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -22921,23 +23047,23 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM41" s="109"/>
-      <c r="BN41" s="109"/>
-      <c r="BO41" s="109"/>
-      <c r="BP41" s="109"/>
-      <c r="BQ41" s="110"/>
-      <c r="BR41" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="BT41" s="72" t="s">
+      <c r="BL41" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="BU41" s="73"/>
-      <c r="BV41" s="99"/>
-      <c r="BX41" s="105"/>
+      <c r="BM41" s="80"/>
+      <c r="BN41" s="80"/>
+      <c r="BO41" s="80"/>
+      <c r="BP41" s="80"/>
+      <c r="BQ41" s="81"/>
+      <c r="BR41" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT41" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="BU41" s="74"/>
+      <c r="BV41" s="75"/>
+      <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
     <row r="42" spans="10:90" ht="18" customHeight="1">
@@ -23240,55 +23366,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="77">
+      <c r="T134" s="89">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="78"/>
+      <c r="U134" s="90"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="80" t="s">
+      <c r="W134" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="80"/>
-      <c r="Y134" s="80"/>
+      <c r="X134" s="87"/>
+      <c r="Y134" s="87"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="80" t="s">
+      <c r="AA134" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="80"/>
-      <c r="AC134" s="80"/>
+      <c r="AB134" s="87"/>
+      <c r="AC134" s="87"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="79">
+      <c r="AE134" s="88">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="77"/>
+      <c r="AF134" s="89"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="77">
+      <c r="AH134" s="89">
         <v>-1</v>
       </c>
-      <c r="AI134" s="78"/>
+      <c r="AI134" s="90"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="80" t="s">
+      <c r="AK134" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="80"/>
-      <c r="AM134" s="80"/>
+      <c r="AL134" s="87"/>
+      <c r="AM134" s="87"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="80"/>
-      <c r="AP134" s="80"/>
-      <c r="AQ134" s="80"/>
+      <c r="AO134" s="87"/>
+      <c r="AP134" s="87"/>
+      <c r="AQ134" s="87"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="79"/>
-      <c r="AT134" s="77"/>
+      <c r="AS134" s="88"/>
+      <c r="AT134" s="89"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -23296,63 +23422,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="77">
+      <c r="T135" s="89">
         <v>0.5</v>
       </c>
-      <c r="U135" s="78"/>
+      <c r="U135" s="90"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="80" t="s">
+      <c r="W135" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="80"/>
-      <c r="Y135" s="80"/>
+      <c r="X135" s="87"/>
+      <c r="Y135" s="87"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="80" t="s">
+      <c r="AA135" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="80"/>
-      <c r="AC135" s="80"/>
+      <c r="AB135" s="87"/>
+      <c r="AC135" s="87"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="79">
+      <c r="AE135" s="88">
         <v>1</v>
       </c>
-      <c r="AF135" s="77"/>
+      <c r="AF135" s="89"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="77">
+      <c r="AH135" s="89">
         <v>-1</v>
       </c>
-      <c r="AI135" s="78"/>
+      <c r="AI135" s="90"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="80" t="s">
+      <c r="AK135" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="80"/>
-      <c r="AM135" s="80"/>
+      <c r="AL135" s="87"/>
+      <c r="AM135" s="87"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="80" t="s">
+      <c r="AO135" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="80"/>
-      <c r="AQ135" s="80"/>
+      <c r="AP135" s="87"/>
+      <c r="AQ135" s="87"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="79">
+      <c r="AS135" s="88">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="77"/>
+      <c r="AT135" s="89"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -23361,55 +23487,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="77">
+      <c r="T136" s="89">
         <v>1</v>
       </c>
-      <c r="U136" s="78"/>
+      <c r="U136" s="90"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="80" t="s">
+      <c r="W136" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="80"/>
-      <c r="Y136" s="80"/>
+      <c r="X136" s="87"/>
+      <c r="Y136" s="87"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="80"/>
-      <c r="AB136" s="80"/>
-      <c r="AC136" s="80"/>
+      <c r="AA136" s="87"/>
+      <c r="AB136" s="87"/>
+      <c r="AC136" s="87"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="79"/>
-      <c r="AF136" s="77"/>
+      <c r="AE136" s="88"/>
+      <c r="AF136" s="89"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="77">
+      <c r="AH136" s="89">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="78"/>
+      <c r="AI136" s="90"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="80" t="s">
+      <c r="AK136" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="80"/>
-      <c r="AM136" s="80"/>
+      <c r="AL136" s="87"/>
+      <c r="AM136" s="87"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="80" t="s">
+      <c r="AO136" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="80"/>
-      <c r="AQ136" s="80"/>
+      <c r="AP136" s="87"/>
+      <c r="AQ136" s="87"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="79">
+      <c r="AS136" s="88">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="77"/>
+      <c r="AT136" s="89"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -23423,295 +23549,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="77">
+      <c r="T137" s="89">
         <v>0.5</v>
       </c>
-      <c r="U137" s="78"/>
+      <c r="U137" s="90"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="80" t="s">
+      <c r="W137" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="80"/>
-      <c r="Y137" s="80"/>
+      <c r="X137" s="87"/>
+      <c r="Y137" s="87"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="80" t="s">
+      <c r="AA137" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="80"/>
-      <c r="AC137" s="80"/>
+      <c r="AB137" s="87"/>
+      <c r="AC137" s="87"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="79">
+      <c r="AE137" s="88">
         <v>1</v>
       </c>
-      <c r="AF137" s="77"/>
+      <c r="AF137" s="89"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="77">
+      <c r="AH137" s="89">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="78"/>
+      <c r="AI137" s="90"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="80" t="s">
+      <c r="AK137" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="80"/>
-      <c r="AM137" s="80"/>
+      <c r="AL137" s="87"/>
+      <c r="AM137" s="87"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="80" t="s">
+      <c r="AO137" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="80"/>
-      <c r="AQ137" s="80"/>
+      <c r="AP137" s="87"/>
+      <c r="AQ137" s="87"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="79">
+      <c r="AS137" s="88">
         <v>1</v>
       </c>
-      <c r="AT137" s="77"/>
+      <c r="AT137" s="89"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="77">
+      <c r="T138" s="89">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="78"/>
+      <c r="U138" s="90"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="80" t="s">
+      <c r="W138" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="80"/>
-      <c r="Y138" s="80"/>
+      <c r="X138" s="87"/>
+      <c r="Y138" s="87"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="80" t="s">
+      <c r="AA138" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="80"/>
-      <c r="AC138" s="80"/>
+      <c r="AB138" s="87"/>
+      <c r="AC138" s="87"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="79">
+      <c r="AE138" s="88">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="77"/>
+      <c r="AF138" s="89"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="77">
+      <c r="AH138" s="89">
         <v>1</v>
       </c>
-      <c r="AI138" s="78"/>
+      <c r="AI138" s="90"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="80" t="s">
+      <c r="AK138" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="80"/>
-      <c r="AM138" s="80"/>
+      <c r="AL138" s="87"/>
+      <c r="AM138" s="87"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="80"/>
-      <c r="AP138" s="80"/>
-      <c r="AQ138" s="80"/>
+      <c r="AO138" s="87"/>
+      <c r="AP138" s="87"/>
+      <c r="AQ138" s="87"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="79"/>
-      <c r="AT138" s="77"/>
+      <c r="AS138" s="88"/>
+      <c r="AT138" s="89"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="77">
+      <c r="T139" s="89">
         <v>-1</v>
       </c>
-      <c r="U139" s="78"/>
+      <c r="U139" s="90"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="80" t="s">
+      <c r="W139" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="80"/>
-      <c r="Y139" s="80"/>
+      <c r="X139" s="87"/>
+      <c r="Y139" s="87"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="80" t="s">
+      <c r="AA139" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="80"/>
-      <c r="AC139" s="80"/>
+      <c r="AB139" s="87"/>
+      <c r="AC139" s="87"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="79">
+      <c r="AE139" s="88">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="77"/>
+      <c r="AF139" s="89"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="77">
+      <c r="AH139" s="89">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="78"/>
+      <c r="AI139" s="90"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="80" t="s">
+      <c r="AK139" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="80"/>
-      <c r="AM139" s="80"/>
+      <c r="AL139" s="87"/>
+      <c r="AM139" s="87"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="80" t="s">
+      <c r="AO139" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="80"/>
-      <c r="AQ139" s="80"/>
+      <c r="AP139" s="87"/>
+      <c r="AQ139" s="87"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="79">
+      <c r="AS139" s="88">
         <v>1</v>
       </c>
-      <c r="AT139" s="77"/>
+      <c r="AT139" s="89"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="77">
+      <c r="T140" s="89">
         <v>-1</v>
       </c>
-      <c r="U140" s="78"/>
+      <c r="U140" s="90"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="80" t="s">
+      <c r="W140" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="80"/>
-      <c r="Y140" s="80"/>
+      <c r="X140" s="87"/>
+      <c r="Y140" s="87"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="80"/>
-      <c r="AB140" s="80"/>
-      <c r="AC140" s="80"/>
+      <c r="AA140" s="87"/>
+      <c r="AB140" s="87"/>
+      <c r="AC140" s="87"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="79"/>
-      <c r="AF140" s="77"/>
+      <c r="AE140" s="88"/>
+      <c r="AF140" s="89"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="77">
+      <c r="AH140" s="89">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="78"/>
+      <c r="AI140" s="90"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="80" t="s">
+      <c r="AK140" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="80"/>
-      <c r="AM140" s="80"/>
+      <c r="AL140" s="87"/>
+      <c r="AM140" s="87"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="80" t="s">
+      <c r="AO140" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="80"/>
-      <c r="AQ140" s="80"/>
+      <c r="AP140" s="87"/>
+      <c r="AQ140" s="87"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="79">
+      <c r="AS140" s="88">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="77"/>
+      <c r="AT140" s="89"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="77">
+      <c r="T141" s="89">
         <v>-1</v>
       </c>
-      <c r="U141" s="78"/>
+      <c r="U141" s="90"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="80" t="s">
+      <c r="W141" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="80"/>
-      <c r="Y141" s="80"/>
+      <c r="X141" s="87"/>
+      <c r="Y141" s="87"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="80" t="s">
+      <c r="AA141" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="80"/>
-      <c r="AC141" s="80"/>
+      <c r="AB141" s="87"/>
+      <c r="AC141" s="87"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="79">
+      <c r="AE141" s="88">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="77"/>
+      <c r="AF141" s="89"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="77">
+      <c r="AH141" s="89">
         <v>-1</v>
       </c>
-      <c r="AI141" s="78"/>
+      <c r="AI141" s="90"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="80" t="s">
+      <c r="AK141" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="80"/>
-      <c r="AM141" s="80"/>
+      <c r="AL141" s="87"/>
+      <c r="AM141" s="87"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="80" t="s">
+      <c r="AO141" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="80"/>
-      <c r="AQ141" s="80"/>
+      <c r="AP141" s="87"/>
+      <c r="AQ141" s="87"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="79">
+      <c r="AS141" s="88">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="77"/>
+      <c r="AT141" s="89"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -23787,50 +23913,48 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="BL10:BQ10"/>
-    <mergeCell ref="AK137:AM137"/>
-    <mergeCell ref="AO137:AQ137"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="T137:U137"/>
-    <mergeCell ref="W137:Y137"/>
-    <mergeCell ref="AA137:AC137"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AH137:AI137"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
     <mergeCell ref="T140:U140"/>
     <mergeCell ref="AE140:AF140"/>
     <mergeCell ref="AH140:AI140"/>
@@ -23847,22 +23971,16 @@
     <mergeCell ref="AA141:AC141"/>
     <mergeCell ref="AO140:AQ140"/>
     <mergeCell ref="AO141:AQ141"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BL10:BQ10"/>
+    <mergeCell ref="AK137:AM137"/>
+    <mergeCell ref="AO137:AQ137"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="W137:Y137"/>
+    <mergeCell ref="AA137:AC137"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AH137:AI137"/>
     <mergeCell ref="T135:U135"/>
     <mergeCell ref="AE135:AF135"/>
     <mergeCell ref="AH135:AI135"/>
@@ -23877,32 +23995,40 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -23919,7 +24045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D4A41-55D3-406A-BC39-7C7515A5F04A}">
   <dimension ref="A2:AD140"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -24788,8 +24914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328A0956-1227-46B6-B3CC-E120B0E9D0BC}">
   <dimension ref="A1:AS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -24800,37 +24926,37 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="C6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="P6" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="P6" s="45" t="s">
-        <v>282</v>
-      </c>
       <c r="AD6" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ6" s="45" t="s">
         <v>287</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ6" s="45" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -24839,7 +24965,7 @@
         <v>#auto…自動設定（現在のサーバ、プロトコルは自動選択、ポート番号は.envより）</v>
       </c>
       <c r="AS7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -24852,13 +24978,13 @@
         <v>const ws_mode = process.env.WEBSOCKET_MODE;</v>
       </c>
       <c r="AD8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR8" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -24872,7 +24998,7 @@
       </c>
       <c r="AR9" s="50"/>
       <c r="AS9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -24885,16 +25011,16 @@
         <v/>
       </c>
       <c r="AD10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AQ10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AR10" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -24907,13 +25033,13 @@
         <v>const ws_host = process.env.WEBSOCKET_HOST;</v>
       </c>
       <c r="AD11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AR11" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -24926,10 +25052,10 @@
         <v>const ws_port = process.env.WEBSOCKET_PORT;</v>
       </c>
       <c r="AD12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR12" s="50">
         <v>50001</v>
@@ -24945,13 +25071,13 @@
         <v>const ws_protcol = process.env.WEBSOCKET_PROTOCOL;</v>
       </c>
       <c r="AD13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH13" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR13" s="50" t="s">
         <v>278</v>
-      </c>
-      <c r="AR13" s="50" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -25208,625 +25334,625 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:29">
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82" t="s">
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82" t="s">
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82" t="s">
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="82"/>
+      <c r="Y31" s="108"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" spans="4:29">
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83" t="s">
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="61" t="s">
+      <c r="T32" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61">
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91">
         <v>1</v>
       </c>
-      <c r="Y32" s="61"/>
+      <c r="Y32" s="91"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
     <row r="33" spans="5:27">
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="61" t="s">
+      <c r="T33" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61">
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91">
         <v>1</v>
       </c>
-      <c r="Y33" s="61"/>
+      <c r="Y33" s="91"/>
     </row>
     <row r="34" spans="5:27">
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81" t="s">
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61">
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91">
         <v>1</v>
       </c>
-      <c r="Y34" s="61"/>
+      <c r="Y34" s="91"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
       </c>
     </row>
     <row r="35" spans="5:27">
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81" t="s">
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61">
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91">
         <v>1</v>
       </c>
-      <c r="Y35" s="61"/>
+      <c r="Y35" s="91"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
       </c>
     </row>
     <row r="36" spans="5:27">
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81" t="s">
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
       <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61">
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91">
         <v>1</v>
       </c>
-      <c r="Y36" s="61"/>
+      <c r="Y36" s="91"/>
       <c r="AA36" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
       </c>
     </row>
     <row r="37" spans="5:27">
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81" t="s">
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
       <c r="S37" s="52">
         <v>1</v>
       </c>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61">
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91">
         <v>1</v>
       </c>
-      <c r="Y37" s="61"/>
+      <c r="Y37" s="91"/>
       <c r="AA37" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
       </c>
     </row>
     <row r="38" spans="5:27">
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81" t="s">
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61">
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91">
         <v>1</v>
       </c>
-      <c r="Y38" s="61"/>
+      <c r="Y38" s="91"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
       </c>
     </row>
     <row r="39" spans="5:27">
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81" t="s">
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61">
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91">
         <v>1</v>
       </c>
-      <c r="Y39" s="61"/>
+      <c r="Y39" s="91"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
       </c>
     </row>
     <row r="40" spans="5:27">
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81" t="s">
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="61"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61">
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91">
         <v>1</v>
       </c>
-      <c r="Y40" s="61"/>
+      <c r="Y40" s="91"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
       </c>
     </row>
     <row r="41" spans="5:27">
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81" t="s">
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="61">
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91">
         <v>1</v>
       </c>
-      <c r="Y41" s="61"/>
+      <c r="Y41" s="91"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
       </c>
     </row>
     <row r="42" spans="5:27">
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81" t="s">
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="61"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="61"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61">
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91">
         <v>1</v>
       </c>
-      <c r="Y42" s="61"/>
+      <c r="Y42" s="91"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
       </c>
     </row>
     <row r="43" spans="5:27">
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81" t="s">
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="61"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="61"/>
-      <c r="X43" s="61">
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91">
         <v>1</v>
       </c>
-      <c r="Y43" s="61"/>
+      <c r="Y43" s="91"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
       </c>
     </row>
     <row r="44" spans="5:27">
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81" t="s">
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="61"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61">
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
+      <c r="W44" s="91"/>
+      <c r="X44" s="91">
         <v>1</v>
       </c>
-      <c r="Y44" s="61"/>
+      <c r="Y44" s="91"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
       </c>
     </row>
     <row r="45" spans="5:27">
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81" t="s">
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="61"/>
-      <c r="U45" s="61"/>
-      <c r="V45" s="61"/>
-      <c r="W45" s="61"/>
-      <c r="X45" s="61">
+      <c r="T45" s="91"/>
+      <c r="U45" s="91"/>
+      <c r="V45" s="91"/>
+      <c r="W45" s="91"/>
+      <c r="X45" s="91">
         <v>1</v>
       </c>
-      <c r="Y45" s="61"/>
+      <c r="Y45" s="91"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
       </c>
     </row>
     <row r="46" spans="5:27">
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81" t="s">
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61">
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="91">
         <v>1</v>
       </c>
-      <c r="Y46" s="61"/>
+      <c r="Y46" s="91"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
       </c>
     </row>
     <row r="47" spans="5:27">
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81" t="s">
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61">
+      <c r="T47" s="91"/>
+      <c r="U47" s="91"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="91"/>
+      <c r="X47" s="91">
         <v>1</v>
       </c>
-      <c r="Y47" s="61"/>
+      <c r="Y47" s="91"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
       </c>
     </row>
     <row r="48" spans="5:27">
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81" t="s">
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="61"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61">
+      <c r="T48" s="91"/>
+      <c r="U48" s="91"/>
+      <c r="V48" s="91"/>
+      <c r="W48" s="91"/>
+      <c r="X48" s="91">
         <v>1</v>
       </c>
-      <c r="Y48" s="61"/>
+      <c r="Y48" s="91"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -25990,546 +26116,440 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="82" t="s">
+      <c r="E78" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82" t="s">
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82"/>
-      <c r="P78" s="82"/>
-      <c r="Q78" s="82"/>
-      <c r="R78" s="82"/>
-      <c r="S78" s="82" t="s">
+      <c r="K78" s="108"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="108"/>
+      <c r="N78" s="108"/>
+      <c r="O78" s="108"/>
+      <c r="P78" s="108"/>
+      <c r="Q78" s="108"/>
+      <c r="R78" s="108"/>
+      <c r="S78" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="82"/>
-      <c r="U78" s="82"/>
-      <c r="V78" s="82"/>
-      <c r="W78" s="82"/>
-      <c r="X78" s="82" t="s">
+      <c r="T78" s="108"/>
+      <c r="U78" s="108"/>
+      <c r="V78" s="108"/>
+      <c r="W78" s="108"/>
+      <c r="X78" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="82"/>
-      <c r="Z78" s="82" t="s">
+      <c r="Y78" s="108"/>
+      <c r="Z78" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="82"/>
-      <c r="AB78" s="82"/>
-      <c r="AC78" s="82"/>
-      <c r="AD78" s="82"/>
-      <c r="AE78" s="82"/>
-      <c r="AF78" s="82"/>
-      <c r="AG78" s="82" t="s">
+      <c r="AA78" s="108"/>
+      <c r="AB78" s="108"/>
+      <c r="AC78" s="108"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="108"/>
+      <c r="AF78" s="108"/>
+      <c r="AG78" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="82"/>
-      <c r="AI78" s="82"/>
-      <c r="AJ78" s="82"/>
-      <c r="AK78" s="82"/>
-      <c r="AL78" s="82"/>
-      <c r="AM78" s="82"/>
+      <c r="AH78" s="108"/>
+      <c r="AI78" s="108"/>
+      <c r="AJ78" s="108"/>
+      <c r="AK78" s="108"/>
+      <c r="AL78" s="108"/>
+      <c r="AM78" s="108"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="83" t="s">
+      <c r="E79" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83" t="s">
+      <c r="F79" s="107"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83"/>
-      <c r="Q79" s="83"/>
-      <c r="R79" s="83"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="107"/>
+      <c r="M79" s="107"/>
+      <c r="N79" s="107"/>
+      <c r="O79" s="107"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="107"/>
+      <c r="R79" s="107"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="61" t="s">
+      <c r="T79" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="61"/>
-      <c r="V79" s="61"/>
-      <c r="W79" s="61"/>
-      <c r="X79" s="61">
+      <c r="U79" s="91"/>
+      <c r="V79" s="91"/>
+      <c r="W79" s="91"/>
+      <c r="X79" s="91">
         <v>1</v>
       </c>
-      <c r="Y79" s="61"/>
-      <c r="Z79" s="84" t="s">
+      <c r="Y79" s="91"/>
+      <c r="Z79" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="84"/>
-      <c r="AB79" s="84"/>
-      <c r="AC79" s="61" t="s">
+      <c r="AA79" s="106"/>
+      <c r="AB79" s="106"/>
+      <c r="AC79" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="61"/>
-      <c r="AE79" s="61"/>
-      <c r="AF79" s="61"/>
-      <c r="AG79" s="81" t="s">
+      <c r="AD79" s="91"/>
+      <c r="AE79" s="91"/>
+      <c r="AF79" s="91"/>
+      <c r="AG79" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="81"/>
-      <c r="AI79" s="81"/>
-      <c r="AJ79" s="81"/>
-      <c r="AK79" s="81"/>
-      <c r="AL79" s="81"/>
-      <c r="AM79" s="81"/>
+      <c r="AH79" s="105"/>
+      <c r="AI79" s="105"/>
+      <c r="AJ79" s="105"/>
+      <c r="AK79" s="105"/>
+      <c r="AL79" s="105"/>
+      <c r="AM79" s="105"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="83"/>
-      <c r="M80" s="83"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
-      <c r="P80" s="83"/>
-      <c r="Q80" s="83"/>
-      <c r="R80" s="83"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="107"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="107"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="107"/>
+      <c r="O80" s="107"/>
+      <c r="P80" s="107"/>
+      <c r="Q80" s="107"/>
+      <c r="R80" s="107"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="61" t="s">
+      <c r="T80" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="61"/>
-      <c r="V80" s="61"/>
-      <c r="W80" s="61"/>
-      <c r="X80" s="61">
+      <c r="U80" s="91"/>
+      <c r="V80" s="91"/>
+      <c r="W80" s="91"/>
+      <c r="X80" s="91">
         <v>1</v>
       </c>
-      <c r="Y80" s="61"/>
-      <c r="Z80" s="84"/>
-      <c r="AA80" s="84"/>
-      <c r="AB80" s="84"/>
-      <c r="AC80" s="61"/>
-      <c r="AD80" s="61"/>
-      <c r="AE80" s="61"/>
-      <c r="AF80" s="61"/>
-      <c r="AG80" s="81"/>
-      <c r="AH80" s="81"/>
-      <c r="AI80" s="81"/>
-      <c r="AJ80" s="81"/>
-      <c r="AK80" s="81"/>
-      <c r="AL80" s="81"/>
-      <c r="AM80" s="81"/>
+      <c r="Y80" s="91"/>
+      <c r="Z80" s="106"/>
+      <c r="AA80" s="106"/>
+      <c r="AB80" s="106"/>
+      <c r="AC80" s="91"/>
+      <c r="AD80" s="91"/>
+      <c r="AE80" s="91"/>
+      <c r="AF80" s="91"/>
+      <c r="AG80" s="105"/>
+      <c r="AH80" s="105"/>
+      <c r="AI80" s="105"/>
+      <c r="AJ80" s="105"/>
+      <c r="AK80" s="105"/>
+      <c r="AL80" s="105"/>
+      <c r="AM80" s="105"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="83" t="s">
+      <c r="E81" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83" t="s">
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="83"/>
-      <c r="L81" s="83"/>
-      <c r="M81" s="83"/>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="83"/>
-      <c r="Q81" s="83"/>
-      <c r="R81" s="83"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="107"/>
+      <c r="O81" s="107"/>
+      <c r="P81" s="107"/>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="61" t="s">
+      <c r="T81" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="61"/>
-      <c r="V81" s="61"/>
-      <c r="W81" s="61"/>
-      <c r="X81" s="61">
+      <c r="U81" s="91"/>
+      <c r="V81" s="91"/>
+      <c r="W81" s="91"/>
+      <c r="X81" s="91">
         <v>1</v>
       </c>
-      <c r="Y81" s="61"/>
-      <c r="Z81" s="84" t="s">
+      <c r="Y81" s="91"/>
+      <c r="Z81" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="84"/>
-      <c r="AB81" s="84"/>
-      <c r="AC81" s="61" t="s">
+      <c r="AA81" s="106"/>
+      <c r="AB81" s="106"/>
+      <c r="AC81" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="61"/>
-      <c r="AE81" s="61"/>
-      <c r="AF81" s="61"/>
-      <c r="AG81" s="81" t="s">
+      <c r="AD81" s="91"/>
+      <c r="AE81" s="91"/>
+      <c r="AF81" s="91"/>
+      <c r="AG81" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="81"/>
-      <c r="AI81" s="81"/>
-      <c r="AJ81" s="81"/>
-      <c r="AK81" s="81"/>
-      <c r="AL81" s="81"/>
-      <c r="AM81" s="81"/>
+      <c r="AH81" s="105"/>
+      <c r="AI81" s="105"/>
+      <c r="AJ81" s="105"/>
+      <c r="AK81" s="105"/>
+      <c r="AL81" s="105"/>
+      <c r="AM81" s="105"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="Q82" s="83"/>
-      <c r="R82" s="83"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="107"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="107"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="107"/>
+      <c r="O82" s="107"/>
+      <c r="P82" s="107"/>
+      <c r="Q82" s="107"/>
+      <c r="R82" s="107"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="61" t="s">
+      <c r="T82" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="61"/>
-      <c r="V82" s="61"/>
-      <c r="W82" s="61"/>
-      <c r="X82" s="61">
+      <c r="U82" s="91"/>
+      <c r="V82" s="91"/>
+      <c r="W82" s="91"/>
+      <c r="X82" s="91">
         <v>1</v>
       </c>
-      <c r="Y82" s="61"/>
-      <c r="Z82" s="84"/>
-      <c r="AA82" s="84"/>
-      <c r="AB82" s="84"/>
-      <c r="AC82" s="61"/>
-      <c r="AD82" s="61"/>
-      <c r="AE82" s="61"/>
-      <c r="AF82" s="61"/>
-      <c r="AG82" s="81"/>
-      <c r="AH82" s="81"/>
-      <c r="AI82" s="81"/>
-      <c r="AJ82" s="81"/>
-      <c r="AK82" s="81"/>
-      <c r="AL82" s="81"/>
-      <c r="AM82" s="81"/>
+      <c r="Y82" s="91"/>
+      <c r="Z82" s="106"/>
+      <c r="AA82" s="106"/>
+      <c r="AB82" s="106"/>
+      <c r="AC82" s="91"/>
+      <c r="AD82" s="91"/>
+      <c r="AE82" s="91"/>
+      <c r="AF82" s="91"/>
+      <c r="AG82" s="105"/>
+      <c r="AH82" s="105"/>
+      <c r="AI82" s="105"/>
+      <c r="AJ82" s="105"/>
+      <c r="AK82" s="105"/>
+      <c r="AL82" s="105"/>
+      <c r="AM82" s="105"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="83" t="s">
+      <c r="E83" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83" t="s">
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="83"/>
-      <c r="N83" s="83"/>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83"/>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="83"/>
+      <c r="K83" s="107"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="107"/>
+      <c r="O83" s="107"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="61" t="s">
+      <c r="T83" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="61"/>
-      <c r="V83" s="61"/>
-      <c r="W83" s="61"/>
-      <c r="X83" s="61">
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91">
         <v>1</v>
       </c>
-      <c r="Y83" s="61"/>
-      <c r="Z83" s="84" t="s">
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="84"/>
-      <c r="AB83" s="84"/>
-      <c r="AC83" s="61" t="s">
+      <c r="AA83" s="106"/>
+      <c r="AB83" s="106"/>
+      <c r="AC83" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="61"/>
-      <c r="AE83" s="61"/>
-      <c r="AF83" s="61"/>
-      <c r="AG83" s="81" t="s">
+      <c r="AD83" s="91"/>
+      <c r="AE83" s="91"/>
+      <c r="AF83" s="91"/>
+      <c r="AG83" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="81"/>
-      <c r="AI83" s="81"/>
-      <c r="AJ83" s="81"/>
-      <c r="AK83" s="81"/>
-      <c r="AL83" s="81"/>
-      <c r="AM83" s="81"/>
+      <c r="AH83" s="105"/>
+      <c r="AI83" s="105"/>
+      <c r="AJ83" s="105"/>
+      <c r="AK83" s="105"/>
+      <c r="AL83" s="105"/>
+      <c r="AM83" s="105"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="107"/>
+      <c r="K84" s="107"/>
+      <c r="L84" s="107"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="107"/>
+      <c r="O84" s="107"/>
+      <c r="P84" s="107"/>
+      <c r="Q84" s="107"/>
+      <c r="R84" s="107"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="61" t="s">
+      <c r="T84" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="61"/>
-      <c r="V84" s="61"/>
-      <c r="W84" s="61"/>
-      <c r="X84" s="61">
+      <c r="U84" s="91"/>
+      <c r="V84" s="91"/>
+      <c r="W84" s="91"/>
+      <c r="X84" s="91">
         <v>1</v>
       </c>
-      <c r="Y84" s="61"/>
-      <c r="Z84" s="84"/>
-      <c r="AA84" s="84"/>
-      <c r="AB84" s="84"/>
-      <c r="AC84" s="61"/>
-      <c r="AD84" s="61"/>
-      <c r="AE84" s="61"/>
-      <c r="AF84" s="61"/>
-      <c r="AG84" s="81"/>
-      <c r="AH84" s="81"/>
-      <c r="AI84" s="81"/>
-      <c r="AJ84" s="81"/>
-      <c r="AK84" s="81"/>
-      <c r="AL84" s="81"/>
-      <c r="AM84" s="81"/>
+      <c r="Y84" s="91"/>
+      <c r="Z84" s="106"/>
+      <c r="AA84" s="106"/>
+      <c r="AB84" s="106"/>
+      <c r="AC84" s="91"/>
+      <c r="AD84" s="91"/>
+      <c r="AE84" s="91"/>
+      <c r="AF84" s="91"/>
+      <c r="AG84" s="105"/>
+      <c r="AH84" s="105"/>
+      <c r="AI84" s="105"/>
+      <c r="AJ84" s="105"/>
+      <c r="AK84" s="105"/>
+      <c r="AL84" s="105"/>
+      <c r="AM84" s="105"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="83" t="s">
+      <c r="E85" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="83" t="s">
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="83"/>
-      <c r="L85" s="83"/>
-      <c r="M85" s="83"/>
-      <c r="N85" s="83"/>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83"/>
-      <c r="Q85" s="83"/>
-      <c r="R85" s="83"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="107"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="107"/>
+      <c r="O85" s="107"/>
+      <c r="P85" s="107"/>
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="61" t="s">
+      <c r="T85" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61">
+      <c r="U85" s="91"/>
+      <c r="V85" s="91"/>
+      <c r="W85" s="91"/>
+      <c r="X85" s="91">
         <v>1</v>
       </c>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="84" t="s">
+      <c r="Y85" s="91"/>
+      <c r="Z85" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="84"/>
-      <c r="AB85" s="84"/>
-      <c r="AC85" s="61" t="s">
+      <c r="AA85" s="106"/>
+      <c r="AB85" s="106"/>
+      <c r="AC85" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="61"/>
-      <c r="AE85" s="61"/>
-      <c r="AF85" s="61"/>
-      <c r="AG85" s="81" t="s">
+      <c r="AD85" s="91"/>
+      <c r="AE85" s="91"/>
+      <c r="AF85" s="91"/>
+      <c r="AG85" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="81"/>
-      <c r="AI85" s="81"/>
-      <c r="AJ85" s="81"/>
-      <c r="AK85" s="81"/>
-      <c r="AL85" s="81"/>
-      <c r="AM85" s="81"/>
+      <c r="AH85" s="105"/>
+      <c r="AI85" s="105"/>
+      <c r="AJ85" s="105"/>
+      <c r="AK85" s="105"/>
+      <c r="AL85" s="105"/>
+      <c r="AM85" s="105"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="107"/>
+      <c r="O86" s="107"/>
+      <c r="P86" s="107"/>
+      <c r="Q86" s="107"/>
+      <c r="R86" s="107"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="61" t="s">
+      <c r="T86" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="61"/>
-      <c r="V86" s="61"/>
-      <c r="W86" s="61"/>
-      <c r="X86" s="61">
+      <c r="U86" s="91"/>
+      <c r="V86" s="91"/>
+      <c r="W86" s="91"/>
+      <c r="X86" s="91">
         <v>1</v>
       </c>
-      <c r="Y86" s="61"/>
-      <c r="Z86" s="84"/>
-      <c r="AA86" s="84"/>
-      <c r="AB86" s="84"/>
-      <c r="AC86" s="61"/>
-      <c r="AD86" s="61"/>
-      <c r="AE86" s="61"/>
-      <c r="AF86" s="61"/>
-      <c r="AG86" s="81"/>
-      <c r="AH86" s="81"/>
-      <c r="AI86" s="81"/>
-      <c r="AJ86" s="81"/>
-      <c r="AK86" s="81"/>
-      <c r="AL86" s="81"/>
-      <c r="AM86" s="81"/>
+      <c r="Y86" s="91"/>
+      <c r="Z86" s="106"/>
+      <c r="AA86" s="106"/>
+      <c r="AB86" s="106"/>
+      <c r="AC86" s="91"/>
+      <c r="AD86" s="91"/>
+      <c r="AE86" s="91"/>
+      <c r="AF86" s="91"/>
+      <c r="AG86" s="105"/>
+      <c r="AH86" s="105"/>
+      <c r="AI86" s="105"/>
+      <c r="AJ86" s="105"/>
+      <c r="AK86" s="105"/>
+      <c r="AL86" s="105"/>
+      <c r="AM86" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -26548,6 +26568,112 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26660,10 +26786,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="AH48" sqref="AH48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
@@ -26675,8 +26801,8 @@
       <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>232</v>
+      <c r="B1" s="63" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -26694,32 +26820,32 @@
     <row r="6" spans="1:27">
       <c r="A6"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7"/>
@@ -26742,368 +26868,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
     </row>
     <row r="23" spans="1:27">
       <c r="B23" s="46"/>
@@ -27114,843 +27240,1357 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26"/>
-      <c r="C26" s="46"/>
-      <c r="D26" t="s">
-        <v>215</v>
-      </c>
+      <c r="D26" s="120" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
+      <c r="D27" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28"/>
-      <c r="C28" s="46"/>
+      <c r="D28" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29"/>
-      <c r="C29" s="46"/>
-      <c r="D29" t="s">
-        <v>220</v>
-      </c>
+      <c r="D29" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30"/>
-      <c r="C30" s="46"/>
-      <c r="D30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
+      <c r="D30" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32"/>
       <c r="C32" s="46"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33"/>
       <c r="C33" s="46"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="85"/>
+      <c r="D33" s="126" t="str">
+        <f>"v4l2-ctl --device=" &amp; D26 &amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video0 --all</v>
+      </c>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="126"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34"/>
       <c r="C34" s="46"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
+      <c r="D34" s="126" t="str">
+        <f t="shared" ref="D34:D37" si="0">"v4l2-ctl --device=" &amp; D27 &amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video8 --all</v>
+      </c>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35"/>
       <c r="C35" s="46"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
+      <c r="D35" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>v4l2-ctl --device=/dev/video28 --all</v>
+      </c>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="126"/>
+      <c r="W35" s="126"/>
+      <c r="X35" s="126"/>
+      <c r="Y35" s="126"/>
+      <c r="Z35" s="126"/>
+      <c r="AA35" s="126"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36"/>
       <c r="C36" s="46"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
+      <c r="D36" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>v4l2-ctl --device=/dev/video4 --all</v>
+      </c>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="126"/>
+      <c r="W36" s="126"/>
+      <c r="X36" s="126"/>
+      <c r="Y36" s="126"/>
+      <c r="Z36" s="126"/>
+      <c r="AA36" s="126"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="85"/>
+      <c r="D37" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>v4l2-ctl --device=/dev/video24 --all</v>
+      </c>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="126"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
+      <c r="X37" s="126"/>
+      <c r="Y37" s="126"/>
+      <c r="Z37" s="126"/>
+      <c r="AA37" s="126"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38"/>
       <c r="C38" s="46"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="85"/>
     </row>
     <row r="39" spans="1:27">
       <c r="A39"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="85"/>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="85"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="85"/>
-      <c r="AA40" s="85"/>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="85"/>
+      <c r="D41" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+      <c r="U41" s="114"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="114"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="85"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43"/>
       <c r="C43" s="46"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="85"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="114"/>
+      <c r="Z44" s="114"/>
+      <c r="AA44" s="114"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45"/>
       <c r="C45" s="46"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="85"/>
-      <c r="W45" s="85"/>
-      <c r="X45" s="85"/>
-      <c r="Y45" s="85"/>
-      <c r="Z45" s="85"/>
-      <c r="AA45" s="85"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="114"/>
+      <c r="Z45" s="114"/>
+      <c r="AA45" s="114"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="B46" s="46"/>
+      <c r="A46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
+      <c r="Y46" s="114"/>
+      <c r="Z46" s="114"/>
+      <c r="AA46" s="114"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="B47" s="46"/>
-      <c r="D47" t="s">
-        <v>222</v>
-      </c>
+      <c r="A47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="114"/>
+      <c r="T47" s="114"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="114"/>
+      <c r="X47" s="114"/>
+      <c r="Y47" s="114"/>
+      <c r="Z47" s="114"/>
+      <c r="AA47" s="114"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="B48" s="46"/>
-      <c r="D48" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45" t="str">
-        <f>"v4l2-ctl --device="&amp;TRIM(D48)&amp;" --all"</f>
-        <v>v4l2-ctl --device=/dev/video0 --all</v>
-      </c>
-      <c r="N48" s="45"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="B49" s="46"/>
-      <c r="D49" t="s">
-        <v>223</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" ref="M49:M52" si="0">"v4l2-ctl --device="&amp;TRIM(D49)&amp;" --all"</f>
-        <v>v4l2-ctl --device=/dev/video1 --all</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="B50" s="46"/>
-      <c r="D50" t="s">
-        <v>224</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="0"/>
-        <v>v4l2-ctl --device=/dev/video2 --all</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="B51" s="46"/>
-      <c r="D51" t="s">
-        <v>225</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="0"/>
-        <v>v4l2-ctl --device=/dev/video3 --all</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="B52" s="46"/>
-      <c r="D52" t="s">
-        <v>226</v>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" si="0"/>
-        <v>v4l2-ctl --device=/dev/media0 --all</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="B53" s="46"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="B54" s="46"/>
-      <c r="D54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="B55" s="46"/>
-      <c r="D55" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45" t="str">
-        <f t="shared" ref="M55:M57" si="1">"v4l2-ctl --device="&amp;TRIM(D55)&amp;" --all"</f>
-        <v>v4l2-ctl --device=/dev/video4 --all</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="A48"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="114"/>
+      <c r="Y48" s="114"/>
+      <c r="Z48" s="114"/>
+      <c r="AA48" s="114"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="114"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="114"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
+      <c r="AA51" s="114"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="114"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="114"/>
+      <c r="T53" s="114"/>
+      <c r="U53" s="114"/>
+      <c r="V53" s="114"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="114"/>
+      <c r="Y53" s="114"/>
+      <c r="Z53" s="114"/>
+      <c r="AA53" s="114"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="114"/>
+      <c r="P54" s="114"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="114"/>
+      <c r="S54" s="114"/>
+      <c r="T54" s="114"/>
+      <c r="U54" s="114"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="114"/>
+      <c r="Y54" s="114"/>
+      <c r="Z54" s="114"/>
+      <c r="AA54" s="114"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="114"/>
+      <c r="S55" s="114"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="114"/>
+      <c r="V55" s="114"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="114"/>
+      <c r="Y55" s="114"/>
+      <c r="Z55" s="114"/>
+      <c r="AA55" s="114"/>
+    </row>
+    <row r="56" spans="1:27">
       <c r="B56" s="46"/>
-      <c r="D56" t="s">
-        <v>229</v>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" si="1"/>
-        <v>v4l2-ctl --device=/dev/video5 --all</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:27">
       <c r="B57" s="46"/>
       <c r="D57" t="s">
-        <v>230</v>
-      </c>
-      <c r="M57" t="str">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="B58" s="46"/>
+      <c r="D58" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45" t="str">
+        <f>"v4l2-ctl --device="&amp;TRIM(D58)&amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video0 --all</v>
+      </c>
+      <c r="N58" s="45"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="B59" s="46"/>
+      <c r="D59" t="s">
+        <v>222</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" ref="M59:M62" si="1">"v4l2-ctl --device="&amp;TRIM(D59)&amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video1 --all</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="B60" s="46"/>
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="M60" t="str">
         <f t="shared" si="1"/>
+        <v>v4l2-ctl --device=/dev/video2 --all</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="B61" s="46"/>
+      <c r="D61" t="s">
+        <v>224</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>v4l2-ctl --device=/dev/video3 --all</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="B62" s="46"/>
+      <c r="D62" t="s">
+        <v>225</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>v4l2-ctl --device=/dev/media0 --all</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="B63" s="46"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="B64" s="46"/>
+      <c r="D64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36">
+      <c r="B65" s="46"/>
+      <c r="D65" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45" t="str">
+        <f t="shared" ref="M65:M67" si="2">"v4l2-ctl --device="&amp;TRIM(D65)&amp;" --all"</f>
+        <v>v4l2-ctl --device=/dev/video4 --all</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36">
+      <c r="B66" s="46"/>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="2"/>
+        <v>v4l2-ctl --device=/dev/video5 --all</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36">
+      <c r="B67" s="46"/>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="2"/>
         <v>v4l2-ctl --device=/dev/media1 --all</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="43" customFormat="1">
-      <c r="A59" s="41" t="s">
+    <row r="69" spans="1:36" s="43" customFormat="1">
+      <c r="A69" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B69" s="63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36">
+      <c r="B70" s="45"/>
+    </row>
+    <row r="71" spans="1:36">
+      <c r="B71" s="46"/>
+      <c r="C71" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36">
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+    </row>
+    <row r="73" spans="1:36">
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="91" customFormat="1">
-      <c r="A60" s="89"/>
-      <c r="B60" s="90"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="B61" s="46"/>
-      <c r="C61" s="45" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-    </row>
-    <row r="65" spans="2:24">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="E65" t="s">
+    <row r="74" spans="1:36">
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+    </row>
+    <row r="75" spans="1:36">
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="E75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="H65" s="74" t="s">
+      <c r="I75" s="104"/>
+    </row>
+    <row r="76" spans="1:36">
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+    </row>
+    <row r="77" spans="1:36">
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="E77" t="s">
+        <v>241</v>
+      </c>
+      <c r="M77" t="s">
+        <v>241</v>
+      </c>
+      <c r="V77" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI77" t="s">
         <v>238</v>
       </c>
-      <c r="I65" s="76"/>
-    </row>
-    <row r="66" spans="2:24">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-    </row>
-    <row r="67" spans="2:24">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="E67" t="s">
-        <v>242</v>
-      </c>
-      <c r="M67" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>243</v>
-      </c>
-      <c r="T67" t="s">
-        <v>241</v>
-      </c>
-      <c r="W67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="E68" s="92" t="str">
-        <f>"--video-device " &amp; TRIM(D48)</f>
-        <v>--video-device /dev/video0</v>
-      </c>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="93"/>
-      <c r="K68" s="94"/>
-      <c r="M68" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="N68" s="93"/>
-      <c r="O68" s="94"/>
-      <c r="Q68" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="R68" s="76"/>
-      <c r="T68" s="74">
-        <v>8080</v>
-      </c>
-      <c r="U68" s="76"/>
-      <c r="W68" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="X68" s="76"/>
-    </row>
-    <row r="69" spans="2:24">
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="E69" s="92" t="str">
-        <f>"--video-device " &amp; TRIM(D55)</f>
-        <v>--video-device /dev/video4</v>
-      </c>
-      <c r="F69" s="93"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="93"/>
-      <c r="J69" s="93"/>
-      <c r="K69" s="94"/>
-      <c r="M69" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="N69" s="93"/>
-      <c r="O69" s="94"/>
-      <c r="Q69" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="R69" s="76"/>
-      <c r="T69" s="74">
-        <v>8081</v>
-      </c>
-      <c r="U69" s="76"/>
-      <c r="W69" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="X69" s="76"/>
-    </row>
-    <row r="72" spans="2:24">
-      <c r="D72" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="74" spans="2:24">
-      <c r="E74" t="str">
-        <f>$H$65&amp;" "&amp;M68&amp;" "&amp;E68&amp;" "&amp;Q68&amp;" "&amp;"--port "&amp;T68 &amp; " " &amp;W68</f>
-        <v>./momo --no-audio-device --video-device /dev/video0 test --port 8080 &amp;</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24">
-      <c r="E75" t="str">
-        <f>$H$65&amp;" "&amp;M69&amp;" "&amp;E69&amp;" "&amp;Q69&amp;" "&amp;"--port "&amp;T69 &amp; " " &amp;W69</f>
-        <v>./momo --no-audio-device --video-device /dev/video4 test --port 8081 &amp;</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24">
-      <c r="B77" s="46"/>
-      <c r="C77" s="45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24">
+    </row>
+    <row r="78" spans="1:36">
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
-    </row>
-    <row r="79" spans="2:24">
+      <c r="E78" s="109" t="str">
+        <f>"--video-device " &amp; TRIM(M78)</f>
+        <v>--video-device /dev/video0</v>
+      </c>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="120" t="s">
+        <v>291</v>
+      </c>
+      <c r="N78" s="121"/>
+      <c r="O78" s="121"/>
+      <c r="P78" s="122"/>
+      <c r="Q78" s="131">
+        <v>0</v>
+      </c>
+      <c r="R78" s="130">
+        <v>1</v>
+      </c>
+      <c r="S78" s="130">
+        <v>2</v>
+      </c>
+      <c r="T78" s="130">
+        <v>3</v>
+      </c>
+      <c r="V78" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="W78" s="110"/>
+      <c r="X78" s="111"/>
+      <c r="Z78" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA78" s="104"/>
+      <c r="AC78" s="102">
+        <v>51001</v>
+      </c>
+      <c r="AD78" s="104"/>
+      <c r="AE78" s="119"/>
+      <c r="AF78" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG78" s="62"/>
+      <c r="AI78" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ78" s="62"/>
+    </row>
+    <row r="79" spans="1:36">
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
-      <c r="D79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24">
+      <c r="E79" s="109" t="str">
+        <f t="shared" ref="E79:E82" si="3">"--video-device " &amp; TRIM(M79)</f>
+        <v>--video-device /dev/video8</v>
+      </c>
+      <c r="F79" s="110"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="111"/>
+      <c r="L79" s="118"/>
+      <c r="M79" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="N79" s="121"/>
+      <c r="O79" s="121"/>
+      <c r="P79" s="122"/>
+      <c r="Q79" s="131">
+        <v>8</v>
+      </c>
+      <c r="R79" s="130">
+        <v>9</v>
+      </c>
+      <c r="S79" s="130">
+        <v>17</v>
+      </c>
+      <c r="T79" s="130">
+        <v>19</v>
+      </c>
+      <c r="V79" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="W79" s="110"/>
+      <c r="X79" s="111"/>
+      <c r="Z79" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA79" s="104"/>
+      <c r="AC79" s="102">
+        <v>51002</v>
+      </c>
+      <c r="AD79" s="104"/>
+      <c r="AE79" s="119"/>
+      <c r="AF79" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG79" s="62"/>
+      <c r="AI79" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ79" s="62"/>
+    </row>
+    <row r="80" spans="1:36">
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
-      <c r="D80" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="94"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="E80" s="109" t="str">
+        <f t="shared" si="3"/>
+        <v>--video-device /dev/video30</v>
+      </c>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="111"/>
+      <c r="L80" s="118"/>
+      <c r="M80" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="N80" s="121"/>
+      <c r="O80" s="121"/>
+      <c r="P80" s="122"/>
+      <c r="Q80" s="131">
+        <v>28</v>
+      </c>
+      <c r="R80" s="130">
+        <v>29</v>
+      </c>
+      <c r="S80" s="130">
+        <v>30</v>
+      </c>
+      <c r="T80" s="130">
+        <v>32</v>
+      </c>
+      <c r="V80" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="W80" s="110"/>
+      <c r="X80" s="111"/>
+      <c r="Z80" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA80" s="104"/>
+      <c r="AC80" s="102">
+        <v>51003</v>
+      </c>
+      <c r="AD80" s="104"/>
+      <c r="AE80" s="119"/>
+      <c r="AF80" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG80" s="62"/>
+      <c r="AI80" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ80" s="62"/>
+    </row>
+    <row r="81" spans="2:36">
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="E81" s="109" t="str">
+        <f t="shared" si="3"/>
+        <v>--video-device /dev/video4</v>
+      </c>
+      <c r="F81" s="110"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="118"/>
+      <c r="M81" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="N81" s="121"/>
+      <c r="O81" s="121"/>
+      <c r="P81" s="122"/>
+      <c r="Q81" s="131">
+        <v>4</v>
+      </c>
+      <c r="R81" s="130">
+        <v>5</v>
+      </c>
+      <c r="S81" s="130">
+        <v>6</v>
+      </c>
+      <c r="T81" s="130">
+        <v>7</v>
+      </c>
+      <c r="V81" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="W81" s="110"/>
+      <c r="X81" s="111"/>
+      <c r="Z81" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA81" s="104"/>
+      <c r="AC81" s="102">
+        <v>51004</v>
+      </c>
+      <c r="AD81" s="104"/>
+      <c r="AE81" s="119"/>
+      <c r="AF81" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG81" s="62"/>
+      <c r="AI81" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ81" s="62"/>
+    </row>
+    <row r="82" spans="2:36">
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
-      <c r="D82" t="s">
+      <c r="E82" s="109" t="str">
+        <f t="shared" si="3"/>
+        <v>--video-device /dev/video24</v>
+      </c>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="111"/>
+      <c r="L82" s="118"/>
+      <c r="M82" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="N82" s="121"/>
+      <c r="O82" s="121"/>
+      <c r="P82" s="122"/>
+      <c r="Q82" s="130">
+        <v>24</v>
+      </c>
+      <c r="R82" s="130">
+        <v>25</v>
+      </c>
+      <c r="S82" s="130">
+        <v>26</v>
+      </c>
+      <c r="T82" s="130">
+        <v>27</v>
+      </c>
+      <c r="V82" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="W82" s="110"/>
+      <c r="X82" s="111"/>
+      <c r="Z82" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA82" s="104"/>
+      <c r="AC82" s="102">
+        <v>51005</v>
+      </c>
+      <c r="AD82" s="104"/>
+      <c r="AE82" s="119"/>
+      <c r="AF82" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG82" s="62"/>
+      <c r="AI82" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ82" s="62"/>
+    </row>
+    <row r="85" spans="2:36">
+      <c r="D85" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="2:36" ht="19.5" thickBot="1"/>
+    <row r="87" spans="2:36" ht="19.5" thickBot="1">
+      <c r="E87" s="123" t="str">
+        <f>$H$75&amp;" "&amp;V78&amp;" "&amp;E78&amp;" --resolution "&amp;AF78&amp;" "&amp;Z78&amp;" "&amp;"--port "&amp;AC78 &amp; " " &amp;AI78</f>
+        <v>./momo --no-audio-device --video-device /dev/video0 --resolution QVGA test --port 51001 &amp;</v>
+      </c>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="124"/>
+      <c r="K87" s="124"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="124"/>
+      <c r="N87" s="124"/>
+      <c r="O87" s="124"/>
+      <c r="P87" s="124"/>
+      <c r="Q87" s="124"/>
+      <c r="R87" s="124"/>
+      <c r="S87" s="124"/>
+      <c r="T87" s="124"/>
+      <c r="U87" s="124"/>
+      <c r="V87" s="124"/>
+      <c r="W87" s="124"/>
+      <c r="X87" s="125"/>
+    </row>
+    <row r="88" spans="2:36" ht="19.5" thickBot="1">
+      <c r="E88" s="123" t="str">
+        <f>$H$75&amp;" "&amp;V79&amp;" "&amp;E79&amp;" --resolution "&amp;AF79&amp;" "&amp;Z79&amp;" "&amp;"--port "&amp;AC79 &amp; " " &amp;AI79</f>
+        <v>./momo --no-audio-device --video-device /dev/video8 --resolution QVGA test --port 51002 &amp;</v>
+      </c>
+      <c r="F88" s="124"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
+      <c r="J88" s="124"/>
+      <c r="K88" s="124"/>
+      <c r="L88" s="124"/>
+      <c r="M88" s="124"/>
+      <c r="N88" s="124"/>
+      <c r="O88" s="124"/>
+      <c r="P88" s="124"/>
+      <c r="Q88" s="124"/>
+      <c r="R88" s="124"/>
+      <c r="S88" s="124"/>
+      <c r="T88" s="124"/>
+      <c r="U88" s="124"/>
+      <c r="V88" s="124"/>
+      <c r="W88" s="124"/>
+      <c r="X88" s="125"/>
+    </row>
+    <row r="89" spans="2:36" ht="19.5" thickBot="1">
+      <c r="E89" s="123" t="str">
+        <f>$H$75&amp;" "&amp;V80&amp;" "&amp;E80&amp;" --resolution "&amp;AF80&amp;" "&amp;Z80&amp;" "&amp;"--port "&amp;AC80 &amp; " " &amp;AI80</f>
+        <v>./momo --no-audio-device --video-device /dev/video30 --resolution QVGA test --port 51003 &amp;</v>
+      </c>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+      <c r="J89" s="124"/>
+      <c r="K89" s="124"/>
+      <c r="L89" s="124"/>
+      <c r="M89" s="124"/>
+      <c r="N89" s="124"/>
+      <c r="O89" s="124"/>
+      <c r="P89" s="124"/>
+      <c r="Q89" s="124"/>
+      <c r="R89" s="124"/>
+      <c r="S89" s="124"/>
+      <c r="T89" s="124"/>
+      <c r="U89" s="124"/>
+      <c r="V89" s="124"/>
+      <c r="W89" s="124"/>
+      <c r="X89" s="125"/>
+    </row>
+    <row r="90" spans="2:36" ht="19.5" thickBot="1">
+      <c r="E90" s="123" t="str">
+        <f>$H$75&amp;" "&amp;V81&amp;" "&amp;E81&amp;" --resolution "&amp;AF81&amp;" "&amp;Z81&amp;" "&amp;"--port "&amp;AC81 &amp; " " &amp;AI81</f>
+        <v>./momo --no-audio-device --video-device /dev/video4 --resolution QVGA test --port 51004 &amp;</v>
+      </c>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="124"/>
+      <c r="J90" s="124"/>
+      <c r="K90" s="124"/>
+      <c r="L90" s="124"/>
+      <c r="M90" s="124"/>
+      <c r="N90" s="124"/>
+      <c r="O90" s="124"/>
+      <c r="P90" s="124"/>
+      <c r="Q90" s="124"/>
+      <c r="R90" s="124"/>
+      <c r="S90" s="124"/>
+      <c r="T90" s="124"/>
+      <c r="U90" s="124"/>
+      <c r="V90" s="124"/>
+      <c r="W90" s="124"/>
+      <c r="X90" s="125"/>
+    </row>
+    <row r="91" spans="2:36" ht="19.5" thickBot="1">
+      <c r="E91" s="123" t="str">
+        <f>$H$75&amp;" "&amp;V82&amp;" "&amp;E82&amp;" --resolution "&amp;AF82&amp;" "&amp;Z82&amp;" "&amp;"--port "&amp;AC82 &amp; " " &amp;AI82</f>
+        <v>./momo --no-audio-device --video-device /dev/video24 --resolution QVGA test --port 51005 &amp;</v>
+      </c>
+      <c r="F91" s="124"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="124"/>
+      <c r="J91" s="124"/>
+      <c r="K91" s="124"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="124"/>
+      <c r="N91" s="124"/>
+      <c r="O91" s="124"/>
+      <c r="P91" s="124"/>
+      <c r="Q91" s="124"/>
+      <c r="R91" s="124"/>
+      <c r="S91" s="124"/>
+      <c r="T91" s="124"/>
+      <c r="U91" s="124"/>
+      <c r="V91" s="124"/>
+      <c r="W91" s="124"/>
+      <c r="X91" s="125"/>
+    </row>
+    <row r="93" spans="2:36">
+      <c r="B93" s="46"/>
+      <c r="C93" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="2:36">
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+    </row>
+    <row r="95" spans="2:36">
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="2:36">
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" s="128"/>
+      <c r="F96" s="128"/>
+      <c r="G96" s="128"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="128"/>
+      <c r="J96" s="128"/>
+      <c r="K96" s="129"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="115" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="93"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="94"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="B84" s="46"/>
-      <c r="C84" s="46"/>
-    </row>
-    <row r="85" spans="1:11" s="43" customFormat="1">
-      <c r="A85" s="41" t="s">
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="117"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+    </row>
+    <row r="101" spans="1:11" s="43" customFormat="1">
+      <c r="A101" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B101" s="63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="C103" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="C87" t="s">
+    <row r="105" spans="1:11">
+      <c r="D105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="D89" t="s">
-        <v>247</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D83:K83"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="E69:K69"/>
+  <mergeCells count="34">
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="E82:K82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AC82:AD82"/>
     <mergeCell ref="D10:AA22"/>
-    <mergeCell ref="D6:AA6"/>
-    <mergeCell ref="D27:AA27"/>
-    <mergeCell ref="D31:AA45"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="D41:AA55"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="E78:K78"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Z81:AA81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sec3Win11\Documents\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D87157-2AC8-4EDE-B07F-B1520F9A8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713C876-7BC2-4B1D-B926-00F2E838DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="1080" windowWidth="16515" windowHeight="14970" tabRatio="745" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="745" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -18,20 +18,32 @@
     <sheet name="サーバ関連" sheetId="5" r:id="rId3"/>
     <sheet name="サイトの設定" sheetId="13" r:id="rId4"/>
     <sheet name="送受信Json" sheetId="6" r:id="rId5"/>
-    <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId6"/>
-    <sheet name="momo関連" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
+    <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId7"/>
+    <sheet name="momo関連" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="322">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -2218,6 +2230,144 @@
     <t>/dev/video30</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PLCへの送信文字列</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り続ける</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作させる場合</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機構的になし</t>
+    <rPh sb="0" eb="3">
+      <t>キコウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFFの時は、ずっとクラッチダウンを送る</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロ波センサー</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK-YM-106</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CDM324 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F1111"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>マイクロ波</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2226,7 +2376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2362,6 +2512,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1111"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2704,7 +2867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2854,59 +3017,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2924,6 +3045,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2950,17 +3077,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2989,35 +3173,13 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5291,8 +5453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12718678" y="8942293"/>
-          <a:ext cx="739587" cy="313764"/>
+          <a:off x="12248031" y="8830234"/>
+          <a:ext cx="713440" cy="310029"/>
           <a:chOff x="12158384" y="7866528"/>
           <a:chExt cx="739587" cy="313765"/>
         </a:xfrm>
@@ -5409,8 +5571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11878237" y="10085292"/>
-          <a:ext cx="317726" cy="694766"/>
+          <a:off x="11433737" y="9954557"/>
+          <a:ext cx="317726" cy="683560"/>
           <a:chOff x="11542060" y="8706969"/>
           <a:chExt cx="317726" cy="694765"/>
         </a:xfrm>
@@ -5527,8 +5689,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10701618" y="8942293"/>
-          <a:ext cx="788373" cy="313764"/>
+          <a:off x="10309412" y="8830234"/>
+          <a:ext cx="762226" cy="310029"/>
           <a:chOff x="10466295" y="7888940"/>
           <a:chExt cx="788373" cy="313765"/>
         </a:xfrm>
@@ -5645,8 +5807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12629031" y="7384677"/>
-          <a:ext cx="317726" cy="739587"/>
+          <a:off x="12158384" y="7298765"/>
+          <a:ext cx="317726" cy="724646"/>
           <a:chOff x="12158384" y="6600265"/>
           <a:chExt cx="317726" cy="739587"/>
         </a:xfrm>
@@ -5830,8 +5992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11923062" y="7821706"/>
-          <a:ext cx="317726" cy="739586"/>
+          <a:off x="11478562" y="7728324"/>
+          <a:ext cx="317726" cy="728380"/>
           <a:chOff x="11542060" y="6947647"/>
           <a:chExt cx="317726" cy="739587"/>
         </a:xfrm>
@@ -6061,8 +6223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12360088" y="10427902"/>
-          <a:ext cx="459441" cy="480434"/>
+          <a:off x="11889441" y="10293431"/>
+          <a:ext cx="459441" cy="472964"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -6175,8 +6337,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14040969" y="7059703"/>
-          <a:ext cx="1654471" cy="1304870"/>
+          <a:off x="13518028" y="6977527"/>
+          <a:ext cx="1602177" cy="1282458"/>
           <a:chOff x="13458264" y="7788087"/>
           <a:chExt cx="1654471" cy="1304870"/>
         </a:xfrm>
@@ -6457,8 +6619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="10611972" y="8231552"/>
-          <a:ext cx="459440" cy="480434"/>
+          <a:off x="10210428" y="8140037"/>
+          <a:ext cx="451969" cy="454287"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -6571,8 +6733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13088475" y="8209140"/>
-          <a:ext cx="459440" cy="480434"/>
+          <a:off x="12595416" y="8104552"/>
+          <a:ext cx="451969" cy="480434"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -6685,8 +6847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11183475" y="7547993"/>
-          <a:ext cx="459441" cy="480434"/>
+          <a:off x="10765122" y="7458346"/>
+          <a:ext cx="433294" cy="472964"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -8525,7 +8687,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="614081" y="12613171"/>
+          <a:off x="614081" y="12584596"/>
           <a:ext cx="6173663" cy="5046506"/>
           <a:chOff x="620707" y="12084326"/>
           <a:chExt cx="6263115" cy="5119393"/>
@@ -9704,7 +9866,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="490331" y="18402713"/>
+          <a:off x="490331" y="18374138"/>
           <a:ext cx="2449487" cy="2452722"/>
           <a:chOff x="836544" y="18031239"/>
           <a:chExt cx="2482618" cy="2489165"/>
@@ -10176,7 +10338,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3316356" y="18444126"/>
+          <a:off x="3316356" y="18415551"/>
           <a:ext cx="2627253" cy="1820031"/>
           <a:chOff x="3462131" y="18031239"/>
           <a:chExt cx="2663696" cy="1846535"/>
@@ -10621,7 +10783,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="614081" y="22290571"/>
+          <a:off x="614081" y="22242946"/>
           <a:ext cx="6173663" cy="5046506"/>
           <a:chOff x="620707" y="12084326"/>
           <a:chExt cx="6263115" cy="5119393"/>
@@ -11937,7 +12099,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="490331" y="28308713"/>
+          <a:off x="490331" y="28261088"/>
           <a:ext cx="2449487" cy="2452722"/>
           <a:chOff x="836544" y="18031239"/>
           <a:chExt cx="2482618" cy="2489165"/>
@@ -12409,7 +12571,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3561522" y="27606344"/>
+          <a:off x="3561522" y="27558719"/>
           <a:ext cx="6002998" cy="2834315"/>
           <a:chOff x="3611218" y="27986930"/>
           <a:chExt cx="6089137" cy="2874071"/>
@@ -13739,7 +13901,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6533322" y="27606344"/>
+          <a:off x="6533322" y="27558719"/>
           <a:ext cx="3005359" cy="2825556"/>
           <a:chOff x="3611218" y="27986930"/>
           <a:chExt cx="3048429" cy="2865312"/>
@@ -14697,7 +14859,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4575314" y="28246221"/>
+          <a:off x="4575314" y="28198596"/>
           <a:ext cx="1404732" cy="1888333"/>
           <a:chOff x="4641575" y="28636746"/>
           <a:chExt cx="1424610" cy="1914837"/>
@@ -14816,7 +14978,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="7566992" y="28257819"/>
+          <a:off x="7566992" y="28210194"/>
           <a:ext cx="1404732" cy="1888332"/>
           <a:chOff x="4641575" y="28636746"/>
           <a:chExt cx="1424610" cy="1914837"/>
@@ -15525,7 +15687,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10972800" y="28192758"/>
+          <a:off x="10972800" y="28145133"/>
           <a:ext cx="2286000" cy="2277717"/>
           <a:chOff x="11131826" y="28583283"/>
           <a:chExt cx="2319131" cy="2310847"/>
@@ -15636,7 +15798,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10977766" y="28194413"/>
+          <a:off x="10977766" y="28146788"/>
           <a:ext cx="2286001" cy="2281030"/>
           <a:chOff x="11131826" y="28583283"/>
           <a:chExt cx="2319131" cy="2310847"/>
@@ -20661,6 +20823,134 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3210D6DA-3485-F551-FC47-5CA8E0FD63E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="7677150"/>
+          <a:ext cx="3149600" cy="1327150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラッチが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラッチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の情報を送る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラッチが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラッチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の情報を送る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -21251,8 +21541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7143750" y="17516475"/>
-          <a:ext cx="3543795" cy="2133898"/>
+          <a:off x="7064375" y="16859250"/>
+          <a:ext cx="3502520" cy="2048173"/>
           <a:chOff x="7143750" y="15887700"/>
           <a:chExt cx="3543795" cy="2133898"/>
         </a:xfrm>
@@ -21929,14 +22219,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="25.5">
+    <row r="2" spans="1:2" ht="26.5">
       <c r="A2" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="43" customFormat="1" ht="19.5">
+    <row r="4" spans="1:2" s="43" customFormat="1" ht="20">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -21956,20 +22246,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
   <dimension ref="A1:CL150"/>
   <sheetViews>
-    <sheetView topLeftCell="AU13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CH25" sqref="CH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:90" ht="18.75"/>
-    <row r="2" spans="1:90" ht="25.5">
+    <row r="1" spans="1:90"/>
+    <row r="2" spans="1:90" ht="26.5">
       <c r="A2" s="40" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:90" ht="18.75"/>
-    <row r="4" spans="1:90" s="43" customFormat="1" ht="19.5">
+    <row r="3" spans="1:90"/>
+    <row r="4" spans="1:90" s="43" customFormat="1" ht="20">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -21993,11 +22283,11 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="73" t="s">
+      <c r="T7" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="U7" s="74"/>
-      <c r="V7" s="75"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="101"/>
       <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -22083,26 +22373,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="97" t="s">
+      <c r="K10" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="98">
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="90">
         <v>9999</v>
       </c>
-      <c r="P10" s="98"/>
-      <c r="R10" s="97" t="s">
+      <c r="P10" s="90"/>
+      <c r="R10" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="98">
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="90">
         <v>9999</v>
       </c>
-      <c r="W10" s="98"/>
+      <c r="W10" s="90"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -22128,50 +22418,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="84" t="s">
+      <c r="AY10" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="AZ10" s="85"/>
-      <c r="BA10" s="85"/>
-      <c r="BB10" s="85"/>
-      <c r="BC10" s="86"/>
-      <c r="BL10" s="79" t="s">
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="112"/>
+      <c r="BL10" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="BM10" s="80"/>
-      <c r="BN10" s="80"/>
-      <c r="BO10" s="80"/>
-      <c r="BP10" s="80"/>
-      <c r="BQ10" s="81"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
+      <c r="BQ10" s="104"/>
       <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT10" s="73" t="s">
+      <c r="BT10" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="BU10" s="74"/>
-      <c r="BV10" s="75"/>
+      <c r="BU10" s="88"/>
+      <c r="BV10" s="101"/>
       <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="97" t="s">
+      <c r="K11" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="R11" s="97" t="s">
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="R11" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -22204,24 +22494,24 @@
       <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="76" t="s">
+      <c r="AZ12" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="73" t="s">
+      <c r="BA12" s="108"/>
+      <c r="BB12" s="108"/>
+      <c r="BC12" s="109"/>
+      <c r="BD12" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE12" s="75"/>
-      <c r="BF12" s="82">
+      <c r="BE12" s="101"/>
+      <c r="BF12" s="105">
         <v>50000</v>
       </c>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="73" t="s">
+      <c r="BG12" s="106"/>
+      <c r="BH12" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="BI12" s="75"/>
+      <c r="BI12" s="101"/>
       <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
@@ -22247,24 +22537,24 @@
       <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="76" t="s">
+      <c r="AZ13" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="78"/>
-      <c r="BD13" s="73" t="s">
+      <c r="BA13" s="108"/>
+      <c r="BB13" s="108"/>
+      <c r="BC13" s="109"/>
+      <c r="BD13" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE13" s="75"/>
-      <c r="BF13" s="82">
+      <c r="BE13" s="101"/>
+      <c r="BF13" s="105">
         <v>50001</v>
       </c>
-      <c r="BG13" s="83"/>
-      <c r="BH13" s="73" t="s">
+      <c r="BG13" s="106"/>
+      <c r="BH13" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="BI13" s="75"/>
+      <c r="BI13" s="101"/>
       <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
@@ -22294,24 +22584,24 @@
       <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="76" t="s">
+      <c r="AZ14" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="BA14" s="77"/>
-      <c r="BB14" s="77"/>
-      <c r="BC14" s="78"/>
-      <c r="BD14" s="73" t="s">
+      <c r="BA14" s="108"/>
+      <c r="BB14" s="108"/>
+      <c r="BC14" s="109"/>
+      <c r="BD14" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE14" s="75"/>
-      <c r="BF14" s="82">
+      <c r="BE14" s="101"/>
+      <c r="BF14" s="105">
         <v>50002</v>
       </c>
-      <c r="BG14" s="83"/>
-      <c r="BH14" s="73" t="s">
+      <c r="BG14" s="106"/>
+      <c r="BH14" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="BI14" s="75"/>
+      <c r="BI14" s="101"/>
       <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
@@ -22334,22 +22624,22 @@
       <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="77"/>
-      <c r="BB15" s="77"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="73" t="s">
+      <c r="AZ15" s="107"/>
+      <c r="BA15" s="108"/>
+      <c r="BB15" s="108"/>
+      <c r="BC15" s="109"/>
+      <c r="BD15" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE15" s="75"/>
-      <c r="BF15" s="82">
+      <c r="BE15" s="101"/>
+      <c r="BF15" s="105">
         <v>50003</v>
       </c>
-      <c r="BG15" s="83"/>
-      <c r="BH15" s="73" t="s">
+      <c r="BG15" s="106"/>
+      <c r="BH15" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="BI15" s="75"/>
+      <c r="BI15" s="101"/>
       <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
@@ -22370,22 +22660,22 @@
       <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="73" t="s">
+      <c r="AZ16" s="107"/>
+      <c r="BA16" s="108"/>
+      <c r="BB16" s="108"/>
+      <c r="BC16" s="109"/>
+      <c r="BD16" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE16" s="75"/>
-      <c r="BF16" s="82">
+      <c r="BE16" s="101"/>
+      <c r="BF16" s="105">
         <v>50004</v>
       </c>
-      <c r="BG16" s="83"/>
-      <c r="BH16" s="73" t="s">
+      <c r="BG16" s="106"/>
+      <c r="BH16" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="BI16" s="75"/>
+      <c r="BI16" s="101"/>
       <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
@@ -22401,9 +22691,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -22412,16 +22702,16 @@
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="77"/>
-      <c r="BB17" s="77"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="75"/>
-      <c r="BF17" s="82"/>
-      <c r="BG17" s="83"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="75"/>
+      <c r="AZ17" s="107"/>
+      <c r="BA17" s="108"/>
+      <c r="BB17" s="108"/>
+      <c r="BC17" s="109"/>
+      <c r="BD17" s="87"/>
+      <c r="BE17" s="101"/>
+      <c r="BF17" s="105"/>
+      <c r="BG17" s="106"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="101"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -22438,15 +22728,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="86"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="73" t="s">
+      <c r="U18" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -22464,11 +22754,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="73" t="s">
+      <c r="S19" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -22512,33 +22802,33 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="102" t="s">
+      <c r="S21" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="103"/>
-      <c r="U21" s="104"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="96"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="79" t="s">
+      <c r="BL21" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="BM21" s="80"/>
-      <c r="BN21" s="80"/>
-      <c r="BO21" s="80"/>
-      <c r="BP21" s="80"/>
-      <c r="BQ21" s="81"/>
+      <c r="BM21" s="103"/>
+      <c r="BN21" s="103"/>
+      <c r="BO21" s="103"/>
+      <c r="BP21" s="103"/>
+      <c r="BQ21" s="104"/>
       <c r="BR21" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT21" s="73" t="s">
+      <c r="BT21" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="BU21" s="74"/>
-      <c r="BV21" s="75"/>
+      <c r="BU21" s="88"/>
+      <c r="BV21" s="101"/>
       <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
@@ -22613,12 +22903,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="99" t="s">
+      <c r="O25" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="101"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -22774,39 +23064,39 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="79" t="s">
+      <c r="AY31" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="AZ31" s="80"/>
-      <c r="BA31" s="80"/>
-      <c r="BB31" s="80"/>
-      <c r="BC31" s="80"/>
-      <c r="BD31" s="81"/>
+      <c r="AZ31" s="103"/>
+      <c r="BA31" s="103"/>
+      <c r="BB31" s="103"/>
+      <c r="BC31" s="103"/>
+      <c r="BD31" s="104"/>
       <c r="BE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BG31" s="73" t="s">
+      <c r="BG31" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="BH31" s="74"/>
-      <c r="BI31" s="75"/>
+      <c r="BH31" s="88"/>
+      <c r="BI31" s="101"/>
       <c r="BK31" s="69"/>
-      <c r="BY31" s="79" t="s">
+      <c r="BY31" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="BZ31" s="80"/>
-      <c r="CA31" s="80"/>
-      <c r="CB31" s="80"/>
-      <c r="CC31" s="80"/>
-      <c r="CD31" s="81"/>
+      <c r="BZ31" s="103"/>
+      <c r="CA31" s="103"/>
+      <c r="CB31" s="103"/>
+      <c r="CC31" s="103"/>
+      <c r="CD31" s="104"/>
       <c r="CE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="CG31" s="73" t="s">
+      <c r="CG31" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="CH31" s="74"/>
-      <c r="CI31" s="75"/>
+      <c r="CH31" s="88"/>
+      <c r="CI31" s="101"/>
       <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
@@ -22885,17 +23175,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="91">
+      <c r="L34" s="81">
         <v>9999</v>
       </c>
-      <c r="M34" s="91"/>
+      <c r="M34" s="81"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="92">
+      <c r="V34" s="82">
         <v>9999</v>
       </c>
-      <c r="W34" s="93"/>
+      <c r="W34" s="83"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -22913,17 +23203,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="91">
+      <c r="L35" s="81">
         <v>9999</v>
       </c>
-      <c r="M35" s="91"/>
+      <c r="M35" s="81"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="92">
+      <c r="V35" s="82">
         <v>9999</v>
       </c>
-      <c r="W35" s="93"/>
+      <c r="W35" s="83"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -23047,22 +23337,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="79" t="s">
+      <c r="BL41" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="BM41" s="80"/>
-      <c r="BN41" s="80"/>
-      <c r="BO41" s="80"/>
-      <c r="BP41" s="80"/>
-      <c r="BQ41" s="81"/>
+      <c r="BM41" s="103"/>
+      <c r="BN41" s="103"/>
+      <c r="BO41" s="103"/>
+      <c r="BP41" s="103"/>
+      <c r="BQ41" s="104"/>
       <c r="BR41" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT41" s="73" t="s">
+      <c r="BT41" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="BU41" s="74"/>
-      <c r="BV41" s="75"/>
+      <c r="BU41" s="88"/>
+      <c r="BV41" s="101"/>
       <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
@@ -23074,7 +23364,7 @@
       <c r="AX42" s="32"/>
       <c r="CL42" s="33"/>
     </row>
-    <row r="43" spans="10:90" ht="18.75">
+    <row r="43" spans="10:90">
       <c r="Z43" s="32"/>
       <c r="AA43" s="4"/>
       <c r="AU43" s="5"/>
@@ -23198,7 +23488,7 @@
       <c r="BX49" s="8"/>
       <c r="CL49" s="33"/>
     </row>
-    <row r="50" spans="2:90" ht="24">
+    <row r="50" spans="2:90" ht="22.5">
       <c r="B50" s="54" t="s">
         <v>203</v>
       </c>
@@ -23270,7 +23560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="2:31" ht="24">
+    <row r="92" spans="2:31" ht="22.5">
       <c r="B92" s="54" t="s">
         <v>204</v>
       </c>
@@ -23366,55 +23656,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="89">
+      <c r="T134" s="98">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="90"/>
+      <c r="U134" s="99"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="87" t="s">
+      <c r="W134" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="87"/>
-      <c r="Y134" s="87"/>
+      <c r="X134" s="97"/>
+      <c r="Y134" s="97"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="87" t="s">
+      <c r="AA134" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="87"/>
-      <c r="AC134" s="87"/>
+      <c r="AB134" s="97"/>
+      <c r="AC134" s="97"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="88">
+      <c r="AE134" s="100">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="89"/>
+      <c r="AF134" s="98"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="89">
+      <c r="AH134" s="98">
         <v>-1</v>
       </c>
-      <c r="AI134" s="90"/>
+      <c r="AI134" s="99"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="87" t="s">
+      <c r="AK134" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="87"/>
-      <c r="AM134" s="87"/>
+      <c r="AL134" s="97"/>
+      <c r="AM134" s="97"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="87"/>
-      <c r="AP134" s="87"/>
-      <c r="AQ134" s="87"/>
+      <c r="AO134" s="97"/>
+      <c r="AP134" s="97"/>
+      <c r="AQ134" s="97"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="88"/>
-      <c r="AT134" s="89"/>
+      <c r="AS134" s="100"/>
+      <c r="AT134" s="98"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -23422,63 +23712,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="89">
+      <c r="T135" s="98">
         <v>0.5</v>
       </c>
-      <c r="U135" s="90"/>
+      <c r="U135" s="99"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="87" t="s">
+      <c r="W135" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="87"/>
-      <c r="Y135" s="87"/>
+      <c r="X135" s="97"/>
+      <c r="Y135" s="97"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="87" t="s">
+      <c r="AA135" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="87"/>
-      <c r="AC135" s="87"/>
+      <c r="AB135" s="97"/>
+      <c r="AC135" s="97"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="88">
+      <c r="AE135" s="100">
         <v>1</v>
       </c>
-      <c r="AF135" s="89"/>
+      <c r="AF135" s="98"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="89">
+      <c r="AH135" s="98">
         <v>-1</v>
       </c>
-      <c r="AI135" s="90"/>
+      <c r="AI135" s="99"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="87" t="s">
+      <c r="AK135" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="87"/>
-      <c r="AM135" s="87"/>
+      <c r="AL135" s="97"/>
+      <c r="AM135" s="97"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="87" t="s">
+      <c r="AO135" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="87"/>
-      <c r="AQ135" s="87"/>
+      <c r="AP135" s="97"/>
+      <c r="AQ135" s="97"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="88">
+      <c r="AS135" s="100">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="89"/>
+      <c r="AT135" s="98"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -23487,55 +23777,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="89">
+      <c r="T136" s="98">
         <v>1</v>
       </c>
-      <c r="U136" s="90"/>
+      <c r="U136" s="99"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="87" t="s">
+      <c r="W136" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="87"/>
-      <c r="Y136" s="87"/>
+      <c r="X136" s="97"/>
+      <c r="Y136" s="97"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="87"/>
-      <c r="AB136" s="87"/>
-      <c r="AC136" s="87"/>
+      <c r="AA136" s="97"/>
+      <c r="AB136" s="97"/>
+      <c r="AC136" s="97"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="88"/>
-      <c r="AF136" s="89"/>
+      <c r="AE136" s="100"/>
+      <c r="AF136" s="98"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="89">
+      <c r="AH136" s="98">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="90"/>
+      <c r="AI136" s="99"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="87" t="s">
+      <c r="AK136" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="87"/>
-      <c r="AM136" s="87"/>
+      <c r="AL136" s="97"/>
+      <c r="AM136" s="97"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="87" t="s">
+      <c r="AO136" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="87"/>
-      <c r="AQ136" s="87"/>
+      <c r="AP136" s="97"/>
+      <c r="AQ136" s="97"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="88">
+      <c r="AS136" s="100">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="89"/>
+      <c r="AT136" s="98"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -23549,295 +23839,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="89">
+      <c r="T137" s="98">
         <v>0.5</v>
       </c>
-      <c r="U137" s="90"/>
+      <c r="U137" s="99"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="87" t="s">
+      <c r="W137" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="87"/>
-      <c r="Y137" s="87"/>
+      <c r="X137" s="97"/>
+      <c r="Y137" s="97"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="87" t="s">
+      <c r="AA137" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="87"/>
-      <c r="AC137" s="87"/>
+      <c r="AB137" s="97"/>
+      <c r="AC137" s="97"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="88">
+      <c r="AE137" s="100">
         <v>1</v>
       </c>
-      <c r="AF137" s="89"/>
+      <c r="AF137" s="98"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="89">
+      <c r="AH137" s="98">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="90"/>
+      <c r="AI137" s="99"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="87" t="s">
+      <c r="AK137" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="87"/>
-      <c r="AM137" s="87"/>
+      <c r="AL137" s="97"/>
+      <c r="AM137" s="97"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="87" t="s">
+      <c r="AO137" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="87"/>
-      <c r="AQ137" s="87"/>
+      <c r="AP137" s="97"/>
+      <c r="AQ137" s="97"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="88">
+      <c r="AS137" s="100">
         <v>1</v>
       </c>
-      <c r="AT137" s="89"/>
+      <c r="AT137" s="98"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="89">
+      <c r="T138" s="98">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="90"/>
+      <c r="U138" s="99"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="87" t="s">
+      <c r="W138" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="87"/>
-      <c r="Y138" s="87"/>
+      <c r="X138" s="97"/>
+      <c r="Y138" s="97"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="87" t="s">
+      <c r="AA138" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="87"/>
-      <c r="AC138" s="87"/>
+      <c r="AB138" s="97"/>
+      <c r="AC138" s="97"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="88">
+      <c r="AE138" s="100">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="89"/>
+      <c r="AF138" s="98"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="89">
+      <c r="AH138" s="98">
         <v>1</v>
       </c>
-      <c r="AI138" s="90"/>
+      <c r="AI138" s="99"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="87" t="s">
+      <c r="AK138" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="87"/>
-      <c r="AM138" s="87"/>
+      <c r="AL138" s="97"/>
+      <c r="AM138" s="97"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="87"/>
-      <c r="AP138" s="87"/>
-      <c r="AQ138" s="87"/>
+      <c r="AO138" s="97"/>
+      <c r="AP138" s="97"/>
+      <c r="AQ138" s="97"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="88"/>
-      <c r="AT138" s="89"/>
+      <c r="AS138" s="100"/>
+      <c r="AT138" s="98"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="89">
+      <c r="T139" s="98">
         <v>-1</v>
       </c>
-      <c r="U139" s="90"/>
+      <c r="U139" s="99"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="87" t="s">
+      <c r="W139" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="87"/>
-      <c r="Y139" s="87"/>
+      <c r="X139" s="97"/>
+      <c r="Y139" s="97"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="87" t="s">
+      <c r="AA139" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="87"/>
-      <c r="AC139" s="87"/>
+      <c r="AB139" s="97"/>
+      <c r="AC139" s="97"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="88">
+      <c r="AE139" s="100">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="89"/>
+      <c r="AF139" s="98"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="89">
+      <c r="AH139" s="98">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="90"/>
+      <c r="AI139" s="99"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="87" t="s">
+      <c r="AK139" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="87"/>
-      <c r="AM139" s="87"/>
+      <c r="AL139" s="97"/>
+      <c r="AM139" s="97"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="87" t="s">
+      <c r="AO139" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="87"/>
-      <c r="AQ139" s="87"/>
+      <c r="AP139" s="97"/>
+      <c r="AQ139" s="97"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="88">
+      <c r="AS139" s="100">
         <v>1</v>
       </c>
-      <c r="AT139" s="89"/>
+      <c r="AT139" s="98"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="89">
+      <c r="T140" s="98">
         <v>-1</v>
       </c>
-      <c r="U140" s="90"/>
+      <c r="U140" s="99"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="87" t="s">
+      <c r="W140" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="87"/>
-      <c r="Y140" s="87"/>
+      <c r="X140" s="97"/>
+      <c r="Y140" s="97"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="87"/>
-      <c r="AB140" s="87"/>
-      <c r="AC140" s="87"/>
+      <c r="AA140" s="97"/>
+      <c r="AB140" s="97"/>
+      <c r="AC140" s="97"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="88"/>
-      <c r="AF140" s="89"/>
+      <c r="AE140" s="100"/>
+      <c r="AF140" s="98"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="89">
+      <c r="AH140" s="98">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="90"/>
+      <c r="AI140" s="99"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="87" t="s">
+      <c r="AK140" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="87"/>
-      <c r="AM140" s="87"/>
+      <c r="AL140" s="97"/>
+      <c r="AM140" s="97"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="87" t="s">
+      <c r="AO140" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="87"/>
-      <c r="AQ140" s="87"/>
+      <c r="AP140" s="97"/>
+      <c r="AQ140" s="97"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="88">
+      <c r="AS140" s="100">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="89"/>
+      <c r="AT140" s="98"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="89">
+      <c r="T141" s="98">
         <v>-1</v>
       </c>
-      <c r="U141" s="90"/>
+      <c r="U141" s="99"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="87" t="s">
+      <c r="W141" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="87"/>
-      <c r="Y141" s="87"/>
+      <c r="X141" s="97"/>
+      <c r="Y141" s="97"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="87" t="s">
+      <c r="AA141" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="87"/>
-      <c r="AC141" s="87"/>
+      <c r="AB141" s="97"/>
+      <c r="AC141" s="97"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="88">
+      <c r="AE141" s="100">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="89"/>
+      <c r="AF141" s="98"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="89">
+      <c r="AH141" s="98">
         <v>-1</v>
       </c>
-      <c r="AI141" s="90"/>
+      <c r="AI141" s="99"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="87" t="s">
+      <c r="AK141" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="87"/>
-      <c r="AM141" s="87"/>
+      <c r="AL141" s="97"/>
+      <c r="AM141" s="97"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="87" t="s">
+      <c r="AO141" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="87"/>
-      <c r="AQ141" s="87"/>
+      <c r="AP141" s="97"/>
+      <c r="AQ141" s="97"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="88">
+      <c r="AS141" s="100">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="89"/>
+      <c r="AT141" s="98"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -23913,64 +24203,40 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
     <mergeCell ref="BT10:BV10"/>
     <mergeCell ref="BL10:BQ10"/>
     <mergeCell ref="AK137:AM137"/>
@@ -23995,40 +24261,64 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -24045,22 +24335,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D4A41-55D3-406A-BC39-7C7515A5F04A}">
   <dimension ref="A2:AD140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18"/>
   <cols>
     <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5">
+    <row r="2" spans="1:3" ht="26.5">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="43" customFormat="1" ht="19.5">
+    <row r="4" spans="1:3" s="43" customFormat="1" ht="20">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -24167,7 +24457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="43" customFormat="1" ht="19.5">
+    <row r="42" spans="1:23" s="43" customFormat="1" ht="20">
       <c r="A42" s="41" t="s">
         <v>13</v>
       </c>
@@ -24875,7 +25165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="43" customFormat="1" ht="19.5">
+    <row r="134" spans="1:8" s="43" customFormat="1" ht="20">
       <c r="A134" s="41" t="s">
         <v>13</v>
       </c>
@@ -24918,9 +25208,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18"/>
   <cols>
-    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.58203125" customWidth="1"/>
     <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25089,20 +25379,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB40B8-5003-4279-AB08-F68CE513E0DB}">
-  <dimension ref="A2:AM86"/>
+  <dimension ref="A2:AT86"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42:W42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:25" ht="25.5">
+    <row r="2" spans="1:25" ht="26.5">
       <c r="A2" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="43" customFormat="1" ht="19.5">
+    <row r="4" spans="1:25" s="43" customFormat="1" ht="20">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -25115,7 +25405,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="19.5">
+    <row r="8" spans="1:25" ht="20">
       <c r="B8" s="51" t="s">
         <v>167</v>
       </c>
@@ -25157,7 +25447,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="4:29">
+    <row r="17" spans="4:40">
       <c r="E17" t="s">
         <v>79</v>
       </c>
@@ -25172,7 +25462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="4:29">
+    <row r="18" spans="4:40">
       <c r="F18" t="s">
         <v>80</v>
       </c>
@@ -25187,7 +25477,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="4:29">
+    <row r="19" spans="4:40">
       <c r="F19" t="s">
         <v>81</v>
       </c>
@@ -25202,7 +25492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="4:29">
+    <row r="20" spans="4:40">
       <c r="G20" t="s">
         <v>79</v>
       </c>
@@ -25217,7 +25507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="4:29">
+    <row r="21" spans="4:40">
       <c r="H21" t="s">
         <v>82</v>
       </c>
@@ -25238,7 +25528,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="4:29">
+    <row r="22" spans="4:40">
       <c r="G22" t="s">
         <v>55</v>
       </c>
@@ -25256,7 +25546,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="4:29">
+    <row r="23" spans="4:40">
       <c r="G23" t="s">
         <v>83</v>
       </c>
@@ -25271,7 +25561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="4:29">
+    <row r="24" spans="4:40">
       <c r="G24" t="s">
         <v>85</v>
       </c>
@@ -25286,7 +25576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="4:29">
+    <row r="25" spans="4:40">
       <c r="F25" t="s">
         <v>86</v>
       </c>
@@ -25298,7 +25588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="4:29">
+    <row r="26" spans="4:40">
       <c r="E26" t="s">
         <v>55</v>
       </c>
@@ -25310,7 +25600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="4:29">
+    <row r="27" spans="4:40">
       <c r="N27" s="5"/>
       <c r="O27" s="4"/>
       <c r="W27" s="5"/>
@@ -25319,643 +25609,721 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="4:29">
+    <row r="28" spans="4:40">
       <c r="N28" s="5"/>
       <c r="O28" s="4"/>
       <c r="W28" s="5"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="4:29">
+    <row r="29" spans="4:40">
       <c r="D29" s="45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="4:29">
+    <row r="30" spans="4:40">
       <c r="D30" s="45"/>
     </row>
-    <row r="31" spans="4:29">
-      <c r="E31" s="108" t="s">
+    <row r="31" spans="4:40">
+      <c r="E31" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108" t="s">
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108" t="s">
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="108"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="108" t="s">
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="108"/>
+      <c r="Y31" s="114"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="4:29">
-      <c r="E32" s="107" t="s">
+      <c r="AN31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="4:40">
+      <c r="E32" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107" t="s">
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="91" t="s">
+      <c r="T32" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91">
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81">
         <v>1</v>
       </c>
-      <c r="Y32" s="91"/>
+      <c r="Y32" s="81"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
-    <row r="33" spans="5:27">
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
+    <row r="33" spans="1:46">
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="91" t="s">
+      <c r="T33" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91">
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81">
         <v>1</v>
       </c>
-      <c r="Y33" s="91"/>
-    </row>
-    <row r="34" spans="5:27">
-      <c r="E34" s="105" t="s">
+      <c r="Y33" s="81"/>
+      <c r="AN33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
+      <c r="A34" t="s">
+        <v>318</v>
+      </c>
+      <c r="E34" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105" t="s">
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91">
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81">
         <v>1</v>
       </c>
-      <c r="Y34" s="91"/>
+      <c r="Y34" s="81"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
       </c>
-    </row>
-    <row r="35" spans="5:27">
-      <c r="E35" s="105" t="s">
+      <c r="AN34" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
+      <c r="E35" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105" t="s">
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91">
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81">
         <v>1</v>
       </c>
-      <c r="Y35" s="91"/>
+      <c r="Y35" s="81"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
       </c>
-    </row>
-    <row r="36" spans="5:27">
-      <c r="E36" s="105" t="s">
+      <c r="AN35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" s="131" customFormat="1">
+      <c r="A36" s="131" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105" t="s">
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="52">
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="130">
         <v>1</v>
       </c>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="91">
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89">
         <v>1</v>
       </c>
-      <c r="Y36" s="91"/>
-      <c r="AA36" t="str">
+      <c r="Y36" s="89"/>
+      <c r="AA36" s="131" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
       </c>
-    </row>
-    <row r="37" spans="5:27">
-      <c r="E37" s="105" t="s">
+      <c r="AN36" s="131" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" s="131" customFormat="1">
+      <c r="A37" s="131" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105" t="s">
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="52">
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="130">
         <v>1</v>
       </c>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91">
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89">
         <v>1</v>
       </c>
-      <c r="Y37" s="91"/>
-      <c r="AA37" t="str">
+      <c r="Y37" s="89"/>
+      <c r="AA37" s="131" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
       </c>
-    </row>
-    <row r="38" spans="5:27">
-      <c r="E38" s="105" t="s">
+      <c r="AN37" s="131" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
+      <c r="E38" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105" t="s">
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91">
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="81"/>
+      <c r="X38" s="81">
         <v>1</v>
       </c>
-      <c r="Y38" s="91"/>
+      <c r="Y38" s="81"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
       </c>
-    </row>
-    <row r="39" spans="5:27">
-      <c r="E39" s="105" t="s">
+      <c r="AN38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
+      <c r="E39" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105" t="s">
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91">
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="81">
         <v>1</v>
       </c>
-      <c r="Y39" s="91"/>
+      <c r="Y39" s="81"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
       </c>
-    </row>
-    <row r="40" spans="5:27">
-      <c r="E40" s="105" t="s">
+      <c r="AN39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46">
+      <c r="E40" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105" t="s">
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="91">
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81">
         <v>1</v>
       </c>
-      <c r="Y40" s="91"/>
+      <c r="Y40" s="81"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
       </c>
-    </row>
-    <row r="41" spans="5:27">
-      <c r="E41" s="105" t="s">
+      <c r="AN40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
+      <c r="E41" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105" t="s">
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
-      <c r="X41" s="91">
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
+      <c r="V41" s="81"/>
+      <c r="W41" s="81"/>
+      <c r="X41" s="81">
         <v>1</v>
       </c>
-      <c r="Y41" s="91"/>
+      <c r="Y41" s="81"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
       </c>
-    </row>
-    <row r="42" spans="5:27">
-      <c r="E42" s="105" t="s">
+      <c r="AN41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46">
+      <c r="E42" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="91">
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81">
         <v>1</v>
       </c>
-      <c r="Y42" s="91"/>
+      <c r="Y42" s="81"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
       </c>
-    </row>
-    <row r="43" spans="5:27">
-      <c r="E43" s="105" t="s">
+      <c r="AN42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46">
+      <c r="E43" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105" t="s">
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91">
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
+      <c r="V43" s="81"/>
+      <c r="W43" s="81"/>
+      <c r="X43" s="81">
         <v>1</v>
       </c>
-      <c r="Y43" s="91"/>
+      <c r="Y43" s="81"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
       </c>
-    </row>
-    <row r="44" spans="5:27">
-      <c r="E44" s="105" t="s">
+      <c r="AN43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46">
+      <c r="E44" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105" t="s">
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="91">
+      <c r="T44" s="81"/>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81">
         <v>1</v>
       </c>
-      <c r="Y44" s="91"/>
+      <c r="Y44" s="81"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
       </c>
-    </row>
-    <row r="45" spans="5:27">
-      <c r="E45" s="105" t="s">
+      <c r="AN44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46">
+      <c r="E45" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105" t="s">
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91">
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81">
         <v>1</v>
       </c>
-      <c r="Y45" s="91"/>
+      <c r="Y45" s="81"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
       </c>
-    </row>
-    <row r="46" spans="5:27">
-      <c r="E46" s="105" t="s">
+      <c r="AN45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46">
+      <c r="E46" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105" t="s">
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="113"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="113"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="91"/>
-      <c r="X46" s="91">
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81">
         <v>1</v>
       </c>
-      <c r="Y46" s="91"/>
+      <c r="Y46" s="81"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
       </c>
-    </row>
-    <row r="47" spans="5:27">
-      <c r="E47" s="105" t="s">
+      <c r="AN46" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46">
+      <c r="E47" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105" t="s">
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91">
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81">
         <v>1</v>
       </c>
-      <c r="Y47" s="91"/>
+      <c r="Y47" s="81"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
       </c>
-    </row>
-    <row r="48" spans="5:27">
-      <c r="E48" s="105" t="s">
+      <c r="AN47" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46">
+      <c r="E48" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105" t="s">
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="91"/>
-      <c r="U48" s="91"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="91"/>
-      <c r="X48" s="91">
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81">
         <v>1</v>
       </c>
-      <c r="Y48" s="91"/>
+      <c r="Y48" s="81"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="3:27">
@@ -26116,440 +26484,546 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="108" t="s">
+      <c r="E78" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="108"/>
-      <c r="G78" s="108"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="108" t="s">
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="108"/>
-      <c r="L78" s="108"/>
-      <c r="M78" s="108"/>
-      <c r="N78" s="108"/>
-      <c r="O78" s="108"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="108"/>
-      <c r="R78" s="108"/>
-      <c r="S78" s="108" t="s">
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
+      <c r="R78" s="114"/>
+      <c r="S78" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="108"/>
-      <c r="U78" s="108"/>
-      <c r="V78" s="108"/>
-      <c r="W78" s="108"/>
-      <c r="X78" s="108" t="s">
+      <c r="T78" s="114"/>
+      <c r="U78" s="114"/>
+      <c r="V78" s="114"/>
+      <c r="W78" s="114"/>
+      <c r="X78" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="108"/>
-      <c r="Z78" s="108" t="s">
+      <c r="Y78" s="114"/>
+      <c r="Z78" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="108"/>
-      <c r="AB78" s="108"/>
-      <c r="AC78" s="108"/>
-      <c r="AD78" s="108"/>
-      <c r="AE78" s="108"/>
-      <c r="AF78" s="108"/>
-      <c r="AG78" s="108" t="s">
+      <c r="AA78" s="114"/>
+      <c r="AB78" s="114"/>
+      <c r="AC78" s="114"/>
+      <c r="AD78" s="114"/>
+      <c r="AE78" s="114"/>
+      <c r="AF78" s="114"/>
+      <c r="AG78" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="108"/>
-      <c r="AI78" s="108"/>
-      <c r="AJ78" s="108"/>
-      <c r="AK78" s="108"/>
-      <c r="AL78" s="108"/>
-      <c r="AM78" s="108"/>
+      <c r="AH78" s="114"/>
+      <c r="AI78" s="114"/>
+      <c r="AJ78" s="114"/>
+      <c r="AK78" s="114"/>
+      <c r="AL78" s="114"/>
+      <c r="AM78" s="114"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="107" t="s">
+      <c r="E79" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107" t="s">
+      <c r="F79" s="115"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="107"/>
-      <c r="N79" s="107"/>
-      <c r="O79" s="107"/>
-      <c r="P79" s="107"/>
-      <c r="Q79" s="107"/>
-      <c r="R79" s="107"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+      <c r="M79" s="115"/>
+      <c r="N79" s="115"/>
+      <c r="O79" s="115"/>
+      <c r="P79" s="115"/>
+      <c r="Q79" s="115"/>
+      <c r="R79" s="115"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="91" t="s">
+      <c r="T79" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="91"/>
-      <c r="V79" s="91"/>
-      <c r="W79" s="91"/>
-      <c r="X79" s="91">
+      <c r="U79" s="81"/>
+      <c r="V79" s="81"/>
+      <c r="W79" s="81"/>
+      <c r="X79" s="81">
         <v>1</v>
       </c>
-      <c r="Y79" s="91"/>
-      <c r="Z79" s="106" t="s">
+      <c r="Y79" s="81"/>
+      <c r="Z79" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="106"/>
-      <c r="AB79" s="106"/>
-      <c r="AC79" s="91" t="s">
+      <c r="AA79" s="116"/>
+      <c r="AB79" s="116"/>
+      <c r="AC79" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="91"/>
-      <c r="AE79" s="91"/>
-      <c r="AF79" s="91"/>
-      <c r="AG79" s="105" t="s">
+      <c r="AD79" s="81"/>
+      <c r="AE79" s="81"/>
+      <c r="AF79" s="81"/>
+      <c r="AG79" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="105"/>
-      <c r="AI79" s="105"/>
-      <c r="AJ79" s="105"/>
-      <c r="AK79" s="105"/>
-      <c r="AL79" s="105"/>
-      <c r="AM79" s="105"/>
+      <c r="AH79" s="113"/>
+      <c r="AI79" s="113"/>
+      <c r="AJ79" s="113"/>
+      <c r="AK79" s="113"/>
+      <c r="AL79" s="113"/>
+      <c r="AM79" s="113"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="107"/>
-      <c r="N80" s="107"/>
-      <c r="O80" s="107"/>
-      <c r="P80" s="107"/>
-      <c r="Q80" s="107"/>
-      <c r="R80" s="107"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="115"/>
+      <c r="O80" s="115"/>
+      <c r="P80" s="115"/>
+      <c r="Q80" s="115"/>
+      <c r="R80" s="115"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="91" t="s">
+      <c r="T80" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="91"/>
-      <c r="V80" s="91"/>
-      <c r="W80" s="91"/>
-      <c r="X80" s="91">
+      <c r="U80" s="81"/>
+      <c r="V80" s="81"/>
+      <c r="W80" s="81"/>
+      <c r="X80" s="81">
         <v>1</v>
       </c>
-      <c r="Y80" s="91"/>
-      <c r="Z80" s="106"/>
-      <c r="AA80" s="106"/>
-      <c r="AB80" s="106"/>
-      <c r="AC80" s="91"/>
-      <c r="AD80" s="91"/>
-      <c r="AE80" s="91"/>
-      <c r="AF80" s="91"/>
-      <c r="AG80" s="105"/>
-      <c r="AH80" s="105"/>
-      <c r="AI80" s="105"/>
-      <c r="AJ80" s="105"/>
-      <c r="AK80" s="105"/>
-      <c r="AL80" s="105"/>
-      <c r="AM80" s="105"/>
+      <c r="Y80" s="81"/>
+      <c r="Z80" s="116"/>
+      <c r="AA80" s="116"/>
+      <c r="AB80" s="116"/>
+      <c r="AC80" s="81"/>
+      <c r="AD80" s="81"/>
+      <c r="AE80" s="81"/>
+      <c r="AF80" s="81"/>
+      <c r="AG80" s="113"/>
+      <c r="AH80" s="113"/>
+      <c r="AI80" s="113"/>
+      <c r="AJ80" s="113"/>
+      <c r="AK80" s="113"/>
+      <c r="AL80" s="113"/>
+      <c r="AM80" s="113"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="107" t="s">
+      <c r="E81" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107" t="s">
+      <c r="F81" s="115"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="107"/>
-      <c r="O81" s="107"/>
-      <c r="P81" s="107"/>
-      <c r="Q81" s="107"/>
-      <c r="R81" s="107"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="115"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="115"/>
+      <c r="O81" s="115"/>
+      <c r="P81" s="115"/>
+      <c r="Q81" s="115"/>
+      <c r="R81" s="115"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="91" t="s">
+      <c r="T81" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="91"/>
-      <c r="V81" s="91"/>
-      <c r="W81" s="91"/>
-      <c r="X81" s="91">
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="81"/>
+      <c r="X81" s="81">
         <v>1</v>
       </c>
-      <c r="Y81" s="91"/>
-      <c r="Z81" s="106" t="s">
+      <c r="Y81" s="81"/>
+      <c r="Z81" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="106"/>
-      <c r="AB81" s="106"/>
-      <c r="AC81" s="91" t="s">
+      <c r="AA81" s="116"/>
+      <c r="AB81" s="116"/>
+      <c r="AC81" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="91"/>
-      <c r="AE81" s="91"/>
-      <c r="AF81" s="91"/>
-      <c r="AG81" s="105" t="s">
+      <c r="AD81" s="81"/>
+      <c r="AE81" s="81"/>
+      <c r="AF81" s="81"/>
+      <c r="AG81" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="105"/>
-      <c r="AI81" s="105"/>
-      <c r="AJ81" s="105"/>
-      <c r="AK81" s="105"/>
-      <c r="AL81" s="105"/>
-      <c r="AM81" s="105"/>
+      <c r="AH81" s="113"/>
+      <c r="AI81" s="113"/>
+      <c r="AJ81" s="113"/>
+      <c r="AK81" s="113"/>
+      <c r="AL81" s="113"/>
+      <c r="AM81" s="113"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-      <c r="N82" s="107"/>
-      <c r="O82" s="107"/>
-      <c r="P82" s="107"/>
-      <c r="Q82" s="107"/>
-      <c r="R82" s="107"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="115"/>
+      <c r="G82" s="115"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="115"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="115"/>
+      <c r="M82" s="115"/>
+      <c r="N82" s="115"/>
+      <c r="O82" s="115"/>
+      <c r="P82" s="115"/>
+      <c r="Q82" s="115"/>
+      <c r="R82" s="115"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="91" t="s">
+      <c r="T82" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="91"/>
-      <c r="V82" s="91"/>
-      <c r="W82" s="91"/>
-      <c r="X82" s="91">
+      <c r="U82" s="81"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="81"/>
+      <c r="X82" s="81">
         <v>1</v>
       </c>
-      <c r="Y82" s="91"/>
-      <c r="Z82" s="106"/>
-      <c r="AA82" s="106"/>
-      <c r="AB82" s="106"/>
-      <c r="AC82" s="91"/>
-      <c r="AD82" s="91"/>
-      <c r="AE82" s="91"/>
-      <c r="AF82" s="91"/>
-      <c r="AG82" s="105"/>
-      <c r="AH82" s="105"/>
-      <c r="AI82" s="105"/>
-      <c r="AJ82" s="105"/>
-      <c r="AK82" s="105"/>
-      <c r="AL82" s="105"/>
-      <c r="AM82" s="105"/>
+      <c r="Y82" s="81"/>
+      <c r="Z82" s="116"/>
+      <c r="AA82" s="116"/>
+      <c r="AB82" s="116"/>
+      <c r="AC82" s="81"/>
+      <c r="AD82" s="81"/>
+      <c r="AE82" s="81"/>
+      <c r="AF82" s="81"/>
+      <c r="AG82" s="113"/>
+      <c r="AH82" s="113"/>
+      <c r="AI82" s="113"/>
+      <c r="AJ82" s="113"/>
+      <c r="AK82" s="113"/>
+      <c r="AL82" s="113"/>
+      <c r="AM82" s="113"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="107" t="s">
+      <c r="E83" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107" t="s">
+      <c r="F83" s="115"/>
+      <c r="G83" s="115"/>
+      <c r="H83" s="115"/>
+      <c r="I83" s="115"/>
+      <c r="J83" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="107"/>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
-      <c r="Q83" s="107"/>
-      <c r="R83" s="107"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="115"/>
+      <c r="M83" s="115"/>
+      <c r="N83" s="115"/>
+      <c r="O83" s="115"/>
+      <c r="P83" s="115"/>
+      <c r="Q83" s="115"/>
+      <c r="R83" s="115"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="91" t="s">
+      <c r="T83" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91">
+      <c r="U83" s="81"/>
+      <c r="V83" s="81"/>
+      <c r="W83" s="81"/>
+      <c r="X83" s="81">
         <v>1</v>
       </c>
-      <c r="Y83" s="91"/>
-      <c r="Z83" s="106" t="s">
+      <c r="Y83" s="81"/>
+      <c r="Z83" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="106"/>
-      <c r="AB83" s="106"/>
-      <c r="AC83" s="91" t="s">
+      <c r="AA83" s="116"/>
+      <c r="AB83" s="116"/>
+      <c r="AC83" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="91"/>
-      <c r="AE83" s="91"/>
-      <c r="AF83" s="91"/>
-      <c r="AG83" s="105" t="s">
+      <c r="AD83" s="81"/>
+      <c r="AE83" s="81"/>
+      <c r="AF83" s="81"/>
+      <c r="AG83" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="105"/>
-      <c r="AI83" s="105"/>
-      <c r="AJ83" s="105"/>
-      <c r="AK83" s="105"/>
-      <c r="AL83" s="105"/>
-      <c r="AM83" s="105"/>
+      <c r="AH83" s="113"/>
+      <c r="AI83" s="113"/>
+      <c r="AJ83" s="113"/>
+      <c r="AK83" s="113"/>
+      <c r="AL83" s="113"/>
+      <c r="AM83" s="113"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
-      <c r="O84" s="107"/>
-      <c r="P84" s="107"/>
-      <c r="Q84" s="107"/>
-      <c r="R84" s="107"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="115"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="115"/>
+      <c r="M84" s="115"/>
+      <c r="N84" s="115"/>
+      <c r="O84" s="115"/>
+      <c r="P84" s="115"/>
+      <c r="Q84" s="115"/>
+      <c r="R84" s="115"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="91" t="s">
+      <c r="T84" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="91"/>
-      <c r="V84" s="91"/>
-      <c r="W84" s="91"/>
-      <c r="X84" s="91">
+      <c r="U84" s="81"/>
+      <c r="V84" s="81"/>
+      <c r="W84" s="81"/>
+      <c r="X84" s="81">
         <v>1</v>
       </c>
-      <c r="Y84" s="91"/>
-      <c r="Z84" s="106"/>
-      <c r="AA84" s="106"/>
-      <c r="AB84" s="106"/>
-      <c r="AC84" s="91"/>
-      <c r="AD84" s="91"/>
-      <c r="AE84" s="91"/>
-      <c r="AF84" s="91"/>
-      <c r="AG84" s="105"/>
-      <c r="AH84" s="105"/>
-      <c r="AI84" s="105"/>
-      <c r="AJ84" s="105"/>
-      <c r="AK84" s="105"/>
-      <c r="AL84" s="105"/>
-      <c r="AM84" s="105"/>
+      <c r="Y84" s="81"/>
+      <c r="Z84" s="116"/>
+      <c r="AA84" s="116"/>
+      <c r="AB84" s="116"/>
+      <c r="AC84" s="81"/>
+      <c r="AD84" s="81"/>
+      <c r="AE84" s="81"/>
+      <c r="AF84" s="81"/>
+      <c r="AG84" s="113"/>
+      <c r="AH84" s="113"/>
+      <c r="AI84" s="113"/>
+      <c r="AJ84" s="113"/>
+      <c r="AK84" s="113"/>
+      <c r="AL84" s="113"/>
+      <c r="AM84" s="113"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="107" t="s">
+      <c r="E85" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="107" t="s">
+      <c r="F85" s="115"/>
+      <c r="G85" s="115"/>
+      <c r="H85" s="115"/>
+      <c r="I85" s="115"/>
+      <c r="J85" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="107"/>
-      <c r="N85" s="107"/>
-      <c r="O85" s="107"/>
-      <c r="P85" s="107"/>
-      <c r="Q85" s="107"/>
-      <c r="R85" s="107"/>
+      <c r="K85" s="115"/>
+      <c r="L85" s="115"/>
+      <c r="M85" s="115"/>
+      <c r="N85" s="115"/>
+      <c r="O85" s="115"/>
+      <c r="P85" s="115"/>
+      <c r="Q85" s="115"/>
+      <c r="R85" s="115"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="91" t="s">
+      <c r="T85" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="91"/>
-      <c r="V85" s="91"/>
-      <c r="W85" s="91"/>
-      <c r="X85" s="91">
+      <c r="U85" s="81"/>
+      <c r="V85" s="81"/>
+      <c r="W85" s="81"/>
+      <c r="X85" s="81">
         <v>1</v>
       </c>
-      <c r="Y85" s="91"/>
-      <c r="Z85" s="106" t="s">
+      <c r="Y85" s="81"/>
+      <c r="Z85" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="106"/>
-      <c r="AB85" s="106"/>
-      <c r="AC85" s="91" t="s">
+      <c r="AA85" s="116"/>
+      <c r="AB85" s="116"/>
+      <c r="AC85" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="91"/>
-      <c r="AE85" s="91"/>
-      <c r="AF85" s="91"/>
-      <c r="AG85" s="105" t="s">
+      <c r="AD85" s="81"/>
+      <c r="AE85" s="81"/>
+      <c r="AF85" s="81"/>
+      <c r="AG85" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="105"/>
-      <c r="AI85" s="105"/>
-      <c r="AJ85" s="105"/>
-      <c r="AK85" s="105"/>
-      <c r="AL85" s="105"/>
-      <c r="AM85" s="105"/>
+      <c r="AH85" s="113"/>
+      <c r="AI85" s="113"/>
+      <c r="AJ85" s="113"/>
+      <c r="AK85" s="113"/>
+      <c r="AL85" s="113"/>
+      <c r="AM85" s="113"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="107"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="107"/>
-      <c r="N86" s="107"/>
-      <c r="O86" s="107"/>
-      <c r="P86" s="107"/>
-      <c r="Q86" s="107"/>
-      <c r="R86" s="107"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="115"/>
+      <c r="J86" s="115"/>
+      <c r="K86" s="115"/>
+      <c r="L86" s="115"/>
+      <c r="M86" s="115"/>
+      <c r="N86" s="115"/>
+      <c r="O86" s="115"/>
+      <c r="P86" s="115"/>
+      <c r="Q86" s="115"/>
+      <c r="R86" s="115"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="91" t="s">
+      <c r="T86" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="91"/>
-      <c r="V86" s="91"/>
-      <c r="W86" s="91"/>
-      <c r="X86" s="91">
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
+      <c r="W86" s="81"/>
+      <c r="X86" s="81">
         <v>1</v>
       </c>
-      <c r="Y86" s="91"/>
-      <c r="Z86" s="106"/>
-      <c r="AA86" s="106"/>
-      <c r="AB86" s="106"/>
-      <c r="AC86" s="91"/>
-      <c r="AD86" s="91"/>
-      <c r="AE86" s="91"/>
-      <c r="AF86" s="91"/>
-      <c r="AG86" s="105"/>
-      <c r="AH86" s="105"/>
-      <c r="AI86" s="105"/>
-      <c r="AJ86" s="105"/>
-      <c r="AK86" s="105"/>
-      <c r="AL86" s="105"/>
-      <c r="AM86" s="105"/>
+      <c r="Y86" s="81"/>
+      <c r="Z86" s="116"/>
+      <c r="AA86" s="116"/>
+      <c r="AB86" s="116"/>
+      <c r="AC86" s="81"/>
+      <c r="AD86" s="81"/>
+      <c r="AE86" s="81"/>
+      <c r="AF86" s="81"/>
+      <c r="AG86" s="113"/>
+      <c r="AH86" s="113"/>
+      <c r="AI86" s="113"/>
+      <c r="AJ86" s="113"/>
+      <c r="AK86" s="113"/>
+      <c r="AL86" s="113"/>
+      <c r="AM86" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -26568,120 +27042,46 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47250975-5009-4B5E-A302-B2E11DD953E7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="50.5">
+      <c r="A3" s="132" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E417801-9B9B-48AB-918D-0D0CB4603D2E}">
   <dimension ref="B2:E23"/>
   <sheetViews>
@@ -26689,9 +27089,9 @@
       <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" s="45" customFormat="1" ht="18">
+    <row r="2" spans="2:3" s="45" customFormat="1">
       <c r="B2" s="45">
         <v>1</v>
       </c>
@@ -26699,7 +27099,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="45" customFormat="1" ht="18">
+    <row r="4" spans="2:3" s="45" customFormat="1">
       <c r="B4" s="45">
         <v>2</v>
       </c>
@@ -26732,7 +27132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="2:3" s="45" customFormat="1" ht="18">
+    <row r="15" spans="2:3" s="45" customFormat="1">
       <c r="B15" s="45">
         <v>3</v>
       </c>
@@ -26745,7 +27145,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="45" customFormat="1" ht="18">
+    <row r="19" spans="2:5" s="45" customFormat="1">
       <c r="B19" s="45">
         <v>4</v>
       </c>
@@ -26784,17 +27184,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
   <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="46"/>
+    <col min="1" max="1" width="4.33203125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="43" customFormat="1">
@@ -26820,32 +27220,32 @@
     <row r="6" spans="1:27">
       <c r="A6"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7"/>
@@ -26868,368 +27268,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="114"/>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="114"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="114"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="114"/>
-      <c r="Z19" s="114"/>
-      <c r="AA19" s="114"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="114"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
     </row>
     <row r="23" spans="1:27">
       <c r="B23" s="46"/>
@@ -27240,44 +27640,44 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="119"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="119"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="117" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="117" t="s">
         <v>296</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32"/>
@@ -27289,157 +27689,157 @@
     <row r="33" spans="1:27">
       <c r="A33"/>
       <c r="C33" s="46"/>
-      <c r="D33" s="126" t="str">
+      <c r="D33" s="76" t="str">
         <f>"v4l2-ctl --device=" &amp; D26 &amp;" --all"</f>
         <v>v4l2-ctl --device=/dev/video0 --all</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34"/>
       <c r="C34" s="46"/>
-      <c r="D34" s="126" t="str">
+      <c r="D34" s="76" t="str">
         <f t="shared" ref="D34:D37" si="0">"v4l2-ctl --device=" &amp; D27 &amp;" --all"</f>
         <v>v4l2-ctl --device=/dev/video8 --all</v>
       </c>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="126"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35"/>
       <c r="C35" s="46"/>
-      <c r="D35" s="126" t="str">
+      <c r="D35" s="76" t="str">
         <f t="shared" si="0"/>
         <v>v4l2-ctl --device=/dev/video28 --all</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="126"/>
-      <c r="X35" s="126"/>
-      <c r="Y35" s="126"/>
-      <c r="Z35" s="126"/>
-      <c r="AA35" s="126"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36"/>
       <c r="C36" s="46"/>
-      <c r="D36" s="126" t="str">
+      <c r="D36" s="76" t="str">
         <f t="shared" si="0"/>
         <v>v4l2-ctl --device=/dev/video4 --all</v>
       </c>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="126"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="126"/>
-      <c r="W36" s="126"/>
-      <c r="X36" s="126"/>
-      <c r="Y36" s="126"/>
-      <c r="Z36" s="126"/>
-      <c r="AA36" s="126"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="126" t="str">
+      <c r="D37" s="76" t="str">
         <f t="shared" si="0"/>
         <v>v4l2-ctl --device=/dev/video24 --all</v>
       </c>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="126"/>
-      <c r="X37" s="126"/>
-      <c r="Y37" s="126"/>
-      <c r="Z37" s="126"/>
-      <c r="AA37" s="126"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38"/>
@@ -27465,424 +27865,424 @@
     <row r="41" spans="1:27">
       <c r="A41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="113" t="s">
+      <c r="D41" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="114"/>
-      <c r="U41" s="114"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="114"/>
-      <c r="Y41" s="114"/>
-      <c r="Z41" s="114"/>
-      <c r="AA41" s="114"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
+      <c r="Y41" s="125"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="125"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+      <c r="Z42" s="125"/>
+      <c r="AA42" s="125"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43"/>
       <c r="C43" s="46"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="125"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="114"/>
-      <c r="Y44" s="114"/>
-      <c r="Z44" s="114"/>
-      <c r="AA44" s="114"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="125"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45"/>
       <c r="C45" s="46"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="114"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="114"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="114"/>
-      <c r="Y45" s="114"/>
-      <c r="Z45" s="114"/>
-      <c r="AA45" s="114"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="125"/>
+      <c r="O45" s="125"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="125"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="125"/>
+      <c r="W45" s="125"/>
+      <c r="X45" s="125"/>
+      <c r="Y45" s="125"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="125"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="114"/>
-      <c r="T46" s="114"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="114"/>
-      <c r="Y46" s="114"/>
-      <c r="Z46" s="114"/>
-      <c r="AA46" s="114"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="125"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="125"/>
+      <c r="R47" s="125"/>
+      <c r="S47" s="125"/>
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125"/>
+      <c r="W47" s="125"/>
+      <c r="X47" s="125"/>
+      <c r="Y47" s="125"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="125"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48"/>
       <c r="C48" s="46"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
-      <c r="Z48" s="114"/>
-      <c r="AA48" s="114"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="125"/>
+      <c r="R48" s="125"/>
+      <c r="S48" s="125"/>
+      <c r="T48" s="125"/>
+      <c r="U48" s="125"/>
+      <c r="V48" s="125"/>
+      <c r="W48" s="125"/>
+      <c r="X48" s="125"/>
+      <c r="Y48" s="125"/>
+      <c r="Z48" s="125"/>
+      <c r="AA48" s="125"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49"/>
       <c r="C49" s="46"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
-      <c r="T49" s="114"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="114"/>
-      <c r="Y49" s="114"/>
-      <c r="Z49" s="114"/>
-      <c r="AA49" s="114"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="125"/>
+      <c r="R49" s="125"/>
+      <c r="S49" s="125"/>
+      <c r="T49" s="125"/>
+      <c r="U49" s="125"/>
+      <c r="V49" s="125"/>
+      <c r="W49" s="125"/>
+      <c r="X49" s="125"/>
+      <c r="Y49" s="125"/>
+      <c r="Z49" s="125"/>
+      <c r="AA49" s="125"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="114"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="114"/>
-      <c r="T50" s="114"/>
-      <c r="U50" s="114"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="114"/>
-      <c r="Y50" s="114"/>
-      <c r="Z50" s="114"/>
-      <c r="AA50" s="114"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
+      <c r="U50" s="125"/>
+      <c r="V50" s="125"/>
+      <c r="W50" s="125"/>
+      <c r="X50" s="125"/>
+      <c r="Y50" s="125"/>
+      <c r="Z50" s="125"/>
+      <c r="AA50" s="125"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="114"/>
-      <c r="T51" s="114"/>
-      <c r="U51" s="114"/>
-      <c r="V51" s="114"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="114"/>
-      <c r="AA51" s="114"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="125"/>
+      <c r="P51" s="125"/>
+      <c r="Q51" s="125"/>
+      <c r="R51" s="125"/>
+      <c r="S51" s="125"/>
+      <c r="T51" s="125"/>
+      <c r="U51" s="125"/>
+      <c r="V51" s="125"/>
+      <c r="W51" s="125"/>
+      <c r="X51" s="125"/>
+      <c r="Y51" s="125"/>
+      <c r="Z51" s="125"/>
+      <c r="AA51" s="125"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="114"/>
-      <c r="R52" s="114"/>
-      <c r="S52" s="114"/>
-      <c r="T52" s="114"/>
-      <c r="U52" s="114"/>
-      <c r="V52" s="114"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="114"/>
-      <c r="Y52" s="114"/>
-      <c r="Z52" s="114"/>
-      <c r="AA52" s="114"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="125"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
+      <c r="U52" s="125"/>
+      <c r="V52" s="125"/>
+      <c r="W52" s="125"/>
+      <c r="X52" s="125"/>
+      <c r="Y52" s="125"/>
+      <c r="Z52" s="125"/>
+      <c r="AA52" s="125"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
-      <c r="O53" s="114"/>
-      <c r="P53" s="114"/>
-      <c r="Q53" s="114"/>
-      <c r="R53" s="114"/>
-      <c r="S53" s="114"/>
-      <c r="T53" s="114"/>
-      <c r="U53" s="114"/>
-      <c r="V53" s="114"/>
-      <c r="W53" s="114"/>
-      <c r="X53" s="114"/>
-      <c r="Y53" s="114"/>
-      <c r="Z53" s="114"/>
-      <c r="AA53" s="114"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="125"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="125"/>
+      <c r="S53" s="125"/>
+      <c r="T53" s="125"/>
+      <c r="U53" s="125"/>
+      <c r="V53" s="125"/>
+      <c r="W53" s="125"/>
+      <c r="X53" s="125"/>
+      <c r="Y53" s="125"/>
+      <c r="Z53" s="125"/>
+      <c r="AA53" s="125"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="114"/>
-      <c r="S54" s="114"/>
-      <c r="T54" s="114"/>
-      <c r="U54" s="114"/>
-      <c r="V54" s="114"/>
-      <c r="W54" s="114"/>
-      <c r="X54" s="114"/>
-      <c r="Y54" s="114"/>
-      <c r="Z54" s="114"/>
-      <c r="AA54" s="114"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
+      <c r="U54" s="125"/>
+      <c r="V54" s="125"/>
+      <c r="W54" s="125"/>
+      <c r="X54" s="125"/>
+      <c r="Y54" s="125"/>
+      <c r="Z54" s="125"/>
+      <c r="AA54" s="125"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55"/>
       <c r="C55" s="46"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="114"/>
-      <c r="R55" s="114"/>
-      <c r="S55" s="114"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="114"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="114"/>
-      <c r="X55" s="114"/>
-      <c r="Y55" s="114"/>
-      <c r="Z55" s="114"/>
-      <c r="AA55" s="114"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="125"/>
+      <c r="R55" s="125"/>
+      <c r="S55" s="125"/>
+      <c r="T55" s="125"/>
+      <c r="U55" s="125"/>
+      <c r="V55" s="125"/>
+      <c r="W55" s="125"/>
+      <c r="X55" s="125"/>
+      <c r="Y55" s="125"/>
+      <c r="Z55" s="125"/>
+      <c r="AA55" s="125"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="46"/>
@@ -28037,10 +28437,10 @@
       <c r="E75" t="s">
         <v>236</v>
       </c>
-      <c r="H75" s="102" t="s">
+      <c r="H75" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="I75" s="104"/>
+      <c r="I75" s="96"/>
     </row>
     <row r="76" spans="1:36">
       <c r="B76" s="46"/>
@@ -28074,49 +28474,49 @@
     <row r="78" spans="1:36">
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
-      <c r="E78" s="109" t="str">
+      <c r="E78" s="120" t="str">
         <f>"--video-device " &amp; TRIM(M78)</f>
         <v>--video-device /dev/video0</v>
       </c>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110"/>
-      <c r="H78" s="110"/>
-      <c r="I78" s="110"/>
-      <c r="J78" s="110"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="120" t="s">
+      <c r="F78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="121"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="N78" s="121"/>
-      <c r="O78" s="121"/>
-      <c r="P78" s="122"/>
-      <c r="Q78" s="131">
+      <c r="N78" s="118"/>
+      <c r="O78" s="118"/>
+      <c r="P78" s="119"/>
+      <c r="Q78" s="47">
         <v>0</v>
       </c>
-      <c r="R78" s="130">
+      <c r="R78" s="80">
         <v>1</v>
       </c>
-      <c r="S78" s="130">
+      <c r="S78" s="80">
         <v>2</v>
       </c>
-      <c r="T78" s="130">
+      <c r="T78" s="80">
         <v>3</v>
       </c>
-      <c r="V78" s="112" t="s">
+      <c r="V78" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="W78" s="110"/>
-      <c r="X78" s="111"/>
-      <c r="Z78" s="102" t="s">
+      <c r="W78" s="121"/>
+      <c r="X78" s="122"/>
+      <c r="Z78" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="AA78" s="104"/>
-      <c r="AC78" s="102">
+      <c r="AA78" s="96"/>
+      <c r="AC78" s="94">
         <v>51001</v>
       </c>
-      <c r="AD78" s="104"/>
-      <c r="AE78" s="119"/>
+      <c r="AD78" s="96"/>
+      <c r="AE78" s="53"/>
       <c r="AF78" s="64" t="s">
         <v>294</v>
       </c>
@@ -28129,49 +28529,49 @@
     <row r="79" spans="1:36">
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
-      <c r="E79" s="109" t="str">
+      <c r="E79" s="120" t="str">
         <f t="shared" ref="E79:E82" si="3">"--video-device " &amp; TRIM(M79)</f>
         <v>--video-device /dev/video8</v>
       </c>
-      <c r="F79" s="110"/>
-      <c r="G79" s="110"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="110"/>
-      <c r="J79" s="110"/>
-      <c r="K79" s="111"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="120" t="s">
+      <c r="F79" s="121"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="121"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="N79" s="121"/>
-      <c r="O79" s="121"/>
-      <c r="P79" s="122"/>
-      <c r="Q79" s="131">
+      <c r="N79" s="118"/>
+      <c r="O79" s="118"/>
+      <c r="P79" s="119"/>
+      <c r="Q79" s="47">
         <v>8</v>
       </c>
-      <c r="R79" s="130">
+      <c r="R79" s="80">
         <v>9</v>
       </c>
-      <c r="S79" s="130">
+      <c r="S79" s="80">
         <v>17</v>
       </c>
-      <c r="T79" s="130">
+      <c r="T79" s="80">
         <v>19</v>
       </c>
-      <c r="V79" s="112" t="s">
+      <c r="V79" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="W79" s="110"/>
-      <c r="X79" s="111"/>
-      <c r="Z79" s="102" t="s">
+      <c r="W79" s="121"/>
+      <c r="X79" s="122"/>
+      <c r="Z79" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="AA79" s="104"/>
-      <c r="AC79" s="102">
+      <c r="AA79" s="96"/>
+      <c r="AC79" s="94">
         <v>51002</v>
       </c>
-      <c r="AD79" s="104"/>
-      <c r="AE79" s="119"/>
+      <c r="AD79" s="96"/>
+      <c r="AE79" s="53"/>
       <c r="AF79" s="64" t="s">
         <v>294</v>
       </c>
@@ -28184,49 +28584,49 @@
     <row r="80" spans="1:36">
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
-      <c r="E80" s="109" t="str">
+      <c r="E80" s="120" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video30</v>
       </c>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="110"/>
-      <c r="K80" s="111"/>
-      <c r="L80" s="118"/>
-      <c r="M80" s="120" t="s">
+      <c r="F80" s="121"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="117" t="s">
         <v>297</v>
       </c>
-      <c r="N80" s="121"/>
-      <c r="O80" s="121"/>
-      <c r="P80" s="122"/>
-      <c r="Q80" s="131">
+      <c r="N80" s="118"/>
+      <c r="O80" s="118"/>
+      <c r="P80" s="119"/>
+      <c r="Q80" s="47">
         <v>28</v>
       </c>
-      <c r="R80" s="130">
+      <c r="R80" s="80">
         <v>29</v>
       </c>
-      <c r="S80" s="130">
+      <c r="S80" s="80">
         <v>30</v>
       </c>
-      <c r="T80" s="130">
+      <c r="T80" s="80">
         <v>32</v>
       </c>
-      <c r="V80" s="112" t="s">
+      <c r="V80" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="W80" s="110"/>
-      <c r="X80" s="111"/>
-      <c r="Z80" s="102" t="s">
+      <c r="W80" s="121"/>
+      <c r="X80" s="122"/>
+      <c r="Z80" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="AA80" s="104"/>
-      <c r="AC80" s="102">
+      <c r="AA80" s="96"/>
+      <c r="AC80" s="94">
         <v>51003</v>
       </c>
-      <c r="AD80" s="104"/>
-      <c r="AE80" s="119"/>
+      <c r="AD80" s="96"/>
+      <c r="AE80" s="53"/>
       <c r="AF80" s="64" t="s">
         <v>294</v>
       </c>
@@ -28239,49 +28639,49 @@
     <row r="81" spans="2:36">
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
-      <c r="E81" s="109" t="str">
+      <c r="E81" s="120" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video4</v>
       </c>
-      <c r="F81" s="110"/>
-      <c r="G81" s="110"/>
-      <c r="H81" s="110"/>
-      <c r="I81" s="110"/>
-      <c r="J81" s="110"/>
-      <c r="K81" s="111"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="120" t="s">
+      <c r="F81" s="121"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="121"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="121"/>
+      <c r="K81" s="122"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="N81" s="121"/>
-      <c r="O81" s="121"/>
-      <c r="P81" s="122"/>
-      <c r="Q81" s="131">
+      <c r="N81" s="118"/>
+      <c r="O81" s="118"/>
+      <c r="P81" s="119"/>
+      <c r="Q81" s="47">
         <v>4</v>
       </c>
-      <c r="R81" s="130">
+      <c r="R81" s="80">
         <v>5</v>
       </c>
-      <c r="S81" s="130">
+      <c r="S81" s="80">
         <v>6</v>
       </c>
-      <c r="T81" s="130">
+      <c r="T81" s="80">
         <v>7</v>
       </c>
-      <c r="V81" s="112" t="s">
+      <c r="V81" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="W81" s="110"/>
-      <c r="X81" s="111"/>
-      <c r="Z81" s="102" t="s">
+      <c r="W81" s="121"/>
+      <c r="X81" s="122"/>
+      <c r="Z81" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="AA81" s="104"/>
-      <c r="AC81" s="102">
+      <c r="AA81" s="96"/>
+      <c r="AC81" s="94">
         <v>51004</v>
       </c>
-      <c r="AD81" s="104"/>
-      <c r="AE81" s="119"/>
+      <c r="AD81" s="96"/>
+      <c r="AE81" s="53"/>
       <c r="AF81" s="64" t="s">
         <v>294</v>
       </c>
@@ -28294,49 +28694,49 @@
     <row r="82" spans="2:36">
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
-      <c r="E82" s="109" t="str">
+      <c r="E82" s="120" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video24</v>
       </c>
-      <c r="F82" s="110"/>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="110"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="111"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="120" t="s">
+      <c r="F82" s="121"/>
+      <c r="G82" s="121"/>
+      <c r="H82" s="121"/>
+      <c r="I82" s="121"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="122"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="117" t="s">
         <v>296</v>
       </c>
-      <c r="N82" s="121"/>
-      <c r="O82" s="121"/>
-      <c r="P82" s="122"/>
-      <c r="Q82" s="130">
+      <c r="N82" s="118"/>
+      <c r="O82" s="118"/>
+      <c r="P82" s="119"/>
+      <c r="Q82" s="80">
         <v>24</v>
       </c>
-      <c r="R82" s="130">
+      <c r="R82" s="80">
         <v>25</v>
       </c>
-      <c r="S82" s="130">
+      <c r="S82" s="80">
         <v>26</v>
       </c>
-      <c r="T82" s="130">
+      <c r="T82" s="80">
         <v>27</v>
       </c>
-      <c r="V82" s="112" t="s">
+      <c r="V82" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="W82" s="110"/>
-      <c r="X82" s="111"/>
-      <c r="Z82" s="102" t="s">
+      <c r="W82" s="121"/>
+      <c r="X82" s="122"/>
+      <c r="Z82" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="AA82" s="104"/>
-      <c r="AC82" s="102">
+      <c r="AA82" s="96"/>
+      <c r="AC82" s="94">
         <v>51005</v>
       </c>
-      <c r="AD82" s="104"/>
-      <c r="AE82" s="119"/>
+      <c r="AD82" s="96"/>
+      <c r="AE82" s="53"/>
       <c r="AF82" s="64" t="s">
         <v>294</v>
       </c>
@@ -28351,131 +28751,131 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="2:36" ht="19.5" thickBot="1"/>
-    <row r="87" spans="2:36" ht="19.5" thickBot="1">
-      <c r="E87" s="123" t="str">
+    <row r="86" spans="2:36" ht="18.5" thickBot="1"/>
+    <row r="87" spans="2:36" ht="18.5" thickBot="1">
+      <c r="E87" s="73" t="str">
         <f>$H$75&amp;" "&amp;V78&amp;" "&amp;E78&amp;" --resolution "&amp;AF78&amp;" "&amp;Z78&amp;" "&amp;"--port "&amp;AC78 &amp; " " &amp;AI78</f>
         <v>./momo --no-audio-device --video-device /dev/video0 --resolution QVGA test --port 51001 &amp;</v>
       </c>
-      <c r="F87" s="124"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="124"/>
-      <c r="K87" s="124"/>
-      <c r="L87" s="124"/>
-      <c r="M87" s="124"/>
-      <c r="N87" s="124"/>
-      <c r="O87" s="124"/>
-      <c r="P87" s="124"/>
-      <c r="Q87" s="124"/>
-      <c r="R87" s="124"/>
-      <c r="S87" s="124"/>
-      <c r="T87" s="124"/>
-      <c r="U87" s="124"/>
-      <c r="V87" s="124"/>
-      <c r="W87" s="124"/>
-      <c r="X87" s="125"/>
-    </row>
-    <row r="88" spans="2:36" ht="19.5" thickBot="1">
-      <c r="E88" s="123" t="str">
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="74"/>
+      <c r="P87" s="74"/>
+      <c r="Q87" s="74"/>
+      <c r="R87" s="74"/>
+      <c r="S87" s="74"/>
+      <c r="T87" s="74"/>
+      <c r="U87" s="74"/>
+      <c r="V87" s="74"/>
+      <c r="W87" s="74"/>
+      <c r="X87" s="75"/>
+    </row>
+    <row r="88" spans="2:36" ht="18.5" thickBot="1">
+      <c r="E88" s="73" t="str">
         <f>$H$75&amp;" "&amp;V79&amp;" "&amp;E79&amp;" --resolution "&amp;AF79&amp;" "&amp;Z79&amp;" "&amp;"--port "&amp;AC79 &amp; " " &amp;AI79</f>
         <v>./momo --no-audio-device --video-device /dev/video8 --resolution QVGA test --port 51002 &amp;</v>
       </c>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="124"/>
-      <c r="I88" s="124"/>
-      <c r="J88" s="124"/>
-      <c r="K88" s="124"/>
-      <c r="L88" s="124"/>
-      <c r="M88" s="124"/>
-      <c r="N88" s="124"/>
-      <c r="O88" s="124"/>
-      <c r="P88" s="124"/>
-      <c r="Q88" s="124"/>
-      <c r="R88" s="124"/>
-      <c r="S88" s="124"/>
-      <c r="T88" s="124"/>
-      <c r="U88" s="124"/>
-      <c r="V88" s="124"/>
-      <c r="W88" s="124"/>
-      <c r="X88" s="125"/>
-    </row>
-    <row r="89" spans="2:36" ht="19.5" thickBot="1">
-      <c r="E89" s="123" t="str">
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="74"/>
+      <c r="S88" s="74"/>
+      <c r="T88" s="74"/>
+      <c r="U88" s="74"/>
+      <c r="V88" s="74"/>
+      <c r="W88" s="74"/>
+      <c r="X88" s="75"/>
+    </row>
+    <row r="89" spans="2:36" ht="18.5" thickBot="1">
+      <c r="E89" s="73" t="str">
         <f>$H$75&amp;" "&amp;V80&amp;" "&amp;E80&amp;" --resolution "&amp;AF80&amp;" "&amp;Z80&amp;" "&amp;"--port "&amp;AC80 &amp; " " &amp;AI80</f>
         <v>./momo --no-audio-device --video-device /dev/video30 --resolution QVGA test --port 51003 &amp;</v>
       </c>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="124"/>
-      <c r="K89" s="124"/>
-      <c r="L89" s="124"/>
-      <c r="M89" s="124"/>
-      <c r="N89" s="124"/>
-      <c r="O89" s="124"/>
-      <c r="P89" s="124"/>
-      <c r="Q89" s="124"/>
-      <c r="R89" s="124"/>
-      <c r="S89" s="124"/>
-      <c r="T89" s="124"/>
-      <c r="U89" s="124"/>
-      <c r="V89" s="124"/>
-      <c r="W89" s="124"/>
-      <c r="X89" s="125"/>
-    </row>
-    <row r="90" spans="2:36" ht="19.5" thickBot="1">
-      <c r="E90" s="123" t="str">
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
+      <c r="S89" s="74"/>
+      <c r="T89" s="74"/>
+      <c r="U89" s="74"/>
+      <c r="V89" s="74"/>
+      <c r="W89" s="74"/>
+      <c r="X89" s="75"/>
+    </row>
+    <row r="90" spans="2:36" ht="18.5" thickBot="1">
+      <c r="E90" s="73" t="str">
         <f>$H$75&amp;" "&amp;V81&amp;" "&amp;E81&amp;" --resolution "&amp;AF81&amp;" "&amp;Z81&amp;" "&amp;"--port "&amp;AC81 &amp; " " &amp;AI81</f>
         <v>./momo --no-audio-device --video-device /dev/video4 --resolution QVGA test --port 51004 &amp;</v>
       </c>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="124"/>
-      <c r="I90" s="124"/>
-      <c r="J90" s="124"/>
-      <c r="K90" s="124"/>
-      <c r="L90" s="124"/>
-      <c r="M90" s="124"/>
-      <c r="N90" s="124"/>
-      <c r="O90" s="124"/>
-      <c r="P90" s="124"/>
-      <c r="Q90" s="124"/>
-      <c r="R90" s="124"/>
-      <c r="S90" s="124"/>
-      <c r="T90" s="124"/>
-      <c r="U90" s="124"/>
-      <c r="V90" s="124"/>
-      <c r="W90" s="124"/>
-      <c r="X90" s="125"/>
-    </row>
-    <row r="91" spans="2:36" ht="19.5" thickBot="1">
-      <c r="E91" s="123" t="str">
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="74"/>
+      <c r="P90" s="74"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="74"/>
+      <c r="S90" s="74"/>
+      <c r="T90" s="74"/>
+      <c r="U90" s="74"/>
+      <c r="V90" s="74"/>
+      <c r="W90" s="74"/>
+      <c r="X90" s="75"/>
+    </row>
+    <row r="91" spans="2:36" ht="18.5" thickBot="1">
+      <c r="E91" s="73" t="str">
         <f>$H$75&amp;" "&amp;V82&amp;" "&amp;E82&amp;" --resolution "&amp;AF82&amp;" "&amp;Z82&amp;" "&amp;"--port "&amp;AC82 &amp; " " &amp;AI82</f>
         <v>./momo --no-audio-device --video-device /dev/video24 --resolution QVGA test --port 51005 &amp;</v>
       </c>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="124"/>
-      <c r="K91" s="124"/>
-      <c r="L91" s="124"/>
-      <c r="M91" s="124"/>
-      <c r="N91" s="124"/>
-      <c r="O91" s="124"/>
-      <c r="P91" s="124"/>
-      <c r="Q91" s="124"/>
-      <c r="R91" s="124"/>
-      <c r="S91" s="124"/>
-      <c r="T91" s="124"/>
-      <c r="U91" s="124"/>
-      <c r="V91" s="124"/>
-      <c r="W91" s="124"/>
-      <c r="X91" s="125"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="74"/>
+      <c r="S91" s="74"/>
+      <c r="T91" s="74"/>
+      <c r="U91" s="74"/>
+      <c r="V91" s="74"/>
+      <c r="W91" s="74"/>
+      <c r="X91" s="75"/>
     </row>
     <row r="93" spans="2:36">
       <c r="B93" s="46"/>
@@ -28497,16 +28897,16 @@
     <row r="96" spans="2:36">
       <c r="B96" s="46"/>
       <c r="C96" s="46"/>
-      <c r="D96" s="127" t="s">
+      <c r="D96" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="E96" s="128"/>
-      <c r="F96" s="128"/>
-      <c r="G96" s="128"/>
-      <c r="H96" s="128"/>
-      <c r="I96" s="128"/>
-      <c r="J96" s="128"/>
-      <c r="K96" s="129"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="79"/>
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="46"/>
@@ -28522,16 +28922,16 @@
     <row r="99" spans="1:11">
       <c r="B99" s="46"/>
       <c r="C99" s="46"/>
-      <c r="D99" s="115" t="s">
+      <c r="D99" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="117"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="127"/>
+      <c r="H99" s="127"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="128"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="46"/>
@@ -28557,11 +28957,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="D10:AA22"/>
+    <mergeCell ref="D41:AA55"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="E78:K78"/>
     <mergeCell ref="M80:P80"/>
     <mergeCell ref="M81:P81"/>
     <mergeCell ref="M82:P82"/>
@@ -28570,27 +28986,11 @@
     <mergeCell ref="V82:X82"/>
     <mergeCell ref="Z82:AA82"/>
     <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="D10:AA22"/>
-    <mergeCell ref="D41:AA55"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="E78:K78"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="E80:K80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sec3Win11\Documents\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713C876-7BC2-4B1D-B926-00F2E838DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C5B9A-5E81-48BD-81D1-1C68F9BC2A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="745" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="21060" windowHeight="17385" tabRatio="745" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -18,32 +18,22 @@
     <sheet name="サーバ関連" sheetId="5" r:id="rId3"/>
     <sheet name="サイトの設定" sheetId="13" r:id="rId4"/>
     <sheet name="送受信Json" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
-    <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId7"/>
-    <sheet name="momo関連" sheetId="10" r:id="rId8"/>
+    <sheet name="操作情報のDB定義" sheetId="15" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
+    <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId8"/>
+    <sheet name="momo関連" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="368">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -2366,6 +2356,345 @@
       </rPr>
       <t>マイクロ波</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理フィールド名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名フィールド名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:緊急、1:除雪機の操作、2:音再生</t>
+    <rPh sb="7" eb="10">
+      <t>ジョセツキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラ系からの命令をそのまま保存</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行日付</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExecFlag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExecDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理DB名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理DB名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBL_COMMAND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作情報テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jyosetu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除雪DB</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConJyosetu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コネクションの変数名</t>
+    <rPh sb="7" eb="10">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソルの変数名</t>
+    <rPh sb="5" eb="8">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CurJyosetu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB_JYOSETU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB_TBL_COMMAND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB名の変数名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名の変数名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令を実行したフラグ 0:未実行／1:実行済み</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミジッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジッコウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令を実行した日付：YYYY/MM/DD HH:mm:ss</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.ENVファイル内容</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY AUTOINCREMENT</t>
+  </si>
+  <si>
+    <t>RecTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドを送信した日時</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドを保存した日時</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SendTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントからコマンドを送信した日時：YYYY/MM/DD HH:mm:ss</t>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドを保存した日時：YYYY/MM/DD HH:mm:ss</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2527,7 +2856,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2579,6 +2908,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2867,7 +3202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3029,6 +3364,65 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3045,12 +3439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3077,73 +3465,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3158,11 +3492,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3173,13 +3510,18 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5453,8 +5795,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12248031" y="8830234"/>
-          <a:ext cx="713440" cy="310029"/>
+          <a:off x="12718678" y="8942293"/>
+          <a:ext cx="739587" cy="313764"/>
           <a:chOff x="12158384" y="7866528"/>
           <a:chExt cx="739587" cy="313765"/>
         </a:xfrm>
@@ -5571,8 +5913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11433737" y="9954557"/>
-          <a:ext cx="317726" cy="683560"/>
+          <a:off x="11878237" y="10085292"/>
+          <a:ext cx="317726" cy="694766"/>
           <a:chOff x="11542060" y="8706969"/>
           <a:chExt cx="317726" cy="694765"/>
         </a:xfrm>
@@ -5689,8 +6031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10309412" y="8830234"/>
-          <a:ext cx="762226" cy="310029"/>
+          <a:off x="10701618" y="8942293"/>
+          <a:ext cx="788373" cy="313764"/>
           <a:chOff x="10466295" y="7888940"/>
           <a:chExt cx="788373" cy="313765"/>
         </a:xfrm>
@@ -5807,8 +6149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12158384" y="7298765"/>
-          <a:ext cx="317726" cy="724646"/>
+          <a:off x="12629031" y="7384677"/>
+          <a:ext cx="317726" cy="739587"/>
           <a:chOff x="12158384" y="6600265"/>
           <a:chExt cx="317726" cy="739587"/>
         </a:xfrm>
@@ -5992,8 +6334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11478562" y="7728324"/>
-          <a:ext cx="317726" cy="728380"/>
+          <a:off x="11923062" y="7821706"/>
+          <a:ext cx="317726" cy="739586"/>
           <a:chOff x="11542060" y="6947647"/>
           <a:chExt cx="317726" cy="739587"/>
         </a:xfrm>
@@ -6223,8 +6565,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11889441" y="10293431"/>
-          <a:ext cx="459441" cy="472964"/>
+          <a:off x="12360088" y="10427902"/>
+          <a:ext cx="459441" cy="480434"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -6337,8 +6679,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13518028" y="6977527"/>
-          <a:ext cx="1602177" cy="1282458"/>
+          <a:off x="14040969" y="7059703"/>
+          <a:ext cx="1654471" cy="1304870"/>
           <a:chOff x="13458264" y="7788087"/>
           <a:chExt cx="1654471" cy="1304870"/>
         </a:xfrm>
@@ -6619,8 +6961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="10210428" y="8140037"/>
-          <a:ext cx="451969" cy="454287"/>
+          <a:off x="10611972" y="8231552"/>
+          <a:ext cx="459440" cy="480434"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -6733,8 +7075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="12595416" y="8104552"/>
-          <a:ext cx="451969" cy="480434"/>
+          <a:off x="13088475" y="8209140"/>
+          <a:ext cx="459440" cy="480434"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -6847,8 +7189,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="10765122" y="7458346"/>
-          <a:ext cx="433294" cy="472964"/>
+          <a:off x="11183475" y="7547993"/>
+          <a:ext cx="459441" cy="480434"/>
           <a:chOff x="11934264" y="8825461"/>
           <a:chExt cx="459441" cy="480434"/>
         </a:xfrm>
@@ -8687,7 +9029,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="614081" y="12584596"/>
+          <a:off x="614081" y="12613171"/>
           <a:ext cx="6173663" cy="5046506"/>
           <a:chOff x="620707" y="12084326"/>
           <a:chExt cx="6263115" cy="5119393"/>
@@ -9866,7 +10208,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="490331" y="18374138"/>
+          <a:off x="490331" y="18402713"/>
           <a:ext cx="2449487" cy="2452722"/>
           <a:chOff x="836544" y="18031239"/>
           <a:chExt cx="2482618" cy="2489165"/>
@@ -10338,7 +10680,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3316356" y="18415551"/>
+          <a:off x="3316356" y="18444126"/>
           <a:ext cx="2627253" cy="1820031"/>
           <a:chOff x="3462131" y="18031239"/>
           <a:chExt cx="2663696" cy="1846535"/>
@@ -10783,7 +11125,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="614081" y="22242946"/>
+          <a:off x="614081" y="22290571"/>
           <a:ext cx="6173663" cy="5046506"/>
           <a:chOff x="620707" y="12084326"/>
           <a:chExt cx="6263115" cy="5119393"/>
@@ -12099,7 +12441,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="490331" y="28261088"/>
+          <a:off x="490331" y="28308713"/>
           <a:ext cx="2449487" cy="2452722"/>
           <a:chOff x="836544" y="18031239"/>
           <a:chExt cx="2482618" cy="2489165"/>
@@ -12571,7 +12913,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3561522" y="27558719"/>
+          <a:off x="3561522" y="27606344"/>
           <a:ext cx="6002998" cy="2834315"/>
           <a:chOff x="3611218" y="27986930"/>
           <a:chExt cx="6089137" cy="2874071"/>
@@ -13901,7 +14243,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6533322" y="27558719"/>
+          <a:off x="6533322" y="27606344"/>
           <a:ext cx="3005359" cy="2825556"/>
           <a:chOff x="3611218" y="27986930"/>
           <a:chExt cx="3048429" cy="2865312"/>
@@ -14859,7 +15201,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4575314" y="28198596"/>
+          <a:off x="4575314" y="28246221"/>
           <a:ext cx="1404732" cy="1888333"/>
           <a:chOff x="4641575" y="28636746"/>
           <a:chExt cx="1424610" cy="1914837"/>
@@ -14978,7 +15320,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="7566992" y="28210194"/>
+          <a:off x="7566992" y="28257819"/>
           <a:ext cx="1404732" cy="1888332"/>
           <a:chOff x="4641575" y="28636746"/>
           <a:chExt cx="1424610" cy="1914837"/>
@@ -15687,7 +16029,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10972800" y="28145133"/>
+          <a:off x="10972800" y="28192758"/>
           <a:ext cx="2286000" cy="2277717"/>
           <a:chOff x="11131826" y="28583283"/>
           <a:chExt cx="2319131" cy="2310847"/>
@@ -15798,7 +16140,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10977766" y="28146788"/>
+          <a:off x="10977766" y="28194413"/>
           <a:ext cx="2286001" cy="2281030"/>
           <a:chOff x="11131826" y="28583283"/>
           <a:chExt cx="2319131" cy="2310847"/>
@@ -17184,14 +17526,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -17208,7 +17550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9591675" y="1638298"/>
+          <a:off x="11734800" y="1638298"/>
           <a:ext cx="3162300" cy="4638677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17254,14 +17596,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -17278,7 +17620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="2628900"/>
+          <a:off x="8915400" y="2628900"/>
           <a:ext cx="1619250" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17326,15 +17668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17349,8 +17691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533775" y="1666873"/>
-          <a:ext cx="2305050" cy="4610102"/>
+          <a:off x="3533774" y="1657350"/>
+          <a:ext cx="4600575" cy="5248275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17769,13 +18111,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>247648</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -17792,8 +18134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="1990725"/>
-          <a:ext cx="1657350" cy="657225"/>
+          <a:off x="3848098" y="1990725"/>
+          <a:ext cx="4095751" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18038,14 +18380,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -18062,7 +18404,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8124825" y="3162300"/>
+          <a:off x="10267950" y="3162300"/>
           <a:ext cx="1457325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -18092,14 +18434,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85751</xdr:rowOff>
     </xdr:to>
@@ -18124,7 +18466,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="2047876"/>
+          <a:off x="12030075" y="2047876"/>
           <a:ext cx="762000" cy="752500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18136,16 +18478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>237390</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>106577</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>198955</xdr:rowOff>
+      <xdr:rowOff>94180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>198955</xdr:rowOff>
+      <xdr:rowOff>94180</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18162,8 +18504,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5980965" y="3151705"/>
-          <a:ext cx="781785" cy="0"/>
+          <a:off x="8479052" y="3046930"/>
+          <a:ext cx="455398" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18192,14 +18534,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>34901</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>120626</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -18224,7 +18566,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="2857500"/>
+          <a:off x="9048750" y="2857500"/>
           <a:ext cx="1244576" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18245,7 +18587,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18261,7 +18603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3848100" y="2847975"/>
-          <a:ext cx="1657350" cy="657225"/>
+          <a:ext cx="1657350" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18304,16 +18646,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18324,15 +18666,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="1"/>
-          <a:endCxn id="20" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4676775" y="3505200"/>
-          <a:ext cx="0" cy="323850"/>
+          <a:off x="4357688" y="3457575"/>
+          <a:ext cx="0" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18362,14 +18701,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18384,8 +18723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="3829050"/>
-          <a:ext cx="1657349" cy="838200"/>
+          <a:off x="3848100" y="4457700"/>
+          <a:ext cx="962025" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -18444,16 +18783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18465,14 +18804,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="0"/>
           <a:endCxn id="22" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4676775" y="4667250"/>
-          <a:ext cx="0" cy="361950"/>
+          <a:off x="4329113" y="5295900"/>
+          <a:ext cx="0" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18501,15 +18839,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18524,8 +18862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="5029200"/>
-          <a:ext cx="1657350" cy="895350"/>
+          <a:off x="3848099" y="5657850"/>
+          <a:ext cx="3895725" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18595,16 +18933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>237391</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>192303</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>189430</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18622,8 +18960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6081881" y="3785285"/>
-          <a:ext cx="1399105" cy="1600935"/>
+          <a:off x="8002437" y="4191366"/>
+          <a:ext cx="2027755" cy="1417423"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -18651,14 +18989,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>95355</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -18682,7 +19020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9858374" y="3000375"/>
+          <a:off x="12001499" y="3000375"/>
           <a:ext cx="2467081" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18797,8 +19135,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -18816,7 +19154,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7991475" y="3267075"/>
+          <a:off x="10134600" y="3267075"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18852,14 +19190,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>60906</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>146631</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>208481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
     </xdr:to>
@@ -18879,7 +19217,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8176206" y="3399356"/>
+          <a:off x="10319331" y="3399356"/>
           <a:ext cx="1748844" cy="1706047"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -18908,14 +19246,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>107396</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>193121</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>238286</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>66836</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>165</xdr:rowOff>
     </xdr:to>
@@ -18940,7 +19278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9988273" y="4911451"/>
+          <a:off x="12131398" y="4911451"/>
           <a:ext cx="457362" cy="388065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18952,14 +19290,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>200027</xdr:rowOff>
     </xdr:to>
@@ -18976,7 +19314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9925050" y="4914902"/>
+          <a:off x="12068175" y="4914902"/>
           <a:ext cx="114300" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19020,8 +19358,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
@@ -19039,7 +19377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9839325" y="5895976"/>
+          <a:off x="11982450" y="5895976"/>
           <a:ext cx="1454244" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19079,14 +19417,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>178657</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>111981</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>65605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>185751</xdr:rowOff>
     </xdr:to>
@@ -19106,8 +19444,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5922232" y="2303980"/>
-          <a:ext cx="3964719" cy="120146"/>
+          <a:off x="8227281" y="2303980"/>
+          <a:ext cx="3802794" cy="120146"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -19135,16 +19473,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>237391</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>84655</xdr:rowOff>
+      <xdr:rowOff>85727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>237055</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19161,9 +19499,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5980966" y="5656780"/>
-          <a:ext cx="3944085" cy="1072"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8296275" y="5657852"/>
+          <a:ext cx="3771900" cy="627578"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -19194,14 +19532,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>107396</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>193121</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>238286</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>66836</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76365</xdr:rowOff>
     </xdr:to>
@@ -19226,7 +19564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9988273" y="5463901"/>
+          <a:off x="12131398" y="5463901"/>
           <a:ext cx="457362" cy="388065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19238,14 +19576,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
@@ -19262,7 +19600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9925050" y="5467352"/>
+          <a:off x="12068175" y="5467352"/>
           <a:ext cx="114300" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19306,10 +19644,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -19325,7 +19663,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324475" y="5524500"/>
+          <a:off x="7467600" y="6153150"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19361,10 +19699,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="564514"/>
     <xdr:sp macro="" textlink="">
@@ -19380,7 +19718,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6029325" y="5734050"/>
+          <a:off x="8658225" y="6391275"/>
           <a:ext cx="1877437" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19830,18 +20168,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:ext cx="1031051" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C0A7CF-C382-6596-5E04-32F0EFBF591D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881094FE-FD15-9662-5408-85D68430D10E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19849,7 +20187,65 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="2676525"/>
+          <a:off x="10591800" y="2809875"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気的な何か</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6056561F-1717-B1B7-8AEA-58F5A2EE5493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="4514850"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19888,18 +20284,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4AC0D8-77B2-14EE-39F7-5BD95B35C9E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D3A45C-FD26-F57C-81E3-E679A04E191D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19907,7 +20303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="4972050"/>
+          <a:off x="10325100" y="5314950"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19946,182 +20342,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881094FE-FD15-9662-5408-85D68430D10E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8448675" y="2809875"/>
-          <a:ext cx="1031051" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>電気的な何か</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6056561F-1717-B1B7-8AEA-58F5A2EE5493}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="4514850"/>
-          <a:ext cx="748923" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>電気信号</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="テキスト ボックス 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D3A45C-FD26-F57C-81E3-E679A04E191D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="5314950"/>
-          <a:ext cx="748923" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>電気信号</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -20139,7 +20361,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181975" y="2105025"/>
+          <a:off x="10325100" y="2105025"/>
           <a:ext cx="889987" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20178,8 +20400,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -20197,7 +20419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10744200" y="2238375"/>
+          <a:off x="12887325" y="2238375"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20236,8 +20458,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -20255,7 +20477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10534650" y="5219700"/>
+          <a:off x="12677775" y="5219700"/>
           <a:ext cx="1172116" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20352,8 +20574,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
@@ -20371,7 +20593,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505450" y="2171700"/>
+          <a:off x="7810500" y="2171700"/>
           <a:ext cx="416781" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20420,18 +20642,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="475515" cy="264560"/>
+    <xdr:ext cx="659027" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EDBFD8-D729-1D8C-4080-CE4470F3576C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D189F76-F116-9614-C463-BC25AB33DA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20439,8 +20661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505450" y="3019425"/>
-          <a:ext cx="475515" cy="264560"/>
+          <a:off x="7648575" y="5781675"/>
+          <a:ext cx="659027" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20478,7 +20700,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>GOIP</a:t>
+            <a:t>RS-232C</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -20488,18 +20710,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="475515" cy="264560"/>
+    <xdr:ext cx="647700" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D189F76-F116-9614-C463-BC25AB33DA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD977E6-9D4C-9416-C65F-DE11C2467C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20507,8 +20729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505450" y="5153025"/>
-          <a:ext cx="475515" cy="264560"/>
+          <a:off x="7648575" y="6153150"/>
+          <a:ext cx="647700" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20539,75 +20761,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>GOIP</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="475515" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD977E6-9D4C-9416-C65F-DE11C2467C18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5505450" y="5524500"/>
-          <a:ext cx="475515" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -20750,8 +20904,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -20769,7 +20923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420225" y="6410325"/>
+          <a:off x="11563350" y="6410325"/>
           <a:ext cx="3488071" cy="343364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20818,6 +20972,360 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6895B296-390E-67D3-6ABE-2BD495A3637B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="2857500"/>
+          <a:ext cx="2286000" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>サービス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>機器</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>に保存された操作情報を読み取り、機器へ電気信号を送信</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="659027" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EDBFD8-D729-1D8C-4080-CE4470F3576C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="2914650"/>
+          <a:ext cx="659027" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>RS-232C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="円柱 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A87145-BB75-49F0-CE2E-C9170E968CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="4457700"/>
+          <a:ext cx="962025" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>操作情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CA05C9-D1A5-02C4-7604-1E6BFD721E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5262563" y="3457575"/>
+          <a:ext cx="0" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC76808-6957-2CCF-9F80-3E66FA7EF425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="4"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5848350" y="3943350"/>
+          <a:ext cx="1076325" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21541,8 +22049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7064375" y="16859250"/>
-          <a:ext cx="3502520" cy="2048173"/>
+          <a:off x="7143750" y="17516475"/>
+          <a:ext cx="3543795" cy="2133898"/>
           <a:chOff x="7143750" y="15887700"/>
           <a:chExt cx="3543795" cy="2133898"/>
         </a:xfrm>
@@ -22219,14 +22727,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="26.5">
+    <row r="2" spans="1:2" ht="25.5">
       <c r="A2" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="43" customFormat="1" ht="20">
+    <row r="4" spans="1:2" s="43" customFormat="1" ht="19.5">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -22252,14 +22760,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:90"/>
-    <row r="2" spans="1:90" ht="26.5">
+    <row r="1" spans="1:90" ht="18.75"/>
+    <row r="2" spans="1:90" ht="25.5">
       <c r="A2" s="40" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:90"/>
-    <row r="4" spans="1:90" s="43" customFormat="1" ht="20">
+    <row r="3" spans="1:90" ht="18.75"/>
+    <row r="4" spans="1:90" s="43" customFormat="1" ht="19.5">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -22283,11 +22791,11 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="87" t="s">
+      <c r="T7" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="U7" s="88"/>
-      <c r="V7" s="101"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
       <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -22373,26 +22881,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="90">
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="109">
         <v>9999</v>
       </c>
-      <c r="P10" s="90"/>
-      <c r="R10" s="89" t="s">
+      <c r="P10" s="109"/>
+      <c r="R10" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="90">
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="109">
         <v>9999</v>
       </c>
-      <c r="W10" s="90"/>
+      <c r="W10" s="109"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -22418,50 +22926,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="110" t="s">
+      <c r="AY10" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="AZ10" s="111"/>
-      <c r="BA10" s="111"/>
-      <c r="BB10" s="111"/>
-      <c r="BC10" s="112"/>
-      <c r="BL10" s="102" t="s">
+      <c r="AZ10" s="96"/>
+      <c r="BA10" s="96"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="97"/>
+      <c r="BL10" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
-      <c r="BQ10" s="104"/>
+      <c r="BM10" s="91"/>
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="92"/>
       <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT10" s="87" t="s">
+      <c r="BT10" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="BU10" s="88"/>
-      <c r="BV10" s="101"/>
+      <c r="BU10" s="85"/>
+      <c r="BV10" s="86"/>
       <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="R11" s="89" t="s">
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="R11" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -22494,24 +23002,24 @@
       <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="107" t="s">
+      <c r="AZ12" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="BA12" s="108"/>
-      <c r="BB12" s="108"/>
-      <c r="BC12" s="109"/>
-      <c r="BD12" s="87" t="s">
+      <c r="BA12" s="88"/>
+      <c r="BB12" s="88"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="BE12" s="101"/>
-      <c r="BF12" s="105">
+      <c r="BE12" s="86"/>
+      <c r="BF12" s="93">
         <v>50000</v>
       </c>
-      <c r="BG12" s="106"/>
-      <c r="BH12" s="87" t="s">
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="BI12" s="101"/>
+      <c r="BI12" s="86"/>
       <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
@@ -22537,24 +23045,24 @@
       <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="107" t="s">
+      <c r="AZ13" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="BA13" s="108"/>
-      <c r="BB13" s="108"/>
-      <c r="BC13" s="109"/>
-      <c r="BD13" s="87" t="s">
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="88"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="BE13" s="101"/>
-      <c r="BF13" s="105">
+      <c r="BE13" s="86"/>
+      <c r="BF13" s="93">
         <v>50001</v>
       </c>
-      <c r="BG13" s="106"/>
-      <c r="BH13" s="87" t="s">
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="BI13" s="101"/>
+      <c r="BI13" s="86"/>
       <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
@@ -22584,24 +23092,24 @@
       <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="107" t="s">
+      <c r="AZ14" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="BA14" s="108"/>
-      <c r="BB14" s="108"/>
-      <c r="BC14" s="109"/>
-      <c r="BD14" s="87" t="s">
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="88"/>
+      <c r="BC14" s="89"/>
+      <c r="BD14" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="BE14" s="101"/>
-      <c r="BF14" s="105">
+      <c r="BE14" s="86"/>
+      <c r="BF14" s="93">
         <v>50002</v>
       </c>
-      <c r="BG14" s="106"/>
-      <c r="BH14" s="87" t="s">
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="BI14" s="101"/>
+      <c r="BI14" s="86"/>
       <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
@@ -22624,22 +23132,22 @@
       <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="107"/>
-      <c r="BA15" s="108"/>
-      <c r="BB15" s="108"/>
-      <c r="BC15" s="109"/>
-      <c r="BD15" s="87" t="s">
+      <c r="AZ15" s="87"/>
+      <c r="BA15" s="88"/>
+      <c r="BB15" s="88"/>
+      <c r="BC15" s="89"/>
+      <c r="BD15" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="BE15" s="101"/>
-      <c r="BF15" s="105">
+      <c r="BE15" s="86"/>
+      <c r="BF15" s="93">
         <v>50003</v>
       </c>
-      <c r="BG15" s="106"/>
-      <c r="BH15" s="87" t="s">
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="BI15" s="101"/>
+      <c r="BI15" s="86"/>
       <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
@@ -22660,22 +23168,22 @@
       <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="107"/>
-      <c r="BA16" s="108"/>
-      <c r="BB16" s="108"/>
-      <c r="BC16" s="109"/>
-      <c r="BD16" s="87" t="s">
+      <c r="AZ16" s="87"/>
+      <c r="BA16" s="88"/>
+      <c r="BB16" s="88"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="BE16" s="101"/>
-      <c r="BF16" s="105">
+      <c r="BE16" s="86"/>
+      <c r="BF16" s="93">
         <v>50004</v>
       </c>
-      <c r="BG16" s="106"/>
-      <c r="BH16" s="87" t="s">
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="BI16" s="101"/>
+      <c r="BI16" s="86"/>
       <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
@@ -22691,9 +23199,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -22702,16 +23210,16 @@
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="107"/>
-      <c r="BA17" s="108"/>
-      <c r="BB17" s="108"/>
-      <c r="BC17" s="109"/>
-      <c r="BD17" s="87"/>
-      <c r="BE17" s="101"/>
-      <c r="BF17" s="105"/>
-      <c r="BG17" s="106"/>
-      <c r="BH17" s="87"/>
-      <c r="BI17" s="101"/>
+      <c r="AZ17" s="87"/>
+      <c r="BA17" s="88"/>
+      <c r="BB17" s="88"/>
+      <c r="BC17" s="89"/>
+      <c r="BD17" s="84"/>
+      <c r="BE17" s="86"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="84"/>
+      <c r="BI17" s="86"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -22728,15 +23236,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="86"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="107"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="87" t="s">
+      <c r="U18" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -22754,11 +23262,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="87" t="s">
+      <c r="S19" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -22802,33 +23310,33 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="94" t="s">
+      <c r="S21" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="95"/>
-      <c r="U21" s="96"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="115"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="102" t="s">
+      <c r="BL21" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="BM21" s="103"/>
-      <c r="BN21" s="103"/>
-      <c r="BO21" s="103"/>
-      <c r="BP21" s="103"/>
-      <c r="BQ21" s="104"/>
+      <c r="BM21" s="91"/>
+      <c r="BN21" s="91"/>
+      <c r="BO21" s="91"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="92"/>
       <c r="BR21" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT21" s="87" t="s">
+      <c r="BT21" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="BU21" s="88"/>
-      <c r="BV21" s="101"/>
+      <c r="BU21" s="85"/>
+      <c r="BV21" s="86"/>
       <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
@@ -22903,12 +23411,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="91" t="s">
+      <c r="O25" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="112"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -23064,39 +23572,39 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="102" t="s">
+      <c r="AY31" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="AZ31" s="103"/>
-      <c r="BA31" s="103"/>
-      <c r="BB31" s="103"/>
-      <c r="BC31" s="103"/>
-      <c r="BD31" s="104"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="92"/>
       <c r="BE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BG31" s="87" t="s">
+      <c r="BG31" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="101"/>
+      <c r="BH31" s="85"/>
+      <c r="BI31" s="86"/>
       <c r="BK31" s="69"/>
-      <c r="BY31" s="102" t="s">
+      <c r="BY31" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="BZ31" s="103"/>
-      <c r="CA31" s="103"/>
-      <c r="CB31" s="103"/>
-      <c r="CC31" s="103"/>
-      <c r="CD31" s="104"/>
+      <c r="BZ31" s="91"/>
+      <c r="CA31" s="91"/>
+      <c r="CB31" s="91"/>
+      <c r="CC31" s="91"/>
+      <c r="CD31" s="92"/>
       <c r="CE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="CG31" s="87" t="s">
+      <c r="CG31" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="CH31" s="88"/>
-      <c r="CI31" s="101"/>
+      <c r="CH31" s="85"/>
+      <c r="CI31" s="86"/>
       <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
@@ -23175,17 +23683,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="81">
+      <c r="L34" s="102">
         <v>9999</v>
       </c>
-      <c r="M34" s="81"/>
+      <c r="M34" s="102"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="82">
+      <c r="V34" s="103">
         <v>9999</v>
       </c>
-      <c r="W34" s="83"/>
+      <c r="W34" s="104"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -23203,17 +23711,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="81">
+      <c r="L35" s="102">
         <v>9999</v>
       </c>
-      <c r="M35" s="81"/>
+      <c r="M35" s="102"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="82">
+      <c r="V35" s="103">
         <v>9999</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="104"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -23337,22 +23845,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="102" t="s">
+      <c r="BL41" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="BM41" s="103"/>
-      <c r="BN41" s="103"/>
-      <c r="BO41" s="103"/>
-      <c r="BP41" s="103"/>
-      <c r="BQ41" s="104"/>
+      <c r="BM41" s="91"/>
+      <c r="BN41" s="91"/>
+      <c r="BO41" s="91"/>
+      <c r="BP41" s="91"/>
+      <c r="BQ41" s="92"/>
       <c r="BR41" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT41" s="87" t="s">
+      <c r="BT41" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="BU41" s="88"/>
-      <c r="BV41" s="101"/>
+      <c r="BU41" s="85"/>
+      <c r="BV41" s="86"/>
       <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
@@ -23364,7 +23872,7 @@
       <c r="AX42" s="32"/>
       <c r="CL42" s="33"/>
     </row>
-    <row r="43" spans="10:90">
+    <row r="43" spans="10:90" ht="18.75">
       <c r="Z43" s="32"/>
       <c r="AA43" s="4"/>
       <c r="AU43" s="5"/>
@@ -23488,7 +23996,7 @@
       <c r="BX49" s="8"/>
       <c r="CL49" s="33"/>
     </row>
-    <row r="50" spans="2:90" ht="22.5">
+    <row r="50" spans="2:90" ht="24">
       <c r="B50" s="54" t="s">
         <v>203</v>
       </c>
@@ -23560,7 +24068,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="2:31" ht="22.5">
+    <row r="92" spans="2:31" ht="24">
       <c r="B92" s="54" t="s">
         <v>204</v>
       </c>
@@ -23656,55 +24164,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="98">
+      <c r="T134" s="100">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="99"/>
+      <c r="U134" s="101"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="97" t="s">
+      <c r="W134" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="97"/>
-      <c r="Y134" s="97"/>
+      <c r="X134" s="98"/>
+      <c r="Y134" s="98"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="97" t="s">
+      <c r="AA134" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="97"/>
-      <c r="AC134" s="97"/>
+      <c r="AB134" s="98"/>
+      <c r="AC134" s="98"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="100">
+      <c r="AE134" s="99">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="98"/>
+      <c r="AF134" s="100"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="98">
+      <c r="AH134" s="100">
         <v>-1</v>
       </c>
-      <c r="AI134" s="99"/>
+      <c r="AI134" s="101"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="97" t="s">
+      <c r="AK134" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="97"/>
-      <c r="AM134" s="97"/>
+      <c r="AL134" s="98"/>
+      <c r="AM134" s="98"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="97"/>
-      <c r="AP134" s="97"/>
-      <c r="AQ134" s="97"/>
+      <c r="AO134" s="98"/>
+      <c r="AP134" s="98"/>
+      <c r="AQ134" s="98"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="100"/>
-      <c r="AT134" s="98"/>
+      <c r="AS134" s="99"/>
+      <c r="AT134" s="100"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -23712,63 +24220,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="98">
+      <c r="T135" s="100">
         <v>0.5</v>
       </c>
-      <c r="U135" s="99"/>
+      <c r="U135" s="101"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="97" t="s">
+      <c r="W135" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="97"/>
-      <c r="Y135" s="97"/>
+      <c r="X135" s="98"/>
+      <c r="Y135" s="98"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="97" t="s">
+      <c r="AA135" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="97"/>
-      <c r="AC135" s="97"/>
+      <c r="AB135" s="98"/>
+      <c r="AC135" s="98"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="100">
+      <c r="AE135" s="99">
         <v>1</v>
       </c>
-      <c r="AF135" s="98"/>
+      <c r="AF135" s="100"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="98">
+      <c r="AH135" s="100">
         <v>-1</v>
       </c>
-      <c r="AI135" s="99"/>
+      <c r="AI135" s="101"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="97" t="s">
+      <c r="AK135" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="97"/>
-      <c r="AM135" s="97"/>
+      <c r="AL135" s="98"/>
+      <c r="AM135" s="98"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="97" t="s">
+      <c r="AO135" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="97"/>
-      <c r="AQ135" s="97"/>
+      <c r="AP135" s="98"/>
+      <c r="AQ135" s="98"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="100">
+      <c r="AS135" s="99">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="98"/>
+      <c r="AT135" s="100"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -23777,55 +24285,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="98">
+      <c r="T136" s="100">
         <v>1</v>
       </c>
-      <c r="U136" s="99"/>
+      <c r="U136" s="101"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="97" t="s">
+      <c r="W136" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="97"/>
-      <c r="Y136" s="97"/>
+      <c r="X136" s="98"/>
+      <c r="Y136" s="98"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="97"/>
-      <c r="AB136" s="97"/>
-      <c r="AC136" s="97"/>
+      <c r="AA136" s="98"/>
+      <c r="AB136" s="98"/>
+      <c r="AC136" s="98"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="100"/>
-      <c r="AF136" s="98"/>
+      <c r="AE136" s="99"/>
+      <c r="AF136" s="100"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="98">
+      <c r="AH136" s="100">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="99"/>
+      <c r="AI136" s="101"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="97" t="s">
+      <c r="AK136" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="97"/>
-      <c r="AM136" s="97"/>
+      <c r="AL136" s="98"/>
+      <c r="AM136" s="98"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="97" t="s">
+      <c r="AO136" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="97"/>
-      <c r="AQ136" s="97"/>
+      <c r="AP136" s="98"/>
+      <c r="AQ136" s="98"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="100">
+      <c r="AS136" s="99">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="98"/>
+      <c r="AT136" s="100"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -23839,295 +24347,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="98">
+      <c r="T137" s="100">
         <v>0.5</v>
       </c>
-      <c r="U137" s="99"/>
+      <c r="U137" s="101"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="97" t="s">
+      <c r="W137" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="97"/>
-      <c r="Y137" s="97"/>
+      <c r="X137" s="98"/>
+      <c r="Y137" s="98"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="97" t="s">
+      <c r="AA137" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="97"/>
-      <c r="AC137" s="97"/>
+      <c r="AB137" s="98"/>
+      <c r="AC137" s="98"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="100">
+      <c r="AE137" s="99">
         <v>1</v>
       </c>
-      <c r="AF137" s="98"/>
+      <c r="AF137" s="100"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="98">
+      <c r="AH137" s="100">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="99"/>
+      <c r="AI137" s="101"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="97" t="s">
+      <c r="AK137" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="97"/>
-      <c r="AM137" s="97"/>
+      <c r="AL137" s="98"/>
+      <c r="AM137" s="98"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="97" t="s">
+      <c r="AO137" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="97"/>
-      <c r="AQ137" s="97"/>
+      <c r="AP137" s="98"/>
+      <c r="AQ137" s="98"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="100">
+      <c r="AS137" s="99">
         <v>1</v>
       </c>
-      <c r="AT137" s="98"/>
+      <c r="AT137" s="100"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="98">
+      <c r="T138" s="100">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="99"/>
+      <c r="U138" s="101"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="97" t="s">
+      <c r="W138" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="97"/>
-      <c r="Y138" s="97"/>
+      <c r="X138" s="98"/>
+      <c r="Y138" s="98"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="97" t="s">
+      <c r="AA138" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="97"/>
-      <c r="AC138" s="97"/>
+      <c r="AB138" s="98"/>
+      <c r="AC138" s="98"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="100">
+      <c r="AE138" s="99">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="98"/>
+      <c r="AF138" s="100"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="98">
+      <c r="AH138" s="100">
         <v>1</v>
       </c>
-      <c r="AI138" s="99"/>
+      <c r="AI138" s="101"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="97" t="s">
+      <c r="AK138" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="97"/>
-      <c r="AM138" s="97"/>
+      <c r="AL138" s="98"/>
+      <c r="AM138" s="98"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="97"/>
-      <c r="AP138" s="97"/>
-      <c r="AQ138" s="97"/>
+      <c r="AO138" s="98"/>
+      <c r="AP138" s="98"/>
+      <c r="AQ138" s="98"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="100"/>
-      <c r="AT138" s="98"/>
+      <c r="AS138" s="99"/>
+      <c r="AT138" s="100"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="98">
+      <c r="T139" s="100">
         <v>-1</v>
       </c>
-      <c r="U139" s="99"/>
+      <c r="U139" s="101"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="97" t="s">
+      <c r="W139" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="97"/>
-      <c r="Y139" s="97"/>
+      <c r="X139" s="98"/>
+      <c r="Y139" s="98"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="97" t="s">
+      <c r="AA139" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="97"/>
-      <c r="AC139" s="97"/>
+      <c r="AB139" s="98"/>
+      <c r="AC139" s="98"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="100">
+      <c r="AE139" s="99">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="98"/>
+      <c r="AF139" s="100"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="98">
+      <c r="AH139" s="100">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="99"/>
+      <c r="AI139" s="101"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="97" t="s">
+      <c r="AK139" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="97"/>
-      <c r="AM139" s="97"/>
+      <c r="AL139" s="98"/>
+      <c r="AM139" s="98"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="97" t="s">
+      <c r="AO139" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="97"/>
-      <c r="AQ139" s="97"/>
+      <c r="AP139" s="98"/>
+      <c r="AQ139" s="98"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="100">
+      <c r="AS139" s="99">
         <v>1</v>
       </c>
-      <c r="AT139" s="98"/>
+      <c r="AT139" s="100"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="98">
+      <c r="T140" s="100">
         <v>-1</v>
       </c>
-      <c r="U140" s="99"/>
+      <c r="U140" s="101"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="97" t="s">
+      <c r="W140" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="97"/>
-      <c r="Y140" s="97"/>
+      <c r="X140" s="98"/>
+      <c r="Y140" s="98"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="97"/>
-      <c r="AB140" s="97"/>
-      <c r="AC140" s="97"/>
+      <c r="AA140" s="98"/>
+      <c r="AB140" s="98"/>
+      <c r="AC140" s="98"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="100"/>
-      <c r="AF140" s="98"/>
+      <c r="AE140" s="99"/>
+      <c r="AF140" s="100"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="98">
+      <c r="AH140" s="100">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="99"/>
+      <c r="AI140" s="101"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="97" t="s">
+      <c r="AK140" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="97"/>
-      <c r="AM140" s="97"/>
+      <c r="AL140" s="98"/>
+      <c r="AM140" s="98"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="97" t="s">
+      <c r="AO140" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="97"/>
-      <c r="AQ140" s="97"/>
+      <c r="AP140" s="98"/>
+      <c r="AQ140" s="98"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="100">
+      <c r="AS140" s="99">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="98"/>
+      <c r="AT140" s="100"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="98">
+      <c r="T141" s="100">
         <v>-1</v>
       </c>
-      <c r="U141" s="99"/>
+      <c r="U141" s="101"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="97" t="s">
+      <c r="W141" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="97"/>
-      <c r="Y141" s="97"/>
+      <c r="X141" s="98"/>
+      <c r="Y141" s="98"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="97" t="s">
+      <c r="AA141" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="97"/>
-      <c r="AC141" s="97"/>
+      <c r="AB141" s="98"/>
+      <c r="AC141" s="98"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="100">
+      <c r="AE141" s="99">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="98"/>
+      <c r="AF141" s="100"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="98">
+      <c r="AH141" s="100">
         <v>-1</v>
       </c>
-      <c r="AI141" s="99"/>
+      <c r="AI141" s="101"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="97" t="s">
+      <c r="AK141" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="97"/>
-      <c r="AM141" s="97"/>
+      <c r="AL141" s="98"/>
+      <c r="AM141" s="98"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="97" t="s">
+      <c r="AO141" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="97"/>
-      <c r="AQ141" s="97"/>
+      <c r="AP141" s="98"/>
+      <c r="AQ141" s="98"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="100">
+      <c r="AS141" s="99">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="98"/>
+      <c r="AT141" s="100"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -24203,40 +24711,64 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
     <mergeCell ref="BT10:BV10"/>
     <mergeCell ref="BL10:BQ10"/>
     <mergeCell ref="AK137:AM137"/>
@@ -24261,64 +24793,40 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -24335,22 +24843,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9D4A41-55D3-406A-BC39-7C7515A5F04A}">
   <dimension ref="A2:AD140"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <cols>
     <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="26.5">
+    <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="43" customFormat="1" ht="20">
+    <row r="4" spans="1:3" s="43" customFormat="1" ht="19.5">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -24457,7 +24965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="43" customFormat="1" ht="20">
+    <row r="42" spans="1:23" s="43" customFormat="1" ht="19.5">
       <c r="A42" s="41" t="s">
         <v>13</v>
       </c>
@@ -25165,7 +25673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="43" customFormat="1" ht="20">
+    <row r="134" spans="1:8" s="43" customFormat="1" ht="19.5">
       <c r="A134" s="41" t="s">
         <v>13</v>
       </c>
@@ -25208,9 +25716,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="29" max="29" width="3.58203125" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
     <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25381,18 +25889,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB40B8-5003-4279-AB08-F68CE513E0DB}">
   <dimension ref="A2:AT86"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="T42" sqref="T42:W42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:25" ht="26.5">
+    <row r="2" spans="1:25" ht="25.5">
       <c r="A2" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="43" customFormat="1" ht="20">
+    <row r="4" spans="1:25" s="43" customFormat="1" ht="19.5">
       <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
@@ -25405,7 +25913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="20">
+    <row r="8" spans="1:25" ht="19.5">
       <c r="B8" s="51" t="s">
         <v>167</v>
       </c>
@@ -25624,35 +26132,35 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:40">
-      <c r="E31" s="114" t="s">
+      <c r="E31" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114" t="s">
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114" t="s">
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114" t="s">
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="114"/>
+      <c r="Y31" s="119"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
@@ -25661,70 +26169,70 @@
       </c>
     </row>
     <row r="32" spans="4:40">
-      <c r="E32" s="115" t="s">
+      <c r="E32" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115" t="s">
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="81" t="s">
+      <c r="T32" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="81"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="81"/>
-      <c r="X32" s="81">
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102">
         <v>1</v>
       </c>
-      <c r="Y32" s="81"/>
+      <c r="Y32" s="102"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
     <row r="33" spans="1:46">
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="81" t="s">
+      <c r="T33" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81">
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102">
         <v>1</v>
       </c>
-      <c r="Y33" s="81"/>
+      <c r="Y33" s="102"/>
       <c r="AN33" t="s">
         <v>215</v>
       </c>
@@ -25739,35 +26247,35 @@
       <c r="A34" t="s">
         <v>318</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113" t="s">
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="81"/>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81">
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102">
         <v>1</v>
       </c>
-      <c r="Y34" s="81"/>
+      <c r="Y34" s="102"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
@@ -25783,35 +26291,35 @@
       </c>
     </row>
     <row r="35" spans="1:46">
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113" t="s">
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="81"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81">
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102">
         <v>1</v>
       </c>
-      <c r="Y35" s="81"/>
+      <c r="Y35" s="102"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
@@ -25820,118 +26328,118 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="131" customFormat="1">
-      <c r="A36" s="131" t="s">
+    <row r="36" spans="1:46" s="82" customFormat="1">
+      <c r="A36" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E36" s="129" t="s">
+      <c r="E36" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129" t="s">
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="129"/>
-      <c r="O36" s="129"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="130">
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="81">
         <v>1</v>
       </c>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89">
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108">
         <v>1</v>
       </c>
-      <c r="Y36" s="89"/>
-      <c r="AA36" s="131" t="str">
+      <c r="Y36" s="108"/>
+      <c r="AA36" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
       </c>
-      <c r="AN36" s="131" t="s">
+      <c r="AN36" s="82" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="131" customFormat="1">
-      <c r="A37" s="131" t="s">
+    <row r="37" spans="1:46" s="82" customFormat="1">
+      <c r="A37" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="129" t="s">
+      <c r="E37" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129" t="s">
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="130">
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="81">
         <v>1</v>
       </c>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89">
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108">
         <v>1</v>
       </c>
-      <c r="Y37" s="89"/>
-      <c r="AA37" s="131" t="str">
+      <c r="Y37" s="108"/>
+      <c r="AA37" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
       </c>
-      <c r="AN37" s="131" t="s">
+      <c r="AN37" s="82" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:46">
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113" t="s">
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
-      <c r="W38" s="81"/>
-      <c r="X38" s="81">
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102">
         <v>1</v>
       </c>
-      <c r="Y38" s="81"/>
+      <c r="Y38" s="102"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
@@ -25941,35 +26449,35 @@
       </c>
     </row>
     <row r="39" spans="1:46">
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113" t="s">
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="116"/>
+      <c r="P39" s="116"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="116"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81">
+      <c r="T39" s="102"/>
+      <c r="U39" s="102"/>
+      <c r="V39" s="102"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102">
         <v>1</v>
       </c>
-      <c r="Y39" s="81"/>
+      <c r="Y39" s="102"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
@@ -25979,35 +26487,35 @@
       </c>
     </row>
     <row r="40" spans="1:46">
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113" t="s">
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="81">
+      <c r="T40" s="102"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="102"/>
+      <c r="W40" s="102"/>
+      <c r="X40" s="102">
         <v>1</v>
       </c>
-      <c r="Y40" s="81"/>
+      <c r="Y40" s="102"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
@@ -26017,35 +26525,35 @@
       </c>
     </row>
     <row r="41" spans="1:46">
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113" t="s">
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="116"/>
+      <c r="R41" s="116"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81">
+      <c r="T41" s="102"/>
+      <c r="U41" s="102"/>
+      <c r="V41" s="102"/>
+      <c r="W41" s="102"/>
+      <c r="X41" s="102">
         <v>1</v>
       </c>
-      <c r="Y41" s="81"/>
+      <c r="Y41" s="102"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
@@ -26055,35 +26563,35 @@
       </c>
     </row>
     <row r="42" spans="1:46">
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113" t="s">
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81">
+      <c r="T42" s="102"/>
+      <c r="U42" s="102"/>
+      <c r="V42" s="102"/>
+      <c r="W42" s="102"/>
+      <c r="X42" s="102">
         <v>1</v>
       </c>
-      <c r="Y42" s="81"/>
+      <c r="Y42" s="102"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
@@ -26093,35 +26601,35 @@
       </c>
     </row>
     <row r="43" spans="1:46">
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113" t="s">
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81">
+      <c r="T43" s="102"/>
+      <c r="U43" s="102"/>
+      <c r="V43" s="102"/>
+      <c r="W43" s="102"/>
+      <c r="X43" s="102">
         <v>1</v>
       </c>
-      <c r="Y43" s="81"/>
+      <c r="Y43" s="102"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
@@ -26131,35 +26639,35 @@
       </c>
     </row>
     <row r="44" spans="1:46">
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113" t="s">
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="81"/>
-      <c r="U44" s="81"/>
-      <c r="V44" s="81"/>
-      <c r="W44" s="81"/>
-      <c r="X44" s="81">
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102">
         <v>1</v>
       </c>
-      <c r="Y44" s="81"/>
+      <c r="Y44" s="102"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
@@ -26169,35 +26677,35 @@
       </c>
     </row>
     <row r="45" spans="1:46">
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113" t="s">
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81">
+      <c r="T45" s="102"/>
+      <c r="U45" s="102"/>
+      <c r="V45" s="102"/>
+      <c r="W45" s="102"/>
+      <c r="X45" s="102">
         <v>1</v>
       </c>
-      <c r="Y45" s="81"/>
+      <c r="Y45" s="102"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
@@ -26207,35 +26715,35 @@
       </c>
     </row>
     <row r="46" spans="1:46">
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113" t="s">
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81">
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="102">
         <v>1</v>
       </c>
-      <c r="Y46" s="81"/>
+      <c r="Y46" s="102"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
@@ -26248,35 +26756,35 @@
       </c>
     </row>
     <row r="47" spans="1:46">
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113" t="s">
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="116"/>
+      <c r="R47" s="116"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81">
+      <c r="T47" s="102"/>
+      <c r="U47" s="102"/>
+      <c r="V47" s="102"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102">
         <v>1</v>
       </c>
-      <c r="Y47" s="81"/>
+      <c r="Y47" s="102"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
@@ -26289,35 +26797,35 @@
       </c>
     </row>
     <row r="48" spans="1:46">
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113" t="s">
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="116"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="V48" s="81"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81">
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="102"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="102">
         <v>1</v>
       </c>
-      <c r="Y48" s="81"/>
+      <c r="Y48" s="102"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -26484,546 +26992,440 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="114" t="s">
+      <c r="E78" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114" t="s">
+      <c r="F78" s="119"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="119"/>
+      <c r="I78" s="119"/>
+      <c r="J78" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="114"/>
-      <c r="P78" s="114"/>
-      <c r="Q78" s="114"/>
-      <c r="R78" s="114"/>
-      <c r="S78" s="114" t="s">
+      <c r="K78" s="119"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="119"/>
+      <c r="P78" s="119"/>
+      <c r="Q78" s="119"/>
+      <c r="R78" s="119"/>
+      <c r="S78" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="114"/>
-      <c r="U78" s="114"/>
-      <c r="V78" s="114"/>
-      <c r="W78" s="114"/>
-      <c r="X78" s="114" t="s">
+      <c r="T78" s="119"/>
+      <c r="U78" s="119"/>
+      <c r="V78" s="119"/>
+      <c r="W78" s="119"/>
+      <c r="X78" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="114"/>
-      <c r="Z78" s="114" t="s">
+      <c r="Y78" s="119"/>
+      <c r="Z78" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="114"/>
-      <c r="AB78" s="114"/>
-      <c r="AC78" s="114"/>
-      <c r="AD78" s="114"/>
-      <c r="AE78" s="114"/>
-      <c r="AF78" s="114"/>
-      <c r="AG78" s="114" t="s">
+      <c r="AA78" s="119"/>
+      <c r="AB78" s="119"/>
+      <c r="AC78" s="119"/>
+      <c r="AD78" s="119"/>
+      <c r="AE78" s="119"/>
+      <c r="AF78" s="119"/>
+      <c r="AG78" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="114"/>
-      <c r="AI78" s="114"/>
-      <c r="AJ78" s="114"/>
-      <c r="AK78" s="114"/>
-      <c r="AL78" s="114"/>
-      <c r="AM78" s="114"/>
+      <c r="AH78" s="119"/>
+      <c r="AI78" s="119"/>
+      <c r="AJ78" s="119"/>
+      <c r="AK78" s="119"/>
+      <c r="AL78" s="119"/>
+      <c r="AM78" s="119"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="115" t="s">
+      <c r="E79" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115" t="s">
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="115"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="115"/>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="118"/>
+      <c r="M79" s="118"/>
+      <c r="N79" s="118"/>
+      <c r="O79" s="118"/>
+      <c r="P79" s="118"/>
+      <c r="Q79" s="118"/>
+      <c r="R79" s="118"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="81" t="s">
+      <c r="T79" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="81"/>
-      <c r="V79" s="81"/>
-      <c r="W79" s="81"/>
-      <c r="X79" s="81">
+      <c r="U79" s="102"/>
+      <c r="V79" s="102"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="102">
         <v>1</v>
       </c>
-      <c r="Y79" s="81"/>
-      <c r="Z79" s="116" t="s">
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="116"/>
-      <c r="AB79" s="116"/>
-      <c r="AC79" s="81" t="s">
+      <c r="AA79" s="117"/>
+      <c r="AB79" s="117"/>
+      <c r="AC79" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="81"/>
-      <c r="AE79" s="81"/>
-      <c r="AF79" s="81"/>
-      <c r="AG79" s="113" t="s">
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="102"/>
+      <c r="AF79" s="102"/>
+      <c r="AG79" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="113"/>
-      <c r="AI79" s="113"/>
-      <c r="AJ79" s="113"/>
-      <c r="AK79" s="113"/>
-      <c r="AL79" s="113"/>
-      <c r="AM79" s="113"/>
+      <c r="AH79" s="116"/>
+      <c r="AI79" s="116"/>
+      <c r="AJ79" s="116"/>
+      <c r="AK79" s="116"/>
+      <c r="AL79" s="116"/>
+      <c r="AM79" s="116"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="115"/>
-      <c r="F80" s="115"/>
-      <c r="G80" s="115"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="115"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="115"/>
-      <c r="L80" s="115"/>
-      <c r="M80" s="115"/>
-      <c r="N80" s="115"/>
-      <c r="O80" s="115"/>
-      <c r="P80" s="115"/>
-      <c r="Q80" s="115"/>
-      <c r="R80" s="115"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="118"/>
+      <c r="J80" s="118"/>
+      <c r="K80" s="118"/>
+      <c r="L80" s="118"/>
+      <c r="M80" s="118"/>
+      <c r="N80" s="118"/>
+      <c r="O80" s="118"/>
+      <c r="P80" s="118"/>
+      <c r="Q80" s="118"/>
+      <c r="R80" s="118"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="81" t="s">
+      <c r="T80" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="81"/>
-      <c r="V80" s="81"/>
-      <c r="W80" s="81"/>
-      <c r="X80" s="81">
+      <c r="U80" s="102"/>
+      <c r="V80" s="102"/>
+      <c r="W80" s="102"/>
+      <c r="X80" s="102">
         <v>1</v>
       </c>
-      <c r="Y80" s="81"/>
-      <c r="Z80" s="116"/>
-      <c r="AA80" s="116"/>
-      <c r="AB80" s="116"/>
-      <c r="AC80" s="81"/>
-      <c r="AD80" s="81"/>
-      <c r="AE80" s="81"/>
-      <c r="AF80" s="81"/>
-      <c r="AG80" s="113"/>
-      <c r="AH80" s="113"/>
-      <c r="AI80" s="113"/>
-      <c r="AJ80" s="113"/>
-      <c r="AK80" s="113"/>
-      <c r="AL80" s="113"/>
-      <c r="AM80" s="113"/>
+      <c r="Y80" s="102"/>
+      <c r="Z80" s="117"/>
+      <c r="AA80" s="117"/>
+      <c r="AB80" s="117"/>
+      <c r="AC80" s="102"/>
+      <c r="AD80" s="102"/>
+      <c r="AE80" s="102"/>
+      <c r="AF80" s="102"/>
+      <c r="AG80" s="116"/>
+      <c r="AH80" s="116"/>
+      <c r="AI80" s="116"/>
+      <c r="AJ80" s="116"/>
+      <c r="AK80" s="116"/>
+      <c r="AL80" s="116"/>
+      <c r="AM80" s="116"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="115" t="s">
+      <c r="E81" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="115"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="115" t="s">
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+      <c r="J81" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="115"/>
-      <c r="L81" s="115"/>
-      <c r="M81" s="115"/>
-      <c r="N81" s="115"/>
-      <c r="O81" s="115"/>
-      <c r="P81" s="115"/>
-      <c r="Q81" s="115"/>
-      <c r="R81" s="115"/>
+      <c r="K81" s="118"/>
+      <c r="L81" s="118"/>
+      <c r="M81" s="118"/>
+      <c r="N81" s="118"/>
+      <c r="O81" s="118"/>
+      <c r="P81" s="118"/>
+      <c r="Q81" s="118"/>
+      <c r="R81" s="118"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="81" t="s">
+      <c r="T81" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="81"/>
-      <c r="V81" s="81"/>
-      <c r="W81" s="81"/>
-      <c r="X81" s="81">
+      <c r="U81" s="102"/>
+      <c r="V81" s="102"/>
+      <c r="W81" s="102"/>
+      <c r="X81" s="102">
         <v>1</v>
       </c>
-      <c r="Y81" s="81"/>
-      <c r="Z81" s="116" t="s">
+      <c r="Y81" s="102"/>
+      <c r="Z81" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="116"/>
-      <c r="AB81" s="116"/>
-      <c r="AC81" s="81" t="s">
+      <c r="AA81" s="117"/>
+      <c r="AB81" s="117"/>
+      <c r="AC81" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="81"/>
-      <c r="AE81" s="81"/>
-      <c r="AF81" s="81"/>
-      <c r="AG81" s="113" t="s">
+      <c r="AD81" s="102"/>
+      <c r="AE81" s="102"/>
+      <c r="AF81" s="102"/>
+      <c r="AG81" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="113"/>
-      <c r="AI81" s="113"/>
-      <c r="AJ81" s="113"/>
-      <c r="AK81" s="113"/>
-      <c r="AL81" s="113"/>
-      <c r="AM81" s="113"/>
+      <c r="AH81" s="116"/>
+      <c r="AI81" s="116"/>
+      <c r="AJ81" s="116"/>
+      <c r="AK81" s="116"/>
+      <c r="AL81" s="116"/>
+      <c r="AM81" s="116"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="115"/>
-      <c r="N82" s="115"/>
-      <c r="O82" s="115"/>
-      <c r="P82" s="115"/>
-      <c r="Q82" s="115"/>
-      <c r="R82" s="115"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="118"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="118"/>
+      <c r="M82" s="118"/>
+      <c r="N82" s="118"/>
+      <c r="O82" s="118"/>
+      <c r="P82" s="118"/>
+      <c r="Q82" s="118"/>
+      <c r="R82" s="118"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="81" t="s">
+      <c r="T82" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="81"/>
-      <c r="V82" s="81"/>
-      <c r="W82" s="81"/>
-      <c r="X82" s="81">
+      <c r="U82" s="102"/>
+      <c r="V82" s="102"/>
+      <c r="W82" s="102"/>
+      <c r="X82" s="102">
         <v>1</v>
       </c>
-      <c r="Y82" s="81"/>
-      <c r="Z82" s="116"/>
-      <c r="AA82" s="116"/>
-      <c r="AB82" s="116"/>
-      <c r="AC82" s="81"/>
-      <c r="AD82" s="81"/>
-      <c r="AE82" s="81"/>
-      <c r="AF82" s="81"/>
-      <c r="AG82" s="113"/>
-      <c r="AH82" s="113"/>
-      <c r="AI82" s="113"/>
-      <c r="AJ82" s="113"/>
-      <c r="AK82" s="113"/>
-      <c r="AL82" s="113"/>
-      <c r="AM82" s="113"/>
+      <c r="Y82" s="102"/>
+      <c r="Z82" s="117"/>
+      <c r="AA82" s="117"/>
+      <c r="AB82" s="117"/>
+      <c r="AC82" s="102"/>
+      <c r="AD82" s="102"/>
+      <c r="AE82" s="102"/>
+      <c r="AF82" s="102"/>
+      <c r="AG82" s="116"/>
+      <c r="AH82" s="116"/>
+      <c r="AI82" s="116"/>
+      <c r="AJ82" s="116"/>
+      <c r="AK82" s="116"/>
+      <c r="AL82" s="116"/>
+      <c r="AM82" s="116"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="115" t="s">
+      <c r="E83" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="115" t="s">
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="118"/>
+      <c r="J83" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="115"/>
-      <c r="L83" s="115"/>
-      <c r="M83" s="115"/>
-      <c r="N83" s="115"/>
-      <c r="O83" s="115"/>
-      <c r="P83" s="115"/>
-      <c r="Q83" s="115"/>
-      <c r="R83" s="115"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="118"/>
+      <c r="M83" s="118"/>
+      <c r="N83" s="118"/>
+      <c r="O83" s="118"/>
+      <c r="P83" s="118"/>
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="81" t="s">
+      <c r="T83" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="81"/>
-      <c r="V83" s="81"/>
-      <c r="W83" s="81"/>
-      <c r="X83" s="81">
+      <c r="U83" s="102"/>
+      <c r="V83" s="102"/>
+      <c r="W83" s="102"/>
+      <c r="X83" s="102">
         <v>1</v>
       </c>
-      <c r="Y83" s="81"/>
-      <c r="Z83" s="116" t="s">
+      <c r="Y83" s="102"/>
+      <c r="Z83" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="116"/>
-      <c r="AB83" s="116"/>
-      <c r="AC83" s="81" t="s">
+      <c r="AA83" s="117"/>
+      <c r="AB83" s="117"/>
+      <c r="AC83" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="81"/>
-      <c r="AE83" s="81"/>
-      <c r="AF83" s="81"/>
-      <c r="AG83" s="113" t="s">
+      <c r="AD83" s="102"/>
+      <c r="AE83" s="102"/>
+      <c r="AF83" s="102"/>
+      <c r="AG83" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="113"/>
-      <c r="AI83" s="113"/>
-      <c r="AJ83" s="113"/>
-      <c r="AK83" s="113"/>
-      <c r="AL83" s="113"/>
-      <c r="AM83" s="113"/>
+      <c r="AH83" s="116"/>
+      <c r="AI83" s="116"/>
+      <c r="AJ83" s="116"/>
+      <c r="AK83" s="116"/>
+      <c r="AL83" s="116"/>
+      <c r="AM83" s="116"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="115"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
-      <c r="M84" s="115"/>
-      <c r="N84" s="115"/>
-      <c r="O84" s="115"/>
-      <c r="P84" s="115"/>
-      <c r="Q84" s="115"/>
-      <c r="R84" s="115"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="118"/>
+      <c r="K84" s="118"/>
+      <c r="L84" s="118"/>
+      <c r="M84" s="118"/>
+      <c r="N84" s="118"/>
+      <c r="O84" s="118"/>
+      <c r="P84" s="118"/>
+      <c r="Q84" s="118"/>
+      <c r="R84" s="118"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="81" t="s">
+      <c r="T84" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="81"/>
-      <c r="V84" s="81"/>
-      <c r="W84" s="81"/>
-      <c r="X84" s="81">
+      <c r="U84" s="102"/>
+      <c r="V84" s="102"/>
+      <c r="W84" s="102"/>
+      <c r="X84" s="102">
         <v>1</v>
       </c>
-      <c r="Y84" s="81"/>
-      <c r="Z84" s="116"/>
-      <c r="AA84" s="116"/>
-      <c r="AB84" s="116"/>
-      <c r="AC84" s="81"/>
-      <c r="AD84" s="81"/>
-      <c r="AE84" s="81"/>
-      <c r="AF84" s="81"/>
-      <c r="AG84" s="113"/>
-      <c r="AH84" s="113"/>
-      <c r="AI84" s="113"/>
-      <c r="AJ84" s="113"/>
-      <c r="AK84" s="113"/>
-      <c r="AL84" s="113"/>
-      <c r="AM84" s="113"/>
+      <c r="Y84" s="102"/>
+      <c r="Z84" s="117"/>
+      <c r="AA84" s="117"/>
+      <c r="AB84" s="117"/>
+      <c r="AC84" s="102"/>
+      <c r="AD84" s="102"/>
+      <c r="AE84" s="102"/>
+      <c r="AF84" s="102"/>
+      <c r="AG84" s="116"/>
+      <c r="AH84" s="116"/>
+      <c r="AI84" s="116"/>
+      <c r="AJ84" s="116"/>
+      <c r="AK84" s="116"/>
+      <c r="AL84" s="116"/>
+      <c r="AM84" s="116"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="115" t="s">
+      <c r="E85" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="115"/>
-      <c r="G85" s="115"/>
-      <c r="H85" s="115"/>
-      <c r="I85" s="115"/>
-      <c r="J85" s="115" t="s">
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="115"/>
-      <c r="L85" s="115"/>
-      <c r="M85" s="115"/>
-      <c r="N85" s="115"/>
-      <c r="O85" s="115"/>
-      <c r="P85" s="115"/>
-      <c r="Q85" s="115"/>
-      <c r="R85" s="115"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118"/>
+      <c r="M85" s="118"/>
+      <c r="N85" s="118"/>
+      <c r="O85" s="118"/>
+      <c r="P85" s="118"/>
+      <c r="Q85" s="118"/>
+      <c r="R85" s="118"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="81" t="s">
+      <c r="T85" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="81"/>
-      <c r="V85" s="81"/>
-      <c r="W85" s="81"/>
-      <c r="X85" s="81">
+      <c r="U85" s="102"/>
+      <c r="V85" s="102"/>
+      <c r="W85" s="102"/>
+      <c r="X85" s="102">
         <v>1</v>
       </c>
-      <c r="Y85" s="81"/>
-      <c r="Z85" s="116" t="s">
+      <c r="Y85" s="102"/>
+      <c r="Z85" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="116"/>
-      <c r="AB85" s="116"/>
-      <c r="AC85" s="81" t="s">
+      <c r="AA85" s="117"/>
+      <c r="AB85" s="117"/>
+      <c r="AC85" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="81"/>
-      <c r="AE85" s="81"/>
-      <c r="AF85" s="81"/>
-      <c r="AG85" s="113" t="s">
+      <c r="AD85" s="102"/>
+      <c r="AE85" s="102"/>
+      <c r="AF85" s="102"/>
+      <c r="AG85" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="113"/>
-      <c r="AI85" s="113"/>
-      <c r="AJ85" s="113"/>
-      <c r="AK85" s="113"/>
-      <c r="AL85" s="113"/>
-      <c r="AM85" s="113"/>
+      <c r="AH85" s="116"/>
+      <c r="AI85" s="116"/>
+      <c r="AJ85" s="116"/>
+      <c r="AK85" s="116"/>
+      <c r="AL85" s="116"/>
+      <c r="AM85" s="116"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="115"/>
-      <c r="L86" s="115"/>
-      <c r="M86" s="115"/>
-      <c r="N86" s="115"/>
-      <c r="O86" s="115"/>
-      <c r="P86" s="115"/>
-      <c r="Q86" s="115"/>
-      <c r="R86" s="115"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+      <c r="J86" s="118"/>
+      <c r="K86" s="118"/>
+      <c r="L86" s="118"/>
+      <c r="M86" s="118"/>
+      <c r="N86" s="118"/>
+      <c r="O86" s="118"/>
+      <c r="P86" s="118"/>
+      <c r="Q86" s="118"/>
+      <c r="R86" s="118"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="81" t="s">
+      <c r="T86" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="81"/>
-      <c r="V86" s="81"/>
-      <c r="W86" s="81"/>
-      <c r="X86" s="81">
+      <c r="U86" s="102"/>
+      <c r="V86" s="102"/>
+      <c r="W86" s="102"/>
+      <c r="X86" s="102">
         <v>1</v>
       </c>
-      <c r="Y86" s="81"/>
-      <c r="Z86" s="116"/>
-      <c r="AA86" s="116"/>
-      <c r="AB86" s="116"/>
-      <c r="AC86" s="81"/>
-      <c r="AD86" s="81"/>
-      <c r="AE86" s="81"/>
-      <c r="AF86" s="81"/>
-      <c r="AG86" s="113"/>
-      <c r="AH86" s="113"/>
-      <c r="AI86" s="113"/>
-      <c r="AJ86" s="113"/>
-      <c r="AK86" s="113"/>
-      <c r="AL86" s="113"/>
-      <c r="AM86" s="113"/>
+      <c r="Y86" s="102"/>
+      <c r="Z86" s="117"/>
+      <c r="AA86" s="117"/>
+      <c r="AB86" s="117"/>
+      <c r="AC86" s="102"/>
+      <c r="AD86" s="102"/>
+      <c r="AE86" s="102"/>
+      <c r="AF86" s="102"/>
+      <c r="AG86" s="116"/>
+      <c r="AH86" s="116"/>
+      <c r="AI86" s="116"/>
+      <c r="AJ86" s="116"/>
+      <c r="AK86" s="116"/>
+      <c r="AL86" s="116"/>
+      <c r="AM86" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -27042,6 +27444,112 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27051,6 +27559,567 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC87270-CDD9-4CA1-BAE4-DF5BDD56D058}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="46.875" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.25" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="23" style="50" customWidth="1"/>
+    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="H1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="134" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="134" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"#"&amp;B2</f>
+        <v>#除雪DB</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"self.EnvData."&amp;B4</f>
+        <v>self.EnvData.DB_JYOSETU</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="str">
+        <f>B4&amp;"="&amp;B3</f>
+        <v>DB_JYOSETU=Jyosetu</v>
+      </c>
+      <c r="H4" t="str">
+        <f>C4</f>
+        <v>DB_JYOSETU=Jyosetu</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"self.EnvData."&amp;B18</f>
+        <v>self.EnvData.DB_TBL_COMMAND</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="50" t="str">
+        <f>REPT(" ",J6)&amp;"#変数の初期設定"</f>
+        <v>#変数の初期設定</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50" t="str">
+        <f>REPT(" ",J7)&amp;"now = datetime.now()"</f>
+        <v>now = datetime.now()</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="50" t="str">
+        <f>REPT(" ",J8)&amp;"now_time = now.strftime('%Y-%m-%d %H:%M:%S.%f')[:-3]"</f>
+        <v>now_time = now.strftime('%Y-%m-%d %H:%M:%S.%f')[:-3]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="50" t="str">
+        <f>REPT(" ",J9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <f>REPT(" ",J10)&amp;L3&amp;" = (f""{os.getenv('DB_JYOSETU')}_{now_time}.db"")"</f>
+        <v>self.EnvData.DB_JYOSETU = (f"{os.getenv('DB_JYOSETU')}_{now_time}.db")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="50" t="str">
+        <f>REPT(" ",J11)&amp;B18 &amp; " = os.getenv('"&amp;B18&amp;"')"</f>
+        <v>DB_TBL_COMMAND = os.getenv('DB_TBL_COMMAND')</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50" t="str">
+        <f>REPT(" ",J12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="50" t="str">
+        <f>REPT(" ",J13)&amp;"try:"</f>
+        <v>try:</v>
+      </c>
+      <c r="L13" s="53"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="50" t="str">
+        <f>REPT(" ",J14)&amp;L1 &amp; " = " &amp; "sqlite3.connect("&amp;L3&amp;")"</f>
+        <v xml:space="preserve">    ConJyosetu = sqlite3.connect(self.EnvData.DB_JYOSETU)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" s="50" t="str">
+        <f>REPT(" ",J15)&amp;L2&amp;" = "&amp;L1&amp;".cursor()"</f>
+        <v xml:space="preserve">    CurJyosetu = ConJyosetu.cursor()</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="134" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="50" t="str">
+        <f>REPT(" ",J16)</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="134" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" t="str">
+        <f>"#"&amp;B16</f>
+        <v>#操作情報テーブル</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="135" t="str">
+        <f>REPT(" ",J17)&amp;"#テーブル作成SQL"</f>
+        <v xml:space="preserve">    #テーブル作成SQL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" t="str">
+        <f>B18&amp;"="&amp;B17</f>
+        <v>DB_TBL_COMMAND=TBL_COMMAND</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" t="str">
+        <f>C18</f>
+        <v>DB_TBL_COMMAND=TBL_COMMAND</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" s="135" t="str">
+        <f>REPT(" ",J18)&amp;L2&amp;".execute(f'''"</f>
+        <v xml:space="preserve">    CurJyosetu.execute(f'''</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="50" t="str">
+        <f>REPT(" ",J19)&amp;"CREATE TABLE IF NOT EXISTS {" &amp; L4 &amp; "} "</f>
+        <v xml:space="preserve">    CREATE TABLE IF NOT EXISTS {self.EnvData.DB_TBL_COMMAND} </v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" s="50" t="str">
+        <f>REPT(" ",J20)&amp;"("</f>
+        <v xml:space="preserve">    (</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" s="50" t="str">
+        <f>REPT(" ",J21)&amp;B21&amp; " " &amp; C21&amp;" "&amp;D21&amp;IF(K22="",")''')",",")</f>
+        <v xml:space="preserve">    ID INTEGER PRIMARY KEY AUTOINCREMENT,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" s="50" t="str">
+        <f>REPT(" ",J22)&amp;B22&amp; " " &amp; C22&amp;" "&amp;D22&amp;IF(A23="",")''')",",")</f>
+        <v xml:space="preserve">    Type TEXT ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="50" t="str">
+        <f>REPT(" ",J23)&amp;B23&amp; " " &amp; C23&amp;" "&amp;D23&amp;IF(A24="",")''')",",")</f>
+        <v xml:space="preserve">    Command TEXT ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" s="50" t="str">
+        <f>REPT(" ",J24)&amp;B24&amp; " " &amp; C24&amp;" "&amp;D24&amp;IF(A26="",")''')",",")</f>
+        <v xml:space="preserve">    Quantity INTEGER ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="50" t="str">
+        <f>REPT(" ",J25)&amp;B25&amp; " " &amp; C25&amp;" "&amp;D25&amp;IF(A26="",")''')",",")</f>
+        <v xml:space="preserve">    SendTime TEXT ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="50" t="str">
+        <f>REPT(" ",J26)&amp;B26&amp; " " &amp; C26&amp;" "&amp;D26&amp;IF(A27="",")''')",",")</f>
+        <v xml:space="preserve">    RecTime TEXT ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27" s="50" t="str">
+        <f>REPT(" ",J27)&amp;B27&amp; " " &amp; C27&amp;" "&amp;D27&amp;IF(A28="",")''')",",")</f>
+        <v xml:space="preserve">    ExecFlag INTEGER ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" s="50" t="str">
+        <f>REPT(" ",J28)&amp;B28&amp; " " &amp; C28&amp;" "&amp;D28&amp;IF(A29="",")''')",",")</f>
+        <v xml:space="preserve">    ExecDate TEXT )''')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" s="50" t="str">
+        <f>REPT(" ",J29)</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30" s="135" t="str">
+        <f>REPT(" ",J30)</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="50" t="str">
+        <f>REPT(" ",J31)&amp;L$1&amp;".commit()"</f>
+        <v xml:space="preserve">    ConJyosetu.commit()</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="50" t="str">
+        <f>REPT(" ",J32)&amp;"except sqlite3.Error as e:"</f>
+        <v>except sqlite3.Error as e:</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" s="135" t="str">
+        <f>REPT(" ",J33)&amp;"HandleError(e)"</f>
+        <v xml:space="preserve">    HandleError(e)</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="135" t="str">
+        <f>REPT(" ",J34)&amp;"finally:"</f>
+        <v>finally:</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" s="50" t="str">
+        <f>REPT(" ",J36)&amp;"if "&amp;L1&amp;":"</f>
+        <v xml:space="preserve">    if ConJyosetu:</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37" s="50" t="str">
+        <f>REPT(" ",J37)&amp;L$2&amp;".close()"</f>
+        <v xml:space="preserve">        CurJyosetu.close()</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47250975-5009-4B5E-A302-B2E11DD953E7}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -27058,7 +28127,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -27070,8 +28139,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="50.5">
-      <c r="A3" s="132" t="s">
+    <row r="3" spans="1:1" ht="49.5">
+      <c r="A3" s="83" t="s">
         <v>321</v>
       </c>
     </row>
@@ -27081,7 +28150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E417801-9B9B-48AB-918D-0D0CB4603D2E}">
   <dimension ref="B2:E23"/>
   <sheetViews>
@@ -27089,9 +28158,9 @@
       <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:3" s="45" customFormat="1">
+    <row r="2" spans="2:3" s="45" customFormat="1" ht="18">
       <c r="B2" s="45">
         <v>1</v>
       </c>
@@ -27099,7 +28168,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="45" customFormat="1">
+    <row r="4" spans="2:3" s="45" customFormat="1" ht="18">
       <c r="B4" s="45">
         <v>2</v>
       </c>
@@ -27132,7 +28201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="2:3" s="45" customFormat="1">
+    <row r="15" spans="2:3" s="45" customFormat="1" ht="18">
       <c r="B15" s="45">
         <v>3</v>
       </c>
@@ -27145,7 +28214,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="45" customFormat="1">
+    <row r="19" spans="2:5" s="45" customFormat="1" ht="18">
       <c r="B19" s="45">
         <v>4</v>
       </c>
@@ -27184,17 +28253,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
   <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="46"/>
+    <col min="1" max="1" width="4.375" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="43" customFormat="1">
@@ -27268,368 +28337,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="125"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="125"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="125"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="125"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="125"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="125"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
     </row>
     <row r="23" spans="1:27">
       <c r="B23" s="46"/>
@@ -27640,44 +28709,44 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32"/>
@@ -27865,424 +28934,424 @@
     <row r="41" spans="1:27">
       <c r="A41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
-      <c r="T41" s="125"/>
-      <c r="U41" s="125"/>
-      <c r="V41" s="125"/>
-      <c r="W41" s="125"/>
-      <c r="X41" s="125"/>
-      <c r="Y41" s="125"/>
-      <c r="Z41" s="125"/>
-      <c r="AA41" s="125"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="132"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="132"/>
+      <c r="Y41" s="132"/>
+      <c r="Z41" s="132"/>
+      <c r="AA41" s="132"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="125"/>
-      <c r="U42" s="125"/>
-      <c r="V42" s="125"/>
-      <c r="W42" s="125"/>
-      <c r="X42" s="125"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="125"/>
-      <c r="AA42" s="125"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="132"/>
+      <c r="S42" s="132"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="132"/>
+      <c r="X42" s="132"/>
+      <c r="Y42" s="132"/>
+      <c r="Z42" s="132"/>
+      <c r="AA42" s="132"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43"/>
       <c r="C43" s="46"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="125"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="125"/>
-      <c r="W43" s="125"/>
-      <c r="X43" s="125"/>
-      <c r="Y43" s="125"/>
-      <c r="Z43" s="125"/>
-      <c r="AA43" s="125"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="132"/>
+      <c r="R43" s="132"/>
+      <c r="S43" s="132"/>
+      <c r="T43" s="132"/>
+      <c r="U43" s="132"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="132"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="125"/>
-      <c r="S44" s="125"/>
-      <c r="T44" s="125"/>
-      <c r="U44" s="125"/>
-      <c r="V44" s="125"/>
-      <c r="W44" s="125"/>
-      <c r="X44" s="125"/>
-      <c r="Y44" s="125"/>
-      <c r="Z44" s="125"/>
-      <c r="AA44" s="125"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="132"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="132"/>
+      <c r="U44" s="132"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="132"/>
+      <c r="Z44" s="132"/>
+      <c r="AA44" s="132"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45"/>
       <c r="C45" s="46"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="125"/>
-      <c r="V45" s="125"/>
-      <c r="W45" s="125"/>
-      <c r="X45" s="125"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="125"/>
-      <c r="AA45" s="125"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="132"/>
+      <c r="R45" s="132"/>
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="125"/>
-      <c r="T46" s="125"/>
-      <c r="U46" s="125"/>
-      <c r="V46" s="125"/>
-      <c r="W46" s="125"/>
-      <c r="X46" s="125"/>
-      <c r="Y46" s="125"/>
-      <c r="Z46" s="125"/>
-      <c r="AA46" s="125"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="132"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="132"/>
+      <c r="X46" s="132"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="132"/>
+      <c r="AA46" s="132"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="125"/>
-      <c r="S47" s="125"/>
-      <c r="T47" s="125"/>
-      <c r="U47" s="125"/>
-      <c r="V47" s="125"/>
-      <c r="W47" s="125"/>
-      <c r="X47" s="125"/>
-      <c r="Y47" s="125"/>
-      <c r="Z47" s="125"/>
-      <c r="AA47" s="125"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="132"/>
+      <c r="T47" s="132"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="132"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48"/>
       <c r="C48" s="46"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="125"/>
-      <c r="S48" s="125"/>
-      <c r="T48" s="125"/>
-      <c r="U48" s="125"/>
-      <c r="V48" s="125"/>
-      <c r="W48" s="125"/>
-      <c r="X48" s="125"/>
-      <c r="Y48" s="125"/>
-      <c r="Z48" s="125"/>
-      <c r="AA48" s="125"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="132"/>
+      <c r="Q48" s="132"/>
+      <c r="R48" s="132"/>
+      <c r="S48" s="132"/>
+      <c r="T48" s="132"/>
+      <c r="U48" s="132"/>
+      <c r="V48" s="132"/>
+      <c r="W48" s="132"/>
+      <c r="X48" s="132"/>
+      <c r="Y48" s="132"/>
+      <c r="Z48" s="132"/>
+      <c r="AA48" s="132"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49"/>
       <c r="C49" s="46"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="125"/>
-      <c r="R49" s="125"/>
-      <c r="S49" s="125"/>
-      <c r="T49" s="125"/>
-      <c r="U49" s="125"/>
-      <c r="V49" s="125"/>
-      <c r="W49" s="125"/>
-      <c r="X49" s="125"/>
-      <c r="Y49" s="125"/>
-      <c r="Z49" s="125"/>
-      <c r="AA49" s="125"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="132"/>
+      <c r="T49" s="132"/>
+      <c r="U49" s="132"/>
+      <c r="V49" s="132"/>
+      <c r="W49" s="132"/>
+      <c r="X49" s="132"/>
+      <c r="Y49" s="132"/>
+      <c r="Z49" s="132"/>
+      <c r="AA49" s="132"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="125"/>
-      <c r="S50" s="125"/>
-      <c r="T50" s="125"/>
-      <c r="U50" s="125"/>
-      <c r="V50" s="125"/>
-      <c r="W50" s="125"/>
-      <c r="X50" s="125"/>
-      <c r="Y50" s="125"/>
-      <c r="Z50" s="125"/>
-      <c r="AA50" s="125"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="132"/>
+      <c r="P50" s="132"/>
+      <c r="Q50" s="132"/>
+      <c r="R50" s="132"/>
+      <c r="S50" s="132"/>
+      <c r="T50" s="132"/>
+      <c r="U50" s="132"/>
+      <c r="V50" s="132"/>
+      <c r="W50" s="132"/>
+      <c r="X50" s="132"/>
+      <c r="Y50" s="132"/>
+      <c r="Z50" s="132"/>
+      <c r="AA50" s="132"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125"/>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="125"/>
-      <c r="S51" s="125"/>
-      <c r="T51" s="125"/>
-      <c r="U51" s="125"/>
-      <c r="V51" s="125"/>
-      <c r="W51" s="125"/>
-      <c r="X51" s="125"/>
-      <c r="Y51" s="125"/>
-      <c r="Z51" s="125"/>
-      <c r="AA51" s="125"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="132"/>
+      <c r="T51" s="132"/>
+      <c r="U51" s="132"/>
+      <c r="V51" s="132"/>
+      <c r="W51" s="132"/>
+      <c r="X51" s="132"/>
+      <c r="Y51" s="132"/>
+      <c r="Z51" s="132"/>
+      <c r="AA51" s="132"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="125"/>
-      <c r="U52" s="125"/>
-      <c r="V52" s="125"/>
-      <c r="W52" s="125"/>
-      <c r="X52" s="125"/>
-      <c r="Y52" s="125"/>
-      <c r="Z52" s="125"/>
-      <c r="AA52" s="125"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132"/>
+      <c r="R52" s="132"/>
+      <c r="S52" s="132"/>
+      <c r="T52" s="132"/>
+      <c r="U52" s="132"/>
+      <c r="V52" s="132"/>
+      <c r="W52" s="132"/>
+      <c r="X52" s="132"/>
+      <c r="Y52" s="132"/>
+      <c r="Z52" s="132"/>
+      <c r="AA52" s="132"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="125"/>
-      <c r="S53" s="125"/>
-      <c r="T53" s="125"/>
-      <c r="U53" s="125"/>
-      <c r="V53" s="125"/>
-      <c r="W53" s="125"/>
-      <c r="X53" s="125"/>
-      <c r="Y53" s="125"/>
-      <c r="Z53" s="125"/>
-      <c r="AA53" s="125"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="132"/>
+      <c r="R53" s="132"/>
+      <c r="S53" s="132"/>
+      <c r="T53" s="132"/>
+      <c r="U53" s="132"/>
+      <c r="V53" s="132"/>
+      <c r="W53" s="132"/>
+      <c r="X53" s="132"/>
+      <c r="Y53" s="132"/>
+      <c r="Z53" s="132"/>
+      <c r="AA53" s="132"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="125"/>
-      <c r="T54" s="125"/>
-      <c r="U54" s="125"/>
-      <c r="V54" s="125"/>
-      <c r="W54" s="125"/>
-      <c r="X54" s="125"/>
-      <c r="Y54" s="125"/>
-      <c r="Z54" s="125"/>
-      <c r="AA54" s="125"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
+      <c r="S54" s="132"/>
+      <c r="T54" s="132"/>
+      <c r="U54" s="132"/>
+      <c r="V54" s="132"/>
+      <c r="W54" s="132"/>
+      <c r="X54" s="132"/>
+      <c r="Y54" s="132"/>
+      <c r="Z54" s="132"/>
+      <c r="AA54" s="132"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55"/>
       <c r="C55" s="46"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="125"/>
-      <c r="T55" s="125"/>
-      <c r="U55" s="125"/>
-      <c r="V55" s="125"/>
-      <c r="W55" s="125"/>
-      <c r="X55" s="125"/>
-      <c r="Y55" s="125"/>
-      <c r="Z55" s="125"/>
-      <c r="AA55" s="125"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
+      <c r="S55" s="132"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="132"/>
+      <c r="V55" s="132"/>
+      <c r="W55" s="132"/>
+      <c r="X55" s="132"/>
+      <c r="Y55" s="132"/>
+      <c r="Z55" s="132"/>
+      <c r="AA55" s="132"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="46"/>
@@ -28437,10 +29506,10 @@
       <c r="E75" t="s">
         <v>236</v>
       </c>
-      <c r="H75" s="94" t="s">
+      <c r="H75" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="I75" s="96"/>
+      <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:36">
       <c r="B76" s="46"/>
@@ -28474,23 +29543,23 @@
     <row r="78" spans="1:36">
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
-      <c r="E78" s="120" t="str">
+      <c r="E78" s="121" t="str">
         <f>"--video-device " &amp; TRIM(M78)</f>
         <v>--video-device /dev/video0</v>
       </c>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="121"/>
-      <c r="K78" s="122"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="122"/>
+      <c r="H78" s="122"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="122"/>
+      <c r="K78" s="123"/>
       <c r="L78" s="50"/>
-      <c r="M78" s="117" t="s">
+      <c r="M78" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="N78" s="118"/>
-      <c r="O78" s="118"/>
-      <c r="P78" s="119"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="127"/>
       <c r="Q78" s="47">
         <v>0</v>
       </c>
@@ -28503,19 +29572,19 @@
       <c r="T78" s="80">
         <v>3</v>
       </c>
-      <c r="V78" s="123" t="s">
+      <c r="V78" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="W78" s="121"/>
-      <c r="X78" s="122"/>
-      <c r="Z78" s="94" t="s">
+      <c r="W78" s="122"/>
+      <c r="X78" s="123"/>
+      <c r="Z78" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="AA78" s="96"/>
-      <c r="AC78" s="94">
+      <c r="AA78" s="115"/>
+      <c r="AC78" s="113">
         <v>51001</v>
       </c>
-      <c r="AD78" s="96"/>
+      <c r="AD78" s="115"/>
       <c r="AE78" s="53"/>
       <c r="AF78" s="64" t="s">
         <v>294</v>
@@ -28529,23 +29598,23 @@
     <row r="79" spans="1:36">
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
-      <c r="E79" s="120" t="str">
+      <c r="E79" s="121" t="str">
         <f t="shared" ref="E79:E82" si="3">"--video-device " &amp; TRIM(M79)</f>
         <v>--video-device /dev/video8</v>
       </c>
-      <c r="F79" s="121"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="121"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="121"/>
-      <c r="K79" s="122"/>
+      <c r="F79" s="122"/>
+      <c r="G79" s="122"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="122"/>
+      <c r="J79" s="122"/>
+      <c r="K79" s="123"/>
       <c r="L79" s="50"/>
-      <c r="M79" s="117" t="s">
+      <c r="M79" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="N79" s="118"/>
-      <c r="O79" s="118"/>
-      <c r="P79" s="119"/>
+      <c r="N79" s="126"/>
+      <c r="O79" s="126"/>
+      <c r="P79" s="127"/>
       <c r="Q79" s="47">
         <v>8</v>
       </c>
@@ -28558,19 +29627,19 @@
       <c r="T79" s="80">
         <v>19</v>
       </c>
-      <c r="V79" s="123" t="s">
+      <c r="V79" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="W79" s="121"/>
-      <c r="X79" s="122"/>
-      <c r="Z79" s="94" t="s">
+      <c r="W79" s="122"/>
+      <c r="X79" s="123"/>
+      <c r="Z79" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="AA79" s="96"/>
-      <c r="AC79" s="94">
+      <c r="AA79" s="115"/>
+      <c r="AC79" s="113">
         <v>51002</v>
       </c>
-      <c r="AD79" s="96"/>
+      <c r="AD79" s="115"/>
       <c r="AE79" s="53"/>
       <c r="AF79" s="64" t="s">
         <v>294</v>
@@ -28584,23 +29653,23 @@
     <row r="80" spans="1:36">
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
-      <c r="E80" s="120" t="str">
+      <c r="E80" s="121" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video30</v>
       </c>
-      <c r="F80" s="121"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="121"/>
-      <c r="I80" s="121"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="122"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="123"/>
       <c r="L80" s="50"/>
-      <c r="M80" s="117" t="s">
+      <c r="M80" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="N80" s="118"/>
-      <c r="O80" s="118"/>
-      <c r="P80" s="119"/>
+      <c r="N80" s="126"/>
+      <c r="O80" s="126"/>
+      <c r="P80" s="127"/>
       <c r="Q80" s="47">
         <v>28</v>
       </c>
@@ -28613,19 +29682,19 @@
       <c r="T80" s="80">
         <v>32</v>
       </c>
-      <c r="V80" s="123" t="s">
+      <c r="V80" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="W80" s="121"/>
-      <c r="X80" s="122"/>
-      <c r="Z80" s="94" t="s">
+      <c r="W80" s="122"/>
+      <c r="X80" s="123"/>
+      <c r="Z80" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="AA80" s="96"/>
-      <c r="AC80" s="94">
+      <c r="AA80" s="115"/>
+      <c r="AC80" s="113">
         <v>51003</v>
       </c>
-      <c r="AD80" s="96"/>
+      <c r="AD80" s="115"/>
       <c r="AE80" s="53"/>
       <c r="AF80" s="64" t="s">
         <v>294</v>
@@ -28639,23 +29708,23 @@
     <row r="81" spans="2:36">
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
-      <c r="E81" s="120" t="str">
+      <c r="E81" s="121" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video4</v>
       </c>
-      <c r="F81" s="121"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="121"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="121"/>
-      <c r="K81" s="122"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="122"/>
+      <c r="J81" s="122"/>
+      <c r="K81" s="123"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="117" t="s">
+      <c r="M81" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="119"/>
+      <c r="N81" s="126"/>
+      <c r="O81" s="126"/>
+      <c r="P81" s="127"/>
       <c r="Q81" s="47">
         <v>4</v>
       </c>
@@ -28668,19 +29737,19 @@
       <c r="T81" s="80">
         <v>7</v>
       </c>
-      <c r="V81" s="123" t="s">
+      <c r="V81" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="W81" s="121"/>
-      <c r="X81" s="122"/>
-      <c r="Z81" s="94" t="s">
+      <c r="W81" s="122"/>
+      <c r="X81" s="123"/>
+      <c r="Z81" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="AA81" s="96"/>
-      <c r="AC81" s="94">
+      <c r="AA81" s="115"/>
+      <c r="AC81" s="113">
         <v>51004</v>
       </c>
-      <c r="AD81" s="96"/>
+      <c r="AD81" s="115"/>
       <c r="AE81" s="53"/>
       <c r="AF81" s="64" t="s">
         <v>294</v>
@@ -28694,23 +29763,23 @@
     <row r="82" spans="2:36">
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
-      <c r="E82" s="120" t="str">
+      <c r="E82" s="121" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video24</v>
       </c>
-      <c r="F82" s="121"/>
-      <c r="G82" s="121"/>
-      <c r="H82" s="121"/>
-      <c r="I82" s="121"/>
-      <c r="J82" s="121"/>
-      <c r="K82" s="122"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="122"/>
+      <c r="K82" s="123"/>
       <c r="L82" s="50"/>
-      <c r="M82" s="117" t="s">
+      <c r="M82" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="N82" s="118"/>
-      <c r="O82" s="118"/>
-      <c r="P82" s="119"/>
+      <c r="N82" s="126"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="127"/>
       <c r="Q82" s="80">
         <v>24</v>
       </c>
@@ -28723,19 +29792,19 @@
       <c r="T82" s="80">
         <v>27</v>
       </c>
-      <c r="V82" s="123" t="s">
+      <c r="V82" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="W82" s="121"/>
-      <c r="X82" s="122"/>
-      <c r="Z82" s="94" t="s">
+      <c r="W82" s="122"/>
+      <c r="X82" s="123"/>
+      <c r="Z82" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="AA82" s="96"/>
-      <c r="AC82" s="94">
+      <c r="AA82" s="115"/>
+      <c r="AC82" s="113">
         <v>51005</v>
       </c>
-      <c r="AD82" s="96"/>
+      <c r="AD82" s="115"/>
       <c r="AE82" s="53"/>
       <c r="AF82" s="64" t="s">
         <v>294</v>
@@ -28751,8 +29820,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="2:36" ht="18.5" thickBot="1"/>
-    <row r="87" spans="2:36" ht="18.5" thickBot="1">
+    <row r="86" spans="2:36" ht="19.5" thickBot="1"/>
+    <row r="87" spans="2:36" ht="19.5" thickBot="1">
       <c r="E87" s="73" t="str">
         <f>$H$75&amp;" "&amp;V78&amp;" "&amp;E78&amp;" --resolution "&amp;AF78&amp;" "&amp;Z78&amp;" "&amp;"--port "&amp;AC78 &amp; " " &amp;AI78</f>
         <v>./momo --no-audio-device --video-device /dev/video0 --resolution QVGA test --port 51001 &amp;</v>
@@ -28777,7 +29846,7 @@
       <c r="W87" s="74"/>
       <c r="X87" s="75"/>
     </row>
-    <row r="88" spans="2:36" ht="18.5" thickBot="1">
+    <row r="88" spans="2:36" ht="19.5" thickBot="1">
       <c r="E88" s="73" t="str">
         <f>$H$75&amp;" "&amp;V79&amp;" "&amp;E79&amp;" --resolution "&amp;AF79&amp;" "&amp;Z79&amp;" "&amp;"--port "&amp;AC79 &amp; " " &amp;AI79</f>
         <v>./momo --no-audio-device --video-device /dev/video8 --resolution QVGA test --port 51002 &amp;</v>
@@ -28802,7 +29871,7 @@
       <c r="W88" s="74"/>
       <c r="X88" s="75"/>
     </row>
-    <row r="89" spans="2:36" ht="18.5" thickBot="1">
+    <row r="89" spans="2:36" ht="19.5" thickBot="1">
       <c r="E89" s="73" t="str">
         <f>$H$75&amp;" "&amp;V80&amp;" "&amp;E80&amp;" --resolution "&amp;AF80&amp;" "&amp;Z80&amp;" "&amp;"--port "&amp;AC80 &amp; " " &amp;AI80</f>
         <v>./momo --no-audio-device --video-device /dev/video30 --resolution QVGA test --port 51003 &amp;</v>
@@ -28827,7 +29896,7 @@
       <c r="W89" s="74"/>
       <c r="X89" s="75"/>
     </row>
-    <row r="90" spans="2:36" ht="18.5" thickBot="1">
+    <row r="90" spans="2:36" ht="19.5" thickBot="1">
       <c r="E90" s="73" t="str">
         <f>$H$75&amp;" "&amp;V81&amp;" "&amp;E81&amp;" --resolution "&amp;AF81&amp;" "&amp;Z81&amp;" "&amp;"--port "&amp;AC81 &amp; " " &amp;AI81</f>
         <v>./momo --no-audio-device --video-device /dev/video4 --resolution QVGA test --port 51004 &amp;</v>
@@ -28852,7 +29921,7 @@
       <c r="W90" s="74"/>
       <c r="X90" s="75"/>
     </row>
-    <row r="91" spans="2:36" ht="18.5" thickBot="1">
+    <row r="91" spans="2:36" ht="19.5" thickBot="1">
       <c r="E91" s="73" t="str">
         <f>$H$75&amp;" "&amp;V82&amp;" "&amp;E82&amp;" --resolution "&amp;AF82&amp;" "&amp;Z82&amp;" "&amp;"--port "&amp;AC82 &amp; " " &amp;AI82</f>
         <v>./momo --no-audio-device --video-device /dev/video24 --resolution QVGA test --port 51005 &amp;</v>
@@ -28922,16 +29991,16 @@
     <row r="99" spans="1:11">
       <c r="B99" s="46"/>
       <c r="C99" s="46"/>
-      <c r="D99" s="126" t="s">
+      <c r="D99" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="127"/>
-      <c r="F99" s="127"/>
-      <c r="G99" s="127"/>
-      <c r="H99" s="127"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="128"/>
+      <c r="E99" s="129"/>
+      <c r="F99" s="129"/>
+      <c r="G99" s="129"/>
+      <c r="H99" s="129"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="130"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="46"/>
@@ -28957,6 +30026,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="E82:K82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="D10:AA22"/>
+    <mergeCell ref="D41:AA55"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="E78:K78"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P82"/>
     <mergeCell ref="AC78:AD78"/>
     <mergeCell ref="AC79:AD79"/>
     <mergeCell ref="E80:K80"/>
@@ -28967,30 +30060,6 @@
     <mergeCell ref="Z78:AA78"/>
     <mergeCell ref="M78:P78"/>
     <mergeCell ref="M79:P79"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="D10:AA22"/>
-    <mergeCell ref="D41:AA55"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="E78:K78"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="E82:K82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C5B9A-5E81-48BD-81D1-1C68F9BC2A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0E036-C10F-4DAA-A12E-F2D0CF625CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="21060" windowHeight="17385" tabRatio="745" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="745" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -3369,59 +3369,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3439,6 +3392,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3465,20 +3424,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3491,6 +3498,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3508,19 +3521,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -22791,11 +22791,11 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="84" t="s">
+      <c r="T7" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="V7" s="86"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="107"/>
       <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -22881,26 +22881,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="109">
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="96">
         <v>9999</v>
       </c>
-      <c r="P10" s="109"/>
-      <c r="R10" s="108" t="s">
+      <c r="P10" s="96"/>
+      <c r="R10" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="109">
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="96">
         <v>9999</v>
       </c>
-      <c r="W10" s="109"/>
+      <c r="W10" s="96"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -22926,50 +22926,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="95" t="s">
+      <c r="AY10" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="AZ10" s="96"/>
-      <c r="BA10" s="96"/>
-      <c r="BB10" s="96"/>
-      <c r="BC10" s="97"/>
-      <c r="BL10" s="90" t="s">
+      <c r="AZ10" s="117"/>
+      <c r="BA10" s="117"/>
+      <c r="BB10" s="117"/>
+      <c r="BC10" s="118"/>
+      <c r="BL10" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="92"/>
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="110"/>
       <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT10" s="84" t="s">
+      <c r="BT10" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="BU10" s="85"/>
-      <c r="BV10" s="86"/>
+      <c r="BU10" s="94"/>
+      <c r="BV10" s="107"/>
       <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="R11" s="108" t="s">
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="R11" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -23002,24 +23002,24 @@
       <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="87" t="s">
+      <c r="AZ12" s="113" t="s">
         <v>264</v>
       </c>
-      <c r="BA12" s="88"/>
-      <c r="BB12" s="88"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="84" t="s">
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="BE12" s="86"/>
-      <c r="BF12" s="93">
+      <c r="BE12" s="107"/>
+      <c r="BF12" s="111">
         <v>50000</v>
       </c>
-      <c r="BG12" s="94"/>
-      <c r="BH12" s="84" t="s">
+      <c r="BG12" s="112"/>
+      <c r="BH12" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="BI12" s="86"/>
+      <c r="BI12" s="107"/>
       <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
@@ -23045,24 +23045,24 @@
       <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="87" t="s">
+      <c r="AZ13" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="BA13" s="88"/>
-      <c r="BB13" s="88"/>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="84" t="s">
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="115"/>
+      <c r="BD13" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="BE13" s="86"/>
-      <c r="BF13" s="93">
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="111">
         <v>50001</v>
       </c>
-      <c r="BG13" s="94"/>
-      <c r="BH13" s="84" t="s">
+      <c r="BG13" s="112"/>
+      <c r="BH13" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="BI13" s="86"/>
+      <c r="BI13" s="107"/>
       <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
@@ -23092,24 +23092,24 @@
       <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="87" t="s">
+      <c r="AZ14" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="84" t="s">
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="93">
+      <c r="BE14" s="107"/>
+      <c r="BF14" s="111">
         <v>50002</v>
       </c>
-      <c r="BG14" s="94"/>
-      <c r="BH14" s="84" t="s">
+      <c r="BG14" s="112"/>
+      <c r="BH14" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="BI14" s="86"/>
+      <c r="BI14" s="107"/>
       <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
@@ -23132,22 +23132,22 @@
       <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="88"/>
-      <c r="BB15" s="88"/>
-      <c r="BC15" s="89"/>
-      <c r="BD15" s="84" t="s">
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="115"/>
+      <c r="BD15" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="BE15" s="86"/>
-      <c r="BF15" s="93">
+      <c r="BE15" s="107"/>
+      <c r="BF15" s="111">
         <v>50003</v>
       </c>
-      <c r="BG15" s="94"/>
-      <c r="BH15" s="84" t="s">
+      <c r="BG15" s="112"/>
+      <c r="BH15" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="BI15" s="86"/>
+      <c r="BI15" s="107"/>
       <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
@@ -23168,22 +23168,22 @@
       <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="87"/>
-      <c r="BA16" s="88"/>
-      <c r="BB16" s="88"/>
-      <c r="BC16" s="89"/>
-      <c r="BD16" s="84" t="s">
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="115"/>
+      <c r="BD16" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="BE16" s="86"/>
-      <c r="BF16" s="93">
+      <c r="BE16" s="107"/>
+      <c r="BF16" s="111">
         <v>50004</v>
       </c>
-      <c r="BG16" s="94"/>
-      <c r="BH16" s="84" t="s">
+      <c r="BG16" s="112"/>
+      <c r="BH16" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="BI16" s="86"/>
+      <c r="BI16" s="107"/>
       <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
@@ -23199,9 +23199,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -23210,16 +23210,16 @@
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="87"/>
-      <c r="BA17" s="88"/>
-      <c r="BB17" s="88"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="84"/>
-      <c r="BE17" s="86"/>
-      <c r="BF17" s="93"/>
-      <c r="BG17" s="94"/>
-      <c r="BH17" s="84"/>
-      <c r="BI17" s="86"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="115"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="107"/>
+      <c r="BF17" s="111"/>
+      <c r="BG17" s="112"/>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="107"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -23236,15 +23236,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="107"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="92"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="84" t="s">
+      <c r="U18" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -23262,11 +23262,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="84" t="s">
+      <c r="S19" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -23310,33 +23310,33 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="113" t="s">
+      <c r="S21" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="114"/>
-      <c r="U21" s="115"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="102"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="90" t="s">
+      <c r="BL21" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="BM21" s="91"/>
-      <c r="BN21" s="91"/>
-      <c r="BO21" s="91"/>
-      <c r="BP21" s="91"/>
-      <c r="BQ21" s="92"/>
+      <c r="BM21" s="109"/>
+      <c r="BN21" s="109"/>
+      <c r="BO21" s="109"/>
+      <c r="BP21" s="109"/>
+      <c r="BQ21" s="110"/>
       <c r="BR21" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT21" s="84" t="s">
+      <c r="BT21" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="BU21" s="85"/>
-      <c r="BV21" s="86"/>
+      <c r="BU21" s="94"/>
+      <c r="BV21" s="107"/>
       <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
@@ -23411,12 +23411,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="110" t="s">
+      <c r="O25" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="112"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="99"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -23572,39 +23572,39 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="90" t="s">
+      <c r="AY31" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="AZ31" s="91"/>
-      <c r="BA31" s="91"/>
-      <c r="BB31" s="91"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="92"/>
+      <c r="AZ31" s="109"/>
+      <c r="BA31" s="109"/>
+      <c r="BB31" s="109"/>
+      <c r="BC31" s="109"/>
+      <c r="BD31" s="110"/>
       <c r="BE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BG31" s="84" t="s">
+      <c r="BG31" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="86"/>
+      <c r="BH31" s="94"/>
+      <c r="BI31" s="107"/>
       <c r="BK31" s="69"/>
-      <c r="BY31" s="90" t="s">
+      <c r="BY31" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="BZ31" s="91"/>
-      <c r="CA31" s="91"/>
-      <c r="CB31" s="91"/>
-      <c r="CC31" s="91"/>
-      <c r="CD31" s="92"/>
+      <c r="BZ31" s="109"/>
+      <c r="CA31" s="109"/>
+      <c r="CB31" s="109"/>
+      <c r="CC31" s="109"/>
+      <c r="CD31" s="110"/>
       <c r="CE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="CG31" s="84" t="s">
+      <c r="CG31" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="CH31" s="85"/>
-      <c r="CI31" s="86"/>
+      <c r="CH31" s="94"/>
+      <c r="CI31" s="107"/>
       <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
@@ -23683,17 +23683,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="102">
+      <c r="L34" s="87">
         <v>9999</v>
       </c>
-      <c r="M34" s="102"/>
+      <c r="M34" s="87"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="103">
+      <c r="V34" s="88">
         <v>9999</v>
       </c>
-      <c r="W34" s="104"/>
+      <c r="W34" s="89"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -23711,17 +23711,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="102">
+      <c r="L35" s="87">
         <v>9999</v>
       </c>
-      <c r="M35" s="102"/>
+      <c r="M35" s="87"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="103">
+      <c r="V35" s="88">
         <v>9999</v>
       </c>
-      <c r="W35" s="104"/>
+      <c r="W35" s="89"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -23845,22 +23845,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="90" t="s">
+      <c r="BL41" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="BM41" s="91"/>
-      <c r="BN41" s="91"/>
-      <c r="BO41" s="91"/>
-      <c r="BP41" s="91"/>
-      <c r="BQ41" s="92"/>
+      <c r="BM41" s="109"/>
+      <c r="BN41" s="109"/>
+      <c r="BO41" s="109"/>
+      <c r="BP41" s="109"/>
+      <c r="BQ41" s="110"/>
       <c r="BR41" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT41" s="84" t="s">
+      <c r="BT41" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="BU41" s="85"/>
-      <c r="BV41" s="86"/>
+      <c r="BU41" s="94"/>
+      <c r="BV41" s="107"/>
       <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
@@ -24164,55 +24164,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="100">
+      <c r="T134" s="104">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="101"/>
+      <c r="U134" s="105"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="98" t="s">
+      <c r="W134" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="98"/>
-      <c r="Y134" s="98"/>
+      <c r="X134" s="103"/>
+      <c r="Y134" s="103"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="98" t="s">
+      <c r="AA134" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="98"/>
-      <c r="AC134" s="98"/>
+      <c r="AB134" s="103"/>
+      <c r="AC134" s="103"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="99">
+      <c r="AE134" s="106">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="100"/>
+      <c r="AF134" s="104"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="100">
+      <c r="AH134" s="104">
         <v>-1</v>
       </c>
-      <c r="AI134" s="101"/>
+      <c r="AI134" s="105"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="98" t="s">
+      <c r="AK134" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="98"/>
-      <c r="AM134" s="98"/>
+      <c r="AL134" s="103"/>
+      <c r="AM134" s="103"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="98"/>
-      <c r="AP134" s="98"/>
-      <c r="AQ134" s="98"/>
+      <c r="AO134" s="103"/>
+      <c r="AP134" s="103"/>
+      <c r="AQ134" s="103"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="99"/>
-      <c r="AT134" s="100"/>
+      <c r="AS134" s="106"/>
+      <c r="AT134" s="104"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -24220,63 +24220,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="100">
+      <c r="T135" s="104">
         <v>0.5</v>
       </c>
-      <c r="U135" s="101"/>
+      <c r="U135" s="105"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="98" t="s">
+      <c r="W135" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="98"/>
-      <c r="Y135" s="98"/>
+      <c r="X135" s="103"/>
+      <c r="Y135" s="103"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="98" t="s">
+      <c r="AA135" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="98"/>
-      <c r="AC135" s="98"/>
+      <c r="AB135" s="103"/>
+      <c r="AC135" s="103"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="99">
+      <c r="AE135" s="106">
         <v>1</v>
       </c>
-      <c r="AF135" s="100"/>
+      <c r="AF135" s="104"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="100">
+      <c r="AH135" s="104">
         <v>-1</v>
       </c>
-      <c r="AI135" s="101"/>
+      <c r="AI135" s="105"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="98" t="s">
+      <c r="AK135" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="98"/>
-      <c r="AM135" s="98"/>
+      <c r="AL135" s="103"/>
+      <c r="AM135" s="103"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="98" t="s">
+      <c r="AO135" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="98"/>
-      <c r="AQ135" s="98"/>
+      <c r="AP135" s="103"/>
+      <c r="AQ135" s="103"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="99">
+      <c r="AS135" s="106">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="100"/>
+      <c r="AT135" s="104"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -24285,55 +24285,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="100">
+      <c r="T136" s="104">
         <v>1</v>
       </c>
-      <c r="U136" s="101"/>
+      <c r="U136" s="105"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="98" t="s">
+      <c r="W136" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="98"/>
-      <c r="Y136" s="98"/>
+      <c r="X136" s="103"/>
+      <c r="Y136" s="103"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="98"/>
-      <c r="AB136" s="98"/>
-      <c r="AC136" s="98"/>
+      <c r="AA136" s="103"/>
+      <c r="AB136" s="103"/>
+      <c r="AC136" s="103"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="99"/>
-      <c r="AF136" s="100"/>
+      <c r="AE136" s="106"/>
+      <c r="AF136" s="104"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="100">
+      <c r="AH136" s="104">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="101"/>
+      <c r="AI136" s="105"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="98" t="s">
+      <c r="AK136" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="98"/>
-      <c r="AM136" s="98"/>
+      <c r="AL136" s="103"/>
+      <c r="AM136" s="103"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="98" t="s">
+      <c r="AO136" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="98"/>
-      <c r="AQ136" s="98"/>
+      <c r="AP136" s="103"/>
+      <c r="AQ136" s="103"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="99">
+      <c r="AS136" s="106">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="100"/>
+      <c r="AT136" s="104"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -24347,295 +24347,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="100">
+      <c r="T137" s="104">
         <v>0.5</v>
       </c>
-      <c r="U137" s="101"/>
+      <c r="U137" s="105"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="98" t="s">
+      <c r="W137" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="98"/>
-      <c r="Y137" s="98"/>
+      <c r="X137" s="103"/>
+      <c r="Y137" s="103"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="98" t="s">
+      <c r="AA137" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="98"/>
-      <c r="AC137" s="98"/>
+      <c r="AB137" s="103"/>
+      <c r="AC137" s="103"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="99">
+      <c r="AE137" s="106">
         <v>1</v>
       </c>
-      <c r="AF137" s="100"/>
+      <c r="AF137" s="104"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="100">
+      <c r="AH137" s="104">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="101"/>
+      <c r="AI137" s="105"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="98" t="s">
+      <c r="AK137" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="98"/>
-      <c r="AM137" s="98"/>
+      <c r="AL137" s="103"/>
+      <c r="AM137" s="103"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="98" t="s">
+      <c r="AO137" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="98"/>
-      <c r="AQ137" s="98"/>
+      <c r="AP137" s="103"/>
+      <c r="AQ137" s="103"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="99">
+      <c r="AS137" s="106">
         <v>1</v>
       </c>
-      <c r="AT137" s="100"/>
+      <c r="AT137" s="104"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="100">
+      <c r="T138" s="104">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="101"/>
+      <c r="U138" s="105"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="98" t="s">
+      <c r="W138" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="98"/>
-      <c r="Y138" s="98"/>
+      <c r="X138" s="103"/>
+      <c r="Y138" s="103"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="98" t="s">
+      <c r="AA138" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="98"/>
-      <c r="AC138" s="98"/>
+      <c r="AB138" s="103"/>
+      <c r="AC138" s="103"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="99">
+      <c r="AE138" s="106">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="100"/>
+      <c r="AF138" s="104"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="100">
+      <c r="AH138" s="104">
         <v>1</v>
       </c>
-      <c r="AI138" s="101"/>
+      <c r="AI138" s="105"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="98" t="s">
+      <c r="AK138" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="98"/>
-      <c r="AM138" s="98"/>
+      <c r="AL138" s="103"/>
+      <c r="AM138" s="103"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="98"/>
-      <c r="AP138" s="98"/>
-      <c r="AQ138" s="98"/>
+      <c r="AO138" s="103"/>
+      <c r="AP138" s="103"/>
+      <c r="AQ138" s="103"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="99"/>
-      <c r="AT138" s="100"/>
+      <c r="AS138" s="106"/>
+      <c r="AT138" s="104"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="100">
+      <c r="T139" s="104">
         <v>-1</v>
       </c>
-      <c r="U139" s="101"/>
+      <c r="U139" s="105"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="98" t="s">
+      <c r="W139" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="98"/>
-      <c r="Y139" s="98"/>
+      <c r="X139" s="103"/>
+      <c r="Y139" s="103"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="98" t="s">
+      <c r="AA139" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="98"/>
-      <c r="AC139" s="98"/>
+      <c r="AB139" s="103"/>
+      <c r="AC139" s="103"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="99">
+      <c r="AE139" s="106">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="100"/>
+      <c r="AF139" s="104"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="100">
+      <c r="AH139" s="104">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="101"/>
+      <c r="AI139" s="105"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="98" t="s">
+      <c r="AK139" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="98"/>
-      <c r="AM139" s="98"/>
+      <c r="AL139" s="103"/>
+      <c r="AM139" s="103"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="98" t="s">
+      <c r="AO139" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="98"/>
-      <c r="AQ139" s="98"/>
+      <c r="AP139" s="103"/>
+      <c r="AQ139" s="103"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="99">
+      <c r="AS139" s="106">
         <v>1</v>
       </c>
-      <c r="AT139" s="100"/>
+      <c r="AT139" s="104"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="100">
+      <c r="T140" s="104">
         <v>-1</v>
       </c>
-      <c r="U140" s="101"/>
+      <c r="U140" s="105"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="98" t="s">
+      <c r="W140" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="98"/>
-      <c r="Y140" s="98"/>
+      <c r="X140" s="103"/>
+      <c r="Y140" s="103"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="98"/>
-      <c r="AB140" s="98"/>
-      <c r="AC140" s="98"/>
+      <c r="AA140" s="103"/>
+      <c r="AB140" s="103"/>
+      <c r="AC140" s="103"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="99"/>
-      <c r="AF140" s="100"/>
+      <c r="AE140" s="106"/>
+      <c r="AF140" s="104"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="100">
+      <c r="AH140" s="104">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="101"/>
+      <c r="AI140" s="105"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="98" t="s">
+      <c r="AK140" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="98"/>
-      <c r="AM140" s="98"/>
+      <c r="AL140" s="103"/>
+      <c r="AM140" s="103"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="98" t="s">
+      <c r="AO140" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="98"/>
-      <c r="AQ140" s="98"/>
+      <c r="AP140" s="103"/>
+      <c r="AQ140" s="103"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="99">
+      <c r="AS140" s="106">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="100"/>
+      <c r="AT140" s="104"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="100">
+      <c r="T141" s="104">
         <v>-1</v>
       </c>
-      <c r="U141" s="101"/>
+      <c r="U141" s="105"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="98" t="s">
+      <c r="W141" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="98"/>
-      <c r="Y141" s="98"/>
+      <c r="X141" s="103"/>
+      <c r="Y141" s="103"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="98" t="s">
+      <c r="AA141" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="98"/>
-      <c r="AC141" s="98"/>
+      <c r="AB141" s="103"/>
+      <c r="AC141" s="103"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="99">
+      <c r="AE141" s="106">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="100"/>
+      <c r="AF141" s="104"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="100">
+      <c r="AH141" s="104">
         <v>-1</v>
       </c>
-      <c r="AI141" s="101"/>
+      <c r="AI141" s="105"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="98" t="s">
+      <c r="AK141" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="98"/>
-      <c r="AM141" s="98"/>
+      <c r="AL141" s="103"/>
+      <c r="AM141" s="103"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="98" t="s">
+      <c r="AO141" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="98"/>
-      <c r="AQ141" s="98"/>
+      <c r="AP141" s="103"/>
+      <c r="AQ141" s="103"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="99">
+      <c r="AS141" s="106">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="100"/>
+      <c r="AT141" s="104"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -24711,64 +24711,40 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
     <mergeCell ref="BT10:BV10"/>
     <mergeCell ref="BL10:BQ10"/>
     <mergeCell ref="AK137:AM137"/>
@@ -24793,40 +24769,64 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -26132,35 +26132,35 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:40">
-      <c r="E31" s="119" t="s">
+      <c r="E31" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119" t="s">
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119" t="s">
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119" t="s">
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="119"/>
+      <c r="Y31" s="120"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
@@ -26169,70 +26169,70 @@
       </c>
     </row>
     <row r="32" spans="4:40">
-      <c r="E32" s="118" t="s">
+      <c r="E32" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118" t="s">
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="102" t="s">
+      <c r="T32" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102">
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87">
         <v>1</v>
       </c>
-      <c r="Y32" s="102"/>
+      <c r="Y32" s="87"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
     <row r="33" spans="1:46">
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="102" t="s">
+      <c r="T33" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102">
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87">
         <v>1</v>
       </c>
-      <c r="Y33" s="102"/>
+      <c r="Y33" s="87"/>
       <c r="AN33" t="s">
         <v>215</v>
       </c>
@@ -26247,35 +26247,35 @@
       <c r="A34" t="s">
         <v>318</v>
       </c>
-      <c r="E34" s="116" t="s">
+      <c r="E34" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116" t="s">
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="102">
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87">
         <v>1</v>
       </c>
-      <c r="Y34" s="102"/>
+      <c r="Y34" s="87"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
@@ -26291,35 +26291,35 @@
       </c>
     </row>
     <row r="35" spans="1:46">
-      <c r="E35" s="116" t="s">
+      <c r="E35" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116" t="s">
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="102"/>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="102">
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87">
         <v>1</v>
       </c>
-      <c r="Y35" s="102"/>
+      <c r="Y35" s="87"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
@@ -26332,35 +26332,35 @@
       <c r="A36" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E36" s="120" t="s">
+      <c r="E36" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120" t="s">
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
       <c r="S36" s="81">
         <v>1</v>
       </c>
-      <c r="T36" s="108"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108">
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95">
         <v>1</v>
       </c>
-      <c r="Y36" s="108"/>
+      <c r="Y36" s="95"/>
       <c r="AA36" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
@@ -26373,35 +26373,35 @@
       <c r="A37" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="120" t="s">
+      <c r="E37" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120" t="s">
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
       <c r="S37" s="81">
         <v>1</v>
       </c>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108">
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95">
         <v>1</v>
       </c>
-      <c r="Y37" s="108"/>
+      <c r="Y37" s="95"/>
       <c r="AA37" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
@@ -26411,35 +26411,35 @@
       </c>
     </row>
     <row r="38" spans="1:46">
-      <c r="E38" s="116" t="s">
+      <c r="E38" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116" t="s">
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="102"/>
-      <c r="U38" s="102"/>
-      <c r="V38" s="102"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102">
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87">
         <v>1</v>
       </c>
-      <c r="Y38" s="102"/>
+      <c r="Y38" s="87"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
@@ -26449,35 +26449,35 @@
       </c>
     </row>
     <row r="39" spans="1:46">
-      <c r="E39" s="116" t="s">
+      <c r="E39" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116" t="s">
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="102"/>
-      <c r="U39" s="102"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="102">
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87">
         <v>1</v>
       </c>
-      <c r="Y39" s="102"/>
+      <c r="Y39" s="87"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
@@ -26487,35 +26487,35 @@
       </c>
     </row>
     <row r="40" spans="1:46">
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116" t="s">
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="102"/>
-      <c r="U40" s="102"/>
-      <c r="V40" s="102"/>
-      <c r="W40" s="102"/>
-      <c r="X40" s="102">
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87">
         <v>1</v>
       </c>
-      <c r="Y40" s="102"/>
+      <c r="Y40" s="87"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
@@ -26525,35 +26525,35 @@
       </c>
     </row>
     <row r="41" spans="1:46">
-      <c r="E41" s="116" t="s">
+      <c r="E41" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116" t="s">
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="119"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="102"/>
-      <c r="U41" s="102"/>
-      <c r="V41" s="102"/>
-      <c r="W41" s="102"/>
-      <c r="X41" s="102">
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="87">
         <v>1</v>
       </c>
-      <c r="Y41" s="102"/>
+      <c r="Y41" s="87"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
@@ -26563,35 +26563,35 @@
       </c>
     </row>
     <row r="42" spans="1:46">
-      <c r="E42" s="116" t="s">
+      <c r="E42" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116" t="s">
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="102"/>
-      <c r="U42" s="102"/>
-      <c r="V42" s="102"/>
-      <c r="W42" s="102"/>
-      <c r="X42" s="102">
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="87">
         <v>1</v>
       </c>
-      <c r="Y42" s="102"/>
+      <c r="Y42" s="87"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
@@ -26601,35 +26601,35 @@
       </c>
     </row>
     <row r="43" spans="1:46">
-      <c r="E43" s="116" t="s">
+      <c r="E43" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116" t="s">
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="102"/>
-      <c r="U43" s="102"/>
-      <c r="V43" s="102"/>
-      <c r="W43" s="102"/>
-      <c r="X43" s="102">
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87">
         <v>1</v>
       </c>
-      <c r="Y43" s="102"/>
+      <c r="Y43" s="87"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
@@ -26639,35 +26639,35 @@
       </c>
     </row>
     <row r="44" spans="1:46">
-      <c r="E44" s="116" t="s">
+      <c r="E44" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116" t="s">
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102">
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87">
         <v>1</v>
       </c>
-      <c r="Y44" s="102"/>
+      <c r="Y44" s="87"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
@@ -26677,35 +26677,35 @@
       </c>
     </row>
     <row r="45" spans="1:46">
-      <c r="E45" s="116" t="s">
+      <c r="E45" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116" t="s">
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="102"/>
-      <c r="U45" s="102"/>
-      <c r="V45" s="102"/>
-      <c r="W45" s="102"/>
-      <c r="X45" s="102">
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="87">
         <v>1</v>
       </c>
-      <c r="Y45" s="102"/>
+      <c r="Y45" s="87"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
@@ -26715,35 +26715,35 @@
       </c>
     </row>
     <row r="46" spans="1:46">
-      <c r="E46" s="116" t="s">
+      <c r="E46" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116" t="s">
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="102"/>
-      <c r="U46" s="102"/>
-      <c r="V46" s="102"/>
-      <c r="W46" s="102"/>
-      <c r="X46" s="102">
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="87">
         <v>1</v>
       </c>
-      <c r="Y46" s="102"/>
+      <c r="Y46" s="87"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
@@ -26756,35 +26756,35 @@
       </c>
     </row>
     <row r="47" spans="1:46">
-      <c r="E47" s="116" t="s">
+      <c r="E47" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116" t="s">
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="119"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="102"/>
-      <c r="U47" s="102"/>
-      <c r="V47" s="102"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102">
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87">
         <v>1</v>
       </c>
-      <c r="Y47" s="102"/>
+      <c r="Y47" s="87"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
@@ -26797,35 +26797,35 @@
       </c>
     </row>
     <row r="48" spans="1:46">
-      <c r="E48" s="116" t="s">
+      <c r="E48" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="116" t="s">
+      <c r="F48" s="119"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="116"/>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="116"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="119"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="102"/>
-      <c r="U48" s="102"/>
-      <c r="V48" s="102"/>
-      <c r="W48" s="102"/>
-      <c r="X48" s="102">
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87">
         <v>1</v>
       </c>
-      <c r="Y48" s="102"/>
+      <c r="Y48" s="87"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -26992,440 +26992,546 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="119" t="s">
+      <c r="E78" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="119"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119" t="s">
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="119"/>
-      <c r="P78" s="119"/>
-      <c r="Q78" s="119"/>
-      <c r="R78" s="119"/>
-      <c r="S78" s="119" t="s">
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="119"/>
-      <c r="U78" s="119"/>
-      <c r="V78" s="119"/>
-      <c r="W78" s="119"/>
-      <c r="X78" s="119" t="s">
+      <c r="T78" s="120"/>
+      <c r="U78" s="120"/>
+      <c r="V78" s="120"/>
+      <c r="W78" s="120"/>
+      <c r="X78" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="119"/>
-      <c r="Z78" s="119" t="s">
+      <c r="Y78" s="120"/>
+      <c r="Z78" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="119"/>
-      <c r="AB78" s="119"/>
-      <c r="AC78" s="119"/>
-      <c r="AD78" s="119"/>
-      <c r="AE78" s="119"/>
-      <c r="AF78" s="119"/>
-      <c r="AG78" s="119" t="s">
+      <c r="AA78" s="120"/>
+      <c r="AB78" s="120"/>
+      <c r="AC78" s="120"/>
+      <c r="AD78" s="120"/>
+      <c r="AE78" s="120"/>
+      <c r="AF78" s="120"/>
+      <c r="AG78" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="119"/>
-      <c r="AI78" s="119"/>
-      <c r="AJ78" s="119"/>
-      <c r="AK78" s="119"/>
-      <c r="AL78" s="119"/>
-      <c r="AM78" s="119"/>
+      <c r="AH78" s="120"/>
+      <c r="AI78" s="120"/>
+      <c r="AJ78" s="120"/>
+      <c r="AK78" s="120"/>
+      <c r="AL78" s="120"/>
+      <c r="AM78" s="120"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="118" t="s">
+      <c r="E79" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118" t="s">
+      <c r="F79" s="121"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="121"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="118"/>
-      <c r="N79" s="118"/>
-      <c r="O79" s="118"/>
-      <c r="P79" s="118"/>
-      <c r="Q79" s="118"/>
-      <c r="R79" s="118"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="121"/>
+      <c r="M79" s="121"/>
+      <c r="N79" s="121"/>
+      <c r="O79" s="121"/>
+      <c r="P79" s="121"/>
+      <c r="Q79" s="121"/>
+      <c r="R79" s="121"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="102" t="s">
+      <c r="T79" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="102"/>
-      <c r="V79" s="102"/>
-      <c r="W79" s="102"/>
-      <c r="X79" s="102">
+      <c r="U79" s="87"/>
+      <c r="V79" s="87"/>
+      <c r="W79" s="87"/>
+      <c r="X79" s="87">
         <v>1</v>
       </c>
-      <c r="Y79" s="102"/>
-      <c r="Z79" s="117" t="s">
+      <c r="Y79" s="87"/>
+      <c r="Z79" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="117"/>
-      <c r="AB79" s="117"/>
-      <c r="AC79" s="102" t="s">
+      <c r="AA79" s="123"/>
+      <c r="AB79" s="123"/>
+      <c r="AC79" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="102"/>
-      <c r="AE79" s="102"/>
-      <c r="AF79" s="102"/>
-      <c r="AG79" s="116" t="s">
+      <c r="AD79" s="87"/>
+      <c r="AE79" s="87"/>
+      <c r="AF79" s="87"/>
+      <c r="AG79" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="116"/>
-      <c r="AI79" s="116"/>
-      <c r="AJ79" s="116"/>
-      <c r="AK79" s="116"/>
-      <c r="AL79" s="116"/>
-      <c r="AM79" s="116"/>
+      <c r="AH79" s="119"/>
+      <c r="AI79" s="119"/>
+      <c r="AJ79" s="119"/>
+      <c r="AK79" s="119"/>
+      <c r="AL79" s="119"/>
+      <c r="AM79" s="119"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
-      <c r="K80" s="118"/>
-      <c r="L80" s="118"/>
-      <c r="M80" s="118"/>
-      <c r="N80" s="118"/>
-      <c r="O80" s="118"/>
-      <c r="P80" s="118"/>
-      <c r="Q80" s="118"/>
-      <c r="R80" s="118"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="121"/>
+      <c r="L80" s="121"/>
+      <c r="M80" s="121"/>
+      <c r="N80" s="121"/>
+      <c r="O80" s="121"/>
+      <c r="P80" s="121"/>
+      <c r="Q80" s="121"/>
+      <c r="R80" s="121"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="102" t="s">
+      <c r="T80" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="102"/>
-      <c r="V80" s="102"/>
-      <c r="W80" s="102"/>
-      <c r="X80" s="102">
+      <c r="U80" s="87"/>
+      <c r="V80" s="87"/>
+      <c r="W80" s="87"/>
+      <c r="X80" s="87">
         <v>1</v>
       </c>
-      <c r="Y80" s="102"/>
-      <c r="Z80" s="117"/>
-      <c r="AA80" s="117"/>
-      <c r="AB80" s="117"/>
-      <c r="AC80" s="102"/>
-      <c r="AD80" s="102"/>
-      <c r="AE80" s="102"/>
-      <c r="AF80" s="102"/>
-      <c r="AG80" s="116"/>
-      <c r="AH80" s="116"/>
-      <c r="AI80" s="116"/>
-      <c r="AJ80" s="116"/>
-      <c r="AK80" s="116"/>
-      <c r="AL80" s="116"/>
-      <c r="AM80" s="116"/>
+      <c r="Y80" s="87"/>
+      <c r="Z80" s="123"/>
+      <c r="AA80" s="123"/>
+      <c r="AB80" s="123"/>
+      <c r="AC80" s="87"/>
+      <c r="AD80" s="87"/>
+      <c r="AE80" s="87"/>
+      <c r="AF80" s="87"/>
+      <c r="AG80" s="119"/>
+      <c r="AH80" s="119"/>
+      <c r="AI80" s="119"/>
+      <c r="AJ80" s="119"/>
+      <c r="AK80" s="119"/>
+      <c r="AL80" s="119"/>
+      <c r="AM80" s="119"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="118" t="s">
+      <c r="E81" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118" t="s">
+      <c r="F81" s="121"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="121"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118"/>
+      <c r="K81" s="121"/>
+      <c r="L81" s="121"/>
+      <c r="M81" s="121"/>
+      <c r="N81" s="121"/>
+      <c r="O81" s="121"/>
+      <c r="P81" s="121"/>
+      <c r="Q81" s="121"/>
+      <c r="R81" s="121"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="102" t="s">
+      <c r="T81" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="102"/>
-      <c r="V81" s="102"/>
-      <c r="W81" s="102"/>
-      <c r="X81" s="102">
+      <c r="U81" s="87"/>
+      <c r="V81" s="87"/>
+      <c r="W81" s="87"/>
+      <c r="X81" s="87">
         <v>1</v>
       </c>
-      <c r="Y81" s="102"/>
-      <c r="Z81" s="117" t="s">
+      <c r="Y81" s="87"/>
+      <c r="Z81" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="117"/>
-      <c r="AB81" s="117"/>
-      <c r="AC81" s="102" t="s">
+      <c r="AA81" s="123"/>
+      <c r="AB81" s="123"/>
+      <c r="AC81" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="102"/>
-      <c r="AE81" s="102"/>
-      <c r="AF81" s="102"/>
-      <c r="AG81" s="116" t="s">
+      <c r="AD81" s="87"/>
+      <c r="AE81" s="87"/>
+      <c r="AF81" s="87"/>
+      <c r="AG81" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="116"/>
-      <c r="AI81" s="116"/>
-      <c r="AJ81" s="116"/>
-      <c r="AK81" s="116"/>
-      <c r="AL81" s="116"/>
-      <c r="AM81" s="116"/>
+      <c r="AH81" s="119"/>
+      <c r="AI81" s="119"/>
+      <c r="AJ81" s="119"/>
+      <c r="AK81" s="119"/>
+      <c r="AL81" s="119"/>
+      <c r="AM81" s="119"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="118"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="118"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="118"/>
-      <c r="N82" s="118"/>
-      <c r="O82" s="118"/>
-      <c r="P82" s="118"/>
-      <c r="Q82" s="118"/>
-      <c r="R82" s="118"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="121"/>
+      <c r="H82" s="121"/>
+      <c r="I82" s="121"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="121"/>
+      <c r="L82" s="121"/>
+      <c r="M82" s="121"/>
+      <c r="N82" s="121"/>
+      <c r="O82" s="121"/>
+      <c r="P82" s="121"/>
+      <c r="Q82" s="121"/>
+      <c r="R82" s="121"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="102" t="s">
+      <c r="T82" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="102"/>
-      <c r="V82" s="102"/>
-      <c r="W82" s="102"/>
-      <c r="X82" s="102">
+      <c r="U82" s="87"/>
+      <c r="V82" s="87"/>
+      <c r="W82" s="87"/>
+      <c r="X82" s="87">
         <v>1</v>
       </c>
-      <c r="Y82" s="102"/>
-      <c r="Z82" s="117"/>
-      <c r="AA82" s="117"/>
-      <c r="AB82" s="117"/>
-      <c r="AC82" s="102"/>
-      <c r="AD82" s="102"/>
-      <c r="AE82" s="102"/>
-      <c r="AF82" s="102"/>
-      <c r="AG82" s="116"/>
-      <c r="AH82" s="116"/>
-      <c r="AI82" s="116"/>
-      <c r="AJ82" s="116"/>
-      <c r="AK82" s="116"/>
-      <c r="AL82" s="116"/>
-      <c r="AM82" s="116"/>
+      <c r="Y82" s="87"/>
+      <c r="Z82" s="123"/>
+      <c r="AA82" s="123"/>
+      <c r="AB82" s="123"/>
+      <c r="AC82" s="87"/>
+      <c r="AD82" s="87"/>
+      <c r="AE82" s="87"/>
+      <c r="AF82" s="87"/>
+      <c r="AG82" s="119"/>
+      <c r="AH82" s="119"/>
+      <c r="AI82" s="119"/>
+      <c r="AJ82" s="119"/>
+      <c r="AK82" s="119"/>
+      <c r="AL82" s="119"/>
+      <c r="AM82" s="119"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="118" t="s">
+      <c r="E83" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="118"/>
-      <c r="J83" s="118" t="s">
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="121"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118"/>
-      <c r="M83" s="118"/>
-      <c r="N83" s="118"/>
-      <c r="O83" s="118"/>
-      <c r="P83" s="118"/>
-      <c r="Q83" s="118"/>
-      <c r="R83" s="118"/>
+      <c r="K83" s="121"/>
+      <c r="L83" s="121"/>
+      <c r="M83" s="121"/>
+      <c r="N83" s="121"/>
+      <c r="O83" s="121"/>
+      <c r="P83" s="121"/>
+      <c r="Q83" s="121"/>
+      <c r="R83" s="121"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="102" t="s">
+      <c r="T83" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="102"/>
-      <c r="V83" s="102"/>
-      <c r="W83" s="102"/>
-      <c r="X83" s="102">
+      <c r="U83" s="87"/>
+      <c r="V83" s="87"/>
+      <c r="W83" s="87"/>
+      <c r="X83" s="87">
         <v>1</v>
       </c>
-      <c r="Y83" s="102"/>
-      <c r="Z83" s="117" t="s">
+      <c r="Y83" s="87"/>
+      <c r="Z83" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="117"/>
-      <c r="AB83" s="117"/>
-      <c r="AC83" s="102" t="s">
+      <c r="AA83" s="123"/>
+      <c r="AB83" s="123"/>
+      <c r="AC83" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="102"/>
-      <c r="AE83" s="102"/>
-      <c r="AF83" s="102"/>
-      <c r="AG83" s="116" t="s">
+      <c r="AD83" s="87"/>
+      <c r="AE83" s="87"/>
+      <c r="AF83" s="87"/>
+      <c r="AG83" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="116"/>
-      <c r="AI83" s="116"/>
-      <c r="AJ83" s="116"/>
-      <c r="AK83" s="116"/>
-      <c r="AL83" s="116"/>
-      <c r="AM83" s="116"/>
+      <c r="AH83" s="119"/>
+      <c r="AI83" s="119"/>
+      <c r="AJ83" s="119"/>
+      <c r="AK83" s="119"/>
+      <c r="AL83" s="119"/>
+      <c r="AM83" s="119"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118"/>
-      <c r="M84" s="118"/>
-      <c r="N84" s="118"/>
-      <c r="O84" s="118"/>
-      <c r="P84" s="118"/>
-      <c r="Q84" s="118"/>
-      <c r="R84" s="118"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="121"/>
+      <c r="L84" s="121"/>
+      <c r="M84" s="121"/>
+      <c r="N84" s="121"/>
+      <c r="O84" s="121"/>
+      <c r="P84" s="121"/>
+      <c r="Q84" s="121"/>
+      <c r="R84" s="121"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="102" t="s">
+      <c r="T84" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="102"/>
-      <c r="V84" s="102"/>
-      <c r="W84" s="102"/>
-      <c r="X84" s="102">
+      <c r="U84" s="87"/>
+      <c r="V84" s="87"/>
+      <c r="W84" s="87"/>
+      <c r="X84" s="87">
         <v>1</v>
       </c>
-      <c r="Y84" s="102"/>
-      <c r="Z84" s="117"/>
-      <c r="AA84" s="117"/>
-      <c r="AB84" s="117"/>
-      <c r="AC84" s="102"/>
-      <c r="AD84" s="102"/>
-      <c r="AE84" s="102"/>
-      <c r="AF84" s="102"/>
-      <c r="AG84" s="116"/>
-      <c r="AH84" s="116"/>
-      <c r="AI84" s="116"/>
-      <c r="AJ84" s="116"/>
-      <c r="AK84" s="116"/>
-      <c r="AL84" s="116"/>
-      <c r="AM84" s="116"/>
+      <c r="Y84" s="87"/>
+      <c r="Z84" s="123"/>
+      <c r="AA84" s="123"/>
+      <c r="AB84" s="123"/>
+      <c r="AC84" s="87"/>
+      <c r="AD84" s="87"/>
+      <c r="AE84" s="87"/>
+      <c r="AF84" s="87"/>
+      <c r="AG84" s="119"/>
+      <c r="AH84" s="119"/>
+      <c r="AI84" s="119"/>
+      <c r="AJ84" s="119"/>
+      <c r="AK84" s="119"/>
+      <c r="AL84" s="119"/>
+      <c r="AM84" s="119"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="118" t="s">
+      <c r="E85" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118" t="s">
+      <c r="F85" s="121"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
-      <c r="N85" s="118"/>
-      <c r="O85" s="118"/>
-      <c r="P85" s="118"/>
-      <c r="Q85" s="118"/>
-      <c r="R85" s="118"/>
+      <c r="K85" s="121"/>
+      <c r="L85" s="121"/>
+      <c r="M85" s="121"/>
+      <c r="N85" s="121"/>
+      <c r="O85" s="121"/>
+      <c r="P85" s="121"/>
+      <c r="Q85" s="121"/>
+      <c r="R85" s="121"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="102" t="s">
+      <c r="T85" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="102"/>
-      <c r="V85" s="102"/>
-      <c r="W85" s="102"/>
-      <c r="X85" s="102">
+      <c r="U85" s="87"/>
+      <c r="V85" s="87"/>
+      <c r="W85" s="87"/>
+      <c r="X85" s="87">
         <v>1</v>
       </c>
-      <c r="Y85" s="102"/>
-      <c r="Z85" s="117" t="s">
+      <c r="Y85" s="87"/>
+      <c r="Z85" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="117"/>
-      <c r="AB85" s="117"/>
-      <c r="AC85" s="102" t="s">
+      <c r="AA85" s="123"/>
+      <c r="AB85" s="123"/>
+      <c r="AC85" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="102"/>
-      <c r="AE85" s="102"/>
-      <c r="AF85" s="102"/>
-      <c r="AG85" s="116" t="s">
+      <c r="AD85" s="87"/>
+      <c r="AE85" s="87"/>
+      <c r="AF85" s="87"/>
+      <c r="AG85" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="116"/>
-      <c r="AI85" s="116"/>
-      <c r="AJ85" s="116"/>
-      <c r="AK85" s="116"/>
-      <c r="AL85" s="116"/>
-      <c r="AM85" s="116"/>
+      <c r="AH85" s="119"/>
+      <c r="AI85" s="119"/>
+      <c r="AJ85" s="119"/>
+      <c r="AK85" s="119"/>
+      <c r="AL85" s="119"/>
+      <c r="AM85" s="119"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="118"/>
-      <c r="L86" s="118"/>
-      <c r="M86" s="118"/>
-      <c r="N86" s="118"/>
-      <c r="O86" s="118"/>
-      <c r="P86" s="118"/>
-      <c r="Q86" s="118"/>
-      <c r="R86" s="118"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="121"/>
+      <c r="K86" s="121"/>
+      <c r="L86" s="121"/>
+      <c r="M86" s="121"/>
+      <c r="N86" s="121"/>
+      <c r="O86" s="121"/>
+      <c r="P86" s="121"/>
+      <c r="Q86" s="121"/>
+      <c r="R86" s="121"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="102" t="s">
+      <c r="T86" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="102"/>
-      <c r="V86" s="102"/>
-      <c r="W86" s="102"/>
-      <c r="X86" s="102">
+      <c r="U86" s="87"/>
+      <c r="V86" s="87"/>
+      <c r="W86" s="87"/>
+      <c r="X86" s="87">
         <v>1</v>
       </c>
-      <c r="Y86" s="102"/>
-      <c r="Z86" s="117"/>
-      <c r="AA86" s="117"/>
-      <c r="AB86" s="117"/>
-      <c r="AC86" s="102"/>
-      <c r="AD86" s="102"/>
-      <c r="AE86" s="102"/>
-      <c r="AF86" s="102"/>
-      <c r="AG86" s="116"/>
-      <c r="AH86" s="116"/>
-      <c r="AI86" s="116"/>
-      <c r="AJ86" s="116"/>
-      <c r="AK86" s="116"/>
-      <c r="AL86" s="116"/>
-      <c r="AM86" s="116"/>
+      <c r="Y86" s="87"/>
+      <c r="Z86" s="123"/>
+      <c r="AA86" s="123"/>
+      <c r="AB86" s="123"/>
+      <c r="AC86" s="87"/>
+      <c r="AD86" s="87"/>
+      <c r="AE86" s="87"/>
+      <c r="AF86" s="87"/>
+      <c r="AG86" s="119"/>
+      <c r="AH86" s="119"/>
+      <c r="AI86" s="119"/>
+      <c r="AJ86" s="119"/>
+      <c r="AK86" s="119"/>
+      <c r="AL86" s="119"/>
+      <c r="AM86" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -27444,112 +27550,6 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27562,8 +27562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC87270-CDD9-4CA1-BAE4-DF5BDD56D058}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -27596,7 +27596,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="85" t="s">
         <v>338</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -27610,7 +27610,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="85" t="s">
         <v>339</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -27629,7 +27629,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="85" t="s">
         <v>350</v>
       </c>
       <c r="B4" s="52" t="s">
@@ -27753,7 +27753,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="85" t="s">
         <v>341</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -27768,7 +27768,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="85" t="s">
         <v>342</v>
       </c>
       <c r="B17" s="52" t="s">
@@ -27781,13 +27781,13 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17" s="135" t="str">
+      <c r="K17" s="86" t="str">
         <f>REPT(" ",J17)&amp;"#テーブル作成SQL"</f>
         <v xml:space="preserve">    #テーブル作成SQL</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="85" t="s">
         <v>350</v>
       </c>
       <c r="B18" s="52" t="s">
@@ -27806,7 +27806,7 @@
       <c r="J18">
         <v>4</v>
       </c>
-      <c r="K18" s="135" t="str">
+      <c r="K18" s="86" t="str">
         <f>REPT(" ",J18)&amp;L2&amp;".execute(f'''"</f>
         <v xml:space="preserve">    CurJyosetu.execute(f'''</v>
       </c>
@@ -27821,22 +27821,22 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="84" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="84" t="s">
         <v>327</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="84" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D20" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="133" t="s">
+      <c r="F20" s="84" t="s">
         <v>88</v>
       </c>
       <c r="J20">
@@ -28048,7 +28048,7 @@
       <c r="J30">
         <v>4</v>
       </c>
-      <c r="K30" s="135" t="str">
+      <c r="K30" s="86" t="str">
         <f>REPT(" ",J30)</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -28075,7 +28075,7 @@
       <c r="J33">
         <v>4</v>
       </c>
-      <c r="K33" s="135" t="str">
+      <c r="K33" s="86" t="str">
         <f>REPT(" ",J33)&amp;"HandleError(e)"</f>
         <v xml:space="preserve">    HandleError(e)</v>
       </c>
@@ -28084,7 +28084,7 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="135" t="str">
+      <c r="K34" s="86" t="str">
         <f>REPT(" ",J34)&amp;"finally:"</f>
         <v>finally:</v>
       </c>
@@ -28257,8 +28257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
   <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
@@ -28337,368 +28337,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="129"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="129"/>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="129"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="129"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
     </row>
     <row r="23" spans="1:27">
       <c r="B23" s="46"/>
@@ -28709,44 +28709,44 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="127"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="127"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="132"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="132"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32"/>
@@ -28934,424 +28934,424 @@
     <row r="41" spans="1:27">
       <c r="A41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="131" t="s">
+      <c r="D41" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="132"/>
-      <c r="T41" s="132"/>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
-      <c r="W41" s="132"/>
-      <c r="X41" s="132"/>
-      <c r="Y41" s="132"/>
-      <c r="Z41" s="132"/>
-      <c r="AA41" s="132"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129"/>
+      <c r="X41" s="129"/>
+      <c r="Y41" s="129"/>
+      <c r="Z41" s="129"/>
+      <c r="AA41" s="129"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="132"/>
-      <c r="Z42" s="132"/>
-      <c r="AA42" s="132"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="129"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="129"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="129"/>
+      <c r="V42" s="129"/>
+      <c r="W42" s="129"/>
+      <c r="X42" s="129"/>
+      <c r="Y42" s="129"/>
+      <c r="Z42" s="129"/>
+      <c r="AA42" s="129"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43"/>
       <c r="C43" s="46"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="132"/>
-      <c r="U43" s="132"/>
-      <c r="V43" s="132"/>
-      <c r="W43" s="132"/>
-      <c r="X43" s="132"/>
-      <c r="Y43" s="132"/>
-      <c r="Z43" s="132"/>
-      <c r="AA43" s="132"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
+      <c r="Y43" s="129"/>
+      <c r="Z43" s="129"/>
+      <c r="AA43" s="129"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
-      <c r="S44" s="132"/>
-      <c r="T44" s="132"/>
-      <c r="U44" s="132"/>
-      <c r="V44" s="132"/>
-      <c r="W44" s="132"/>
-      <c r="X44" s="132"/>
-      <c r="Y44" s="132"/>
-      <c r="Z44" s="132"/>
-      <c r="AA44" s="132"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="129"/>
+      <c r="V44" s="129"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="129"/>
+      <c r="Y44" s="129"/>
+      <c r="Z44" s="129"/>
+      <c r="AA44" s="129"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45"/>
       <c r="C45" s="46"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="132"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="132"/>
-      <c r="S45" s="132"/>
-      <c r="T45" s="132"/>
-      <c r="U45" s="132"/>
-      <c r="V45" s="132"/>
-      <c r="W45" s="132"/>
-      <c r="X45" s="132"/>
-      <c r="Y45" s="132"/>
-      <c r="Z45" s="132"/>
-      <c r="AA45" s="132"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="129"/>
+      <c r="P45" s="129"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="129"/>
+      <c r="T45" s="129"/>
+      <c r="U45" s="129"/>
+      <c r="V45" s="129"/>
+      <c r="W45" s="129"/>
+      <c r="X45" s="129"/>
+      <c r="Y45" s="129"/>
+      <c r="Z45" s="129"/>
+      <c r="AA45" s="129"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="132"/>
-      <c r="R46" s="132"/>
-      <c r="S46" s="132"/>
-      <c r="T46" s="132"/>
-      <c r="U46" s="132"/>
-      <c r="V46" s="132"/>
-      <c r="W46" s="132"/>
-      <c r="X46" s="132"/>
-      <c r="Y46" s="132"/>
-      <c r="Z46" s="132"/>
-      <c r="AA46" s="132"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="129"/>
+      <c r="P46" s="129"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="129"/>
+      <c r="T46" s="129"/>
+      <c r="U46" s="129"/>
+      <c r="V46" s="129"/>
+      <c r="W46" s="129"/>
+      <c r="X46" s="129"/>
+      <c r="Y46" s="129"/>
+      <c r="Z46" s="129"/>
+      <c r="AA46" s="129"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="132"/>
-      <c r="U47" s="132"/>
-      <c r="V47" s="132"/>
-      <c r="W47" s="132"/>
-      <c r="X47" s="132"/>
-      <c r="Y47" s="132"/>
-      <c r="Z47" s="132"/>
-      <c r="AA47" s="132"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="129"/>
+      <c r="P47" s="129"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="129"/>
+      <c r="U47" s="129"/>
+      <c r="V47" s="129"/>
+      <c r="W47" s="129"/>
+      <c r="X47" s="129"/>
+      <c r="Y47" s="129"/>
+      <c r="Z47" s="129"/>
+      <c r="AA47" s="129"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48"/>
       <c r="C48" s="46"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="132"/>
-      <c r="V48" s="132"/>
-      <c r="W48" s="132"/>
-      <c r="X48" s="132"/>
-      <c r="Y48" s="132"/>
-      <c r="Z48" s="132"/>
-      <c r="AA48" s="132"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49"/>
       <c r="C49" s="46"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="132"/>
-      <c r="Q49" s="132"/>
-      <c r="R49" s="132"/>
-      <c r="S49" s="132"/>
-      <c r="T49" s="132"/>
-      <c r="U49" s="132"/>
-      <c r="V49" s="132"/>
-      <c r="W49" s="132"/>
-      <c r="X49" s="132"/>
-      <c r="Y49" s="132"/>
-      <c r="Z49" s="132"/>
-      <c r="AA49" s="132"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="129"/>
+      <c r="U49" s="129"/>
+      <c r="V49" s="129"/>
+      <c r="W49" s="129"/>
+      <c r="X49" s="129"/>
+      <c r="Y49" s="129"/>
+      <c r="Z49" s="129"/>
+      <c r="AA49" s="129"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="132"/>
-      <c r="S50" s="132"/>
-      <c r="T50" s="132"/>
-      <c r="U50" s="132"/>
-      <c r="V50" s="132"/>
-      <c r="W50" s="132"/>
-      <c r="X50" s="132"/>
-      <c r="Y50" s="132"/>
-      <c r="Z50" s="132"/>
-      <c r="AA50" s="132"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="129"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="129"/>
+      <c r="T50" s="129"/>
+      <c r="U50" s="129"/>
+      <c r="V50" s="129"/>
+      <c r="W50" s="129"/>
+      <c r="X50" s="129"/>
+      <c r="Y50" s="129"/>
+      <c r="Z50" s="129"/>
+      <c r="AA50" s="129"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="132"/>
-      <c r="Q51" s="132"/>
-      <c r="R51" s="132"/>
-      <c r="S51" s="132"/>
-      <c r="T51" s="132"/>
-      <c r="U51" s="132"/>
-      <c r="V51" s="132"/>
-      <c r="W51" s="132"/>
-      <c r="X51" s="132"/>
-      <c r="Y51" s="132"/>
-      <c r="Z51" s="132"/>
-      <c r="AA51" s="132"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="129"/>
+      <c r="U51" s="129"/>
+      <c r="V51" s="129"/>
+      <c r="W51" s="129"/>
+      <c r="X51" s="129"/>
+      <c r="Y51" s="129"/>
+      <c r="Z51" s="129"/>
+      <c r="AA51" s="129"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="132"/>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="132"/>
-      <c r="S52" s="132"/>
-      <c r="T52" s="132"/>
-      <c r="U52" s="132"/>
-      <c r="V52" s="132"/>
-      <c r="W52" s="132"/>
-      <c r="X52" s="132"/>
-      <c r="Y52" s="132"/>
-      <c r="Z52" s="132"/>
-      <c r="AA52" s="132"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="129"/>
+      <c r="U52" s="129"/>
+      <c r="V52" s="129"/>
+      <c r="W52" s="129"/>
+      <c r="X52" s="129"/>
+      <c r="Y52" s="129"/>
+      <c r="Z52" s="129"/>
+      <c r="AA52" s="129"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="132"/>
-      <c r="L53" s="132"/>
-      <c r="M53" s="132"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="132"/>
-      <c r="P53" s="132"/>
-      <c r="Q53" s="132"/>
-      <c r="R53" s="132"/>
-      <c r="S53" s="132"/>
-      <c r="T53" s="132"/>
-      <c r="U53" s="132"/>
-      <c r="V53" s="132"/>
-      <c r="W53" s="132"/>
-      <c r="X53" s="132"/>
-      <c r="Y53" s="132"/>
-      <c r="Z53" s="132"/>
-      <c r="AA53" s="132"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="129"/>
+      <c r="T53" s="129"/>
+      <c r="U53" s="129"/>
+      <c r="V53" s="129"/>
+      <c r="W53" s="129"/>
+      <c r="X53" s="129"/>
+      <c r="Y53" s="129"/>
+      <c r="Z53" s="129"/>
+      <c r="AA53" s="129"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="132"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="132"/>
-      <c r="P54" s="132"/>
-      <c r="Q54" s="132"/>
-      <c r="R54" s="132"/>
-      <c r="S54" s="132"/>
-      <c r="T54" s="132"/>
-      <c r="U54" s="132"/>
-      <c r="V54" s="132"/>
-      <c r="W54" s="132"/>
-      <c r="X54" s="132"/>
-      <c r="Y54" s="132"/>
-      <c r="Z54" s="132"/>
-      <c r="AA54" s="132"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="129"/>
+      <c r="P54" s="129"/>
+      <c r="Q54" s="129"/>
+      <c r="R54" s="129"/>
+      <c r="S54" s="129"/>
+      <c r="T54" s="129"/>
+      <c r="U54" s="129"/>
+      <c r="V54" s="129"/>
+      <c r="W54" s="129"/>
+      <c r="X54" s="129"/>
+      <c r="Y54" s="129"/>
+      <c r="Z54" s="129"/>
+      <c r="AA54" s="129"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55"/>
       <c r="C55" s="46"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="132"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
-      <c r="S55" s="132"/>
-      <c r="T55" s="132"/>
-      <c r="U55" s="132"/>
-      <c r="V55" s="132"/>
-      <c r="W55" s="132"/>
-      <c r="X55" s="132"/>
-      <c r="Y55" s="132"/>
-      <c r="Z55" s="132"/>
-      <c r="AA55" s="132"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="129"/>
+      <c r="P55" s="129"/>
+      <c r="Q55" s="129"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="129"/>
+      <c r="T55" s="129"/>
+      <c r="U55" s="129"/>
+      <c r="V55" s="129"/>
+      <c r="W55" s="129"/>
+      <c r="X55" s="129"/>
+      <c r="Y55" s="129"/>
+      <c r="Z55" s="129"/>
+      <c r="AA55" s="129"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="46"/>
@@ -29506,10 +29506,10 @@
       <c r="E75" t="s">
         <v>236</v>
       </c>
-      <c r="H75" s="113" t="s">
+      <c r="H75" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="I75" s="115"/>
+      <c r="I75" s="102"/>
     </row>
     <row r="76" spans="1:36">
       <c r="B76" s="46"/>
@@ -29543,23 +29543,23 @@
     <row r="78" spans="1:36">
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
-      <c r="E78" s="121" t="str">
+      <c r="E78" s="124" t="str">
         <f>"--video-device " &amp; TRIM(M78)</f>
         <v>--video-device /dev/video0</v>
       </c>
-      <c r="F78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="123"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="126"/>
       <c r="L78" s="50"/>
-      <c r="M78" s="125" t="s">
+      <c r="M78" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="N78" s="126"/>
-      <c r="O78" s="126"/>
-      <c r="P78" s="127"/>
+      <c r="N78" s="131"/>
+      <c r="O78" s="131"/>
+      <c r="P78" s="132"/>
       <c r="Q78" s="47">
         <v>0</v>
       </c>
@@ -29572,19 +29572,19 @@
       <c r="T78" s="80">
         <v>3</v>
       </c>
-      <c r="V78" s="124" t="s">
+      <c r="V78" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="W78" s="122"/>
-      <c r="X78" s="123"/>
-      <c r="Z78" s="113" t="s">
+      <c r="W78" s="125"/>
+      <c r="X78" s="126"/>
+      <c r="Z78" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="AA78" s="115"/>
-      <c r="AC78" s="113">
+      <c r="AA78" s="102"/>
+      <c r="AC78" s="100">
         <v>51001</v>
       </c>
-      <c r="AD78" s="115"/>
+      <c r="AD78" s="102"/>
       <c r="AE78" s="53"/>
       <c r="AF78" s="64" t="s">
         <v>294</v>
@@ -29598,23 +29598,23 @@
     <row r="79" spans="1:36">
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
-      <c r="E79" s="121" t="str">
+      <c r="E79" s="124" t="str">
         <f t="shared" ref="E79:E82" si="3">"--video-device " &amp; TRIM(M79)</f>
         <v>--video-device /dev/video8</v>
       </c>
-      <c r="F79" s="122"/>
-      <c r="G79" s="122"/>
-      <c r="H79" s="122"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="123"/>
+      <c r="F79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="125"/>
+      <c r="K79" s="126"/>
       <c r="L79" s="50"/>
-      <c r="M79" s="125" t="s">
+      <c r="M79" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="N79" s="126"/>
-      <c r="O79" s="126"/>
-      <c r="P79" s="127"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="132"/>
       <c r="Q79" s="47">
         <v>8</v>
       </c>
@@ -29627,19 +29627,19 @@
       <c r="T79" s="80">
         <v>19</v>
       </c>
-      <c r="V79" s="124" t="s">
+      <c r="V79" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="W79" s="122"/>
-      <c r="X79" s="123"/>
-      <c r="Z79" s="113" t="s">
+      <c r="W79" s="125"/>
+      <c r="X79" s="126"/>
+      <c r="Z79" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="AA79" s="115"/>
-      <c r="AC79" s="113">
+      <c r="AA79" s="102"/>
+      <c r="AC79" s="100">
         <v>51002</v>
       </c>
-      <c r="AD79" s="115"/>
+      <c r="AD79" s="102"/>
       <c r="AE79" s="53"/>
       <c r="AF79" s="64" t="s">
         <v>294</v>
@@ -29653,23 +29653,23 @@
     <row r="80" spans="1:36">
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
-      <c r="E80" s="121" t="str">
+      <c r="E80" s="124" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video30</v>
       </c>
-      <c r="F80" s="122"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="123"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="126"/>
       <c r="L80" s="50"/>
-      <c r="M80" s="125" t="s">
+      <c r="M80" s="130" t="s">
         <v>297</v>
       </c>
-      <c r="N80" s="126"/>
-      <c r="O80" s="126"/>
-      <c r="P80" s="127"/>
+      <c r="N80" s="131"/>
+      <c r="O80" s="131"/>
+      <c r="P80" s="132"/>
       <c r="Q80" s="47">
         <v>28</v>
       </c>
@@ -29682,19 +29682,19 @@
       <c r="T80" s="80">
         <v>32</v>
       </c>
-      <c r="V80" s="124" t="s">
+      <c r="V80" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="W80" s="122"/>
-      <c r="X80" s="123"/>
-      <c r="Z80" s="113" t="s">
+      <c r="W80" s="125"/>
+      <c r="X80" s="126"/>
+      <c r="Z80" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="AA80" s="115"/>
-      <c r="AC80" s="113">
+      <c r="AA80" s="102"/>
+      <c r="AC80" s="100">
         <v>51003</v>
       </c>
-      <c r="AD80" s="115"/>
+      <c r="AD80" s="102"/>
       <c r="AE80" s="53"/>
       <c r="AF80" s="64" t="s">
         <v>294</v>
@@ -29708,23 +29708,23 @@
     <row r="81" spans="2:36">
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
-      <c r="E81" s="121" t="str">
+      <c r="E81" s="124" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video4</v>
       </c>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="123"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="125"/>
+      <c r="K81" s="126"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="125" t="s">
+      <c r="M81" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="N81" s="126"/>
-      <c r="O81" s="126"/>
-      <c r="P81" s="127"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="131"/>
+      <c r="P81" s="132"/>
       <c r="Q81" s="47">
         <v>4</v>
       </c>
@@ -29737,19 +29737,19 @@
       <c r="T81" s="80">
         <v>7</v>
       </c>
-      <c r="V81" s="124" t="s">
+      <c r="V81" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="W81" s="122"/>
-      <c r="X81" s="123"/>
-      <c r="Z81" s="113" t="s">
+      <c r="W81" s="125"/>
+      <c r="X81" s="126"/>
+      <c r="Z81" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="AA81" s="115"/>
-      <c r="AC81" s="113">
+      <c r="AA81" s="102"/>
+      <c r="AC81" s="100">
         <v>51004</v>
       </c>
-      <c r="AD81" s="115"/>
+      <c r="AD81" s="102"/>
       <c r="AE81" s="53"/>
       <c r="AF81" s="64" t="s">
         <v>294</v>
@@ -29763,23 +29763,23 @@
     <row r="82" spans="2:36">
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
-      <c r="E82" s="121" t="str">
+      <c r="E82" s="124" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video24</v>
       </c>
-      <c r="F82" s="122"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="123"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="126"/>
       <c r="L82" s="50"/>
-      <c r="M82" s="125" t="s">
+      <c r="M82" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="N82" s="126"/>
-      <c r="O82" s="126"/>
-      <c r="P82" s="127"/>
+      <c r="N82" s="131"/>
+      <c r="O82" s="131"/>
+      <c r="P82" s="132"/>
       <c r="Q82" s="80">
         <v>24</v>
       </c>
@@ -29792,19 +29792,19 @@
       <c r="T82" s="80">
         <v>27</v>
       </c>
-      <c r="V82" s="124" t="s">
+      <c r="V82" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="W82" s="122"/>
-      <c r="X82" s="123"/>
-      <c r="Z82" s="113" t="s">
+      <c r="W82" s="125"/>
+      <c r="X82" s="126"/>
+      <c r="Z82" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="AA82" s="115"/>
-      <c r="AC82" s="113">
+      <c r="AA82" s="102"/>
+      <c r="AC82" s="100">
         <v>51005</v>
       </c>
-      <c r="AD82" s="115"/>
+      <c r="AD82" s="102"/>
       <c r="AE82" s="53"/>
       <c r="AF82" s="64" t="s">
         <v>294</v>
@@ -29991,16 +29991,16 @@
     <row r="99" spans="1:11">
       <c r="B99" s="46"/>
       <c r="C99" s="46"/>
-      <c r="D99" s="128" t="s">
+      <c r="D99" s="133" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="129"/>
-      <c r="F99" s="129"/>
-      <c r="G99" s="129"/>
-      <c r="H99" s="129"/>
-      <c r="I99" s="129"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="130"/>
+      <c r="E99" s="134"/>
+      <c r="F99" s="134"/>
+      <c r="G99" s="134"/>
+      <c r="H99" s="134"/>
+      <c r="I99" s="134"/>
+      <c r="J99" s="134"/>
+      <c r="K99" s="135"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="46"/>
@@ -30026,11 +30026,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="E82:K82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P82"/>
     <mergeCell ref="D10:AA22"/>
     <mergeCell ref="D41:AA55"/>
     <mergeCell ref="H75:I75"/>
@@ -30041,25 +30055,11 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="E80:K80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="E82:K82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AC82:AD82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0E036-C10F-4DAA-A12E-F2D0CF625CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66F0E2-B337-4390-8ACD-D5AF7753D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="745" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="855" windowWidth="16515" windowHeight="14970" tabRatio="745" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
     <sheet name="コントローラーのセットアップ" sheetId="9" r:id="rId8"/>
     <sheet name="momo関連" sheetId="10" r:id="rId9"/>
+    <sheet name="ラズベリーパイ4_GOIP" sheetId="16" r:id="rId10"/>
+    <sheet name="ボタンのコマンド" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="455">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -2694,6 +2696,344 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pinout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>というコマンドを実行すると、以下のように表示される</t>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clutch_up</t>
+  </si>
+  <si>
+    <t>clutch_dw</t>
+  </si>
+  <si>
+    <t>accel_up</t>
+  </si>
+  <si>
+    <t>accel_dw</t>
+  </si>
+  <si>
+    <t>move_fw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move_bk</t>
+  </si>
+  <si>
+    <t>chute_L_lup</t>
+  </si>
+  <si>
+    <t>chute_L_up</t>
+  </si>
+  <si>
+    <t>chute_L_rup</t>
+  </si>
+  <si>
+    <t>chute_L_right</t>
+  </si>
+  <si>
+    <t>chute_L_rdw</t>
+  </si>
+  <si>
+    <t>chute_L_dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_L_ldw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_L_left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_R_lup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_R_up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_R_rup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_R_right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_R_rdw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chute_R_dw</t>
+  </si>
+  <si>
+    <t>chute_R_ldw</t>
+  </si>
+  <si>
+    <t>chute_R_left</t>
+  </si>
+  <si>
+    <t>btn_sankaku</t>
+  </si>
+  <si>
+    <t>btn_sikaku</t>
+  </si>
+  <si>
+    <t>btn_on</t>
+  </si>
+  <si>
+    <t>btn_off</t>
+  </si>
+  <si>
+    <t>btn_em</t>
+  </si>
+  <si>
+    <t>elif pCmd.Command == "@1":</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_fw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_bk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_lup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_rup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_rdw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_ldw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_L_left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_lup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_rup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_rdw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_ldw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_R_left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btn_sankaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.SendDevice("@1")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラッチ アップ</t>
+  </si>
+  <si>
+    <t>クラッチ ダウン</t>
+  </si>
+  <si>
+    <t>アクセル アップ</t>
+  </si>
+  <si>
+    <t>アクセル ダウン</t>
+  </si>
+  <si>
+    <t>移動 前進</t>
+  </si>
+  <si>
+    <t>移動 後進</t>
+  </si>
+  <si>
+    <t>移動 右</t>
+  </si>
+  <si>
+    <t>移動 左</t>
+  </si>
+  <si>
+    <t>雪射出口 左上向き</t>
+  </si>
+  <si>
+    <t>雪射出口 上向き</t>
+  </si>
+  <si>
+    <t>雪射出口 右上向き</t>
+  </si>
+  <si>
+    <t>雪射出口 右向き</t>
+  </si>
+  <si>
+    <t>雪射出口 右下向き</t>
+  </si>
+  <si>
+    <t>雪射出口 下向き</t>
+  </si>
+  <si>
+    <t>雪射出口 左下向き</t>
+  </si>
+  <si>
+    <t>雪射出口 左向き</t>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 左上向き</t>
+  </si>
+  <si>
+    <t>未設定ボタン△</t>
+  </si>
+  <si>
+    <t>未設定ボタン□</t>
+  </si>
+  <si>
+    <t>歯の回転のON</t>
+  </si>
+  <si>
+    <t>歯の回転のOFF</t>
+  </si>
+  <si>
+    <t>緊急停止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #@1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面からのコマンド</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信コマンド</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面からのコマンドをRS232Cで送信する文字列に変換する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3202,7 +3542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3376,6 +3716,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3392,12 +3786,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3424,68 +3812,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3498,12 +3838,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3523,6 +3857,13 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -22455,6 +22796,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438578</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>201070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88A26BB-36CC-3421-5842-F8C844E3C360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="809625"/>
+          <a:ext cx="3067478" cy="7487695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22750,6 +23140,1370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575CBE9-81BA-437F-9FE4-0611F0BCF3FF}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEF24F-01C3-4916-BB43-1D1CEB0DF384}">
+  <dimension ref="A1:D117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="str">
+        <f>SUBSTITUTE(C3,"@1",B3)</f>
+        <v>elif pCmd.Command == "clutch_up":</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" t="str">
+        <f>SUBSTITUTE(C4,"@1",B4)</f>
+        <v xml:space="preserve">    #クラッチ アップ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" t="str">
+        <f>SUBSTITUTE(C5,"@1",B5)</f>
+        <v xml:space="preserve">    self.SendDevice("c_up")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="str">
+        <f>SUBSTITUTE(C7,"@1",B7)</f>
+        <v>elif pCmd.Command == "clutch_dw":</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" t="str">
+        <f>SUBSTITUTE(C8,"@1",B8)</f>
+        <v xml:space="preserve">    #クラッチ ダウン</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" t="str">
+        <f>SUBSTITUTE(C9,"@1",B9)</f>
+        <v xml:space="preserve">    self.SendDevice("c_dw")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" t="str">
+        <f>SUBSTITUTE(C11,"@1",B11)</f>
+        <v>elif pCmd.Command == "accel_up":</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" t="str">
+        <f>SUBSTITUTE(C12,"@1",B12)</f>
+        <v xml:space="preserve">    #アクセル アップ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" t="str">
+        <f>SUBSTITUTE(C13,"@1",B13)</f>
+        <v xml:space="preserve">    self.SendDevice("a_up")</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" t="str">
+        <f>SUBSTITUTE(C15,"@1",B15)</f>
+        <v>elif pCmd.Command == "accel_dw":</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" t="str">
+        <f>SUBSTITUTE(C16,"@1",B16)</f>
+        <v xml:space="preserve">    #アクセル ダウン</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" t="s">
+        <v>427</v>
+      </c>
+      <c r="D17" t="str">
+        <f>SUBSTITUTE(C17,"@1",B17)</f>
+        <v xml:space="preserve">    self.SendDevice("a_dw")</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" t="str">
+        <f>SUBSTITUTE(C19,"@1",B19)</f>
+        <v>elif pCmd.Command == "move_fw":</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" t="str">
+        <f>SUBSTITUTE(C20,"@1",B20)</f>
+        <v xml:space="preserve">    #移動 前進</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B21" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" t="str">
+        <f>SUBSTITUTE(C21,"@1",B21)</f>
+        <v xml:space="preserve">    self.SendDevice("m_fw")</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" t="str">
+        <f>SUBSTITUTE(C23,"@1",B23)</f>
+        <v>elif pCmd.Command == "move_bk":</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" t="str">
+        <f>SUBSTITUTE(C24,"@1",B24)</f>
+        <v xml:space="preserve">    #移動 後進</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" t="str">
+        <f>SUBSTITUTE(C25,"@1",B25)</f>
+        <v xml:space="preserve">    self.SendDevice("m_bk")</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D27" t="str">
+        <f>SUBSTITUTE(C27,"@1",B27)</f>
+        <v>elif pCmd.Command == "move_right":</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D28" t="str">
+        <f>SUBSTITUTE(C28,"@1",B28)</f>
+        <v xml:space="preserve">    #移動 右</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D29" t="str">
+        <f>SUBSTITUTE(C29,"@1",B29)</f>
+        <v xml:space="preserve">    self.SendDevice("m_r")</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" t="str">
+        <f>SUBSTITUTE(C31,"@1",B31)</f>
+        <v>elif pCmd.Command == "move_left":</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" t="str">
+        <f>SUBSTITUTE(C32,"@1",B32)</f>
+        <v xml:space="preserve">    #移動 左</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D33" t="str">
+        <f>SUBSTITUTE(C33,"@1",B33)</f>
+        <v xml:space="preserve">    self.SendDevice("m_l")</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" t="str">
+        <f>SUBSTITUTE(C35,"@1",B35)</f>
+        <v>elif pCmd.Command == "chute_L_lup":</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D36" t="str">
+        <f>SUBSTITUTE(C36,"@1",B36)</f>
+        <v xml:space="preserve">    #雪射出口 左上向き</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" t="s">
+        <v>427</v>
+      </c>
+      <c r="D37" t="str">
+        <f>SUBSTITUTE(C37,"@1",B37)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_lup")</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>451</v>
+      </c>
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
+        <v>398</v>
+      </c>
+      <c r="D39" t="str">
+        <f>SUBSTITUTE(C39,"@1",B39)</f>
+        <v>elif pCmd.Command == "chute_L_up":</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D40" t="str">
+        <f>SUBSTITUTE(C40,"@1",B40)</f>
+        <v xml:space="preserve">    #雪射出口 上向き</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>427</v>
+      </c>
+      <c r="D41" t="str">
+        <f>SUBSTITUTE(C41,"@1",B41)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_up")</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" t="str">
+        <f>SUBSTITUTE(C43,"@1",B43)</f>
+        <v>elif pCmd.Command == "chute_L_rup":</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" t="str">
+        <f>SUBSTITUTE(C44,"@1",B44)</f>
+        <v xml:space="preserve">    #雪射出口 右上向き</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" t="s">
+        <v>427</v>
+      </c>
+      <c r="D45" t="str">
+        <f>SUBSTITUTE(C45,"@1",B45)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_rup")</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" t="str">
+        <f>SUBSTITUTE(C47,"@1",B47)</f>
+        <v>elif pCmd.Command == "chute_L_right":</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" t="str">
+        <f>SUBSTITUTE(C48,"@1",B48)</f>
+        <v xml:space="preserve">    #雪射出口 右向き</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" t="str">
+        <f>SUBSTITUTE(C49,"@1",B49)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_right")</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>451</v>
+      </c>
+      <c r="B51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" t="s">
+        <v>398</v>
+      </c>
+      <c r="D51" t="str">
+        <f>SUBSTITUTE(C51,"@1",B51)</f>
+        <v>elif pCmd.Command == "chute_L_rdw":</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>452</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="C52" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" t="str">
+        <f>SUBSTITUTE(C52,"@1",B52)</f>
+        <v xml:space="preserve">    #雪射出口 右下向き</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>453</v>
+      </c>
+      <c r="B53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" t="str">
+        <f>SUBSTITUTE(C53,"@1",B53)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_rdw")</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>451</v>
+      </c>
+      <c r="B55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55" t="str">
+        <f>SUBSTITUTE(C55,"@1",B55)</f>
+        <v>elif pCmd.Command == "chute_L_dw":</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>452</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" t="str">
+        <f>SUBSTITUTE(C56,"@1",B56)</f>
+        <v xml:space="preserve">    #雪射出口 下向き</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>453</v>
+      </c>
+      <c r="B57" t="s">
+        <v>412</v>
+      </c>
+      <c r="C57" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" t="str">
+        <f>SUBSTITUTE(C57,"@1",B57)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_dw")</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>451</v>
+      </c>
+      <c r="B59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" t="s">
+        <v>398</v>
+      </c>
+      <c r="D59" t="str">
+        <f>SUBSTITUTE(C59,"@1",B59)</f>
+        <v>elif pCmd.Command == "chute_L_ldw":</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="C60" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D60" t="str">
+        <f>SUBSTITUTE(C60,"@1",B60)</f>
+        <v xml:space="preserve">    #雪射出口 左下向き</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>453</v>
+      </c>
+      <c r="B61" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" t="s">
+        <v>427</v>
+      </c>
+      <c r="D61" t="str">
+        <f>SUBSTITUTE(C61,"@1",B61)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_ldw")</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" t="str">
+        <f>SUBSTITUTE(C63,"@1",B63)</f>
+        <v>elif pCmd.Command == "chute_L_left":</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" t="str">
+        <f>SUBSTITUTE(C64,"@1",B64)</f>
+        <v xml:space="preserve">    #雪射出口 左向き</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" t="s">
+        <v>414</v>
+      </c>
+      <c r="C65" t="s">
+        <v>427</v>
+      </c>
+      <c r="D65" t="str">
+        <f>SUBSTITUTE(C65,"@1",B65)</f>
+        <v xml:space="preserve">    self.SendDevice("c_L_left")</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" t="str">
+        <f>SUBSTITUTE(C67,"@1",B67)</f>
+        <v>elif pCmd.Command == "chute_R_lup":</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D68" t="str">
+        <f>SUBSTITUTE(C68,"@1",B68)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 左上向き</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" t="s">
+        <v>415</v>
+      </c>
+      <c r="C69" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" t="str">
+        <f>SUBSTITUTE(C69,"@1",B69)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_lup")</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>451</v>
+      </c>
+      <c r="B71" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D71" t="str">
+        <f>SUBSTITUTE(C71,"@1",B71)</f>
+        <v>elif pCmd.Command == "chute_R_up":</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="C72" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" t="str">
+        <f>SUBSTITUTE(C72,"@1",B72)</f>
+        <v xml:space="preserve">    #雪射出口 上向き</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>453</v>
+      </c>
+      <c r="B73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C73" t="s">
+        <v>427</v>
+      </c>
+      <c r="D73" t="str">
+        <f>SUBSTITUTE(C73,"@1",B73)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_up")</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" t="str">
+        <f>SUBSTITUTE(C75,"@1",B75)</f>
+        <v>elif pCmd.Command == "chute_R_rup":</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="C76" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D76" t="str">
+        <f>SUBSTITUTE(C76,"@1",B76)</f>
+        <v xml:space="preserve">    #雪射出口 右上向き</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" t="s">
+        <v>417</v>
+      </c>
+      <c r="C77" t="s">
+        <v>427</v>
+      </c>
+      <c r="D77" t="str">
+        <f>SUBSTITUTE(C77,"@1",B77)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_rup")</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>451</v>
+      </c>
+      <c r="B79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" t="s">
+        <v>398</v>
+      </c>
+      <c r="D79" t="str">
+        <f>SUBSTITUTE(C79,"@1",B79)</f>
+        <v>elif pCmd.Command == "chute_R_right":</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>452</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="C80" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D80" t="str">
+        <f>SUBSTITUTE(C80,"@1",B80)</f>
+        <v xml:space="preserve">    #雪射出口 右向き</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>453</v>
+      </c>
+      <c r="B81" t="s">
+        <v>418</v>
+      </c>
+      <c r="C81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D81" t="str">
+        <f>SUBSTITUTE(C81,"@1",B81)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_right")</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" t="s">
+        <v>398</v>
+      </c>
+      <c r="D83" t="str">
+        <f>SUBSTITUTE(C83,"@1",B83)</f>
+        <v>elif pCmd.Command == "chute_R_rdw":</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>452</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="C84" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" t="str">
+        <f>SUBSTITUTE(C84,"@1",B84)</f>
+        <v xml:space="preserve">    #雪射出口 右下向き</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" t="s">
+        <v>427</v>
+      </c>
+      <c r="D85" t="str">
+        <f>SUBSTITUTE(C85,"@1",B85)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_rdw")</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>451</v>
+      </c>
+      <c r="B87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" t="str">
+        <f>SUBSTITUTE(C87,"@1",B87)</f>
+        <v>elif pCmd.Command == "chute_R_dw":</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>452</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C88" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" t="str">
+        <f>SUBSTITUTE(C88,"@1",B88)</f>
+        <v xml:space="preserve">    #雪射出口 下向き</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>453</v>
+      </c>
+      <c r="B89" t="s">
+        <v>420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>427</v>
+      </c>
+      <c r="D89" t="str">
+        <f>SUBSTITUTE(C89,"@1",B89)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_dw")</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>451</v>
+      </c>
+      <c r="B91" t="s">
+        <v>391</v>
+      </c>
+      <c r="C91" t="s">
+        <v>398</v>
+      </c>
+      <c r="D91" t="str">
+        <f>SUBSTITUTE(C91,"@1",B91)</f>
+        <v>elif pCmd.Command == "chute_R_ldw":</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>452</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D92" t="str">
+        <f>SUBSTITUTE(C92,"@1",B92)</f>
+        <v xml:space="preserve">    #雪射出口 左下向き</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>453</v>
+      </c>
+      <c r="B93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C93" t="s">
+        <v>427</v>
+      </c>
+      <c r="D93" t="str">
+        <f>SUBSTITUTE(C93,"@1",B93)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_ldw")</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>451</v>
+      </c>
+      <c r="B95" t="s">
+        <v>392</v>
+      </c>
+      <c r="C95" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" t="str">
+        <f>SUBSTITUTE(C95,"@1",B95)</f>
+        <v>elif pCmd.Command == "chute_R_left":</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>452</v>
+      </c>
+      <c r="B96" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="C96" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96" t="str">
+        <f>SUBSTITUTE(C96,"@1",B96)</f>
+        <v xml:space="preserve">    #雪射出口 左向き</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>453</v>
+      </c>
+      <c r="B97" t="s">
+        <v>422</v>
+      </c>
+      <c r="C97" t="s">
+        <v>427</v>
+      </c>
+      <c r="D97" t="str">
+        <f>SUBSTITUTE(C97,"@1",B97)</f>
+        <v xml:space="preserve">    self.SendDevice("c_R_left")</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>451</v>
+      </c>
+      <c r="B99" t="s">
+        <v>393</v>
+      </c>
+      <c r="C99" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" t="str">
+        <f>SUBSTITUTE(C99,"@1",B99)</f>
+        <v>elif pCmd.Command == "btn_sankaku":</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>452</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="C100" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D100" t="str">
+        <f>SUBSTITUTE(C100,"@1",B100)</f>
+        <v xml:space="preserve">    #未設定ボタン△</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>453</v>
+      </c>
+      <c r="B101" t="s">
+        <v>423</v>
+      </c>
+      <c r="C101" t="s">
+        <v>427</v>
+      </c>
+      <c r="D101" t="str">
+        <f>SUBSTITUTE(C101,"@1",B101)</f>
+        <v xml:space="preserve">    self.SendDevice("btn_sankaku")</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>451</v>
+      </c>
+      <c r="B103" t="s">
+        <v>394</v>
+      </c>
+      <c r="C103" t="s">
+        <v>398</v>
+      </c>
+      <c r="D103" t="str">
+        <f>SUBSTITUTE(C103,"@1",B103)</f>
+        <v>elif pCmd.Command == "btn_sikaku":</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>452</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D104" t="str">
+        <f>SUBSTITUTE(C104,"@1",B104)</f>
+        <v xml:space="preserve">    #未設定ボタン□</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>453</v>
+      </c>
+      <c r="B105" t="s">
+        <v>394</v>
+      </c>
+      <c r="C105" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" t="str">
+        <f>SUBSTITUTE(C105,"@1",B105)</f>
+        <v xml:space="preserve">    self.SendDevice("btn_sikaku")</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>451</v>
+      </c>
+      <c r="B107" t="s">
+        <v>395</v>
+      </c>
+      <c r="C107" t="s">
+        <v>398</v>
+      </c>
+      <c r="D107" t="str">
+        <f>SUBSTITUTE(C107,"@1",B107)</f>
+        <v>elif pCmd.Command == "btn_on":</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>452</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="C108" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D108" t="str">
+        <f>SUBSTITUTE(C108,"@1",B108)</f>
+        <v xml:space="preserve">    #歯の回転のON</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>453</v>
+      </c>
+      <c r="B109" t="s">
+        <v>426</v>
+      </c>
+      <c r="C109" t="s">
+        <v>427</v>
+      </c>
+      <c r="D109" t="str">
+        <f>SUBSTITUTE(C109,"@1",B109)</f>
+        <v xml:space="preserve">    self.SendDevice("on")</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>451</v>
+      </c>
+      <c r="B111" t="s">
+        <v>396</v>
+      </c>
+      <c r="C111" t="s">
+        <v>398</v>
+      </c>
+      <c r="D111" t="str">
+        <f>SUBSTITUTE(C111,"@1",B111)</f>
+        <v>elif pCmd.Command == "btn_off":</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>452</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="C112" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" t="str">
+        <f>SUBSTITUTE(C112,"@1",B112)</f>
+        <v xml:space="preserve">    #歯の回転のOFF</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>453</v>
+      </c>
+      <c r="B113" t="s">
+        <v>424</v>
+      </c>
+      <c r="C113" t="s">
+        <v>427</v>
+      </c>
+      <c r="D113" t="str">
+        <f>SUBSTITUTE(C113,"@1",B113)</f>
+        <v xml:space="preserve">    self.SendDevice("off")</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>451</v>
+      </c>
+      <c r="B115" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115" t="s">
+        <v>398</v>
+      </c>
+      <c r="D115" t="str">
+        <f>SUBSTITUTE(C115,"@1",B115)</f>
+        <v>elif pCmd.Command == "btn_em":</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>452</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="C116" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D116" t="str">
+        <f>SUBSTITUTE(C116,"@1",B116)</f>
+        <v xml:space="preserve">    #緊急停止</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>453</v>
+      </c>
+      <c r="B117" t="s">
+        <v>425</v>
+      </c>
+      <c r="C117" t="s">
+        <v>427</v>
+      </c>
+      <c r="D117" t="str">
+        <f>SUBSTITUTE(C117,"@1",B117)</f>
+        <v xml:space="preserve">    self.SendDevice("em")</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156930D-9A58-47B4-AE60-CF43FD6FE579}">
   <dimension ref="A1:CL150"/>
@@ -22791,11 +24545,11 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="93" t="s">
+      <c r="T7" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="U7" s="94"/>
-      <c r="V7" s="107"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="89"/>
       <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -22881,26 +24635,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="96">
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="112">
         <v>9999</v>
       </c>
-      <c r="P10" s="96"/>
-      <c r="R10" s="95" t="s">
+      <c r="P10" s="112"/>
+      <c r="R10" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="96">
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="112">
         <v>9999</v>
       </c>
-      <c r="W10" s="96"/>
+      <c r="W10" s="112"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -22926,50 +24680,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="116" t="s">
+      <c r="AY10" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="AZ10" s="117"/>
-      <c r="BA10" s="117"/>
-      <c r="BB10" s="117"/>
-      <c r="BC10" s="118"/>
-      <c r="BL10" s="108" t="s">
+      <c r="AZ10" s="99"/>
+      <c r="BA10" s="99"/>
+      <c r="BB10" s="99"/>
+      <c r="BC10" s="100"/>
+      <c r="BL10" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="BM10" s="109"/>
-      <c r="BN10" s="109"/>
-      <c r="BO10" s="109"/>
-      <c r="BP10" s="109"/>
-      <c r="BQ10" s="110"/>
+      <c r="BM10" s="94"/>
+      <c r="BN10" s="94"/>
+      <c r="BO10" s="94"/>
+      <c r="BP10" s="94"/>
+      <c r="BQ10" s="95"/>
       <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT10" s="93" t="s">
+      <c r="BT10" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="BU10" s="94"/>
-      <c r="BV10" s="107"/>
+      <c r="BU10" s="88"/>
+      <c r="BV10" s="89"/>
       <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="R11" s="95" t="s">
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="R11" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -23002,24 +24756,24 @@
       <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="113" t="s">
+      <c r="AZ12" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="BA12" s="114"/>
-      <c r="BB12" s="114"/>
-      <c r="BC12" s="115"/>
-      <c r="BD12" s="93" t="s">
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="92"/>
+      <c r="BD12" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE12" s="107"/>
-      <c r="BF12" s="111">
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="96">
         <v>50000</v>
       </c>
-      <c r="BG12" s="112"/>
-      <c r="BH12" s="93" t="s">
+      <c r="BG12" s="97"/>
+      <c r="BH12" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="BI12" s="107"/>
+      <c r="BI12" s="89"/>
       <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
@@ -23045,24 +24799,24 @@
       <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="113" t="s">
+      <c r="AZ13" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="BA13" s="114"/>
-      <c r="BB13" s="114"/>
-      <c r="BC13" s="115"/>
-      <c r="BD13" s="93" t="s">
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE13" s="107"/>
-      <c r="BF13" s="111">
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="96">
         <v>50001</v>
       </c>
-      <c r="BG13" s="112"/>
-      <c r="BH13" s="93" t="s">
+      <c r="BG13" s="97"/>
+      <c r="BH13" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="BI13" s="107"/>
+      <c r="BI13" s="89"/>
       <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
@@ -23092,24 +24846,24 @@
       <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="113" t="s">
+      <c r="AZ14" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="BA14" s="114"/>
-      <c r="BB14" s="114"/>
-      <c r="BC14" s="115"/>
-      <c r="BD14" s="93" t="s">
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE14" s="107"/>
-      <c r="BF14" s="111">
+      <c r="BE14" s="89"/>
+      <c r="BF14" s="96">
         <v>50002</v>
       </c>
-      <c r="BG14" s="112"/>
-      <c r="BH14" s="93" t="s">
+      <c r="BG14" s="97"/>
+      <c r="BH14" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="BI14" s="107"/>
+      <c r="BI14" s="89"/>
       <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
@@ -23132,22 +24886,22 @@
       <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="114"/>
-      <c r="BB15" s="114"/>
-      <c r="BC15" s="115"/>
-      <c r="BD15" s="93" t="s">
+      <c r="AZ15" s="90"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE15" s="107"/>
-      <c r="BF15" s="111">
+      <c r="BE15" s="89"/>
+      <c r="BF15" s="96">
         <v>50003</v>
       </c>
-      <c r="BG15" s="112"/>
-      <c r="BH15" s="93" t="s">
+      <c r="BG15" s="97"/>
+      <c r="BH15" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="BI15" s="107"/>
+      <c r="BI15" s="89"/>
       <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
@@ -23168,22 +24922,22 @@
       <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="114"/>
-      <c r="BB16" s="114"/>
-      <c r="BC16" s="115"/>
-      <c r="BD16" s="93" t="s">
+      <c r="AZ16" s="90"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="BE16" s="107"/>
-      <c r="BF16" s="111">
+      <c r="BE16" s="89"/>
+      <c r="BF16" s="96">
         <v>50004</v>
       </c>
-      <c r="BG16" s="112"/>
-      <c r="BH16" s="93" t="s">
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="BI16" s="107"/>
+      <c r="BI16" s="89"/>
       <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
@@ -23199,9 +24953,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -23210,16 +24964,16 @@
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="114"/>
-      <c r="BB17" s="114"/>
-      <c r="BC17" s="115"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="107"/>
-      <c r="BF17" s="111"/>
-      <c r="BG17" s="112"/>
-      <c r="BH17" s="93"/>
-      <c r="BI17" s="107"/>
+      <c r="AZ17" s="90"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="87"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="96"/>
+      <c r="BG17" s="97"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="89"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -23236,15 +24990,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="92"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="110"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="93" t="s">
+      <c r="U18" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -23262,11 +25016,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="93" t="s">
+      <c r="S19" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -23310,33 +25064,33 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="100" t="s">
+      <c r="S21" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="118"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="108" t="s">
+      <c r="BL21" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="BM21" s="109"/>
-      <c r="BN21" s="109"/>
-      <c r="BO21" s="109"/>
-      <c r="BP21" s="109"/>
-      <c r="BQ21" s="110"/>
+      <c r="BM21" s="94"/>
+      <c r="BN21" s="94"/>
+      <c r="BO21" s="94"/>
+      <c r="BP21" s="94"/>
+      <c r="BQ21" s="95"/>
       <c r="BR21" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT21" s="93" t="s">
+      <c r="BT21" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="BU21" s="94"/>
-      <c r="BV21" s="107"/>
+      <c r="BU21" s="88"/>
+      <c r="BV21" s="89"/>
       <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
@@ -23411,12 +25165,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="97" t="s">
+      <c r="O25" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="99"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="115"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -23572,39 +25326,39 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="108" t="s">
+      <c r="AY31" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="AZ31" s="109"/>
-      <c r="BA31" s="109"/>
-      <c r="BB31" s="109"/>
-      <c r="BC31" s="109"/>
-      <c r="BD31" s="110"/>
+      <c r="AZ31" s="94"/>
+      <c r="BA31" s="94"/>
+      <c r="BB31" s="94"/>
+      <c r="BC31" s="94"/>
+      <c r="BD31" s="95"/>
       <c r="BE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BG31" s="93" t="s">
+      <c r="BG31" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="BH31" s="94"/>
-      <c r="BI31" s="107"/>
+      <c r="BH31" s="88"/>
+      <c r="BI31" s="89"/>
       <c r="BK31" s="69"/>
-      <c r="BY31" s="108" t="s">
+      <c r="BY31" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="BZ31" s="109"/>
-      <c r="CA31" s="109"/>
-      <c r="CB31" s="109"/>
-      <c r="CC31" s="109"/>
-      <c r="CD31" s="110"/>
+      <c r="BZ31" s="94"/>
+      <c r="CA31" s="94"/>
+      <c r="CB31" s="94"/>
+      <c r="CC31" s="94"/>
+      <c r="CD31" s="95"/>
       <c r="CE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="CG31" s="93" t="s">
+      <c r="CG31" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="CH31" s="94"/>
-      <c r="CI31" s="107"/>
+      <c r="CH31" s="88"/>
+      <c r="CI31" s="89"/>
       <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
@@ -23683,17 +25437,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="87">
+      <c r="L34" s="105">
         <v>9999</v>
       </c>
-      <c r="M34" s="87"/>
+      <c r="M34" s="105"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="88">
+      <c r="V34" s="106">
         <v>9999</v>
       </c>
-      <c r="W34" s="89"/>
+      <c r="W34" s="107"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -23711,17 +25465,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="87">
+      <c r="L35" s="105">
         <v>9999</v>
       </c>
-      <c r="M35" s="87"/>
+      <c r="M35" s="105"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="88">
+      <c r="V35" s="106">
         <v>9999</v>
       </c>
-      <c r="W35" s="89"/>
+      <c r="W35" s="107"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -23845,22 +25599,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="108" t="s">
+      <c r="BL41" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="BM41" s="109"/>
-      <c r="BN41" s="109"/>
-      <c r="BO41" s="109"/>
-      <c r="BP41" s="109"/>
-      <c r="BQ41" s="110"/>
+      <c r="BM41" s="94"/>
+      <c r="BN41" s="94"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="94"/>
+      <c r="BQ41" s="95"/>
       <c r="BR41" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT41" s="93" t="s">
+      <c r="BT41" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="BU41" s="94"/>
-      <c r="BV41" s="107"/>
+      <c r="BU41" s="88"/>
+      <c r="BV41" s="89"/>
       <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
@@ -24164,55 +25918,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="104">
+      <c r="T134" s="103">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="105"/>
+      <c r="U134" s="104"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="103" t="s">
+      <c r="W134" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="103"/>
-      <c r="Y134" s="103"/>
+      <c r="X134" s="101"/>
+      <c r="Y134" s="101"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="103" t="s">
+      <c r="AA134" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="103"/>
-      <c r="AC134" s="103"/>
+      <c r="AB134" s="101"/>
+      <c r="AC134" s="101"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="106">
+      <c r="AE134" s="102">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="104"/>
+      <c r="AF134" s="103"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="104">
+      <c r="AH134" s="103">
         <v>-1</v>
       </c>
-      <c r="AI134" s="105"/>
+      <c r="AI134" s="104"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="103" t="s">
+      <c r="AK134" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="103"/>
-      <c r="AM134" s="103"/>
+      <c r="AL134" s="101"/>
+      <c r="AM134" s="101"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="103"/>
-      <c r="AP134" s="103"/>
-      <c r="AQ134" s="103"/>
+      <c r="AO134" s="101"/>
+      <c r="AP134" s="101"/>
+      <c r="AQ134" s="101"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="106"/>
-      <c r="AT134" s="104"/>
+      <c r="AS134" s="102"/>
+      <c r="AT134" s="103"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -24220,63 +25974,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="104">
+      <c r="T135" s="103">
         <v>0.5</v>
       </c>
-      <c r="U135" s="105"/>
+      <c r="U135" s="104"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="103" t="s">
+      <c r="W135" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="103"/>
-      <c r="Y135" s="103"/>
+      <c r="X135" s="101"/>
+      <c r="Y135" s="101"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="103" t="s">
+      <c r="AA135" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="103"/>
-      <c r="AC135" s="103"/>
+      <c r="AB135" s="101"/>
+      <c r="AC135" s="101"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="106">
+      <c r="AE135" s="102">
         <v>1</v>
       </c>
-      <c r="AF135" s="104"/>
+      <c r="AF135" s="103"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="104">
+      <c r="AH135" s="103">
         <v>-1</v>
       </c>
-      <c r="AI135" s="105"/>
+      <c r="AI135" s="104"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="103" t="s">
+      <c r="AK135" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="103"/>
-      <c r="AM135" s="103"/>
+      <c r="AL135" s="101"/>
+      <c r="AM135" s="101"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="103" t="s">
+      <c r="AO135" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="103"/>
-      <c r="AQ135" s="103"/>
+      <c r="AP135" s="101"/>
+      <c r="AQ135" s="101"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="106">
+      <c r="AS135" s="102">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="104"/>
+      <c r="AT135" s="103"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -24285,55 +26039,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="104">
+      <c r="T136" s="103">
         <v>1</v>
       </c>
-      <c r="U136" s="105"/>
+      <c r="U136" s="104"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="103" t="s">
+      <c r="W136" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="103"/>
-      <c r="Y136" s="103"/>
+      <c r="X136" s="101"/>
+      <c r="Y136" s="101"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="103"/>
-      <c r="AB136" s="103"/>
-      <c r="AC136" s="103"/>
+      <c r="AA136" s="101"/>
+      <c r="AB136" s="101"/>
+      <c r="AC136" s="101"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="106"/>
-      <c r="AF136" s="104"/>
+      <c r="AE136" s="102"/>
+      <c r="AF136" s="103"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="104">
+      <c r="AH136" s="103">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="105"/>
+      <c r="AI136" s="104"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="103" t="s">
+      <c r="AK136" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="103"/>
-      <c r="AM136" s="103"/>
+      <c r="AL136" s="101"/>
+      <c r="AM136" s="101"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="103" t="s">
+      <c r="AO136" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="103"/>
-      <c r="AQ136" s="103"/>
+      <c r="AP136" s="101"/>
+      <c r="AQ136" s="101"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="106">
+      <c r="AS136" s="102">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="104"/>
+      <c r="AT136" s="103"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -24347,295 +26101,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="104">
+      <c r="T137" s="103">
         <v>0.5</v>
       </c>
-      <c r="U137" s="105"/>
+      <c r="U137" s="104"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="103" t="s">
+      <c r="W137" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="103"/>
-      <c r="Y137" s="103"/>
+      <c r="X137" s="101"/>
+      <c r="Y137" s="101"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="103" t="s">
+      <c r="AA137" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="103"/>
-      <c r="AC137" s="103"/>
+      <c r="AB137" s="101"/>
+      <c r="AC137" s="101"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="106">
+      <c r="AE137" s="102">
         <v>1</v>
       </c>
-      <c r="AF137" s="104"/>
+      <c r="AF137" s="103"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="104">
+      <c r="AH137" s="103">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="105"/>
+      <c r="AI137" s="104"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="103" t="s">
+      <c r="AK137" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="103"/>
-      <c r="AM137" s="103"/>
+      <c r="AL137" s="101"/>
+      <c r="AM137" s="101"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="103" t="s">
+      <c r="AO137" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="103"/>
-      <c r="AQ137" s="103"/>
+      <c r="AP137" s="101"/>
+      <c r="AQ137" s="101"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="106">
+      <c r="AS137" s="102">
         <v>1</v>
       </c>
-      <c r="AT137" s="104"/>
+      <c r="AT137" s="103"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="104">
+      <c r="T138" s="103">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="105"/>
+      <c r="U138" s="104"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="103" t="s">
+      <c r="W138" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="103"/>
-      <c r="Y138" s="103"/>
+      <c r="X138" s="101"/>
+      <c r="Y138" s="101"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="103" t="s">
+      <c r="AA138" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="103"/>
-      <c r="AC138" s="103"/>
+      <c r="AB138" s="101"/>
+      <c r="AC138" s="101"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="106">
+      <c r="AE138" s="102">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="104"/>
+      <c r="AF138" s="103"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="104">
+      <c r="AH138" s="103">
         <v>1</v>
       </c>
-      <c r="AI138" s="105"/>
+      <c r="AI138" s="104"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="103" t="s">
+      <c r="AK138" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="103"/>
-      <c r="AM138" s="103"/>
+      <c r="AL138" s="101"/>
+      <c r="AM138" s="101"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="103"/>
-      <c r="AP138" s="103"/>
-      <c r="AQ138" s="103"/>
+      <c r="AO138" s="101"/>
+      <c r="AP138" s="101"/>
+      <c r="AQ138" s="101"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="106"/>
-      <c r="AT138" s="104"/>
+      <c r="AS138" s="102"/>
+      <c r="AT138" s="103"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="104">
+      <c r="T139" s="103">
         <v>-1</v>
       </c>
-      <c r="U139" s="105"/>
+      <c r="U139" s="104"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="103" t="s">
+      <c r="W139" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="103"/>
-      <c r="Y139" s="103"/>
+      <c r="X139" s="101"/>
+      <c r="Y139" s="101"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="103" t="s">
+      <c r="AA139" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="103"/>
-      <c r="AC139" s="103"/>
+      <c r="AB139" s="101"/>
+      <c r="AC139" s="101"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="106">
+      <c r="AE139" s="102">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="104"/>
+      <c r="AF139" s="103"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="104">
+      <c r="AH139" s="103">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="105"/>
+      <c r="AI139" s="104"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="103" t="s">
+      <c r="AK139" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="103"/>
-      <c r="AM139" s="103"/>
+      <c r="AL139" s="101"/>
+      <c r="AM139" s="101"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="103" t="s">
+      <c r="AO139" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="103"/>
-      <c r="AQ139" s="103"/>
+      <c r="AP139" s="101"/>
+      <c r="AQ139" s="101"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="106">
+      <c r="AS139" s="102">
         <v>1</v>
       </c>
-      <c r="AT139" s="104"/>
+      <c r="AT139" s="103"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="104">
+      <c r="T140" s="103">
         <v>-1</v>
       </c>
-      <c r="U140" s="105"/>
+      <c r="U140" s="104"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="103" t="s">
+      <c r="W140" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="103"/>
-      <c r="Y140" s="103"/>
+      <c r="X140" s="101"/>
+      <c r="Y140" s="101"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="103"/>
-      <c r="AB140" s="103"/>
-      <c r="AC140" s="103"/>
+      <c r="AA140" s="101"/>
+      <c r="AB140" s="101"/>
+      <c r="AC140" s="101"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="106"/>
-      <c r="AF140" s="104"/>
+      <c r="AE140" s="102"/>
+      <c r="AF140" s="103"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="104">
+      <c r="AH140" s="103">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="105"/>
+      <c r="AI140" s="104"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="103" t="s">
+      <c r="AK140" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="103"/>
-      <c r="AM140" s="103"/>
+      <c r="AL140" s="101"/>
+      <c r="AM140" s="101"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="103" t="s">
+      <c r="AO140" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="103"/>
-      <c r="AQ140" s="103"/>
+      <c r="AP140" s="101"/>
+      <c r="AQ140" s="101"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="106">
+      <c r="AS140" s="102">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="104"/>
+      <c r="AT140" s="103"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="104">
+      <c r="T141" s="103">
         <v>-1</v>
       </c>
-      <c r="U141" s="105"/>
+      <c r="U141" s="104"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="103" t="s">
+      <c r="W141" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="103"/>
-      <c r="Y141" s="103"/>
+      <c r="X141" s="101"/>
+      <c r="Y141" s="101"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="103" t="s">
+      <c r="AA141" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="103"/>
-      <c r="AC141" s="103"/>
+      <c r="AB141" s="101"/>
+      <c r="AC141" s="101"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="106">
+      <c r="AE141" s="102">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="104"/>
+      <c r="AF141" s="103"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="104">
+      <c r="AH141" s="103">
         <v>-1</v>
       </c>
-      <c r="AI141" s="105"/>
+      <c r="AI141" s="104"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="103" t="s">
+      <c r="AK141" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="103"/>
-      <c r="AM141" s="103"/>
+      <c r="AL141" s="101"/>
+      <c r="AM141" s="101"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="103" t="s">
+      <c r="AO141" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="103"/>
-      <c r="AQ141" s="103"/>
+      <c r="AP141" s="101"/>
+      <c r="AQ141" s="101"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="106">
+      <c r="AS141" s="102">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="104"/>
+      <c r="AT141" s="103"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -24711,40 +26465,64 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
     <mergeCell ref="BT10:BV10"/>
     <mergeCell ref="BL10:BQ10"/>
     <mergeCell ref="AK137:AM137"/>
@@ -24769,64 +26547,40 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -26132,35 +27886,35 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:40">
-      <c r="E31" s="120" t="s">
+      <c r="E31" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120" t="s">
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120" t="s">
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120" t="s">
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="120"/>
+      <c r="Y31" s="122"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
@@ -26190,16 +27944,16 @@
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="87" t="s">
+      <c r="T32" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87">
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105">
         <v>1</v>
       </c>
-      <c r="Y32" s="87"/>
+      <c r="Y32" s="105"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
@@ -26223,16 +27977,16 @@
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="87" t="s">
+      <c r="T33" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87">
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105">
         <v>1</v>
       </c>
-      <c r="Y33" s="87"/>
+      <c r="Y33" s="105"/>
       <c r="AN33" t="s">
         <v>215</v>
       </c>
@@ -26268,14 +28022,14 @@
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87">
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105">
         <v>1</v>
       </c>
-      <c r="Y34" s="87"/>
+      <c r="Y34" s="105"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
@@ -26312,14 +28066,14 @@
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87">
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105">
         <v>1</v>
       </c>
-      <c r="Y35" s="87"/>
+      <c r="Y35" s="105"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
@@ -26332,35 +28086,35 @@
       <c r="A36" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E36" s="122" t="s">
+      <c r="E36" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122" t="s">
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
       <c r="S36" s="81">
         <v>1</v>
       </c>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95">
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111">
         <v>1</v>
       </c>
-      <c r="Y36" s="95"/>
+      <c r="Y36" s="111"/>
       <c r="AA36" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
@@ -26373,35 +28127,35 @@
       <c r="A37" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122" t="s">
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="122"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
       <c r="S37" s="81">
         <v>1</v>
       </c>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95">
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111">
         <v>1</v>
       </c>
-      <c r="Y37" s="95"/>
+      <c r="Y37" s="111"/>
       <c r="AA37" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
@@ -26432,14 +28186,14 @@
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87">
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="105"/>
+      <c r="X38" s="105">
         <v>1</v>
       </c>
-      <c r="Y38" s="87"/>
+      <c r="Y38" s="105"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
@@ -26470,14 +28224,14 @@
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87">
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105">
         <v>1</v>
       </c>
-      <c r="Y39" s="87"/>
+      <c r="Y39" s="105"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
@@ -26508,14 +28262,14 @@
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87">
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105">
         <v>1</v>
       </c>
-      <c r="Y40" s="87"/>
+      <c r="Y40" s="105"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
@@ -26546,14 +28300,14 @@
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
-      <c r="V41" s="87"/>
-      <c r="W41" s="87"/>
-      <c r="X41" s="87">
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="105"/>
+      <c r="X41" s="105">
         <v>1</v>
       </c>
-      <c r="Y41" s="87"/>
+      <c r="Y41" s="105"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
@@ -26584,14 +28338,14 @@
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87">
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="105">
         <v>1</v>
       </c>
-      <c r="Y42" s="87"/>
+      <c r="Y42" s="105"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
@@ -26622,14 +28376,14 @@
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87">
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="105">
         <v>1</v>
       </c>
-      <c r="Y43" s="87"/>
+      <c r="Y43" s="105"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
@@ -26660,14 +28414,14 @@
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87">
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="105"/>
+      <c r="X44" s="105">
         <v>1</v>
       </c>
-      <c r="Y44" s="87"/>
+      <c r="Y44" s="105"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
@@ -26698,14 +28452,14 @@
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87">
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="105">
         <v>1</v>
       </c>
-      <c r="Y45" s="87"/>
+      <c r="Y45" s="105"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
@@ -26736,14 +28490,14 @@
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="87">
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="105">
         <v>1</v>
       </c>
-      <c r="Y46" s="87"/>
+      <c r="Y46" s="105"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
@@ -26777,14 +28531,14 @@
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87">
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="105">
         <v>1</v>
       </c>
-      <c r="Y47" s="87"/>
+      <c r="Y47" s="105"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
@@ -26818,14 +28572,14 @@
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="87"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87">
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="105">
         <v>1</v>
       </c>
-      <c r="Y48" s="87"/>
+      <c r="Y48" s="105"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -26992,53 +28746,53 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="120" t="s">
+      <c r="E78" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="120"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120" t="s">
+      <c r="F78" s="122"/>
+      <c r="G78" s="122"/>
+      <c r="H78" s="122"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="120"/>
-      <c r="R78" s="120"/>
-      <c r="S78" s="120" t="s">
+      <c r="K78" s="122"/>
+      <c r="L78" s="122"/>
+      <c r="M78" s="122"/>
+      <c r="N78" s="122"/>
+      <c r="O78" s="122"/>
+      <c r="P78" s="122"/>
+      <c r="Q78" s="122"/>
+      <c r="R78" s="122"/>
+      <c r="S78" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="120"/>
-      <c r="U78" s="120"/>
-      <c r="V78" s="120"/>
-      <c r="W78" s="120"/>
-      <c r="X78" s="120" t="s">
+      <c r="T78" s="122"/>
+      <c r="U78" s="122"/>
+      <c r="V78" s="122"/>
+      <c r="W78" s="122"/>
+      <c r="X78" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="120"/>
-      <c r="Z78" s="120" t="s">
+      <c r="Y78" s="122"/>
+      <c r="Z78" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="120"/>
-      <c r="AB78" s="120"/>
-      <c r="AC78" s="120"/>
-      <c r="AD78" s="120"/>
-      <c r="AE78" s="120"/>
-      <c r="AF78" s="120"/>
-      <c r="AG78" s="120" t="s">
+      <c r="AA78" s="122"/>
+      <c r="AB78" s="122"/>
+      <c r="AC78" s="122"/>
+      <c r="AD78" s="122"/>
+      <c r="AE78" s="122"/>
+      <c r="AF78" s="122"/>
+      <c r="AG78" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="120"/>
-      <c r="AI78" s="120"/>
-      <c r="AJ78" s="120"/>
-      <c r="AK78" s="120"/>
-      <c r="AL78" s="120"/>
-      <c r="AM78" s="120"/>
+      <c r="AH78" s="122"/>
+      <c r="AI78" s="122"/>
+      <c r="AJ78" s="122"/>
+      <c r="AK78" s="122"/>
+      <c r="AL78" s="122"/>
+      <c r="AM78" s="122"/>
     </row>
     <row r="79" spans="4:39">
       <c r="E79" s="121" t="s">
@@ -27062,27 +28816,27 @@
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="87" t="s">
+      <c r="T79" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="87"/>
-      <c r="V79" s="87"/>
-      <c r="W79" s="87"/>
-      <c r="X79" s="87">
+      <c r="U79" s="105"/>
+      <c r="V79" s="105"/>
+      <c r="W79" s="105"/>
+      <c r="X79" s="105">
         <v>1</v>
       </c>
-      <c r="Y79" s="87"/>
-      <c r="Z79" s="123" t="s">
+      <c r="Y79" s="105"/>
+      <c r="Z79" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="123"/>
-      <c r="AB79" s="123"/>
-      <c r="AC79" s="87" t="s">
+      <c r="AA79" s="120"/>
+      <c r="AB79" s="120"/>
+      <c r="AC79" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="87"/>
-      <c r="AE79" s="87"/>
-      <c r="AF79" s="87"/>
+      <c r="AD79" s="105"/>
+      <c r="AE79" s="105"/>
+      <c r="AF79" s="105"/>
       <c r="AG79" s="119" t="s">
         <v>137</v>
       </c>
@@ -27111,23 +28865,23 @@
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="87" t="s">
+      <c r="T80" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="87"/>
-      <c r="V80" s="87"/>
-      <c r="W80" s="87"/>
-      <c r="X80" s="87">
+      <c r="U80" s="105"/>
+      <c r="V80" s="105"/>
+      <c r="W80" s="105"/>
+      <c r="X80" s="105">
         <v>1</v>
       </c>
-      <c r="Y80" s="87"/>
-      <c r="Z80" s="123"/>
-      <c r="AA80" s="123"/>
-      <c r="AB80" s="123"/>
-      <c r="AC80" s="87"/>
-      <c r="AD80" s="87"/>
-      <c r="AE80" s="87"/>
-      <c r="AF80" s="87"/>
+      <c r="Y80" s="105"/>
+      <c r="Z80" s="120"/>
+      <c r="AA80" s="120"/>
+      <c r="AB80" s="120"/>
+      <c r="AC80" s="105"/>
+      <c r="AD80" s="105"/>
+      <c r="AE80" s="105"/>
+      <c r="AF80" s="105"/>
       <c r="AG80" s="119"/>
       <c r="AH80" s="119"/>
       <c r="AI80" s="119"/>
@@ -27158,27 +28912,27 @@
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="87" t="s">
+      <c r="T81" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="87"/>
-      <c r="V81" s="87"/>
-      <c r="W81" s="87"/>
-      <c r="X81" s="87">
+      <c r="U81" s="105"/>
+      <c r="V81" s="105"/>
+      <c r="W81" s="105"/>
+      <c r="X81" s="105">
         <v>1</v>
       </c>
-      <c r="Y81" s="87"/>
-      <c r="Z81" s="123" t="s">
+      <c r="Y81" s="105"/>
+      <c r="Z81" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="123"/>
-      <c r="AB81" s="123"/>
-      <c r="AC81" s="87" t="s">
+      <c r="AA81" s="120"/>
+      <c r="AB81" s="120"/>
+      <c r="AC81" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="87"/>
-      <c r="AE81" s="87"/>
-      <c r="AF81" s="87"/>
+      <c r="AD81" s="105"/>
+      <c r="AE81" s="105"/>
+      <c r="AF81" s="105"/>
       <c r="AG81" s="119" t="s">
         <v>137</v>
       </c>
@@ -27207,23 +28961,23 @@
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="87" t="s">
+      <c r="T82" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="87"/>
-      <c r="V82" s="87"/>
-      <c r="W82" s="87"/>
-      <c r="X82" s="87">
+      <c r="U82" s="105"/>
+      <c r="V82" s="105"/>
+      <c r="W82" s="105"/>
+      <c r="X82" s="105">
         <v>1</v>
       </c>
-      <c r="Y82" s="87"/>
-      <c r="Z82" s="123"/>
-      <c r="AA82" s="123"/>
-      <c r="AB82" s="123"/>
-      <c r="AC82" s="87"/>
-      <c r="AD82" s="87"/>
-      <c r="AE82" s="87"/>
-      <c r="AF82" s="87"/>
+      <c r="Y82" s="105"/>
+      <c r="Z82" s="120"/>
+      <c r="AA82" s="120"/>
+      <c r="AB82" s="120"/>
+      <c r="AC82" s="105"/>
+      <c r="AD82" s="105"/>
+      <c r="AE82" s="105"/>
+      <c r="AF82" s="105"/>
       <c r="AG82" s="119"/>
       <c r="AH82" s="119"/>
       <c r="AI82" s="119"/>
@@ -27254,27 +29008,27 @@
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="87" t="s">
+      <c r="T83" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="87"/>
-      <c r="V83" s="87"/>
-      <c r="W83" s="87"/>
-      <c r="X83" s="87">
+      <c r="U83" s="105"/>
+      <c r="V83" s="105"/>
+      <c r="W83" s="105"/>
+      <c r="X83" s="105">
         <v>1</v>
       </c>
-      <c r="Y83" s="87"/>
-      <c r="Z83" s="123" t="s">
+      <c r="Y83" s="105"/>
+      <c r="Z83" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="123"/>
-      <c r="AB83" s="123"/>
-      <c r="AC83" s="87" t="s">
+      <c r="AA83" s="120"/>
+      <c r="AB83" s="120"/>
+      <c r="AC83" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="87"/>
-      <c r="AE83" s="87"/>
-      <c r="AF83" s="87"/>
+      <c r="AD83" s="105"/>
+      <c r="AE83" s="105"/>
+      <c r="AF83" s="105"/>
       <c r="AG83" s="119" t="s">
         <v>137</v>
       </c>
@@ -27303,23 +29057,23 @@
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="87" t="s">
+      <c r="T84" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="87"/>
-      <c r="V84" s="87"/>
-      <c r="W84" s="87"/>
-      <c r="X84" s="87">
+      <c r="U84" s="105"/>
+      <c r="V84" s="105"/>
+      <c r="W84" s="105"/>
+      <c r="X84" s="105">
         <v>1</v>
       </c>
-      <c r="Y84" s="87"/>
-      <c r="Z84" s="123"/>
-      <c r="AA84" s="123"/>
-      <c r="AB84" s="123"/>
-      <c r="AC84" s="87"/>
-      <c r="AD84" s="87"/>
-      <c r="AE84" s="87"/>
-      <c r="AF84" s="87"/>
+      <c r="Y84" s="105"/>
+      <c r="Z84" s="120"/>
+      <c r="AA84" s="120"/>
+      <c r="AB84" s="120"/>
+      <c r="AC84" s="105"/>
+      <c r="AD84" s="105"/>
+      <c r="AE84" s="105"/>
+      <c r="AF84" s="105"/>
       <c r="AG84" s="119"/>
       <c r="AH84" s="119"/>
       <c r="AI84" s="119"/>
@@ -27350,27 +29104,27 @@
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="87" t="s">
+      <c r="T85" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="87"/>
-      <c r="V85" s="87"/>
-      <c r="W85" s="87"/>
-      <c r="X85" s="87">
+      <c r="U85" s="105"/>
+      <c r="V85" s="105"/>
+      <c r="W85" s="105"/>
+      <c r="X85" s="105">
         <v>1</v>
       </c>
-      <c r="Y85" s="87"/>
-      <c r="Z85" s="123" t="s">
+      <c r="Y85" s="105"/>
+      <c r="Z85" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="123"/>
-      <c r="AB85" s="123"/>
-      <c r="AC85" s="87" t="s">
+      <c r="AA85" s="120"/>
+      <c r="AB85" s="120"/>
+      <c r="AC85" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="87"/>
-      <c r="AE85" s="87"/>
-      <c r="AF85" s="87"/>
+      <c r="AD85" s="105"/>
+      <c r="AE85" s="105"/>
+      <c r="AF85" s="105"/>
       <c r="AG85" s="119" t="s">
         <v>137</v>
       </c>
@@ -27399,23 +29153,23 @@
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="87" t="s">
+      <c r="T86" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="87"/>
-      <c r="V86" s="87"/>
-      <c r="W86" s="87"/>
-      <c r="X86" s="87">
+      <c r="U86" s="105"/>
+      <c r="V86" s="105"/>
+      <c r="W86" s="105"/>
+      <c r="X86" s="105">
         <v>1</v>
       </c>
-      <c r="Y86" s="87"/>
-      <c r="Z86" s="123"/>
-      <c r="AA86" s="123"/>
-      <c r="AB86" s="123"/>
-      <c r="AC86" s="87"/>
-      <c r="AD86" s="87"/>
-      <c r="AE86" s="87"/>
-      <c r="AF86" s="87"/>
+      <c r="Y86" s="105"/>
+      <c r="Z86" s="120"/>
+      <c r="AA86" s="120"/>
+      <c r="AB86" s="120"/>
+      <c r="AC86" s="105"/>
+      <c r="AD86" s="105"/>
+      <c r="AE86" s="105"/>
+      <c r="AF86" s="105"/>
       <c r="AG86" s="119"/>
       <c r="AH86" s="119"/>
       <c r="AI86" s="119"/>
@@ -27426,112 +29180,6 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -27550,6 +29198,112 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28257,8 +30011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
   <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U73" sqref="U73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
@@ -28337,368 +30091,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="129"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="129"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
     </row>
     <row r="23" spans="1:27">
       <c r="B23" s="46"/>
@@ -28709,44 +30463,44 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="128" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="128" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="130"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="D30" s="130" t="s">
+      <c r="D30" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="132"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="130"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32"/>
@@ -28934,424 +30688,424 @@
     <row r="41" spans="1:27">
       <c r="A41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="128" t="s">
+      <c r="D41" s="134" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="129"/>
-      <c r="T41" s="129"/>
-      <c r="U41" s="129"/>
-      <c r="V41" s="129"/>
-      <c r="W41" s="129"/>
-      <c r="X41" s="129"/>
-      <c r="Y41" s="129"/>
-      <c r="Z41" s="129"/>
-      <c r="AA41" s="129"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="135"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="135"/>
+      <c r="Y41" s="135"/>
+      <c r="Z41" s="135"/>
+      <c r="AA41" s="135"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="129"/>
-      <c r="P42" s="129"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="129"/>
-      <c r="T42" s="129"/>
-      <c r="U42" s="129"/>
-      <c r="V42" s="129"/>
-      <c r="W42" s="129"/>
-      <c r="X42" s="129"/>
-      <c r="Y42" s="129"/>
-      <c r="Z42" s="129"/>
-      <c r="AA42" s="129"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
+      <c r="O42" s="135"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="135"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="135"/>
+      <c r="U42" s="135"/>
+      <c r="V42" s="135"/>
+      <c r="W42" s="135"/>
+      <c r="X42" s="135"/>
+      <c r="Y42" s="135"/>
+      <c r="Z42" s="135"/>
+      <c r="AA42" s="135"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43"/>
       <c r="C43" s="46"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="129"/>
-      <c r="AA43" s="129"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="135"/>
+      <c r="P43" s="135"/>
+      <c r="Q43" s="135"/>
+      <c r="R43" s="135"/>
+      <c r="S43" s="135"/>
+      <c r="T43" s="135"/>
+      <c r="U43" s="135"/>
+      <c r="V43" s="135"/>
+      <c r="W43" s="135"/>
+      <c r="X43" s="135"/>
+      <c r="Y43" s="135"/>
+      <c r="Z43" s="135"/>
+      <c r="AA43" s="135"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="129"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="129"/>
-      <c r="T44" s="129"/>
-      <c r="U44" s="129"/>
-      <c r="V44" s="129"/>
-      <c r="W44" s="129"/>
-      <c r="X44" s="129"/>
-      <c r="Y44" s="129"/>
-      <c r="Z44" s="129"/>
-      <c r="AA44" s="129"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
+      <c r="N44" s="135"/>
+      <c r="O44" s="135"/>
+      <c r="P44" s="135"/>
+      <c r="Q44" s="135"/>
+      <c r="R44" s="135"/>
+      <c r="S44" s="135"/>
+      <c r="T44" s="135"/>
+      <c r="U44" s="135"/>
+      <c r="V44" s="135"/>
+      <c r="W44" s="135"/>
+      <c r="X44" s="135"/>
+      <c r="Y44" s="135"/>
+      <c r="Z44" s="135"/>
+      <c r="AA44" s="135"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45"/>
       <c r="C45" s="46"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="129"/>
-      <c r="T45" s="129"/>
-      <c r="U45" s="129"/>
-      <c r="V45" s="129"/>
-      <c r="W45" s="129"/>
-      <c r="X45" s="129"/>
-      <c r="Y45" s="129"/>
-      <c r="Z45" s="129"/>
-      <c r="AA45" s="129"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="135"/>
+      <c r="W45" s="135"/>
+      <c r="X45" s="135"/>
+      <c r="Y45" s="135"/>
+      <c r="Z45" s="135"/>
+      <c r="AA45" s="135"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="129"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="129"/>
-      <c r="T46" s="129"/>
-      <c r="U46" s="129"/>
-      <c r="V46" s="129"/>
-      <c r="W46" s="129"/>
-      <c r="X46" s="129"/>
-      <c r="Y46" s="129"/>
-      <c r="Z46" s="129"/>
-      <c r="AA46" s="129"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
+      <c r="N46" s="135"/>
+      <c r="O46" s="135"/>
+      <c r="P46" s="135"/>
+      <c r="Q46" s="135"/>
+      <c r="R46" s="135"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="135"/>
+      <c r="V46" s="135"/>
+      <c r="W46" s="135"/>
+      <c r="X46" s="135"/>
+      <c r="Y46" s="135"/>
+      <c r="Z46" s="135"/>
+      <c r="AA46" s="135"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="129"/>
-      <c r="P47" s="129"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="129"/>
-      <c r="T47" s="129"/>
-      <c r="U47" s="129"/>
-      <c r="V47" s="129"/>
-      <c r="W47" s="129"/>
-      <c r="X47" s="129"/>
-      <c r="Y47" s="129"/>
-      <c r="Z47" s="129"/>
-      <c r="AA47" s="129"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="135"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="135"/>
+      <c r="R47" s="135"/>
+      <c r="S47" s="135"/>
+      <c r="T47" s="135"/>
+      <c r="U47" s="135"/>
+      <c r="V47" s="135"/>
+      <c r="W47" s="135"/>
+      <c r="X47" s="135"/>
+      <c r="Y47" s="135"/>
+      <c r="Z47" s="135"/>
+      <c r="AA47" s="135"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48"/>
       <c r="C48" s="46"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="129"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="129"/>
-      <c r="T48" s="129"/>
-      <c r="U48" s="129"/>
-      <c r="V48" s="129"/>
-      <c r="W48" s="129"/>
-      <c r="X48" s="129"/>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="135"/>
+      <c r="P48" s="135"/>
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="135"/>
+      <c r="V48" s="135"/>
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
+      <c r="Y48" s="135"/>
+      <c r="Z48" s="135"/>
+      <c r="AA48" s="135"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49"/>
       <c r="C49" s="46"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="129"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
-      <c r="T49" s="129"/>
-      <c r="U49" s="129"/>
-      <c r="V49" s="129"/>
-      <c r="W49" s="129"/>
-      <c r="X49" s="129"/>
-      <c r="Y49" s="129"/>
-      <c r="Z49" s="129"/>
-      <c r="AA49" s="129"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
+      <c r="U49" s="135"/>
+      <c r="V49" s="135"/>
+      <c r="W49" s="135"/>
+      <c r="X49" s="135"/>
+      <c r="Y49" s="135"/>
+      <c r="Z49" s="135"/>
+      <c r="AA49" s="135"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="129"/>
-      <c r="P50" s="129"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="129"/>
-      <c r="T50" s="129"/>
-      <c r="U50" s="129"/>
-      <c r="V50" s="129"/>
-      <c r="W50" s="129"/>
-      <c r="X50" s="129"/>
-      <c r="Y50" s="129"/>
-      <c r="Z50" s="129"/>
-      <c r="AA50" s="129"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="135"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+      <c r="Y50" s="135"/>
+      <c r="Z50" s="135"/>
+      <c r="AA50" s="135"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
-      <c r="U51" s="129"/>
-      <c r="V51" s="129"/>
-      <c r="W51" s="129"/>
-      <c r="X51" s="129"/>
-      <c r="Y51" s="129"/>
-      <c r="Z51" s="129"/>
-      <c r="AA51" s="129"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="135"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="135"/>
+      <c r="W51" s="135"/>
+      <c r="X51" s="135"/>
+      <c r="Y51" s="135"/>
+      <c r="Z51" s="135"/>
+      <c r="AA51" s="135"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="129"/>
-      <c r="U52" s="129"/>
-      <c r="V52" s="129"/>
-      <c r="W52" s="129"/>
-      <c r="X52" s="129"/>
-      <c r="Y52" s="129"/>
-      <c r="Z52" s="129"/>
-      <c r="AA52" s="129"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="135"/>
+      <c r="O52" s="135"/>
+      <c r="P52" s="135"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+      <c r="S52" s="135"/>
+      <c r="T52" s="135"/>
+      <c r="U52" s="135"/>
+      <c r="V52" s="135"/>
+      <c r="W52" s="135"/>
+      <c r="X52" s="135"/>
+      <c r="Y52" s="135"/>
+      <c r="Z52" s="135"/>
+      <c r="AA52" s="135"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="129"/>
-      <c r="T53" s="129"/>
-      <c r="U53" s="129"/>
-      <c r="V53" s="129"/>
-      <c r="W53" s="129"/>
-      <c r="X53" s="129"/>
-      <c r="Y53" s="129"/>
-      <c r="Z53" s="129"/>
-      <c r="AA53" s="129"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="135"/>
+      <c r="P53" s="135"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="135"/>
+      <c r="U53" s="135"/>
+      <c r="V53" s="135"/>
+      <c r="W53" s="135"/>
+      <c r="X53" s="135"/>
+      <c r="Y53" s="135"/>
+      <c r="Z53" s="135"/>
+      <c r="AA53" s="135"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="129"/>
-      <c r="P54" s="129"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="129"/>
-      <c r="T54" s="129"/>
-      <c r="U54" s="129"/>
-      <c r="V54" s="129"/>
-      <c r="W54" s="129"/>
-      <c r="X54" s="129"/>
-      <c r="Y54" s="129"/>
-      <c r="Z54" s="129"/>
-      <c r="AA54" s="129"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="135"/>
+      <c r="O54" s="135"/>
+      <c r="P54" s="135"/>
+      <c r="Q54" s="135"/>
+      <c r="R54" s="135"/>
+      <c r="S54" s="135"/>
+      <c r="T54" s="135"/>
+      <c r="U54" s="135"/>
+      <c r="V54" s="135"/>
+      <c r="W54" s="135"/>
+      <c r="X54" s="135"/>
+      <c r="Y54" s="135"/>
+      <c r="Z54" s="135"/>
+      <c r="AA54" s="135"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55"/>
       <c r="C55" s="46"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="129"/>
-      <c r="P55" s="129"/>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="129"/>
-      <c r="S55" s="129"/>
-      <c r="T55" s="129"/>
-      <c r="U55" s="129"/>
-      <c r="V55" s="129"/>
-      <c r="W55" s="129"/>
-      <c r="X55" s="129"/>
-      <c r="Y55" s="129"/>
-      <c r="Z55" s="129"/>
-      <c r="AA55" s="129"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="135"/>
+      <c r="O55" s="135"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="135"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="135"/>
+      <c r="U55" s="135"/>
+      <c r="V55" s="135"/>
+      <c r="W55" s="135"/>
+      <c r="X55" s="135"/>
+      <c r="Y55" s="135"/>
+      <c r="Z55" s="135"/>
+      <c r="AA55" s="135"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="46"/>
@@ -29506,10 +31260,10 @@
       <c r="E75" t="s">
         <v>236</v>
       </c>
-      <c r="H75" s="100" t="s">
+      <c r="H75" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="I75" s="102"/>
+      <c r="I75" s="118"/>
     </row>
     <row r="76" spans="1:36">
       <c r="B76" s="46"/>
@@ -29554,12 +31308,12 @@
       <c r="J78" s="125"/>
       <c r="K78" s="126"/>
       <c r="L78" s="50"/>
-      <c r="M78" s="130" t="s">
+      <c r="M78" s="128" t="s">
         <v>291</v>
       </c>
-      <c r="N78" s="131"/>
-      <c r="O78" s="131"/>
-      <c r="P78" s="132"/>
+      <c r="N78" s="129"/>
+      <c r="O78" s="129"/>
+      <c r="P78" s="130"/>
       <c r="Q78" s="47">
         <v>0</v>
       </c>
@@ -29577,14 +31331,14 @@
       </c>
       <c r="W78" s="125"/>
       <c r="X78" s="126"/>
-      <c r="Z78" s="100" t="s">
+      <c r="Z78" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="AA78" s="102"/>
-      <c r="AC78" s="100">
+      <c r="AA78" s="118"/>
+      <c r="AC78" s="116">
         <v>51001</v>
       </c>
-      <c r="AD78" s="102"/>
+      <c r="AD78" s="118"/>
       <c r="AE78" s="53"/>
       <c r="AF78" s="64" t="s">
         <v>294</v>
@@ -29609,12 +31363,12 @@
       <c r="J79" s="125"/>
       <c r="K79" s="126"/>
       <c r="L79" s="50"/>
-      <c r="M79" s="130" t="s">
+      <c r="M79" s="128" t="s">
         <v>292</v>
       </c>
-      <c r="N79" s="131"/>
-      <c r="O79" s="131"/>
-      <c r="P79" s="132"/>
+      <c r="N79" s="129"/>
+      <c r="O79" s="129"/>
+      <c r="P79" s="130"/>
       <c r="Q79" s="47">
         <v>8</v>
       </c>
@@ -29632,14 +31386,14 @@
       </c>
       <c r="W79" s="125"/>
       <c r="X79" s="126"/>
-      <c r="Z79" s="100" t="s">
+      <c r="Z79" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="AA79" s="102"/>
-      <c r="AC79" s="100">
+      <c r="AA79" s="118"/>
+      <c r="AC79" s="116">
         <v>51002</v>
       </c>
-      <c r="AD79" s="102"/>
+      <c r="AD79" s="118"/>
       <c r="AE79" s="53"/>
       <c r="AF79" s="64" t="s">
         <v>294</v>
@@ -29664,12 +31418,12 @@
       <c r="J80" s="125"/>
       <c r="K80" s="126"/>
       <c r="L80" s="50"/>
-      <c r="M80" s="130" t="s">
+      <c r="M80" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="N80" s="131"/>
-      <c r="O80" s="131"/>
-      <c r="P80" s="132"/>
+      <c r="N80" s="129"/>
+      <c r="O80" s="129"/>
+      <c r="P80" s="130"/>
       <c r="Q80" s="47">
         <v>28</v>
       </c>
@@ -29687,14 +31441,14 @@
       </c>
       <c r="W80" s="125"/>
       <c r="X80" s="126"/>
-      <c r="Z80" s="100" t="s">
+      <c r="Z80" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="AA80" s="102"/>
-      <c r="AC80" s="100">
+      <c r="AA80" s="118"/>
+      <c r="AC80" s="116">
         <v>51003</v>
       </c>
-      <c r="AD80" s="102"/>
+      <c r="AD80" s="118"/>
       <c r="AE80" s="53"/>
       <c r="AF80" s="64" t="s">
         <v>294</v>
@@ -29719,12 +31473,12 @@
       <c r="J81" s="125"/>
       <c r="K81" s="126"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="130" t="s">
+      <c r="M81" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="N81" s="131"/>
-      <c r="O81" s="131"/>
-      <c r="P81" s="132"/>
+      <c r="N81" s="129"/>
+      <c r="O81" s="129"/>
+      <c r="P81" s="130"/>
       <c r="Q81" s="47">
         <v>4</v>
       </c>
@@ -29742,14 +31496,14 @@
       </c>
       <c r="W81" s="125"/>
       <c r="X81" s="126"/>
-      <c r="Z81" s="100" t="s">
+      <c r="Z81" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="AA81" s="102"/>
-      <c r="AC81" s="100">
+      <c r="AA81" s="118"/>
+      <c r="AC81" s="116">
         <v>51004</v>
       </c>
-      <c r="AD81" s="102"/>
+      <c r="AD81" s="118"/>
       <c r="AE81" s="53"/>
       <c r="AF81" s="64" t="s">
         <v>294</v>
@@ -29774,12 +31528,12 @@
       <c r="J82" s="125"/>
       <c r="K82" s="126"/>
       <c r="L82" s="50"/>
-      <c r="M82" s="130" t="s">
+      <c r="M82" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="N82" s="131"/>
-      <c r="O82" s="131"/>
-      <c r="P82" s="132"/>
+      <c r="N82" s="129"/>
+      <c r="O82" s="129"/>
+      <c r="P82" s="130"/>
       <c r="Q82" s="80">
         <v>24</v>
       </c>
@@ -29797,14 +31551,14 @@
       </c>
       <c r="W82" s="125"/>
       <c r="X82" s="126"/>
-      <c r="Z82" s="100" t="s">
+      <c r="Z82" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="AA82" s="102"/>
-      <c r="AC82" s="100">
+      <c r="AA82" s="118"/>
+      <c r="AC82" s="116">
         <v>51005</v>
       </c>
-      <c r="AD82" s="102"/>
+      <c r="AD82" s="118"/>
       <c r="AE82" s="53"/>
       <c r="AF82" s="64" t="s">
         <v>294</v>
@@ -29991,16 +31745,16 @@
     <row r="99" spans="1:11">
       <c r="B99" s="46"/>
       <c r="C99" s="46"/>
-      <c r="D99" s="133" t="s">
+      <c r="D99" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="134"/>
-      <c r="F99" s="134"/>
-      <c r="G99" s="134"/>
-      <c r="H99" s="134"/>
-      <c r="I99" s="134"/>
-      <c r="J99" s="134"/>
-      <c r="K99" s="135"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="132"/>
+      <c r="G99" s="132"/>
+      <c r="H99" s="132"/>
+      <c r="I99" s="132"/>
+      <c r="J99" s="132"/>
+      <c r="K99" s="133"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="46"/>
@@ -30026,6 +31780,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="E82:K82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="D10:AA22"/>
+    <mergeCell ref="D41:AA55"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="E78:K78"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P82"/>
     <mergeCell ref="AC78:AD78"/>
     <mergeCell ref="AC79:AD79"/>
     <mergeCell ref="E80:K80"/>
@@ -30036,30 +31814,6 @@
     <mergeCell ref="Z78:AA78"/>
     <mergeCell ref="M78:P78"/>
     <mergeCell ref="M79:P79"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="D10:AA22"/>
-    <mergeCell ref="D41:AA55"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="E78:K78"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="E82:K82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="AC82:AD82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66F0E2-B337-4390-8ACD-D5AF7753D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F3ECDF-FE0F-4575-8E7F-751F881F3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="855" windowWidth="16515" windowHeight="14970" tabRatio="745" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="0" windowWidth="16515" windowHeight="14970" tabRatio="745" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -3716,60 +3716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3786,6 +3733,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3812,20 +3765,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3838,6 +3839,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3857,13 +3864,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -23176,7 +23176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEF24F-01C3-4916-BB43-1D1CEB0DF384}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -23214,7 +23214,7 @@
       <c r="B4" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D4" t="str">
@@ -23259,7 +23259,7 @@
       <c r="B8" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D8" t="str">
@@ -23304,7 +23304,7 @@
       <c r="B12" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D12" t="str">
@@ -23349,7 +23349,7 @@
       <c r="B16" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D16" t="str">
@@ -23394,7 +23394,7 @@
       <c r="B20" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D20" t="str">
@@ -23439,7 +23439,7 @@
       <c r="B24" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D24" t="str">
@@ -23484,7 +23484,7 @@
       <c r="B28" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D28" t="str">
@@ -23529,7 +23529,7 @@
       <c r="B32" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D32" t="str">
@@ -23574,7 +23574,7 @@
       <c r="B36" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D36" t="str">
@@ -23619,7 +23619,7 @@
       <c r="B40" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="C40" s="136" t="s">
+      <c r="C40" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D40" t="str">
@@ -23664,7 +23664,7 @@
       <c r="B44" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D44" t="str">
@@ -23709,7 +23709,7 @@
       <c r="B48" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="C48" s="136" t="s">
+      <c r="C48" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D48" t="str">
@@ -23754,7 +23754,7 @@
       <c r="B52" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="C52" s="136" t="s">
+      <c r="C52" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D52" t="str">
@@ -23799,7 +23799,7 @@
       <c r="B56" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="C56" s="136" t="s">
+      <c r="C56" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D56" t="str">
@@ -23844,7 +23844,7 @@
       <c r="B60" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="C60" s="136" t="s">
+      <c r="C60" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D60" t="str">
@@ -23889,7 +23889,7 @@
       <c r="B64" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="C64" s="136" t="s">
+      <c r="C64" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D64" t="str">
@@ -23934,7 +23934,7 @@
       <c r="B68" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="C68" s="136" t="s">
+      <c r="C68" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D68" t="str">
@@ -23979,7 +23979,7 @@
       <c r="B72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="C72" s="136" t="s">
+      <c r="C72" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D72" t="str">
@@ -24024,7 +24024,7 @@
       <c r="B76" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="C76" s="136" t="s">
+      <c r="C76" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D76" t="str">
@@ -24069,7 +24069,7 @@
       <c r="B80" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="C80" s="136" t="s">
+      <c r="C80" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D80" t="str">
@@ -24114,7 +24114,7 @@
       <c r="B84" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="C84" s="136" t="s">
+      <c r="C84" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D84" t="str">
@@ -24159,7 +24159,7 @@
       <c r="B88" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="C88" s="136" t="s">
+      <c r="C88" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D88" t="str">
@@ -24204,7 +24204,7 @@
       <c r="B92" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="C92" s="136" t="s">
+      <c r="C92" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D92" t="str">
@@ -24249,7 +24249,7 @@
       <c r="B96" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="C96" s="136" t="s">
+      <c r="C96" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D96" t="str">
@@ -24294,7 +24294,7 @@
       <c r="B100" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="C100" s="136" t="s">
+      <c r="C100" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D100" t="str">
@@ -24339,7 +24339,7 @@
       <c r="B104" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="C104" s="136" t="s">
+      <c r="C104" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D104" t="str">
@@ -24384,7 +24384,7 @@
       <c r="B108" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="C108" s="136" t="s">
+      <c r="C108" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D108" t="str">
@@ -24429,7 +24429,7 @@
       <c r="B112" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="C112" s="136" t="s">
+      <c r="C112" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D112" t="str">
@@ -24474,7 +24474,7 @@
       <c r="B116" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="C116" s="136" t="s">
+      <c r="C116" s="87" t="s">
         <v>450</v>
       </c>
       <c r="D116" t="str">
@@ -24545,11 +24545,11 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="87" t="s">
+      <c r="T7" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="U7" s="88"/>
-      <c r="V7" s="89"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="108"/>
       <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -24635,26 +24635,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112">
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="97">
         <v>9999</v>
       </c>
-      <c r="P10" s="112"/>
-      <c r="R10" s="111" t="s">
+      <c r="P10" s="97"/>
+      <c r="R10" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="112">
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="97">
         <v>9999</v>
       </c>
-      <c r="W10" s="112"/>
+      <c r="W10" s="97"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -24680,50 +24680,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="98" t="s">
+      <c r="AY10" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="99"/>
-      <c r="BC10" s="100"/>
-      <c r="BL10" s="93" t="s">
+      <c r="AZ10" s="118"/>
+      <c r="BA10" s="118"/>
+      <c r="BB10" s="118"/>
+      <c r="BC10" s="119"/>
+      <c r="BL10" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="BM10" s="94"/>
-      <c r="BN10" s="94"/>
-      <c r="BO10" s="94"/>
-      <c r="BP10" s="94"/>
-      <c r="BQ10" s="95"/>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="111"/>
       <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT10" s="87" t="s">
+      <c r="BT10" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="BU10" s="88"/>
-      <c r="BV10" s="89"/>
+      <c r="BU10" s="95"/>
+      <c r="BV10" s="108"/>
       <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="R11" s="111" t="s">
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="R11" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -24756,24 +24756,24 @@
       <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="90" t="s">
+      <c r="AZ12" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="91"/>
-      <c r="BC12" s="92"/>
-      <c r="BD12" s="87" t="s">
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="116"/>
+      <c r="BD12" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="96">
+      <c r="BE12" s="108"/>
+      <c r="BF12" s="112">
         <v>50000</v>
       </c>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="87" t="s">
+      <c r="BG12" s="113"/>
+      <c r="BH12" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="BI12" s="89"/>
+      <c r="BI12" s="108"/>
       <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
@@ -24799,24 +24799,24 @@
       <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="90" t="s">
+      <c r="AZ13" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="87" t="s">
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="116"/>
+      <c r="BD13" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="BE13" s="89"/>
-      <c r="BF13" s="96">
+      <c r="BE13" s="108"/>
+      <c r="BF13" s="112">
         <v>50001</v>
       </c>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="87" t="s">
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="BI13" s="89"/>
+      <c r="BI13" s="108"/>
       <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
@@ -24846,24 +24846,24 @@
       <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="90" t="s">
+      <c r="AZ14" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="92"/>
-      <c r="BD14" s="87" t="s">
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="116"/>
+      <c r="BD14" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="BE14" s="89"/>
-      <c r="BF14" s="96">
+      <c r="BE14" s="108"/>
+      <c r="BF14" s="112">
         <v>50002</v>
       </c>
-      <c r="BG14" s="97"/>
-      <c r="BH14" s="87" t="s">
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="BI14" s="89"/>
+      <c r="BI14" s="108"/>
       <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
@@ -24886,22 +24886,22 @@
       <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="90"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="92"/>
-      <c r="BD15" s="87" t="s">
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="116"/>
+      <c r="BD15" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="BE15" s="89"/>
-      <c r="BF15" s="96">
+      <c r="BE15" s="108"/>
+      <c r="BF15" s="112">
         <v>50003</v>
       </c>
-      <c r="BG15" s="97"/>
-      <c r="BH15" s="87" t="s">
+      <c r="BG15" s="113"/>
+      <c r="BH15" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="BI15" s="89"/>
+      <c r="BI15" s="108"/>
       <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
@@ -24922,22 +24922,22 @@
       <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="92"/>
-      <c r="BD16" s="87" t="s">
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="116"/>
+      <c r="BD16" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="BE16" s="89"/>
-      <c r="BF16" s="96">
+      <c r="BE16" s="108"/>
+      <c r="BF16" s="112">
         <v>50004</v>
       </c>
-      <c r="BG16" s="97"/>
-      <c r="BH16" s="87" t="s">
+      <c r="BG16" s="113"/>
+      <c r="BH16" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="BI16" s="89"/>
+      <c r="BI16" s="108"/>
       <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
@@ -24953,9 +24953,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -24964,16 +24964,16 @@
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="92"/>
-      <c r="BD17" s="87"/>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="96"/>
-      <c r="BG17" s="97"/>
-      <c r="BH17" s="87"/>
-      <c r="BI17" s="89"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="116"/>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="108"/>
+      <c r="BF17" s="112"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="108"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -24990,15 +24990,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="110"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="93"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="87" t="s">
+      <c r="U18" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -25016,11 +25016,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="87" t="s">
+      <c r="S19" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -25064,33 +25064,33 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="116" t="s">
+      <c r="S21" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="118"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="103"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="93" t="s">
+      <c r="BL21" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="BM21" s="94"/>
-      <c r="BN21" s="94"/>
-      <c r="BO21" s="94"/>
-      <c r="BP21" s="94"/>
-      <c r="BQ21" s="95"/>
+      <c r="BM21" s="110"/>
+      <c r="BN21" s="110"/>
+      <c r="BO21" s="110"/>
+      <c r="BP21" s="110"/>
+      <c r="BQ21" s="111"/>
       <c r="BR21" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT21" s="87" t="s">
+      <c r="BT21" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="BU21" s="88"/>
-      <c r="BV21" s="89"/>
+      <c r="BU21" s="95"/>
+      <c r="BV21" s="108"/>
       <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
@@ -25165,12 +25165,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="113" t="s">
+      <c r="O25" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="115"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="100"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -25326,39 +25326,39 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="93" t="s">
+      <c r="AY31" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="AZ31" s="94"/>
-      <c r="BA31" s="94"/>
-      <c r="BB31" s="94"/>
-      <c r="BC31" s="94"/>
-      <c r="BD31" s="95"/>
+      <c r="AZ31" s="110"/>
+      <c r="BA31" s="110"/>
+      <c r="BB31" s="110"/>
+      <c r="BC31" s="110"/>
+      <c r="BD31" s="111"/>
       <c r="BE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BG31" s="87" t="s">
+      <c r="BG31" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="89"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="108"/>
       <c r="BK31" s="69"/>
-      <c r="BY31" s="93" t="s">
+      <c r="BY31" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="BZ31" s="94"/>
-      <c r="CA31" s="94"/>
-      <c r="CB31" s="94"/>
-      <c r="CC31" s="94"/>
-      <c r="CD31" s="95"/>
+      <c r="BZ31" s="110"/>
+      <c r="CA31" s="110"/>
+      <c r="CB31" s="110"/>
+      <c r="CC31" s="110"/>
+      <c r="CD31" s="111"/>
       <c r="CE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="CG31" s="87" t="s">
+      <c r="CG31" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="CH31" s="88"/>
-      <c r="CI31" s="89"/>
+      <c r="CH31" s="95"/>
+      <c r="CI31" s="108"/>
       <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
@@ -25437,17 +25437,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="105">
+      <c r="L34" s="88">
         <v>9999</v>
       </c>
-      <c r="M34" s="105"/>
+      <c r="M34" s="88"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="106">
+      <c r="V34" s="89">
         <v>9999</v>
       </c>
-      <c r="W34" s="107"/>
+      <c r="W34" s="90"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -25465,17 +25465,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="105">
+      <c r="L35" s="88">
         <v>9999</v>
       </c>
-      <c r="M35" s="105"/>
+      <c r="M35" s="88"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="106">
+      <c r="V35" s="89">
         <v>9999</v>
       </c>
-      <c r="W35" s="107"/>
+      <c r="W35" s="90"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -25599,22 +25599,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="93" t="s">
+      <c r="BL41" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="BM41" s="94"/>
-      <c r="BN41" s="94"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="94"/>
-      <c r="BQ41" s="95"/>
+      <c r="BM41" s="110"/>
+      <c r="BN41" s="110"/>
+      <c r="BO41" s="110"/>
+      <c r="BP41" s="110"/>
+      <c r="BQ41" s="111"/>
       <c r="BR41" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT41" s="87" t="s">
+      <c r="BT41" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="BU41" s="88"/>
-      <c r="BV41" s="89"/>
+      <c r="BU41" s="95"/>
+      <c r="BV41" s="108"/>
       <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
@@ -25918,55 +25918,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="103">
+      <c r="T134" s="105">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="104"/>
+      <c r="U134" s="106"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="101" t="s">
+      <c r="W134" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="101"/>
-      <c r="Y134" s="101"/>
+      <c r="X134" s="104"/>
+      <c r="Y134" s="104"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="101" t="s">
+      <c r="AA134" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="101"/>
-      <c r="AC134" s="101"/>
+      <c r="AB134" s="104"/>
+      <c r="AC134" s="104"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="102">
+      <c r="AE134" s="107">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="103"/>
+      <c r="AF134" s="105"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="103">
+      <c r="AH134" s="105">
         <v>-1</v>
       </c>
-      <c r="AI134" s="104"/>
+      <c r="AI134" s="106"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="101" t="s">
+      <c r="AK134" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="101"/>
-      <c r="AM134" s="101"/>
+      <c r="AL134" s="104"/>
+      <c r="AM134" s="104"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="101"/>
-      <c r="AP134" s="101"/>
-      <c r="AQ134" s="101"/>
+      <c r="AO134" s="104"/>
+      <c r="AP134" s="104"/>
+      <c r="AQ134" s="104"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="102"/>
-      <c r="AT134" s="103"/>
+      <c r="AS134" s="107"/>
+      <c r="AT134" s="105"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -25974,63 +25974,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="103">
+      <c r="T135" s="105">
         <v>0.5</v>
       </c>
-      <c r="U135" s="104"/>
+      <c r="U135" s="106"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="101" t="s">
+      <c r="W135" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="101"/>
-      <c r="Y135" s="101"/>
+      <c r="X135" s="104"/>
+      <c r="Y135" s="104"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="101" t="s">
+      <c r="AA135" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="101"/>
-      <c r="AC135" s="101"/>
+      <c r="AB135" s="104"/>
+      <c r="AC135" s="104"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="102">
+      <c r="AE135" s="107">
         <v>1</v>
       </c>
-      <c r="AF135" s="103"/>
+      <c r="AF135" s="105"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="103">
+      <c r="AH135" s="105">
         <v>-1</v>
       </c>
-      <c r="AI135" s="104"/>
+      <c r="AI135" s="106"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="101" t="s">
+      <c r="AK135" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="101"/>
-      <c r="AM135" s="101"/>
+      <c r="AL135" s="104"/>
+      <c r="AM135" s="104"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="101" t="s">
+      <c r="AO135" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="101"/>
-      <c r="AQ135" s="101"/>
+      <c r="AP135" s="104"/>
+      <c r="AQ135" s="104"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="102">
+      <c r="AS135" s="107">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="103"/>
+      <c r="AT135" s="105"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -26039,55 +26039,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="103">
+      <c r="T136" s="105">
         <v>1</v>
       </c>
-      <c r="U136" s="104"/>
+      <c r="U136" s="106"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="101" t="s">
+      <c r="W136" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="101"/>
-      <c r="Y136" s="101"/>
+      <c r="X136" s="104"/>
+      <c r="Y136" s="104"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="101"/>
-      <c r="AB136" s="101"/>
-      <c r="AC136" s="101"/>
+      <c r="AA136" s="104"/>
+      <c r="AB136" s="104"/>
+      <c r="AC136" s="104"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="102"/>
-      <c r="AF136" s="103"/>
+      <c r="AE136" s="107"/>
+      <c r="AF136" s="105"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="103">
+      <c r="AH136" s="105">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="104"/>
+      <c r="AI136" s="106"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="101" t="s">
+      <c r="AK136" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="101"/>
-      <c r="AM136" s="101"/>
+      <c r="AL136" s="104"/>
+      <c r="AM136" s="104"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="101" t="s">
+      <c r="AO136" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="101"/>
-      <c r="AQ136" s="101"/>
+      <c r="AP136" s="104"/>
+      <c r="AQ136" s="104"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="102">
+      <c r="AS136" s="107">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="103"/>
+      <c r="AT136" s="105"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -26101,295 +26101,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="103">
+      <c r="T137" s="105">
         <v>0.5</v>
       </c>
-      <c r="U137" s="104"/>
+      <c r="U137" s="106"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="101" t="s">
+      <c r="W137" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="101"/>
-      <c r="Y137" s="101"/>
+      <c r="X137" s="104"/>
+      <c r="Y137" s="104"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="101" t="s">
+      <c r="AA137" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="101"/>
-      <c r="AC137" s="101"/>
+      <c r="AB137" s="104"/>
+      <c r="AC137" s="104"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="102">
+      <c r="AE137" s="107">
         <v>1</v>
       </c>
-      <c r="AF137" s="103"/>
+      <c r="AF137" s="105"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="103">
+      <c r="AH137" s="105">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="104"/>
+      <c r="AI137" s="106"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="101" t="s">
+      <c r="AK137" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="101"/>
-      <c r="AM137" s="101"/>
+      <c r="AL137" s="104"/>
+      <c r="AM137" s="104"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="101" t="s">
+      <c r="AO137" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="101"/>
-      <c r="AQ137" s="101"/>
+      <c r="AP137" s="104"/>
+      <c r="AQ137" s="104"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="102">
+      <c r="AS137" s="107">
         <v>1</v>
       </c>
-      <c r="AT137" s="103"/>
+      <c r="AT137" s="105"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="103">
+      <c r="T138" s="105">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="104"/>
+      <c r="U138" s="106"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="101" t="s">
+      <c r="W138" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="101"/>
-      <c r="Y138" s="101"/>
+      <c r="X138" s="104"/>
+      <c r="Y138" s="104"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="101" t="s">
+      <c r="AA138" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="101"/>
-      <c r="AC138" s="101"/>
+      <c r="AB138" s="104"/>
+      <c r="AC138" s="104"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="102">
+      <c r="AE138" s="107">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="103"/>
+      <c r="AF138" s="105"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="103">
+      <c r="AH138" s="105">
         <v>1</v>
       </c>
-      <c r="AI138" s="104"/>
+      <c r="AI138" s="106"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="101" t="s">
+      <c r="AK138" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="101"/>
-      <c r="AM138" s="101"/>
+      <c r="AL138" s="104"/>
+      <c r="AM138" s="104"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="101"/>
-      <c r="AP138" s="101"/>
-      <c r="AQ138" s="101"/>
+      <c r="AO138" s="104"/>
+      <c r="AP138" s="104"/>
+      <c r="AQ138" s="104"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="102"/>
-      <c r="AT138" s="103"/>
+      <c r="AS138" s="107"/>
+      <c r="AT138" s="105"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="103">
+      <c r="T139" s="105">
         <v>-1</v>
       </c>
-      <c r="U139" s="104"/>
+      <c r="U139" s="106"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="101" t="s">
+      <c r="W139" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="101"/>
-      <c r="Y139" s="101"/>
+      <c r="X139" s="104"/>
+      <c r="Y139" s="104"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="101" t="s">
+      <c r="AA139" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="101"/>
-      <c r="AC139" s="101"/>
+      <c r="AB139" s="104"/>
+      <c r="AC139" s="104"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="102">
+      <c r="AE139" s="107">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="103"/>
+      <c r="AF139" s="105"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="103">
+      <c r="AH139" s="105">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="104"/>
+      <c r="AI139" s="106"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="101" t="s">
+      <c r="AK139" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="101"/>
-      <c r="AM139" s="101"/>
+      <c r="AL139" s="104"/>
+      <c r="AM139" s="104"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="101" t="s">
+      <c r="AO139" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="101"/>
-      <c r="AQ139" s="101"/>
+      <c r="AP139" s="104"/>
+      <c r="AQ139" s="104"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="102">
+      <c r="AS139" s="107">
         <v>1</v>
       </c>
-      <c r="AT139" s="103"/>
+      <c r="AT139" s="105"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="103">
+      <c r="T140" s="105">
         <v>-1</v>
       </c>
-      <c r="U140" s="104"/>
+      <c r="U140" s="106"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="101" t="s">
+      <c r="W140" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="101"/>
-      <c r="Y140" s="101"/>
+      <c r="X140" s="104"/>
+      <c r="Y140" s="104"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="101"/>
-      <c r="AB140" s="101"/>
-      <c r="AC140" s="101"/>
+      <c r="AA140" s="104"/>
+      <c r="AB140" s="104"/>
+      <c r="AC140" s="104"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="102"/>
-      <c r="AF140" s="103"/>
+      <c r="AE140" s="107"/>
+      <c r="AF140" s="105"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="103">
+      <c r="AH140" s="105">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="104"/>
+      <c r="AI140" s="106"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="101" t="s">
+      <c r="AK140" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="101"/>
-      <c r="AM140" s="101"/>
+      <c r="AL140" s="104"/>
+      <c r="AM140" s="104"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="101" t="s">
+      <c r="AO140" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="101"/>
-      <c r="AQ140" s="101"/>
+      <c r="AP140" s="104"/>
+      <c r="AQ140" s="104"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="102">
+      <c r="AS140" s="107">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="103"/>
+      <c r="AT140" s="105"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="103">
+      <c r="T141" s="105">
         <v>-1</v>
       </c>
-      <c r="U141" s="104"/>
+      <c r="U141" s="106"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="101" t="s">
+      <c r="W141" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="101"/>
-      <c r="Y141" s="101"/>
+      <c r="X141" s="104"/>
+      <c r="Y141" s="104"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="101" t="s">
+      <c r="AA141" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="101"/>
-      <c r="AC141" s="101"/>
+      <c r="AB141" s="104"/>
+      <c r="AC141" s="104"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="102">
+      <c r="AE141" s="107">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="103"/>
+      <c r="AF141" s="105"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="103">
+      <c r="AH141" s="105">
         <v>-1</v>
       </c>
-      <c r="AI141" s="104"/>
+      <c r="AI141" s="106"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="101" t="s">
+      <c r="AK141" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="101"/>
-      <c r="AM141" s="101"/>
+      <c r="AL141" s="104"/>
+      <c r="AM141" s="104"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="101" t="s">
+      <c r="AO141" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="101"/>
-      <c r="AQ141" s="101"/>
+      <c r="AP141" s="104"/>
+      <c r="AQ141" s="104"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="102">
+      <c r="AS141" s="107">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="103"/>
+      <c r="AT141" s="105"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -26465,64 +26465,40 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
     <mergeCell ref="BT10:BV10"/>
     <mergeCell ref="BL10:BQ10"/>
     <mergeCell ref="AK137:AM137"/>
@@ -26547,40 +26523,64 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -27886,35 +27886,35 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:40">
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122" t="s">
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122" t="s">
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122" t="s">
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="122"/>
+      <c r="Y31" s="121"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
@@ -27923,70 +27923,70 @@
       </c>
     </row>
     <row r="32" spans="4:40">
-      <c r="E32" s="121" t="s">
+      <c r="E32" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121" t="s">
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="105" t="s">
+      <c r="T32" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="105"/>
-      <c r="X32" s="105">
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88">
         <v>1</v>
       </c>
-      <c r="Y32" s="105"/>
+      <c r="Y32" s="88"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
       </c>
     </row>
     <row r="33" spans="1:46">
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="105" t="s">
+      <c r="T33" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="105"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="105"/>
-      <c r="X33" s="105">
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88">
         <v>1</v>
       </c>
-      <c r="Y33" s="105"/>
+      <c r="Y33" s="88"/>
       <c r="AN33" t="s">
         <v>215</v>
       </c>
@@ -28001,35 +28001,35 @@
       <c r="A34" t="s">
         <v>318</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="E34" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119" t="s">
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105">
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88">
         <v>1</v>
       </c>
-      <c r="Y34" s="105"/>
+      <c r="Y34" s="88"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
@@ -28045,35 +28045,35 @@
       </c>
     </row>
     <row r="35" spans="1:46">
-      <c r="E35" s="119" t="s">
+      <c r="E35" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119" t="s">
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="105"/>
-      <c r="X35" s="105">
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88">
         <v>1</v>
       </c>
-      <c r="Y35" s="105"/>
+      <c r="Y35" s="88"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
@@ -28107,14 +28107,14 @@
       <c r="S36" s="81">
         <v>1</v>
       </c>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111">
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96">
         <v>1</v>
       </c>
-      <c r="Y36" s="111"/>
+      <c r="Y36" s="96"/>
       <c r="AA36" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
@@ -28148,14 +28148,14 @@
       <c r="S37" s="81">
         <v>1</v>
       </c>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111">
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="96">
         <v>1</v>
       </c>
-      <c r="Y37" s="111"/>
+      <c r="Y37" s="96"/>
       <c r="AA37" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
@@ -28165,35 +28165,35 @@
       </c>
     </row>
     <row r="38" spans="1:46">
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119" t="s">
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="105"/>
-      <c r="U38" s="105"/>
-      <c r="V38" s="105"/>
-      <c r="W38" s="105"/>
-      <c r="X38" s="105">
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88">
         <v>1</v>
       </c>
-      <c r="Y38" s="105"/>
+      <c r="Y38" s="88"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
@@ -28203,35 +28203,35 @@
       </c>
     </row>
     <row r="39" spans="1:46">
-      <c r="E39" s="119" t="s">
+      <c r="E39" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119" t="s">
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="119"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="105"/>
-      <c r="W39" s="105"/>
-      <c r="X39" s="105">
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88">
         <v>1</v>
       </c>
-      <c r="Y39" s="105"/>
+      <c r="Y39" s="88"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
@@ -28241,35 +28241,35 @@
       </c>
     </row>
     <row r="40" spans="1:46">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105">
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88">
         <v>1</v>
       </c>
-      <c r="Y40" s="105"/>
+      <c r="Y40" s="88"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
@@ -28279,35 +28279,35 @@
       </c>
     </row>
     <row r="41" spans="1:46">
-      <c r="E41" s="119" t="s">
+      <c r="E41" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119" t="s">
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="105"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="105"/>
-      <c r="X41" s="105">
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88">
         <v>1</v>
       </c>
-      <c r="Y41" s="105"/>
+      <c r="Y41" s="88"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
@@ -28317,35 +28317,35 @@
       </c>
     </row>
     <row r="42" spans="1:46">
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119" t="s">
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="119"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="105"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="105"/>
-      <c r="X42" s="105">
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88">
         <v>1</v>
       </c>
-      <c r="Y42" s="105"/>
+      <c r="Y42" s="88"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
@@ -28355,35 +28355,35 @@
       </c>
     </row>
     <row r="43" spans="1:46">
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119" t="s">
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="105"/>
-      <c r="U43" s="105"/>
-      <c r="V43" s="105"/>
-      <c r="W43" s="105"/>
-      <c r="X43" s="105">
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88">
         <v>1</v>
       </c>
-      <c r="Y43" s="105"/>
+      <c r="Y43" s="88"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
@@ -28393,35 +28393,35 @@
       </c>
     </row>
     <row r="44" spans="1:46">
-      <c r="E44" s="119" t="s">
+      <c r="E44" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119" t="s">
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="119"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="105"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105"/>
-      <c r="W44" s="105"/>
-      <c r="X44" s="105">
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88">
         <v>1</v>
       </c>
-      <c r="Y44" s="105"/>
+      <c r="Y44" s="88"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
@@ -28431,35 +28431,35 @@
       </c>
     </row>
     <row r="45" spans="1:46">
-      <c r="E45" s="119" t="s">
+      <c r="E45" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119" t="s">
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="119"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="105"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105"/>
-      <c r="W45" s="105"/>
-      <c r="X45" s="105">
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88">
         <v>1</v>
       </c>
-      <c r="Y45" s="105"/>
+      <c r="Y45" s="88"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
@@ -28469,35 +28469,35 @@
       </c>
     </row>
     <row r="46" spans="1:46">
-      <c r="E46" s="119" t="s">
+      <c r="E46" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119" t="s">
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="119"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="105"/>
-      <c r="U46" s="105"/>
-      <c r="V46" s="105"/>
-      <c r="W46" s="105"/>
-      <c r="X46" s="105">
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88">
         <v>1</v>
       </c>
-      <c r="Y46" s="105"/>
+      <c r="Y46" s="88"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
@@ -28510,35 +28510,35 @@
       </c>
     </row>
     <row r="47" spans="1:46">
-      <c r="E47" s="119" t="s">
+      <c r="E47" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119" t="s">
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="119"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="105"/>
-      <c r="U47" s="105"/>
-      <c r="V47" s="105"/>
-      <c r="W47" s="105"/>
-      <c r="X47" s="105">
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88">
         <v>1</v>
       </c>
-      <c r="Y47" s="105"/>
+      <c r="Y47" s="88"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
@@ -28551,35 +28551,35 @@
       </c>
     </row>
     <row r="48" spans="1:46">
-      <c r="E48" s="119" t="s">
+      <c r="E48" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119" t="s">
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="119"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105">
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="88">
         <v>1</v>
       </c>
-      <c r="Y48" s="105"/>
+      <c r="Y48" s="88"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -28746,440 +28746,546 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="122" t="s">
+      <c r="E78" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122" t="s">
+      <c r="F78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="121"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="122"/>
-      <c r="L78" s="122"/>
-      <c r="M78" s="122"/>
-      <c r="N78" s="122"/>
-      <c r="O78" s="122"/>
-      <c r="P78" s="122"/>
-      <c r="Q78" s="122"/>
-      <c r="R78" s="122"/>
-      <c r="S78" s="122" t="s">
+      <c r="K78" s="121"/>
+      <c r="L78" s="121"/>
+      <c r="M78" s="121"/>
+      <c r="N78" s="121"/>
+      <c r="O78" s="121"/>
+      <c r="P78" s="121"/>
+      <c r="Q78" s="121"/>
+      <c r="R78" s="121"/>
+      <c r="S78" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="122"/>
-      <c r="U78" s="122"/>
-      <c r="V78" s="122"/>
-      <c r="W78" s="122"/>
-      <c r="X78" s="122" t="s">
+      <c r="T78" s="121"/>
+      <c r="U78" s="121"/>
+      <c r="V78" s="121"/>
+      <c r="W78" s="121"/>
+      <c r="X78" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="122"/>
-      <c r="Z78" s="122" t="s">
+      <c r="Y78" s="121"/>
+      <c r="Z78" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="122"/>
-      <c r="AB78" s="122"/>
-      <c r="AC78" s="122"/>
-      <c r="AD78" s="122"/>
-      <c r="AE78" s="122"/>
-      <c r="AF78" s="122"/>
-      <c r="AG78" s="122" t="s">
+      <c r="AA78" s="121"/>
+      <c r="AB78" s="121"/>
+      <c r="AC78" s="121"/>
+      <c r="AD78" s="121"/>
+      <c r="AE78" s="121"/>
+      <c r="AF78" s="121"/>
+      <c r="AG78" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="122"/>
-      <c r="AI78" s="122"/>
-      <c r="AJ78" s="122"/>
-      <c r="AK78" s="122"/>
-      <c r="AL78" s="122"/>
-      <c r="AM78" s="122"/>
+      <c r="AH78" s="121"/>
+      <c r="AI78" s="121"/>
+      <c r="AJ78" s="121"/>
+      <c r="AK78" s="121"/>
+      <c r="AL78" s="121"/>
+      <c r="AM78" s="121"/>
     </row>
     <row r="79" spans="4:39">
-      <c r="E79" s="121" t="s">
+      <c r="E79" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="121"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="121"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="121" t="s">
+      <c r="F79" s="122"/>
+      <c r="G79" s="122"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="122"/>
+      <c r="J79" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="121"/>
-      <c r="L79" s="121"/>
-      <c r="M79" s="121"/>
-      <c r="N79" s="121"/>
-      <c r="O79" s="121"/>
-      <c r="P79" s="121"/>
-      <c r="Q79" s="121"/>
-      <c r="R79" s="121"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="122"/>
+      <c r="M79" s="122"/>
+      <c r="N79" s="122"/>
+      <c r="O79" s="122"/>
+      <c r="P79" s="122"/>
+      <c r="Q79" s="122"/>
+      <c r="R79" s="122"/>
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="105" t="s">
+      <c r="T79" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="105"/>
-      <c r="V79" s="105"/>
-      <c r="W79" s="105"/>
-      <c r="X79" s="105">
+      <c r="U79" s="88"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="88"/>
+      <c r="X79" s="88">
         <v>1</v>
       </c>
-      <c r="Y79" s="105"/>
-      <c r="Z79" s="120" t="s">
+      <c r="Y79" s="88"/>
+      <c r="Z79" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="120"/>
-      <c r="AB79" s="120"/>
-      <c r="AC79" s="105" t="s">
+      <c r="AA79" s="124"/>
+      <c r="AB79" s="124"/>
+      <c r="AC79" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="105"/>
-      <c r="AE79" s="105"/>
-      <c r="AF79" s="105"/>
-      <c r="AG79" s="119" t="s">
+      <c r="AD79" s="88"/>
+      <c r="AE79" s="88"/>
+      <c r="AF79" s="88"/>
+      <c r="AG79" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="AH79" s="119"/>
-      <c r="AI79" s="119"/>
-      <c r="AJ79" s="119"/>
-      <c r="AK79" s="119"/>
-      <c r="AL79" s="119"/>
-      <c r="AM79" s="119"/>
+      <c r="AH79" s="120"/>
+      <c r="AI79" s="120"/>
+      <c r="AJ79" s="120"/>
+      <c r="AK79" s="120"/>
+      <c r="AL79" s="120"/>
+      <c r="AM79" s="120"/>
     </row>
     <row r="80" spans="4:39">
-      <c r="E80" s="121"/>
-      <c r="F80" s="121"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="121"/>
-      <c r="I80" s="121"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="121"/>
-      <c r="L80" s="121"/>
-      <c r="M80" s="121"/>
-      <c r="N80" s="121"/>
-      <c r="O80" s="121"/>
-      <c r="P80" s="121"/>
-      <c r="Q80" s="121"/>
-      <c r="R80" s="121"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="122"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="122"/>
+      <c r="M80" s="122"/>
+      <c r="N80" s="122"/>
+      <c r="O80" s="122"/>
+      <c r="P80" s="122"/>
+      <c r="Q80" s="122"/>
+      <c r="R80" s="122"/>
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="105" t="s">
+      <c r="T80" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="105"/>
-      <c r="V80" s="105"/>
-      <c r="W80" s="105"/>
-      <c r="X80" s="105">
+      <c r="U80" s="88"/>
+      <c r="V80" s="88"/>
+      <c r="W80" s="88"/>
+      <c r="X80" s="88">
         <v>1</v>
       </c>
-      <c r="Y80" s="105"/>
-      <c r="Z80" s="120"/>
-      <c r="AA80" s="120"/>
-      <c r="AB80" s="120"/>
-      <c r="AC80" s="105"/>
-      <c r="AD80" s="105"/>
-      <c r="AE80" s="105"/>
-      <c r="AF80" s="105"/>
-      <c r="AG80" s="119"/>
-      <c r="AH80" s="119"/>
-      <c r="AI80" s="119"/>
-      <c r="AJ80" s="119"/>
-      <c r="AK80" s="119"/>
-      <c r="AL80" s="119"/>
-      <c r="AM80" s="119"/>
+      <c r="Y80" s="88"/>
+      <c r="Z80" s="124"/>
+      <c r="AA80" s="124"/>
+      <c r="AB80" s="124"/>
+      <c r="AC80" s="88"/>
+      <c r="AD80" s="88"/>
+      <c r="AE80" s="88"/>
+      <c r="AF80" s="88"/>
+      <c r="AG80" s="120"/>
+      <c r="AH80" s="120"/>
+      <c r="AI80" s="120"/>
+      <c r="AJ80" s="120"/>
+      <c r="AK80" s="120"/>
+      <c r="AL80" s="120"/>
+      <c r="AM80" s="120"/>
     </row>
     <row r="81" spans="5:39">
-      <c r="E81" s="121" t="s">
+      <c r="E81" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="121"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="121"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="121" t="s">
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="122"/>
+      <c r="J81" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="121"/>
-      <c r="L81" s="121"/>
-      <c r="M81" s="121"/>
-      <c r="N81" s="121"/>
-      <c r="O81" s="121"/>
-      <c r="P81" s="121"/>
-      <c r="Q81" s="121"/>
-      <c r="R81" s="121"/>
+      <c r="K81" s="122"/>
+      <c r="L81" s="122"/>
+      <c r="M81" s="122"/>
+      <c r="N81" s="122"/>
+      <c r="O81" s="122"/>
+      <c r="P81" s="122"/>
+      <c r="Q81" s="122"/>
+      <c r="R81" s="122"/>
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="105" t="s">
+      <c r="T81" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="105"/>
-      <c r="V81" s="105"/>
-      <c r="W81" s="105"/>
-      <c r="X81" s="105">
+      <c r="U81" s="88"/>
+      <c r="V81" s="88"/>
+      <c r="W81" s="88"/>
+      <c r="X81" s="88">
         <v>1</v>
       </c>
-      <c r="Y81" s="105"/>
-      <c r="Z81" s="120" t="s">
+      <c r="Y81" s="88"/>
+      <c r="Z81" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="120"/>
-      <c r="AB81" s="120"/>
-      <c r="AC81" s="105" t="s">
+      <c r="AA81" s="124"/>
+      <c r="AB81" s="124"/>
+      <c r="AC81" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="105"/>
-      <c r="AE81" s="105"/>
-      <c r="AF81" s="105"/>
-      <c r="AG81" s="119" t="s">
+      <c r="AD81" s="88"/>
+      <c r="AE81" s="88"/>
+      <c r="AF81" s="88"/>
+      <c r="AG81" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="AH81" s="119"/>
-      <c r="AI81" s="119"/>
-      <c r="AJ81" s="119"/>
-      <c r="AK81" s="119"/>
-      <c r="AL81" s="119"/>
-      <c r="AM81" s="119"/>
+      <c r="AH81" s="120"/>
+      <c r="AI81" s="120"/>
+      <c r="AJ81" s="120"/>
+      <c r="AK81" s="120"/>
+      <c r="AL81" s="120"/>
+      <c r="AM81" s="120"/>
     </row>
     <row r="82" spans="5:39">
-      <c r="E82" s="121"/>
-      <c r="F82" s="121"/>
-      <c r="G82" s="121"/>
-      <c r="H82" s="121"/>
-      <c r="I82" s="121"/>
-      <c r="J82" s="121"/>
-      <c r="K82" s="121"/>
-      <c r="L82" s="121"/>
-      <c r="M82" s="121"/>
-      <c r="N82" s="121"/>
-      <c r="O82" s="121"/>
-      <c r="P82" s="121"/>
-      <c r="Q82" s="121"/>
-      <c r="R82" s="121"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="122"/>
+      <c r="K82" s="122"/>
+      <c r="L82" s="122"/>
+      <c r="M82" s="122"/>
+      <c r="N82" s="122"/>
+      <c r="O82" s="122"/>
+      <c r="P82" s="122"/>
+      <c r="Q82" s="122"/>
+      <c r="R82" s="122"/>
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="105" t="s">
+      <c r="T82" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="105"/>
-      <c r="V82" s="105"/>
-      <c r="W82" s="105"/>
-      <c r="X82" s="105">
+      <c r="U82" s="88"/>
+      <c r="V82" s="88"/>
+      <c r="W82" s="88"/>
+      <c r="X82" s="88">
         <v>1</v>
       </c>
-      <c r="Y82" s="105"/>
-      <c r="Z82" s="120"/>
-      <c r="AA82" s="120"/>
-      <c r="AB82" s="120"/>
-      <c r="AC82" s="105"/>
-      <c r="AD82" s="105"/>
-      <c r="AE82" s="105"/>
-      <c r="AF82" s="105"/>
-      <c r="AG82" s="119"/>
-      <c r="AH82" s="119"/>
-      <c r="AI82" s="119"/>
-      <c r="AJ82" s="119"/>
-      <c r="AK82" s="119"/>
-      <c r="AL82" s="119"/>
-      <c r="AM82" s="119"/>
+      <c r="Y82" s="88"/>
+      <c r="Z82" s="124"/>
+      <c r="AA82" s="124"/>
+      <c r="AB82" s="124"/>
+      <c r="AC82" s="88"/>
+      <c r="AD82" s="88"/>
+      <c r="AE82" s="88"/>
+      <c r="AF82" s="88"/>
+      <c r="AG82" s="120"/>
+      <c r="AH82" s="120"/>
+      <c r="AI82" s="120"/>
+      <c r="AJ82" s="120"/>
+      <c r="AK82" s="120"/>
+      <c r="AL82" s="120"/>
+      <c r="AM82" s="120"/>
     </row>
     <row r="83" spans="5:39" ht="18" customHeight="1">
-      <c r="E83" s="121" t="s">
+      <c r="E83" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="121"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="121" t="s">
+      <c r="F83" s="122"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="K83" s="121"/>
-      <c r="L83" s="121"/>
-      <c r="M83" s="121"/>
-      <c r="N83" s="121"/>
-      <c r="O83" s="121"/>
-      <c r="P83" s="121"/>
-      <c r="Q83" s="121"/>
-      <c r="R83" s="121"/>
+      <c r="K83" s="122"/>
+      <c r="L83" s="122"/>
+      <c r="M83" s="122"/>
+      <c r="N83" s="122"/>
+      <c r="O83" s="122"/>
+      <c r="P83" s="122"/>
+      <c r="Q83" s="122"/>
+      <c r="R83" s="122"/>
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="105" t="s">
+      <c r="T83" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="105"/>
-      <c r="V83" s="105"/>
-      <c r="W83" s="105"/>
-      <c r="X83" s="105">
+      <c r="U83" s="88"/>
+      <c r="V83" s="88"/>
+      <c r="W83" s="88"/>
+      <c r="X83" s="88">
         <v>1</v>
       </c>
-      <c r="Y83" s="105"/>
-      <c r="Z83" s="120" t="s">
+      <c r="Y83" s="88"/>
+      <c r="Z83" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="120"/>
-      <c r="AB83" s="120"/>
-      <c r="AC83" s="105" t="s">
+      <c r="AA83" s="124"/>
+      <c r="AB83" s="124"/>
+      <c r="AC83" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="105"/>
-      <c r="AE83" s="105"/>
-      <c r="AF83" s="105"/>
-      <c r="AG83" s="119" t="s">
+      <c r="AD83" s="88"/>
+      <c r="AE83" s="88"/>
+      <c r="AF83" s="88"/>
+      <c r="AG83" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="AH83" s="119"/>
-      <c r="AI83" s="119"/>
-      <c r="AJ83" s="119"/>
-      <c r="AK83" s="119"/>
-      <c r="AL83" s="119"/>
-      <c r="AM83" s="119"/>
+      <c r="AH83" s="120"/>
+      <c r="AI83" s="120"/>
+      <c r="AJ83" s="120"/>
+      <c r="AK83" s="120"/>
+      <c r="AL83" s="120"/>
+      <c r="AM83" s="120"/>
     </row>
     <row r="84" spans="5:39">
-      <c r="E84" s="121"/>
-      <c r="F84" s="121"/>
-      <c r="G84" s="121"/>
-      <c r="H84" s="121"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="121"/>
-      <c r="K84" s="121"/>
-      <c r="L84" s="121"/>
-      <c r="M84" s="121"/>
-      <c r="N84" s="121"/>
-      <c r="O84" s="121"/>
-      <c r="P84" s="121"/>
-      <c r="Q84" s="121"/>
-      <c r="R84" s="121"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="122"/>
+      <c r="G84" s="122"/>
+      <c r="H84" s="122"/>
+      <c r="I84" s="122"/>
+      <c r="J84" s="122"/>
+      <c r="K84" s="122"/>
+      <c r="L84" s="122"/>
+      <c r="M84" s="122"/>
+      <c r="N84" s="122"/>
+      <c r="O84" s="122"/>
+      <c r="P84" s="122"/>
+      <c r="Q84" s="122"/>
+      <c r="R84" s="122"/>
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="105" t="s">
+      <c r="T84" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="105"/>
-      <c r="V84" s="105"/>
-      <c r="W84" s="105"/>
-      <c r="X84" s="105">
+      <c r="U84" s="88"/>
+      <c r="V84" s="88"/>
+      <c r="W84" s="88"/>
+      <c r="X84" s="88">
         <v>1</v>
       </c>
-      <c r="Y84" s="105"/>
-      <c r="Z84" s="120"/>
-      <c r="AA84" s="120"/>
-      <c r="AB84" s="120"/>
-      <c r="AC84" s="105"/>
-      <c r="AD84" s="105"/>
-      <c r="AE84" s="105"/>
-      <c r="AF84" s="105"/>
-      <c r="AG84" s="119"/>
-      <c r="AH84" s="119"/>
-      <c r="AI84" s="119"/>
-      <c r="AJ84" s="119"/>
-      <c r="AK84" s="119"/>
-      <c r="AL84" s="119"/>
-      <c r="AM84" s="119"/>
+      <c r="Y84" s="88"/>
+      <c r="Z84" s="124"/>
+      <c r="AA84" s="124"/>
+      <c r="AB84" s="124"/>
+      <c r="AC84" s="88"/>
+      <c r="AD84" s="88"/>
+      <c r="AE84" s="88"/>
+      <c r="AF84" s="88"/>
+      <c r="AG84" s="120"/>
+      <c r="AH84" s="120"/>
+      <c r="AI84" s="120"/>
+      <c r="AJ84" s="120"/>
+      <c r="AK84" s="120"/>
+      <c r="AL84" s="120"/>
+      <c r="AM84" s="120"/>
     </row>
     <row r="85" spans="5:39" ht="18" customHeight="1">
-      <c r="E85" s="121" t="s">
+      <c r="E85" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="121"/>
-      <c r="G85" s="121"/>
-      <c r="H85" s="121"/>
-      <c r="I85" s="121"/>
-      <c r="J85" s="121" t="s">
+      <c r="F85" s="122"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="122"/>
+      <c r="I85" s="122"/>
+      <c r="J85" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="K85" s="121"/>
-      <c r="L85" s="121"/>
-      <c r="M85" s="121"/>
-      <c r="N85" s="121"/>
-      <c r="O85" s="121"/>
-      <c r="P85" s="121"/>
-      <c r="Q85" s="121"/>
-      <c r="R85" s="121"/>
+      <c r="K85" s="122"/>
+      <c r="L85" s="122"/>
+      <c r="M85" s="122"/>
+      <c r="N85" s="122"/>
+      <c r="O85" s="122"/>
+      <c r="P85" s="122"/>
+      <c r="Q85" s="122"/>
+      <c r="R85" s="122"/>
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="105" t="s">
+      <c r="T85" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="105"/>
-      <c r="V85" s="105"/>
-      <c r="W85" s="105"/>
-      <c r="X85" s="105">
+      <c r="U85" s="88"/>
+      <c r="V85" s="88"/>
+      <c r="W85" s="88"/>
+      <c r="X85" s="88">
         <v>1</v>
       </c>
-      <c r="Y85" s="105"/>
-      <c r="Z85" s="120" t="s">
+      <c r="Y85" s="88"/>
+      <c r="Z85" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="120"/>
-      <c r="AB85" s="120"/>
-      <c r="AC85" s="105" t="s">
+      <c r="AA85" s="124"/>
+      <c r="AB85" s="124"/>
+      <c r="AC85" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="105"/>
-      <c r="AE85" s="105"/>
-      <c r="AF85" s="105"/>
-      <c r="AG85" s="119" t="s">
+      <c r="AD85" s="88"/>
+      <c r="AE85" s="88"/>
+      <c r="AF85" s="88"/>
+      <c r="AG85" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="AH85" s="119"/>
-      <c r="AI85" s="119"/>
-      <c r="AJ85" s="119"/>
-      <c r="AK85" s="119"/>
-      <c r="AL85" s="119"/>
-      <c r="AM85" s="119"/>
+      <c r="AH85" s="120"/>
+      <c r="AI85" s="120"/>
+      <c r="AJ85" s="120"/>
+      <c r="AK85" s="120"/>
+      <c r="AL85" s="120"/>
+      <c r="AM85" s="120"/>
     </row>
     <row r="86" spans="5:39">
-      <c r="E86" s="121"/>
-      <c r="F86" s="121"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="121"/>
-      <c r="J86" s="121"/>
-      <c r="K86" s="121"/>
-      <c r="L86" s="121"/>
-      <c r="M86" s="121"/>
-      <c r="N86" s="121"/>
-      <c r="O86" s="121"/>
-      <c r="P86" s="121"/>
-      <c r="Q86" s="121"/>
-      <c r="R86" s="121"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="122"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
+      <c r="L86" s="122"/>
+      <c r="M86" s="122"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="122"/>
+      <c r="Q86" s="122"/>
+      <c r="R86" s="122"/>
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="105" t="s">
+      <c r="T86" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="105"/>
-      <c r="V86" s="105"/>
-      <c r="W86" s="105"/>
-      <c r="X86" s="105">
+      <c r="U86" s="88"/>
+      <c r="V86" s="88"/>
+      <c r="W86" s="88"/>
+      <c r="X86" s="88">
         <v>1</v>
       </c>
-      <c r="Y86" s="105"/>
-      <c r="Z86" s="120"/>
-      <c r="AA86" s="120"/>
-      <c r="AB86" s="120"/>
-      <c r="AC86" s="105"/>
-      <c r="AD86" s="105"/>
-      <c r="AE86" s="105"/>
-      <c r="AF86" s="105"/>
-      <c r="AG86" s="119"/>
-      <c r="AH86" s="119"/>
-      <c r="AI86" s="119"/>
-      <c r="AJ86" s="119"/>
-      <c r="AK86" s="119"/>
-      <c r="AL86" s="119"/>
-      <c r="AM86" s="119"/>
+      <c r="Y86" s="88"/>
+      <c r="Z86" s="124"/>
+      <c r="AA86" s="124"/>
+      <c r="AB86" s="124"/>
+      <c r="AC86" s="88"/>
+      <c r="AD86" s="88"/>
+      <c r="AE86" s="88"/>
+      <c r="AF86" s="88"/>
+      <c r="AG86" s="120"/>
+      <c r="AH86" s="120"/>
+      <c r="AI86" s="120"/>
+      <c r="AJ86" s="120"/>
+      <c r="AK86" s="120"/>
+      <c r="AL86" s="120"/>
+      <c r="AM86" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -29198,112 +29304,6 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30011,8 +30011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
   <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
@@ -30091,368 +30091,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="130"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="130"/>
+      <c r="AA19" s="130"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
+      <c r="AA20" s="130"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="130"/>
+      <c r="AA22" s="130"/>
     </row>
     <row r="23" spans="1:27">
       <c r="B23" s="46"/>
@@ -30463,44 +30463,44 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="131" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="130"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="133"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="D29" s="128" t="s">
+      <c r="D29" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="130"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="D30" s="128" t="s">
+      <c r="D30" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="130"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32"/>
@@ -30688,424 +30688,424 @@
     <row r="41" spans="1:27">
       <c r="A41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="134" t="s">
+      <c r="D41" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="135"/>
-      <c r="Z41" s="135"/>
-      <c r="AA41" s="135"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="130"/>
+      <c r="T41" s="130"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
+      <c r="Z41" s="130"/>
+      <c r="AA41" s="130"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="135"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="135"/>
-      <c r="S42" s="135"/>
-      <c r="T42" s="135"/>
-      <c r="U42" s="135"/>
-      <c r="V42" s="135"/>
-      <c r="W42" s="135"/>
-      <c r="X42" s="135"/>
-      <c r="Y42" s="135"/>
-      <c r="Z42" s="135"/>
-      <c r="AA42" s="135"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
+      <c r="Q42" s="130"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
+      <c r="W42" s="130"/>
+      <c r="X42" s="130"/>
+      <c r="Y42" s="130"/>
+      <c r="Z42" s="130"/>
+      <c r="AA42" s="130"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43"/>
       <c r="C43" s="46"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="135"/>
-      <c r="P43" s="135"/>
-      <c r="Q43" s="135"/>
-      <c r="R43" s="135"/>
-      <c r="S43" s="135"/>
-      <c r="T43" s="135"/>
-      <c r="U43" s="135"/>
-      <c r="V43" s="135"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="135"/>
-      <c r="Z43" s="135"/>
-      <c r="AA43" s="135"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="130"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="135"/>
-      <c r="K44" s="135"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
-      <c r="N44" s="135"/>
-      <c r="O44" s="135"/>
-      <c r="P44" s="135"/>
-      <c r="Q44" s="135"/>
-      <c r="R44" s="135"/>
-      <c r="S44" s="135"/>
-      <c r="T44" s="135"/>
-      <c r="U44" s="135"/>
-      <c r="V44" s="135"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="135"/>
-      <c r="AA44" s="135"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="130"/>
+      <c r="P44" s="130"/>
+      <c r="Q44" s="130"/>
+      <c r="R44" s="130"/>
+      <c r="S44" s="130"/>
+      <c r="T44" s="130"/>
+      <c r="U44" s="130"/>
+      <c r="V44" s="130"/>
+      <c r="W44" s="130"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="130"/>
+      <c r="Z44" s="130"/>
+      <c r="AA44" s="130"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45"/>
       <c r="C45" s="46"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="135"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="135"/>
-      <c r="AA45" s="135"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="130"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="130"/>
+      <c r="S45" s="130"/>
+      <c r="T45" s="130"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="130"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
-      <c r="N46" s="135"/>
-      <c r="O46" s="135"/>
-      <c r="P46" s="135"/>
-      <c r="Q46" s="135"/>
-      <c r="R46" s="135"/>
-      <c r="S46" s="135"/>
-      <c r="T46" s="135"/>
-      <c r="U46" s="135"/>
-      <c r="V46" s="135"/>
-      <c r="W46" s="135"/>
-      <c r="X46" s="135"/>
-      <c r="Y46" s="135"/>
-      <c r="Z46" s="135"/>
-      <c r="AA46" s="135"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="130"/>
+      <c r="Q46" s="130"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="130"/>
+      <c r="U46" s="130"/>
+      <c r="V46" s="130"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="130"/>
+      <c r="Z46" s="130"/>
+      <c r="AA46" s="130"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="135"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="135"/>
-      <c r="R47" s="135"/>
-      <c r="S47" s="135"/>
-      <c r="T47" s="135"/>
-      <c r="U47" s="135"/>
-      <c r="V47" s="135"/>
-      <c r="W47" s="135"/>
-      <c r="X47" s="135"/>
-      <c r="Y47" s="135"/>
-      <c r="Z47" s="135"/>
-      <c r="AA47" s="135"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="130"/>
+      <c r="Q47" s="130"/>
+      <c r="R47" s="130"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="130"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="130"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48"/>
       <c r="C48" s="46"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
-      <c r="N48" s="135"/>
-      <c r="O48" s="135"/>
-      <c r="P48" s="135"/>
-      <c r="Q48" s="135"/>
-      <c r="R48" s="135"/>
-      <c r="S48" s="135"/>
-      <c r="T48" s="135"/>
-      <c r="U48" s="135"/>
-      <c r="V48" s="135"/>
-      <c r="W48" s="135"/>
-      <c r="X48" s="135"/>
-      <c r="Y48" s="135"/>
-      <c r="Z48" s="135"/>
-      <c r="AA48" s="135"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="130"/>
+      <c r="W48" s="130"/>
+      <c r="X48" s="130"/>
+      <c r="Y48" s="130"/>
+      <c r="Z48" s="130"/>
+      <c r="AA48" s="130"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49"/>
       <c r="C49" s="46"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
-      <c r="N49" s="135"/>
-      <c r="O49" s="135"/>
-      <c r="P49" s="135"/>
-      <c r="Q49" s="135"/>
-      <c r="R49" s="135"/>
-      <c r="S49" s="135"/>
-      <c r="T49" s="135"/>
-      <c r="U49" s="135"/>
-      <c r="V49" s="135"/>
-      <c r="W49" s="135"/>
-      <c r="X49" s="135"/>
-      <c r="Y49" s="135"/>
-      <c r="Z49" s="135"/>
-      <c r="AA49" s="135"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="130"/>
+      <c r="Y49" s="130"/>
+      <c r="Z49" s="130"/>
+      <c r="AA49" s="130"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
-      <c r="N50" s="135"/>
-      <c r="O50" s="135"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="135"/>
-      <c r="S50" s="135"/>
-      <c r="T50" s="135"/>
-      <c r="U50" s="135"/>
-      <c r="V50" s="135"/>
-      <c r="W50" s="135"/>
-      <c r="X50" s="135"/>
-      <c r="Y50" s="135"/>
-      <c r="Z50" s="135"/>
-      <c r="AA50" s="135"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="130"/>
+      <c r="Q50" s="130"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="130"/>
+      <c r="T50" s="130"/>
+      <c r="U50" s="130"/>
+      <c r="V50" s="130"/>
+      <c r="W50" s="130"/>
+      <c r="X50" s="130"/>
+      <c r="Y50" s="130"/>
+      <c r="Z50" s="130"/>
+      <c r="AA50" s="130"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="135"/>
-      <c r="O51" s="135"/>
-      <c r="P51" s="135"/>
-      <c r="Q51" s="135"/>
-      <c r="R51" s="135"/>
-      <c r="S51" s="135"/>
-      <c r="T51" s="135"/>
-      <c r="U51" s="135"/>
-      <c r="V51" s="135"/>
-      <c r="W51" s="135"/>
-      <c r="X51" s="135"/>
-      <c r="Y51" s="135"/>
-      <c r="Z51" s="135"/>
-      <c r="AA51" s="135"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="130"/>
+      <c r="P51" s="130"/>
+      <c r="Q51" s="130"/>
+      <c r="R51" s="130"/>
+      <c r="S51" s="130"/>
+      <c r="T51" s="130"/>
+      <c r="U51" s="130"/>
+      <c r="V51" s="130"/>
+      <c r="W51" s="130"/>
+      <c r="X51" s="130"/>
+      <c r="Y51" s="130"/>
+      <c r="Z51" s="130"/>
+      <c r="AA51" s="130"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="135"/>
-      <c r="K52" s="135"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
-      <c r="N52" s="135"/>
-      <c r="O52" s="135"/>
-      <c r="P52" s="135"/>
-      <c r="Q52" s="135"/>
-      <c r="R52" s="135"/>
-      <c r="S52" s="135"/>
-      <c r="T52" s="135"/>
-      <c r="U52" s="135"/>
-      <c r="V52" s="135"/>
-      <c r="W52" s="135"/>
-      <c r="X52" s="135"/>
-      <c r="Y52" s="135"/>
-      <c r="Z52" s="135"/>
-      <c r="AA52" s="135"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="130"/>
+      <c r="P52" s="130"/>
+      <c r="Q52" s="130"/>
+      <c r="R52" s="130"/>
+      <c r="S52" s="130"/>
+      <c r="T52" s="130"/>
+      <c r="U52" s="130"/>
+      <c r="V52" s="130"/>
+      <c r="W52" s="130"/>
+      <c r="X52" s="130"/>
+      <c r="Y52" s="130"/>
+      <c r="Z52" s="130"/>
+      <c r="AA52" s="130"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
-      <c r="N53" s="135"/>
-      <c r="O53" s="135"/>
-      <c r="P53" s="135"/>
-      <c r="Q53" s="135"/>
-      <c r="R53" s="135"/>
-      <c r="S53" s="135"/>
-      <c r="T53" s="135"/>
-      <c r="U53" s="135"/>
-      <c r="V53" s="135"/>
-      <c r="W53" s="135"/>
-      <c r="X53" s="135"/>
-      <c r="Y53" s="135"/>
-      <c r="Z53" s="135"/>
-      <c r="AA53" s="135"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="130"/>
+      <c r="X53" s="130"/>
+      <c r="Y53" s="130"/>
+      <c r="Z53" s="130"/>
+      <c r="AA53" s="130"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="135"/>
-      <c r="K54" s="135"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
-      <c r="N54" s="135"/>
-      <c r="O54" s="135"/>
-      <c r="P54" s="135"/>
-      <c r="Q54" s="135"/>
-      <c r="R54" s="135"/>
-      <c r="S54" s="135"/>
-      <c r="T54" s="135"/>
-      <c r="U54" s="135"/>
-      <c r="V54" s="135"/>
-      <c r="W54" s="135"/>
-      <c r="X54" s="135"/>
-      <c r="Y54" s="135"/>
-      <c r="Z54" s="135"/>
-      <c r="AA54" s="135"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="130"/>
+      <c r="T54" s="130"/>
+      <c r="U54" s="130"/>
+      <c r="V54" s="130"/>
+      <c r="W54" s="130"/>
+      <c r="X54" s="130"/>
+      <c r="Y54" s="130"/>
+      <c r="Z54" s="130"/>
+      <c r="AA54" s="130"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55"/>
       <c r="C55" s="46"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="135"/>
-      <c r="K55" s="135"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
-      <c r="N55" s="135"/>
-      <c r="O55" s="135"/>
-      <c r="P55" s="135"/>
-      <c r="Q55" s="135"/>
-      <c r="R55" s="135"/>
-      <c r="S55" s="135"/>
-      <c r="T55" s="135"/>
-      <c r="U55" s="135"/>
-      <c r="V55" s="135"/>
-      <c r="W55" s="135"/>
-      <c r="X55" s="135"/>
-      <c r="Y55" s="135"/>
-      <c r="Z55" s="135"/>
-      <c r="AA55" s="135"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="130"/>
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="130"/>
+      <c r="U55" s="130"/>
+      <c r="V55" s="130"/>
+      <c r="W55" s="130"/>
+      <c r="X55" s="130"/>
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130"/>
+      <c r="AA55" s="130"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="46"/>
@@ -31260,10 +31260,10 @@
       <c r="E75" t="s">
         <v>236</v>
       </c>
-      <c r="H75" s="116" t="s">
+      <c r="H75" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="I75" s="118"/>
+      <c r="I75" s="103"/>
     </row>
     <row r="76" spans="1:36">
       <c r="B76" s="46"/>
@@ -31297,23 +31297,23 @@
     <row r="78" spans="1:36">
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
-      <c r="E78" s="124" t="str">
+      <c r="E78" s="125" t="str">
         <f>"--video-device " &amp; TRIM(M78)</f>
         <v>--video-device /dev/video0</v>
       </c>
-      <c r="F78" s="125"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="125"/>
-      <c r="J78" s="125"/>
-      <c r="K78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="127"/>
       <c r="L78" s="50"/>
-      <c r="M78" s="128" t="s">
+      <c r="M78" s="131" t="s">
         <v>291</v>
       </c>
-      <c r="N78" s="129"/>
-      <c r="O78" s="129"/>
-      <c r="P78" s="130"/>
+      <c r="N78" s="132"/>
+      <c r="O78" s="132"/>
+      <c r="P78" s="133"/>
       <c r="Q78" s="47">
         <v>0</v>
       </c>
@@ -31326,19 +31326,19 @@
       <c r="T78" s="80">
         <v>3</v>
       </c>
-      <c r="V78" s="127" t="s">
+      <c r="V78" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="W78" s="125"/>
-      <c r="X78" s="126"/>
-      <c r="Z78" s="116" t="s">
+      <c r="W78" s="126"/>
+      <c r="X78" s="127"/>
+      <c r="Z78" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="AA78" s="118"/>
-      <c r="AC78" s="116">
+      <c r="AA78" s="103"/>
+      <c r="AC78" s="101">
         <v>51001</v>
       </c>
-      <c r="AD78" s="118"/>
+      <c r="AD78" s="103"/>
       <c r="AE78" s="53"/>
       <c r="AF78" s="64" t="s">
         <v>294</v>
@@ -31352,23 +31352,23 @@
     <row r="79" spans="1:36">
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
-      <c r="E79" s="124" t="str">
+      <c r="E79" s="125" t="str">
         <f t="shared" ref="E79:E82" si="3">"--video-device " &amp; TRIM(M79)</f>
         <v>--video-device /dev/video8</v>
       </c>
-      <c r="F79" s="125"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="125"/>
-      <c r="J79" s="125"/>
-      <c r="K79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="127"/>
       <c r="L79" s="50"/>
-      <c r="M79" s="128" t="s">
+      <c r="M79" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="N79" s="129"/>
-      <c r="O79" s="129"/>
-      <c r="P79" s="130"/>
+      <c r="N79" s="132"/>
+      <c r="O79" s="132"/>
+      <c r="P79" s="133"/>
       <c r="Q79" s="47">
         <v>8</v>
       </c>
@@ -31381,19 +31381,19 @@
       <c r="T79" s="80">
         <v>19</v>
       </c>
-      <c r="V79" s="127" t="s">
+      <c r="V79" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="W79" s="125"/>
-      <c r="X79" s="126"/>
-      <c r="Z79" s="116" t="s">
+      <c r="W79" s="126"/>
+      <c r="X79" s="127"/>
+      <c r="Z79" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="AA79" s="118"/>
-      <c r="AC79" s="116">
+      <c r="AA79" s="103"/>
+      <c r="AC79" s="101">
         <v>51002</v>
       </c>
-      <c r="AD79" s="118"/>
+      <c r="AD79" s="103"/>
       <c r="AE79" s="53"/>
       <c r="AF79" s="64" t="s">
         <v>294</v>
@@ -31407,23 +31407,23 @@
     <row r="80" spans="1:36">
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
-      <c r="E80" s="124" t="str">
+      <c r="E80" s="125" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video30</v>
       </c>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="125"/>
-      <c r="J80" s="125"/>
-      <c r="K80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="127"/>
       <c r="L80" s="50"/>
-      <c r="M80" s="128" t="s">
+      <c r="M80" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="N80" s="129"/>
-      <c r="O80" s="129"/>
-      <c r="P80" s="130"/>
+      <c r="N80" s="132"/>
+      <c r="O80" s="132"/>
+      <c r="P80" s="133"/>
       <c r="Q80" s="47">
         <v>28</v>
       </c>
@@ -31436,19 +31436,19 @@
       <c r="T80" s="80">
         <v>32</v>
       </c>
-      <c r="V80" s="127" t="s">
+      <c r="V80" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="W80" s="125"/>
-      <c r="X80" s="126"/>
-      <c r="Z80" s="116" t="s">
+      <c r="W80" s="126"/>
+      <c r="X80" s="127"/>
+      <c r="Z80" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="AA80" s="118"/>
-      <c r="AC80" s="116">
+      <c r="AA80" s="103"/>
+      <c r="AC80" s="101">
         <v>51003</v>
       </c>
-      <c r="AD80" s="118"/>
+      <c r="AD80" s="103"/>
       <c r="AE80" s="53"/>
       <c r="AF80" s="64" t="s">
         <v>294</v>
@@ -31462,23 +31462,23 @@
     <row r="81" spans="2:36">
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
-      <c r="E81" s="124" t="str">
+      <c r="E81" s="125" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video4</v>
       </c>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="125"/>
-      <c r="J81" s="125"/>
-      <c r="K81" s="126"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="126"/>
+      <c r="J81" s="126"/>
+      <c r="K81" s="127"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="128" t="s">
+      <c r="M81" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="N81" s="129"/>
-      <c r="O81" s="129"/>
-      <c r="P81" s="130"/>
+      <c r="N81" s="132"/>
+      <c r="O81" s="132"/>
+      <c r="P81" s="133"/>
       <c r="Q81" s="47">
         <v>4</v>
       </c>
@@ -31491,19 +31491,19 @@
       <c r="T81" s="80">
         <v>7</v>
       </c>
-      <c r="V81" s="127" t="s">
+      <c r="V81" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="W81" s="125"/>
-      <c r="X81" s="126"/>
-      <c r="Z81" s="116" t="s">
+      <c r="W81" s="126"/>
+      <c r="X81" s="127"/>
+      <c r="Z81" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="AA81" s="118"/>
-      <c r="AC81" s="116">
+      <c r="AA81" s="103"/>
+      <c r="AC81" s="101">
         <v>51004</v>
       </c>
-      <c r="AD81" s="118"/>
+      <c r="AD81" s="103"/>
       <c r="AE81" s="53"/>
       <c r="AF81" s="64" t="s">
         <v>294</v>
@@ -31517,23 +31517,23 @@
     <row r="82" spans="2:36">
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
-      <c r="E82" s="124" t="str">
+      <c r="E82" s="125" t="str">
         <f t="shared" si="3"/>
         <v>--video-device /dev/video24</v>
       </c>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
-      <c r="J82" s="125"/>
-      <c r="K82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="127"/>
       <c r="L82" s="50"/>
-      <c r="M82" s="128" t="s">
+      <c r="M82" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="N82" s="129"/>
-      <c r="O82" s="129"/>
-      <c r="P82" s="130"/>
+      <c r="N82" s="132"/>
+      <c r="O82" s="132"/>
+      <c r="P82" s="133"/>
       <c r="Q82" s="80">
         <v>24</v>
       </c>
@@ -31546,19 +31546,19 @@
       <c r="T82" s="80">
         <v>27</v>
       </c>
-      <c r="V82" s="127" t="s">
+      <c r="V82" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="W82" s="125"/>
-      <c r="X82" s="126"/>
-      <c r="Z82" s="116" t="s">
+      <c r="W82" s="126"/>
+      <c r="X82" s="127"/>
+      <c r="Z82" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="AA82" s="118"/>
-      <c r="AC82" s="116">
+      <c r="AA82" s="103"/>
+      <c r="AC82" s="101">
         <v>51005</v>
       </c>
-      <c r="AD82" s="118"/>
+      <c r="AD82" s="103"/>
       <c r="AE82" s="53"/>
       <c r="AF82" s="64" t="s">
         <v>294</v>
@@ -31745,16 +31745,16 @@
     <row r="99" spans="1:11">
       <c r="B99" s="46"/>
       <c r="C99" s="46"/>
-      <c r="D99" s="131" t="s">
+      <c r="D99" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="132"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="132"/>
-      <c r="H99" s="132"/>
-      <c r="I99" s="132"/>
-      <c r="J99" s="132"/>
-      <c r="K99" s="133"/>
+      <c r="E99" s="135"/>
+      <c r="F99" s="135"/>
+      <c r="G99" s="135"/>
+      <c r="H99" s="135"/>
+      <c r="I99" s="135"/>
+      <c r="J99" s="135"/>
+      <c r="K99" s="136"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="46"/>
@@ -31780,11 +31780,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="E82:K82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P82"/>
     <mergeCell ref="D10:AA22"/>
     <mergeCell ref="D41:AA55"/>
     <mergeCell ref="H75:I75"/>
@@ -31795,25 +31809,11 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="E80:K80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="E82:K82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AC82:AD82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F3ECDF-FE0F-4575-8E7F-751F881F3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC801A3-7E75-41D0-8BD3-C24F4B992B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="0" windowWidth="16515" windowHeight="14970" tabRatio="745" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="735" windowWidth="20430" windowHeight="15990" tabRatio="745" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="467">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -2955,33 +2955,6 @@
     <t>移動 左</t>
   </si>
   <si>
-    <t>雪射出口 左上向き</t>
-  </si>
-  <si>
-    <t>雪射出口 上向き</t>
-  </si>
-  <si>
-    <t>雪射出口 右上向き</t>
-  </si>
-  <si>
-    <t>雪射出口 右向き</t>
-  </si>
-  <si>
-    <t>雪射出口 右下向き</t>
-  </si>
-  <si>
-    <t>雪射出口 下向き</t>
-  </si>
-  <si>
-    <t>雪射出口 左下向き</t>
-  </si>
-  <si>
-    <t>雪射出口 左向き</t>
-  </si>
-  <si>
-    <t>雪射出口 スティック右 左上向き</t>
-  </si>
-  <si>
     <t>未設定ボタン△</t>
   </si>
   <si>
@@ -3035,6 +3008,93 @@
     <rPh sb="25" eb="27">
       <t>ヘンカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 左上向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 上向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 右上向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 右向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 右下向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 下向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 左下向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック右 左向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 左上向き</t>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 上向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 右上向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 右向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 右下向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 下向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 左下向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪射出口 スティック左 左向き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|@1|@2|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|------|------|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|||</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3717,6 +3777,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3733,12 +3847,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3765,68 +3873,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3839,12 +3899,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3863,6 +3917,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23174,10 +23234,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEF24F-01C3-4916-BB43-1D1CEB0DF384}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -23185,1315 +23245,1990 @@
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="1" spans="1:13">
+      <c r="L1" s="87" t="s">
+        <v>464</v>
+      </c>
+      <c r="M1" s="87" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L2" t="str">
+        <f>SUBSTITUTE(K2,L$1,I2)</f>
+        <v>|名称|@2|</v>
+      </c>
+      <c r="M2" t="str">
+        <f>SUBSTITUTE(L2,M$1,J2)</f>
+        <v>|名称|コマンド|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="K3" s="87" t="s">
+        <v>463</v>
+      </c>
+      <c r="L3" t="str">
+        <f>SUBSTITUTE(K3,L$1,I3)</f>
+        <v>|------|------|</v>
+      </c>
+      <c r="M3" t="str">
+        <f>SUBSTITUTE(L3,M$1,J3)</f>
+        <v>|------|------|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>398</v>
-      </c>
-      <c r="D3" t="str">
-        <f>SUBSTITUTE(C3,"@1",B3)</f>
-        <v>elif pCmd.Command == "clutch_up":</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D4" t="str">
         <f>SUBSTITUTE(C4,"@1",B4)</f>
-        <v xml:space="preserve">    #クラッチ アップ</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>elif pCmd.Command == "clutch_up":</v>
+      </c>
+      <c r="I4" t="str">
+        <f>B5</f>
+        <v>クラッチ アップ</v>
+      </c>
+      <c r="J4" t="str">
+        <f>B6</f>
+        <v>c_up</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L4" t="str">
+        <f>SUBSTITUTE(K4,L$1,I4)</f>
+        <v>|クラッチ アップ|@2|</v>
+      </c>
+      <c r="M4" t="str">
+        <f>SUBSTITUTE(L4,M$1,J4)</f>
+        <v>|クラッチ アップ|c_up|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D5" t="str">
         <f>SUBSTITUTE(C5,"@1",B5)</f>
+        <v xml:space="preserve">    #クラッチ アップ</v>
+      </c>
+      <c r="I5" t="str">
+        <f>B9</f>
+        <v>クラッチ ダウン</v>
+      </c>
+      <c r="J5" t="str">
+        <f>B10</f>
+        <v>c_dw</v>
+      </c>
+      <c r="K5" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L5" t="str">
+        <f>SUBSTITUTE(K5,L$1,I5)</f>
+        <v>|クラッチ ダウン|@2|</v>
+      </c>
+      <c r="M5" t="str">
+        <f>SUBSTITUTE(L5,M$1,J5)</f>
+        <v>|クラッチ ダウン|c_dw|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="str">
+        <f>SUBSTITUTE(C6,"@1",B6)</f>
         <v xml:space="preserve">    self.SendDevice("c_up")</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="K6" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L6" t="str">
+        <f>SUBSTITUTE(K6,L$1,I6)</f>
+        <v>|||</v>
+      </c>
+      <c r="M6" t="str">
+        <f>SUBSTITUTE(L6,M$1,J6)</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="I7" t="str">
+        <f>B13</f>
+        <v>アクセル アップ</v>
+      </c>
+      <c r="J7" t="str">
+        <f>B14</f>
+        <v>a_up</v>
+      </c>
+      <c r="K7" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L7" t="str">
+        <f>SUBSTITUTE(K7,L$1,I7)</f>
+        <v>|アクセル アップ|@2|</v>
+      </c>
+      <c r="M7" t="str">
+        <f>SUBSTITUTE(L7,M$1,J7)</f>
+        <v>|アクセル アップ|a_up|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" t="s">
         <v>372</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>398</v>
-      </c>
-      <c r="D7" t="str">
-        <f>SUBSTITUTE(C7,"@1",B7)</f>
-        <v>elif pCmd.Command == "clutch_dw":</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D8" t="str">
         <f>SUBSTITUTE(C8,"@1",B8)</f>
-        <v xml:space="preserve">    #クラッチ ダウン</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>elif pCmd.Command == "clutch_dw":</v>
+      </c>
+      <c r="I8" t="str">
+        <f>B17</f>
+        <v>アクセル ダウン</v>
+      </c>
+      <c r="J8" t="str">
+        <f>B18</f>
+        <v>a_dw</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L8" t="str">
+        <f>SUBSTITUTE(K8,L$1,I8)</f>
+        <v>|アクセル ダウン|@2|</v>
+      </c>
+      <c r="M8" t="str">
+        <f>SUBSTITUTE(L8,M$1,J8)</f>
+        <v>|アクセル ダウン|a_dw|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D9" t="str">
         <f>SUBSTITUTE(C9,"@1",B9)</f>
+        <v xml:space="preserve">    #クラッチ ダウン</v>
+      </c>
+      <c r="K9" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L9" t="str">
+        <f>SUBSTITUTE(K9,L$1,I9)</f>
+        <v>|||</v>
+      </c>
+      <c r="M9" t="str">
+        <f>SUBSTITUTE(L9,M$1,J9)</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" t="str">
+        <f>SUBSTITUTE(C10,"@1",B10)</f>
         <v xml:space="preserve">    self.SendDevice("c_dw")</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="I10" t="str">
+        <f>B21</f>
+        <v>移動 前進</v>
+      </c>
+      <c r="J10" t="str">
+        <f>B22</f>
+        <v>m_fw</v>
+      </c>
+      <c r="K10" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:M10" si="0">SUBSTITUTE(K10,L$1,I10)</f>
+        <v>|移動 前進|@2|</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>|移動 前進|m_fw|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="I11" t="str">
+        <f>B25</f>
+        <v>移動 後進</v>
+      </c>
+      <c r="J11" t="str">
+        <f>B26</f>
+        <v>m_bk</v>
+      </c>
+      <c r="K11" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:M11" si="1">SUBSTITUTE(K11,L$1,I11)</f>
+        <v>|移動 後進|@2|</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>|移動 後進|m_bk|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" t="s">
         <v>373</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>398</v>
-      </c>
-      <c r="D11" t="str">
-        <f>SUBSTITUTE(C11,"@1",B11)</f>
-        <v>elif pCmd.Command == "accel_up":</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D12" t="str">
         <f>SUBSTITUTE(C12,"@1",B12)</f>
-        <v xml:space="preserve">    #アクセル アップ</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>elif pCmd.Command == "accel_up":</v>
+      </c>
+      <c r="I12" t="str">
+        <f>B29</f>
+        <v>移動 右</v>
+      </c>
+      <c r="J12" t="str">
+        <f>B30</f>
+        <v>m_r</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12:M12" si="2">SUBSTITUTE(K12,L$1,I12)</f>
+        <v>|移動 右|@2|</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>|移動 右|m_r|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D13" t="str">
         <f>SUBSTITUTE(C13,"@1",B13)</f>
+        <v xml:space="preserve">    #アクセル アップ</v>
+      </c>
+      <c r="I13" t="str">
+        <f>B33</f>
+        <v>移動 左</v>
+      </c>
+      <c r="J13" t="str">
+        <f>B34</f>
+        <v>m_l</v>
+      </c>
+      <c r="K13" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:M13" si="3">SUBSTITUTE(K13,L$1,I13)</f>
+        <v>|移動 左|@2|</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>|移動 左|m_l|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" t="str">
+        <f>SUBSTITUTE(C14,"@1",B14)</f>
         <v xml:space="preserve">    self.SendDevice("a_up")</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="K14" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L14" t="str">
+        <f>SUBSTITUTE(K14,L$1,I14)</f>
+        <v>|||</v>
+      </c>
+      <c r="M14" t="str">
+        <f>SUBSTITUTE(L14,M$1,J14)</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="I15" t="str">
+        <f>B37</f>
+        <v>雪射出口 スティック左 左上向き</v>
+      </c>
+      <c r="J15" t="str">
+        <f>B38</f>
+        <v>c_L_lup</v>
+      </c>
+      <c r="K15" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:M15" si="4">SUBSTITUTE(K15,L$1,I15)</f>
+        <v>|雪射出口 スティック左 左上向き|@2|</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>|雪射出口 スティック左 左上向き|c_L_lup|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" t="s">
         <v>374</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>398</v>
-      </c>
-      <c r="D15" t="str">
-        <f>SUBSTITUTE(C15,"@1",B15)</f>
-        <v>elif pCmd.Command == "accel_dw":</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D16" t="str">
         <f>SUBSTITUTE(C16,"@1",B16)</f>
-        <v xml:space="preserve">    #アクセル ダウン</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>elif pCmd.Command == "accel_dw":</v>
+      </c>
+      <c r="I16" t="str">
+        <f>B41</f>
+        <v>雪射出口 スティック左 上向き</v>
+      </c>
+      <c r="J16" t="str">
+        <f>B42</f>
+        <v>c_L_up</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:M16" si="5">SUBSTITUTE(K16,L$1,I16)</f>
+        <v>|雪射出口 スティック左 上向き|@2|</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="5"/>
+        <v>|雪射出口 スティック左 上向き|c_L_up|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D17" t="str">
         <f>SUBSTITUTE(C17,"@1",B17)</f>
+        <v xml:space="preserve">    #アクセル ダウン</v>
+      </c>
+      <c r="I17" t="str">
+        <f>B45</f>
+        <v>雪射出口 スティック左 右上向き</v>
+      </c>
+      <c r="J17" t="str">
+        <f>B46</f>
+        <v>c_L_rup</v>
+      </c>
+      <c r="K17" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:M17" si="6">SUBSTITUTE(K17,L$1,I17)</f>
+        <v>|雪射出口 スティック左 右上向き|@2|</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="6"/>
+        <v>|雪射出口 スティック左 右上向き|c_L_rup|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" t="str">
+        <f>SUBSTITUTE(C18,"@1",B18)</f>
         <v xml:space="preserve">    self.SendDevice("a_dw")</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="I18" t="str">
+        <f>B49</f>
+        <v>雪射出口 スティック左 右向き</v>
+      </c>
+      <c r="J18" t="str">
+        <f>B50</f>
+        <v>c_L_right</v>
+      </c>
+      <c r="K18" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:M18" si="7">SUBSTITUTE(K18,L$1,I18)</f>
+        <v>|雪射出口 スティック左 右向き|@2|</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="7"/>
+        <v>|雪射出口 スティック左 右向き|c_L_right|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="I19" t="str">
+        <f>B53</f>
+        <v>雪射出口 スティック左 右下向き</v>
+      </c>
+      <c r="J19" t="str">
+        <f>B54</f>
+        <v>c_L_rdw</v>
+      </c>
+      <c r="K19" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:M19" si="8">SUBSTITUTE(K19,L$1,I19)</f>
+        <v>|雪射出口 スティック左 右下向き|@2|</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="8"/>
+        <v>|雪射出口 スティック左 右下向き|c_L_rdw|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s">
         <v>375</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>398</v>
-      </c>
-      <c r="D19" t="str">
-        <f>SUBSTITUTE(C19,"@1",B19)</f>
-        <v>elif pCmd.Command == "move_fw":</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>452</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D20" t="str">
         <f>SUBSTITUTE(C20,"@1",B20)</f>
-        <v xml:space="preserve">    #移動 前進</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>elif pCmd.Command == "move_fw":</v>
+      </c>
+      <c r="I20" t="str">
+        <f>B57</f>
+        <v>雪射出口 スティック左 下向き</v>
+      </c>
+      <c r="J20" t="str">
+        <f>B58</f>
+        <v>c_L_dw</v>
+      </c>
+      <c r="K20" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ref="L20:M20" si="9">SUBSTITUTE(K20,L$1,I20)</f>
+        <v>|雪射出口 スティック左 下向き|@2|</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="9"/>
+        <v>|雪射出口 スティック左 下向き|c_L_dw|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>453</v>
-      </c>
-      <c r="B21" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D21" t="str">
         <f>SUBSTITUTE(C21,"@1",B21)</f>
+        <v xml:space="preserve">    #移動 前進</v>
+      </c>
+      <c r="I21" t="str">
+        <f>B61</f>
+        <v>雪射出口 スティック左 左下向き</v>
+      </c>
+      <c r="J21" t="str">
+        <f>B62</f>
+        <v>c_L_ldw</v>
+      </c>
+      <c r="K21" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:M21" si="10">SUBSTITUTE(K21,L$1,I21)</f>
+        <v>|雪射出口 スティック左 左下向き|@2|</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="10"/>
+        <v>|雪射出口 スティック左 左下向き|c_L_ldw|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" t="str">
+        <f>SUBSTITUTE(C22,"@1",B22)</f>
         <v xml:space="preserve">    self.SendDevice("m_fw")</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="I22" t="str">
+        <f>B65</f>
+        <v>雪射出口 スティック左 左向き</v>
+      </c>
+      <c r="J22" t="str">
+        <f>B66</f>
+        <v>c_L_left</v>
+      </c>
+      <c r="K22" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:M22" si="11">SUBSTITUTE(K22,L$1,I22)</f>
+        <v>|雪射出口 スティック左 左向き|@2|</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="11"/>
+        <v>|雪射出口 スティック左 左向き|c_L_left|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="K23" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L23" t="str">
+        <f>SUBSTITUTE(K23,L$1,I23)</f>
+        <v>|||</v>
+      </c>
+      <c r="M23" t="str">
+        <f>SUBSTITUTE(L23,M$1,J23)</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" t="s">
         <v>376</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>398</v>
-      </c>
-      <c r="D23" t="str">
-        <f>SUBSTITUTE(C23,"@1",B23)</f>
-        <v>elif pCmd.Command == "move_bk":</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>452</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D24" t="str">
         <f>SUBSTITUTE(C24,"@1",B24)</f>
-        <v xml:space="preserve">    #移動 後進</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>elif pCmd.Command == "move_bk":</v>
+      </c>
+      <c r="I24" t="str">
+        <f>B69</f>
+        <v>雪射出口 スティック右 左上向き</v>
+      </c>
+      <c r="J24" t="str">
+        <f>B70</f>
+        <v>c_R_lup</v>
+      </c>
+      <c r="K24" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ref="L24:M24" si="12">SUBSTITUTE(K24,L$1,I24)</f>
+        <v>|雪射出口 スティック右 左上向き|@2|</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="12"/>
+        <v>|雪射出口 スティック右 左上向き|c_R_lup|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D25" t="str">
         <f>SUBSTITUTE(C25,"@1",B25)</f>
+        <v xml:space="preserve">    #移動 後進</v>
+      </c>
+      <c r="I25" t="str">
+        <f>B73</f>
+        <v>雪射出口 スティック右 上向き</v>
+      </c>
+      <c r="J25" t="str">
+        <f>B74</f>
+        <v>c_R_up</v>
+      </c>
+      <c r="K25" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ref="L25:M25" si="13">SUBSTITUTE(K25,L$1,I25)</f>
+        <v>|雪射出口 スティック右 上向き|@2|</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="13"/>
+        <v>|雪射出口 スティック右 上向き|c_R_up|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" t="str">
+        <f>SUBSTITUTE(C26,"@1",B26)</f>
         <v xml:space="preserve">    self.SendDevice("m_bk")</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>451</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="I26" t="str">
+        <f>B77</f>
+        <v>雪射出口 スティック右 右上向き</v>
+      </c>
+      <c r="J26" t="str">
+        <f>B78</f>
+        <v>c_R_rup</v>
+      </c>
+      <c r="K26" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" ref="L26:M26" si="14">SUBSTITUTE(K26,L$1,I26)</f>
+        <v>|雪射出口 スティック右 右上向き|@2|</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="14"/>
+        <v>|雪射出口 スティック右 右上向き|c_R_rup|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="I27" t="str">
+        <f>B81</f>
+        <v>雪射出口 スティック右 右向き</v>
+      </c>
+      <c r="J27" t="str">
+        <f>B82</f>
+        <v>c_R_right</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" ref="L27:M27" si="15">SUBSTITUTE(K27,L$1,I27)</f>
+        <v>|雪射出口 スティック右 右向き|@2|</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="15"/>
+        <v>|雪射出口 スティック右 右向き|c_R_right|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>398</v>
-      </c>
-      <c r="D27" t="str">
-        <f>SUBSTITUTE(C27,"@1",B27)</f>
-        <v>elif pCmd.Command == "move_right":</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>452</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D28" t="str">
         <f>SUBSTITUTE(C28,"@1",B28)</f>
-        <v xml:space="preserve">    #移動 右</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>elif pCmd.Command == "move_right":</v>
+      </c>
+      <c r="I28" t="str">
+        <f>B85</f>
+        <v>雪射出口 スティック右 右下向き</v>
+      </c>
+      <c r="J28" t="str">
+        <f>B86</f>
+        <v>c_R_rdw</v>
+      </c>
+      <c r="K28" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" ref="L28:M28" si="16">SUBSTITUTE(K28,L$1,I28)</f>
+        <v>|雪射出口 スティック右 右下向き|@2|</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="16"/>
+        <v>|雪射出口 スティック右 右下向き|c_R_rdw|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>453</v>
-      </c>
-      <c r="B29" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D29" t="str">
         <f>SUBSTITUTE(C29,"@1",B29)</f>
+        <v xml:space="preserve">    #移動 右</v>
+      </c>
+      <c r="I29" t="str">
+        <f>B89</f>
+        <v>雪射出口 スティック右 下向き</v>
+      </c>
+      <c r="J29" t="str">
+        <f>B90</f>
+        <v>c_R_dw</v>
+      </c>
+      <c r="K29" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" ref="L29:M29" si="17">SUBSTITUTE(K29,L$1,I29)</f>
+        <v>|雪射出口 スティック右 下向き|@2|</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="17"/>
+        <v>|雪射出口 スティック右 下向き|c_R_dw|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C30" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" t="str">
+        <f>SUBSTITUTE(C30,"@1",B30)</f>
         <v xml:space="preserve">    self.SendDevice("m_r")</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>451</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="I30" t="str">
+        <f>B93</f>
+        <v>雪射出口 スティック右 左下向き</v>
+      </c>
+      <c r="J30" t="str">
+        <f>B94</f>
+        <v>c_R_ldw</v>
+      </c>
+      <c r="K30" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ref="L30:M30" si="18">SUBSTITUTE(K30,L$1,I30)</f>
+        <v>|雪射出口 スティック右 左下向き|@2|</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="18"/>
+        <v>|雪射出口 スティック右 左下向き|c_R_ldw|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="I31" t="str">
+        <f>B97</f>
+        <v>雪射出口 スティック右 左向き</v>
+      </c>
+      <c r="J31" t="str">
+        <f>B98</f>
+        <v>c_R_left</v>
+      </c>
+      <c r="K31" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ref="L31:M31" si="19">SUBSTITUTE(K31,L$1,I31)</f>
+        <v>|雪射出口 スティック右 左向き|@2|</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="19"/>
+        <v>|雪射出口 スティック右 左向き|c_R_left|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>398</v>
-      </c>
-      <c r="D31" t="str">
-        <f>SUBSTITUTE(C31,"@1",B31)</f>
-        <v>elif pCmd.Command == "move_left":</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>452</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>435</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D32" t="str">
         <f>SUBSTITUTE(C32,"@1",B32)</f>
-        <v xml:space="preserve">    #移動 左</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>elif pCmd.Command == "move_left":</v>
+      </c>
+      <c r="K32" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L32" t="str">
+        <f>SUBSTITUTE(K32,L$1,I32)</f>
+        <v>|||</v>
+      </c>
+      <c r="M32" t="str">
+        <f>SUBSTITUTE(L32,M$1,J32)</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>453</v>
-      </c>
-      <c r="B33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C33" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D33" t="str">
         <f>SUBSTITUTE(C33,"@1",B33)</f>
+        <v xml:space="preserve">    #移動 左</v>
+      </c>
+      <c r="I33" t="str">
+        <f>B101</f>
+        <v>未設定ボタン△</v>
+      </c>
+      <c r="J33" t="str">
+        <f>B102</f>
+        <v>btn_sankaku</v>
+      </c>
+      <c r="K33" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ref="L33:L36" si="20">SUBSTITUTE(K33,L$1,I33)</f>
+        <v>|未設定ボタン△|@2|</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ref="M33:M36" si="21">SUBSTITUTE(L33,M$1,J33)</f>
+        <v>|未設定ボタン△|btn_sankaku|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>444</v>
+      </c>
+      <c r="B34" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D34" t="str">
+        <f>SUBSTITUTE(C34,"@1",B34)</f>
         <v xml:space="preserve">    self.SendDevice("m_l")</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>451</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="I34" t="str">
+        <f>B105</f>
+        <v>未設定ボタン□</v>
+      </c>
+      <c r="J34" t="str">
+        <f>B106</f>
+        <v>btn_sikaku</v>
+      </c>
+      <c r="K34" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="20"/>
+        <v>|未設定ボタン□|@2|</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="21"/>
+        <v>|未設定ボタン□|btn_sikaku|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="I35" t="str">
+        <f>B109</f>
+        <v>歯の回転のON</v>
+      </c>
+      <c r="J35" t="str">
+        <f>B110</f>
+        <v>on</v>
+      </c>
+      <c r="K35" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="20"/>
+        <v>|歯の回転のON|@2|</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="21"/>
+        <v>|歯の回転のON|on|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" t="s">
         <v>377</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>398</v>
-      </c>
-      <c r="D35" t="str">
-        <f>SUBSTITUTE(C35,"@1",B35)</f>
-        <v>elif pCmd.Command == "chute_L_lup":</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D36" t="str">
         <f>SUBSTITUTE(C36,"@1",B36)</f>
-        <v xml:space="preserve">    #雪射出口 左上向き</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>elif pCmd.Command == "chute_L_lup":</v>
+      </c>
+      <c r="I36" t="str">
+        <f>B113</f>
+        <v>歯の回転のOFF</v>
+      </c>
+      <c r="J36" t="str">
+        <f>B114</f>
+        <v>off</v>
+      </c>
+      <c r="K36" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="20"/>
+        <v>|歯の回転のOFF|@2|</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="21"/>
+        <v>|歯の回転のOFF|off|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>453</v>
-      </c>
-      <c r="B37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C37" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D37" t="str">
         <f>SUBSTITUTE(C37,"@1",B37)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 左上向き</v>
+      </c>
+      <c r="K37" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L37" t="str">
+        <f>SUBSTITUTE(K37,L$1,I37)</f>
+        <v>|||</v>
+      </c>
+      <c r="M37" t="str">
+        <f>SUBSTITUTE(L37,M$1,J37)</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>444</v>
+      </c>
+      <c r="B38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D38" t="str">
+        <f>SUBSTITUTE(C38,"@1",B38)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_lup")</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>451</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="I38" t="str">
+        <f>B117</f>
+        <v>緊急停止</v>
+      </c>
+      <c r="J38" t="str">
+        <f>B118</f>
+        <v>em</v>
+      </c>
+      <c r="K38" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L38" t="str">
+        <f>SUBSTITUTE(K38,L$1,I38)</f>
+        <v>|緊急停止|@2|</v>
+      </c>
+      <c r="M38" t="str">
+        <f>SUBSTITUTE(L38,M$1,J38)</f>
+        <v>|緊急停止|em|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" t="s">
         <v>378</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>398</v>
-      </c>
-      <c r="D39" t="str">
-        <f>SUBSTITUTE(C39,"@1",B39)</f>
-        <v>elif pCmd.Command == "chute_L_up":</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>452</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D40" t="str">
         <f>SUBSTITUTE(C40,"@1",B40)</f>
-        <v xml:space="preserve">    #雪射出口 上向き</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>elif pCmd.Command == "chute_L_up":</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>453</v>
-      </c>
-      <c r="B41" t="s">
-        <v>408</v>
-      </c>
-      <c r="C41" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D41" t="str">
         <f>SUBSTITUTE(C41,"@1",B41)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 上向き</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" t="str">
+        <f>SUBSTITUTE(C42,"@1",B42)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_up")</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>451</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44" t="s">
         <v>379</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>398</v>
-      </c>
-      <c r="D43" t="str">
-        <f>SUBSTITUTE(C43,"@1",B43)</f>
-        <v>elif pCmd.Command == "chute_L_rup":</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>452</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="C44" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D44" t="str">
         <f>SUBSTITUTE(C44,"@1",B44)</f>
-        <v xml:space="preserve">    #雪射出口 右上向き</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>elif pCmd.Command == "chute_L_rup":</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>453</v>
-      </c>
-      <c r="B45" t="s">
-        <v>409</v>
-      </c>
-      <c r="C45" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D45" t="str">
         <f>SUBSTITUTE(C45,"@1",B45)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 右上向き</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" t="s">
+        <v>427</v>
+      </c>
+      <c r="D46" t="str">
+        <f>SUBSTITUTE(C46,"@1",B46)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_rup")</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>451</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" t="s">
         <v>380</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>398</v>
-      </c>
-      <c r="D47" t="str">
-        <f>SUBSTITUTE(C47,"@1",B47)</f>
-        <v>elif pCmd.Command == "chute_L_right":</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>452</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>450</v>
       </c>
       <c r="D48" t="str">
         <f>SUBSTITUTE(C48,"@1",B48)</f>
-        <v xml:space="preserve">    #雪射出口 右向き</v>
+        <v>elif pCmd.Command == "chute_L_right":</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>453</v>
-      </c>
-      <c r="B49" t="s">
-        <v>411</v>
-      </c>
-      <c r="C49" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D49" t="str">
         <f>SUBSTITUTE(C49,"@1",B49)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 右向き</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" t="str">
+        <f>SUBSTITUTE(C50,"@1",B50)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_right")</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>451</v>
-      </c>
-      <c r="B51" t="s">
-        <v>381</v>
-      </c>
-      <c r="C51" t="s">
-        <v>398</v>
-      </c>
-      <c r="D51" t="str">
-        <f>SUBSTITUTE(C51,"@1",B51)</f>
-        <v>elif pCmd.Command == "chute_L_rdw":</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>452</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
       </c>
       <c r="D52" t="str">
         <f>SUBSTITUTE(C52,"@1",B52)</f>
-        <v xml:space="preserve">    #雪射出口 右下向き</v>
+        <v>elif pCmd.Command == "chute_L_rdw":</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>453</v>
-      </c>
-      <c r="B53" t="s">
-        <v>410</v>
-      </c>
-      <c r="C53" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D53" t="str">
         <f>SUBSTITUTE(C53,"@1",B53)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 右下向き</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>444</v>
+      </c>
+      <c r="B54" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" t="str">
+        <f>SUBSTITUTE(C54,"@1",B54)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_rdw")</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>451</v>
-      </c>
-      <c r="B55" t="s">
-        <v>382</v>
-      </c>
-      <c r="C55" t="s">
-        <v>398</v>
-      </c>
-      <c r="D55" t="str">
-        <f>SUBSTITUTE(C55,"@1",B55)</f>
-        <v>elif pCmd.Command == "chute_L_dw":</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>452</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="C56" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" t="s">
+        <v>398</v>
       </c>
       <c r="D56" t="str">
         <f>SUBSTITUTE(C56,"@1",B56)</f>
-        <v xml:space="preserve">    #雪射出口 下向き</v>
+        <v>elif pCmd.Command == "chute_L_dw":</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>453</v>
-      </c>
-      <c r="B57" t="s">
-        <v>412</v>
-      </c>
-      <c r="C57" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D57" t="str">
         <f>SUBSTITUTE(C57,"@1",B57)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 下向き</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>444</v>
+      </c>
+      <c r="B58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C58" t="s">
+        <v>427</v>
+      </c>
+      <c r="D58" t="str">
+        <f>SUBSTITUTE(C58,"@1",B58)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_dw")</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>451</v>
-      </c>
-      <c r="B59" t="s">
-        <v>383</v>
-      </c>
-      <c r="C59" t="s">
-        <v>398</v>
-      </c>
-      <c r="D59" t="str">
-        <f>SUBSTITUTE(C59,"@1",B59)</f>
-        <v>elif pCmd.Command == "chute_L_ldw":</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>452</v>
-      </c>
-      <c r="B60" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="C60" s="87" t="s">
-        <v>450</v>
+      <c r="B60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" t="s">
+        <v>398</v>
       </c>
       <c r="D60" t="str">
         <f>SUBSTITUTE(C60,"@1",B60)</f>
-        <v xml:space="preserve">    #雪射出口 左下向き</v>
+        <v>elif pCmd.Command == "chute_L_ldw":</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>453</v>
-      </c>
-      <c r="B61" t="s">
-        <v>413</v>
-      </c>
-      <c r="C61" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D61" t="str">
         <f>SUBSTITUTE(C61,"@1",B61)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 左下向き</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" t="str">
+        <f>SUBSTITUTE(C62,"@1",B62)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_ldw")</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>451</v>
-      </c>
-      <c r="B63" t="s">
-        <v>384</v>
-      </c>
-      <c r="C63" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" t="str">
-        <f>SUBSTITUTE(C63,"@1",B63)</f>
-        <v>elif pCmd.Command == "chute_L_left":</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>452</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="C64" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B64" t="s">
+        <v>384</v>
+      </c>
+      <c r="C64" t="s">
+        <v>398</v>
       </c>
       <c r="D64" t="str">
         <f>SUBSTITUTE(C64,"@1",B64)</f>
-        <v xml:space="preserve">    #雪射出口 左向き</v>
+        <v>elif pCmd.Command == "chute_L_left":</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>453</v>
-      </c>
-      <c r="B65" t="s">
-        <v>414</v>
-      </c>
-      <c r="C65" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D65" t="str">
         <f>SUBSTITUTE(C65,"@1",B65)</f>
+        <v xml:space="preserve">    #雪射出口 スティック左 左向き</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" t="s">
+        <v>427</v>
+      </c>
+      <c r="D66" t="str">
+        <f>SUBSTITUTE(C66,"@1",B66)</f>
         <v xml:space="preserve">    self.SendDevice("c_L_left")</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>451</v>
-      </c>
-      <c r="B67" t="s">
-        <v>385</v>
-      </c>
-      <c r="C67" t="s">
-        <v>398</v>
-      </c>
-      <c r="D67" t="str">
-        <f>SUBSTITUTE(C67,"@1",B67)</f>
-        <v>elif pCmd.Command == "chute_R_lup":</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>452</v>
-      </c>
-      <c r="B68" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" t="s">
+        <v>398</v>
       </c>
       <c r="D68" t="str">
         <f>SUBSTITUTE(C68,"@1",B68)</f>
-        <v xml:space="preserve">    #雪射出口 スティック右 左上向き</v>
+        <v>elif pCmd.Command == "chute_R_lup":</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>453</v>
-      </c>
-      <c r="B69" t="s">
-        <v>415</v>
-      </c>
-      <c r="C69" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D69" t="str">
         <f>SUBSTITUTE(C69,"@1",B69)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 左上向き</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>444</v>
+      </c>
+      <c r="B70" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D70" t="str">
+        <f>SUBSTITUTE(C70,"@1",B70)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_lup")</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" t="s">
-        <v>398</v>
-      </c>
-      <c r="D71" t="str">
-        <f>SUBSTITUTE(C71,"@1",B71)</f>
-        <v>elif pCmd.Command == "chute_R_up":</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="C72" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B72" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" t="s">
+        <v>398</v>
       </c>
       <c r="D72" t="str">
         <f>SUBSTITUTE(C72,"@1",B72)</f>
-        <v xml:space="preserve">    #雪射出口 上向き</v>
+        <v>elif pCmd.Command == "chute_R_up":</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>453</v>
-      </c>
-      <c r="B73" t="s">
-        <v>416</v>
-      </c>
-      <c r="C73" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="C73" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D73" t="str">
         <f>SUBSTITUTE(C73,"@1",B73)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 上向き</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74" t="s">
+        <v>416</v>
+      </c>
+      <c r="C74" t="s">
+        <v>427</v>
+      </c>
+      <c r="D74" t="str">
+        <f>SUBSTITUTE(C74,"@1",B74)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_up")</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>451</v>
-      </c>
-      <c r="B75" t="s">
-        <v>387</v>
-      </c>
-      <c r="C75" t="s">
-        <v>398</v>
-      </c>
-      <c r="D75" t="str">
-        <f>SUBSTITUTE(C75,"@1",B75)</f>
-        <v>elif pCmd.Command == "chute_R_rup":</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>452</v>
-      </c>
-      <c r="B76" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="C76" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B76" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" t="s">
+        <v>398</v>
       </c>
       <c r="D76" t="str">
         <f>SUBSTITUTE(C76,"@1",B76)</f>
-        <v xml:space="preserve">    #雪射出口 右上向き</v>
+        <v>elif pCmd.Command == "chute_R_rup":</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>453</v>
-      </c>
-      <c r="B77" t="s">
-        <v>417</v>
-      </c>
-      <c r="C77" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D77" t="str">
         <f>SUBSTITUTE(C77,"@1",B77)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 右上向き</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" t="s">
+        <v>427</v>
+      </c>
+      <c r="D78" t="str">
+        <f>SUBSTITUTE(C78,"@1",B78)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_rup")</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>451</v>
-      </c>
-      <c r="B79" t="s">
-        <v>388</v>
-      </c>
-      <c r="C79" t="s">
-        <v>398</v>
-      </c>
-      <c r="D79" t="str">
-        <f>SUBSTITUTE(C79,"@1",B79)</f>
-        <v>elif pCmd.Command == "chute_R_right":</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>452</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="C80" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B80" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" t="s">
+        <v>398</v>
       </c>
       <c r="D80" t="str">
         <f>SUBSTITUTE(C80,"@1",B80)</f>
-        <v xml:space="preserve">    #雪射出口 右向き</v>
+        <v>elif pCmd.Command == "chute_R_right":</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>453</v>
-      </c>
-      <c r="B81" t="s">
-        <v>418</v>
-      </c>
-      <c r="C81" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B81" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="C81" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D81" t="str">
         <f>SUBSTITUTE(C81,"@1",B81)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 右向き</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>444</v>
+      </c>
+      <c r="B82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" t="s">
+        <v>427</v>
+      </c>
+      <c r="D82" t="str">
+        <f>SUBSTITUTE(C82,"@1",B82)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_right")</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>451</v>
-      </c>
-      <c r="B83" t="s">
-        <v>389</v>
-      </c>
-      <c r="C83" t="s">
-        <v>398</v>
-      </c>
-      <c r="D83" t="str">
-        <f>SUBSTITUTE(C83,"@1",B83)</f>
-        <v>elif pCmd.Command == "chute_R_rdw":</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>452</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="C84" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C84" t="s">
+        <v>398</v>
       </c>
       <c r="D84" t="str">
         <f>SUBSTITUTE(C84,"@1",B84)</f>
-        <v xml:space="preserve">    #雪射出口 右下向き</v>
+        <v>elif pCmd.Command == "chute_R_rdw":</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>453</v>
-      </c>
-      <c r="B85" t="s">
-        <v>419</v>
-      </c>
-      <c r="C85" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="C85" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D85" t="str">
         <f>SUBSTITUTE(C85,"@1",B85)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 右下向き</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>444</v>
+      </c>
+      <c r="B86" t="s">
+        <v>419</v>
+      </c>
+      <c r="C86" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" t="str">
+        <f>SUBSTITUTE(C86,"@1",B86)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_rdw")</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>451</v>
-      </c>
-      <c r="B87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C87" t="s">
-        <v>398</v>
-      </c>
-      <c r="D87" t="str">
-        <f>SUBSTITUTE(C87,"@1",B87)</f>
-        <v>elif pCmd.Command == "chute_R_dw":</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>452</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="C88" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B88" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88" t="s">
+        <v>398</v>
       </c>
       <c r="D88" t="str">
         <f>SUBSTITUTE(C88,"@1",B88)</f>
-        <v xml:space="preserve">    #雪射出口 下向き</v>
+        <v>elif pCmd.Command == "chute_R_dw":</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>453</v>
-      </c>
-      <c r="B89" t="s">
-        <v>420</v>
-      </c>
-      <c r="C89" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="C89" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D89" t="str">
         <f>SUBSTITUTE(C89,"@1",B89)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 下向き</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>444</v>
+      </c>
+      <c r="B90" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" t="s">
+        <v>427</v>
+      </c>
+      <c r="D90" t="str">
+        <f>SUBSTITUTE(C90,"@1",B90)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_dw")</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>451</v>
-      </c>
-      <c r="B91" t="s">
-        <v>391</v>
-      </c>
-      <c r="C91" t="s">
-        <v>398</v>
-      </c>
-      <c r="D91" t="str">
-        <f>SUBSTITUTE(C91,"@1",B91)</f>
-        <v>elif pCmd.Command == "chute_R_ldw":</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>452</v>
-      </c>
-      <c r="B92" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="C92" s="87" t="s">
-        <v>450</v>
+      <c r="B92" t="s">
+        <v>391</v>
+      </c>
+      <c r="C92" t="s">
+        <v>398</v>
       </c>
       <c r="D92" t="str">
         <f>SUBSTITUTE(C92,"@1",B92)</f>
-        <v xml:space="preserve">    #雪射出口 左下向き</v>
+        <v>elif pCmd.Command == "chute_R_ldw":</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>453</v>
-      </c>
-      <c r="B93" t="s">
-        <v>421</v>
-      </c>
-      <c r="C93" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D93" t="str">
         <f>SUBSTITUTE(C93,"@1",B93)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 左下向き</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B94" t="s">
+        <v>421</v>
+      </c>
+      <c r="C94" t="s">
+        <v>427</v>
+      </c>
+      <c r="D94" t="str">
+        <f>SUBSTITUTE(C94,"@1",B94)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_ldw")</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>451</v>
-      </c>
-      <c r="B95" t="s">
-        <v>392</v>
-      </c>
-      <c r="C95" t="s">
-        <v>398</v>
-      </c>
-      <c r="D95" t="str">
-        <f>SUBSTITUTE(C95,"@1",B95)</f>
-        <v>elif pCmd.Command == "chute_R_left":</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>452</v>
-      </c>
-      <c r="B96" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="C96" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B96" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" t="s">
+        <v>398</v>
       </c>
       <c r="D96" t="str">
         <f>SUBSTITUTE(C96,"@1",B96)</f>
-        <v xml:space="preserve">    #雪射出口 左向き</v>
+        <v>elif pCmd.Command == "chute_R_left":</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="B97" t="s">
-        <v>422</v>
-      </c>
-      <c r="C97" t="s">
-        <v>427</v>
+      <c r="C97" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D97" t="str">
         <f>SUBSTITUTE(C97,"@1",B97)</f>
+        <v xml:space="preserve">    #雪射出口 スティック右 左向き</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" t="s">
+        <v>427</v>
+      </c>
+      <c r="D98" t="str">
+        <f>SUBSTITUTE(C98,"@1",B98)</f>
         <v xml:space="preserve">    self.SendDevice("c_R_left")</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>451</v>
-      </c>
-      <c r="B99" t="s">
-        <v>393</v>
-      </c>
-      <c r="C99" t="s">
-        <v>398</v>
-      </c>
-      <c r="D99" t="str">
-        <f>SUBSTITUTE(C99,"@1",B99)</f>
-        <v>elif pCmd.Command == "btn_sankaku":</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>452</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="C100" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B100" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" t="s">
+        <v>398</v>
       </c>
       <c r="D100" t="str">
         <f>SUBSTITUTE(C100,"@1",B100)</f>
-        <v xml:space="preserve">    #未設定ボタン△</v>
+        <v>elif pCmd.Command == "btn_sankaku":</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>453</v>
-      </c>
-      <c r="B101" t="s">
-        <v>423</v>
-      </c>
-      <c r="C101" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D101" t="str">
         <f>SUBSTITUTE(C101,"@1",B101)</f>
+        <v xml:space="preserve">    #未設定ボタン△</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>444</v>
+      </c>
+      <c r="B102" t="s">
+        <v>423</v>
+      </c>
+      <c r="C102" t="s">
+        <v>427</v>
+      </c>
+      <c r="D102" t="str">
+        <f>SUBSTITUTE(C102,"@1",B102)</f>
         <v xml:space="preserve">    self.SendDevice("btn_sankaku")</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>451</v>
-      </c>
-      <c r="B103" t="s">
-        <v>394</v>
-      </c>
-      <c r="C103" t="s">
-        <v>398</v>
-      </c>
-      <c r="D103" t="str">
-        <f>SUBSTITUTE(C103,"@1",B103)</f>
-        <v>elif pCmd.Command == "btn_sikaku":</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>452</v>
-      </c>
-      <c r="B104" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="C104" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B104" t="s">
+        <v>394</v>
+      </c>
+      <c r="C104" t="s">
+        <v>398</v>
       </c>
       <c r="D104" t="str">
         <f>SUBSTITUTE(C104,"@1",B104)</f>
-        <v xml:space="preserve">    #未設定ボタン□</v>
+        <v>elif pCmd.Command == "btn_sikaku":</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>453</v>
-      </c>
-      <c r="B105" t="s">
-        <v>394</v>
-      </c>
-      <c r="C105" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D105" t="str">
         <f>SUBSTITUTE(C105,"@1",B105)</f>
+        <v xml:space="preserve">    #未設定ボタン□</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>444</v>
+      </c>
+      <c r="B106" t="s">
+        <v>394</v>
+      </c>
+      <c r="C106" t="s">
+        <v>427</v>
+      </c>
+      <c r="D106" t="str">
+        <f>SUBSTITUTE(C106,"@1",B106)</f>
         <v xml:space="preserve">    self.SendDevice("btn_sikaku")</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>451</v>
-      </c>
-      <c r="B107" t="s">
-        <v>395</v>
-      </c>
-      <c r="C107" t="s">
-        <v>398</v>
-      </c>
-      <c r="D107" t="str">
-        <f>SUBSTITUTE(C107,"@1",B107)</f>
-        <v>elif pCmd.Command == "btn_on":</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>452</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="C108" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B108" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" t="s">
+        <v>398</v>
       </c>
       <c r="D108" t="str">
         <f>SUBSTITUTE(C108,"@1",B108)</f>
-        <v xml:space="preserve">    #歯の回転のON</v>
+        <v>elif pCmd.Command == "btn_on":</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>453</v>
-      </c>
-      <c r="B109" t="s">
-        <v>426</v>
-      </c>
-      <c r="C109" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="C109" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D109" t="str">
         <f>SUBSTITUTE(C109,"@1",B109)</f>
+        <v xml:space="preserve">    #歯の回転のON</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>444</v>
+      </c>
+      <c r="B110" t="s">
+        <v>426</v>
+      </c>
+      <c r="C110" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" t="str">
+        <f>SUBSTITUTE(C110,"@1",B110)</f>
         <v xml:space="preserve">    self.SendDevice("on")</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>451</v>
-      </c>
-      <c r="B111" t="s">
-        <v>396</v>
-      </c>
-      <c r="C111" t="s">
-        <v>398</v>
-      </c>
-      <c r="D111" t="str">
-        <f>SUBSTITUTE(C111,"@1",B111)</f>
-        <v>elif pCmd.Command == "btn_off":</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>452</v>
-      </c>
-      <c r="B112" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="C112" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C112" t="s">
+        <v>398</v>
       </c>
       <c r="D112" t="str">
         <f>SUBSTITUTE(C112,"@1",B112)</f>
-        <v xml:space="preserve">    #歯の回転のOFF</v>
+        <v>elif pCmd.Command == "btn_off":</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>453</v>
-      </c>
-      <c r="B113" t="s">
-        <v>424</v>
-      </c>
-      <c r="C113" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="C113" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D113" t="str">
         <f>SUBSTITUTE(C113,"@1",B113)</f>
+        <v xml:space="preserve">    #歯の回転のOFF</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>444</v>
+      </c>
+      <c r="B114" t="s">
+        <v>424</v>
+      </c>
+      <c r="C114" t="s">
+        <v>427</v>
+      </c>
+      <c r="D114" t="str">
+        <f>SUBSTITUTE(C114,"@1",B114)</f>
         <v xml:space="preserve">    self.SendDevice("off")</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>451</v>
-      </c>
-      <c r="B115" t="s">
-        <v>397</v>
-      </c>
-      <c r="C115" t="s">
-        <v>398</v>
-      </c>
-      <c r="D115" t="str">
-        <f>SUBSTITUTE(C115,"@1",B115)</f>
-        <v>elif pCmd.Command == "btn_em":</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>452</v>
-      </c>
-      <c r="B116" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="C116" s="87" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="B116" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116" t="s">
+        <v>398</v>
       </c>
       <c r="D116" t="str">
         <f>SUBSTITUTE(C116,"@1",B116)</f>
-        <v xml:space="preserve">    #緊急停止</v>
+        <v>elif pCmd.Command == "btn_em":</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>453</v>
-      </c>
-      <c r="B117" t="s">
-        <v>425</v>
-      </c>
-      <c r="C117" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="C117" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="D117" t="str">
         <f>SUBSTITUTE(C117,"@1",B117)</f>
+        <v xml:space="preserve">    #緊急停止</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>444</v>
+      </c>
+      <c r="B118" t="s">
+        <v>425</v>
+      </c>
+      <c r="C118" t="s">
+        <v>427</v>
+      </c>
+      <c r="D118" t="str">
+        <f>SUBSTITUTE(C118,"@1",B118)</f>
         <v xml:space="preserve">    self.SendDevice("em")</v>
       </c>
     </row>
@@ -24545,11 +25280,11 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="94" t="s">
+      <c r="T7" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="U7" s="95"/>
-      <c r="V7" s="108"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="90"/>
       <c r="X7" s="69"/>
     </row>
     <row r="9" spans="1:90" ht="18" customHeight="1">
@@ -24635,26 +25370,26 @@
     </row>
     <row r="10" spans="1:90" ht="18" customHeight="1">
       <c r="J10" s="32"/>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97">
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113">
         <v>9999</v>
       </c>
-      <c r="P10" s="97"/>
-      <c r="R10" s="96" t="s">
+      <c r="P10" s="113"/>
+      <c r="R10" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="97">
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="113">
         <v>9999</v>
       </c>
-      <c r="W10" s="97"/>
+      <c r="W10" s="113"/>
       <c r="X10" s="33"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="1"/>
@@ -24680,50 +25415,50 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="33"/>
       <c r="AX10" s="32"/>
-      <c r="AY10" s="117" t="s">
+      <c r="AY10" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="AZ10" s="118"/>
-      <c r="BA10" s="118"/>
-      <c r="BB10" s="118"/>
-      <c r="BC10" s="119"/>
-      <c r="BL10" s="109" t="s">
+      <c r="AZ10" s="100"/>
+      <c r="BA10" s="100"/>
+      <c r="BB10" s="100"/>
+      <c r="BC10" s="101"/>
+      <c r="BL10" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="BM10" s="110"/>
-      <c r="BN10" s="110"/>
-      <c r="BO10" s="110"/>
-      <c r="BP10" s="110"/>
-      <c r="BQ10" s="111"/>
+      <c r="BM10" s="95"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="95"/>
+      <c r="BP10" s="95"/>
+      <c r="BQ10" s="96"/>
       <c r="BR10" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT10" s="94" t="s">
+      <c r="BT10" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="BU10" s="95"/>
-      <c r="BV10" s="108"/>
+      <c r="BU10" s="89"/>
+      <c r="BV10" s="90"/>
       <c r="BX10" s="68"/>
       <c r="CL10" s="33"/>
     </row>
     <row r="11" spans="1:90" ht="18" customHeight="1">
       <c r="J11" s="32"/>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="R11" s="96" t="s">
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="R11" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
       <c r="X11" s="33"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="4"/>
@@ -24756,24 +25491,24 @@
       <c r="AY12" s="72">
         <v>1</v>
       </c>
-      <c r="AZ12" s="114" t="s">
+      <c r="AZ12" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="BA12" s="115"/>
-      <c r="BB12" s="115"/>
-      <c r="BC12" s="116"/>
-      <c r="BD12" s="94" t="s">
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="92"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="BE12" s="108"/>
-      <c r="BF12" s="112">
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="97">
         <v>50000</v>
       </c>
-      <c r="BG12" s="113"/>
-      <c r="BH12" s="94" t="s">
+      <c r="BG12" s="98"/>
+      <c r="BH12" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="BI12" s="108"/>
+      <c r="BI12" s="90"/>
       <c r="BJ12" s="70"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="2"/>
@@ -24799,24 +25534,24 @@
       <c r="AY13" s="72">
         <v>2</v>
       </c>
-      <c r="AZ13" s="114" t="s">
+      <c r="AZ13" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="BA13" s="115"/>
-      <c r="BB13" s="115"/>
-      <c r="BC13" s="116"/>
-      <c r="BD13" s="94" t="s">
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="BE13" s="108"/>
-      <c r="BF13" s="112">
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="97">
         <v>50001</v>
       </c>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="94" t="s">
+      <c r="BG13" s="98"/>
+      <c r="BH13" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="BI13" s="108"/>
+      <c r="BI13" s="90"/>
       <c r="BJ13" s="71"/>
       <c r="BL13" s="4"/>
       <c r="BX13" s="5"/>
@@ -24846,24 +25581,24 @@
       <c r="AY14" s="72">
         <v>3</v>
       </c>
-      <c r="AZ14" s="114" t="s">
+      <c r="AZ14" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="116"/>
-      <c r="BD14" s="94" t="s">
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="BE14" s="108"/>
-      <c r="BF14" s="112">
+      <c r="BE14" s="90"/>
+      <c r="BF14" s="97">
         <v>50002</v>
       </c>
-      <c r="BG14" s="113"/>
-      <c r="BH14" s="94" t="s">
+      <c r="BG14" s="98"/>
+      <c r="BH14" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="BI14" s="108"/>
+      <c r="BI14" s="90"/>
       <c r="BJ14" s="71"/>
       <c r="BL14" s="4"/>
       <c r="BX14" s="5"/>
@@ -24886,22 +25621,22 @@
       <c r="AY15" s="72">
         <v>4</v>
       </c>
-      <c r="AZ15" s="114"/>
-      <c r="BA15" s="115"/>
-      <c r="BB15" s="115"/>
-      <c r="BC15" s="116"/>
-      <c r="BD15" s="94" t="s">
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="BE15" s="108"/>
-      <c r="BF15" s="112">
+      <c r="BE15" s="90"/>
+      <c r="BF15" s="97">
         <v>50003</v>
       </c>
-      <c r="BG15" s="113"/>
-      <c r="BH15" s="94" t="s">
+      <c r="BG15" s="98"/>
+      <c r="BH15" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="BI15" s="108"/>
+      <c r="BI15" s="90"/>
       <c r="BJ15" s="70"/>
       <c r="BL15" s="4"/>
       <c r="BQ15" t="s">
@@ -24922,22 +25657,22 @@
       <c r="AY16" s="72">
         <v>5</v>
       </c>
-      <c r="AZ16" s="114"/>
-      <c r="BA16" s="115"/>
-      <c r="BB16" s="115"/>
-      <c r="BC16" s="116"/>
-      <c r="BD16" s="94" t="s">
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="BE16" s="108"/>
-      <c r="BF16" s="112">
+      <c r="BE16" s="90"/>
+      <c r="BF16" s="97">
         <v>50004</v>
       </c>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="94" t="s">
+      <c r="BG16" s="98"/>
+      <c r="BH16" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="BI16" s="108"/>
+      <c r="BI16" s="90"/>
       <c r="BJ16" s="70"/>
       <c r="BL16" s="4"/>
       <c r="BQ16" t="s">
@@ -24953,9 +25688,9 @@
         <v>0</v>
       </c>
       <c r="N17" s="27"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
       <c r="V17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Z17" s="32"/>
@@ -24964,16 +25699,16 @@
       <c r="AV17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="115"/>
-      <c r="BB17" s="115"/>
-      <c r="BC17" s="116"/>
-      <c r="BD17" s="94"/>
-      <c r="BE17" s="108"/>
-      <c r="BF17" s="112"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="94"/>
-      <c r="BI17" s="108"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="88"/>
+      <c r="BE17" s="90"/>
+      <c r="BF17" s="97"/>
+      <c r="BG17" s="98"/>
+      <c r="BH17" s="88"/>
+      <c r="BI17" s="90"/>
       <c r="BJ17" s="52"/>
       <c r="BL17" s="4"/>
       <c r="BX17" s="5"/>
@@ -24990,15 +25725,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="93"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="111"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="94" t="s">
+      <c r="U18" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
       <c r="X18" s="39"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="4"/>
@@ -25016,11 +25751,11 @@
         <v>3</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="S19" s="94" t="s">
+      <c r="S19" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
       <c r="V19" s="1"/>
       <c r="X19" s="33"/>
       <c r="Z19" s="32"/>
@@ -25064,33 +25799,33 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
-      <c r="S21" s="101" t="s">
+      <c r="S21" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="102"/>
-      <c r="U21" s="103"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="119"/>
       <c r="X21" s="33"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="4"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="33"/>
       <c r="AX21" s="32"/>
-      <c r="BL21" s="109" t="s">
+      <c r="BL21" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="BM21" s="110"/>
-      <c r="BN21" s="110"/>
-      <c r="BO21" s="110"/>
-      <c r="BP21" s="110"/>
-      <c r="BQ21" s="111"/>
+      <c r="BM21" s="95"/>
+      <c r="BN21" s="95"/>
+      <c r="BO21" s="95"/>
+      <c r="BP21" s="95"/>
+      <c r="BQ21" s="96"/>
       <c r="BR21" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT21" s="94" t="s">
+      <c r="BT21" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="BU21" s="95"/>
-      <c r="BV21" s="108"/>
+      <c r="BU21" s="89"/>
+      <c r="BV21" s="90"/>
       <c r="BX21" s="69"/>
       <c r="CL21" s="33"/>
     </row>
@@ -25165,12 +25900,12 @@
     </row>
     <row r="25" spans="10:90" ht="18" customHeight="1">
       <c r="J25" s="32"/>
-      <c r="O25" s="98" t="s">
+      <c r="O25" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
       <c r="X25" s="33"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="4"/>
@@ -25326,39 +26061,39 @@
       <c r="AU31" s="5"/>
       <c r="AV31" s="33"/>
       <c r="AX31" s="32"/>
-      <c r="AY31" s="109" t="s">
+      <c r="AY31" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="AZ31" s="110"/>
-      <c r="BA31" s="110"/>
-      <c r="BB31" s="110"/>
-      <c r="BC31" s="110"/>
-      <c r="BD31" s="111"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="96"/>
       <c r="BE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BG31" s="94" t="s">
+      <c r="BG31" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="108"/>
+      <c r="BH31" s="89"/>
+      <c r="BI31" s="90"/>
       <c r="BK31" s="69"/>
-      <c r="BY31" s="109" t="s">
+      <c r="BY31" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="BZ31" s="110"/>
-      <c r="CA31" s="110"/>
-      <c r="CB31" s="110"/>
-      <c r="CC31" s="110"/>
-      <c r="CD31" s="111"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="95"/>
+      <c r="CC31" s="95"/>
+      <c r="CD31" s="96"/>
       <c r="CE31" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="CG31" s="94" t="s">
+      <c r="CG31" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="CH31" s="95"/>
-      <c r="CI31" s="108"/>
+      <c r="CH31" s="89"/>
+      <c r="CI31" s="90"/>
       <c r="CK31" s="69"/>
       <c r="CL31" s="33"/>
     </row>
@@ -25437,17 +26172,17 @@
       <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="88">
+      <c r="L34" s="106">
         <v>9999</v>
       </c>
-      <c r="M34" s="88"/>
+      <c r="M34" s="106"/>
       <c r="U34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="89">
+      <c r="V34" s="107">
         <v>9999</v>
       </c>
-      <c r="W34" s="90"/>
+      <c r="W34" s="108"/>
       <c r="X34" s="33"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="4"/>
@@ -25465,17 +26200,17 @@
       <c r="K35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="88">
+      <c r="L35" s="106">
         <v>9999</v>
       </c>
-      <c r="M35" s="88"/>
+      <c r="M35" s="106"/>
       <c r="U35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="89">
+      <c r="V35" s="107">
         <v>9999</v>
       </c>
-      <c r="W35" s="90"/>
+      <c r="W35" s="108"/>
       <c r="X35" s="33"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="4"/>
@@ -25599,22 +26334,22 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="33"/>
       <c r="AX41" s="32"/>
-      <c r="BL41" s="109" t="s">
+      <c r="BL41" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="BM41" s="110"/>
-      <c r="BN41" s="110"/>
-      <c r="BO41" s="110"/>
-      <c r="BP41" s="110"/>
-      <c r="BQ41" s="111"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="96"/>
       <c r="BR41" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="BT41" s="94" t="s">
+      <c r="BT41" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="BU41" s="95"/>
-      <c r="BV41" s="108"/>
+      <c r="BU41" s="89"/>
+      <c r="BV41" s="90"/>
       <c r="BX41" s="69"/>
       <c r="CL41" s="33"/>
     </row>
@@ -25918,55 +26653,55 @@
       <c r="S134" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T134" s="105">
+      <c r="T134" s="104">
         <v>-0.5</v>
       </c>
-      <c r="U134" s="106"/>
+      <c r="U134" s="105"/>
       <c r="V134" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W134" s="104" t="s">
+      <c r="W134" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X134" s="104"/>
-      <c r="Y134" s="104"/>
+      <c r="X134" s="102"/>
+      <c r="Y134" s="102"/>
       <c r="Z134" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA134" s="104" t="s">
+      <c r="AA134" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="AB134" s="104"/>
-      <c r="AC134" s="104"/>
+      <c r="AB134" s="102"/>
+      <c r="AC134" s="102"/>
       <c r="AD134" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE134" s="107">
+      <c r="AE134" s="103">
         <v>0.5</v>
       </c>
-      <c r="AF134" s="105"/>
+      <c r="AF134" s="104"/>
       <c r="AG134" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH134" s="105">
+      <c r="AH134" s="104">
         <v>-1</v>
       </c>
-      <c r="AI134" s="106"/>
+      <c r="AI134" s="105"/>
       <c r="AJ134" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK134" s="104" t="s">
+      <c r="AK134" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL134" s="104"/>
-      <c r="AM134" s="104"/>
+      <c r="AL134" s="102"/>
+      <c r="AM134" s="102"/>
       <c r="AN134" s="59"/>
-      <c r="AO134" s="104"/>
-      <c r="AP134" s="104"/>
-      <c r="AQ134" s="104"/>
+      <c r="AO134" s="102"/>
+      <c r="AP134" s="102"/>
+      <c r="AQ134" s="102"/>
       <c r="AR134" s="55"/>
-      <c r="AS134" s="107"/>
-      <c r="AT134" s="105"/>
+      <c r="AS134" s="103"/>
+      <c r="AT134" s="104"/>
       <c r="BB134" s="4"/>
       <c r="BF134" s="5"/>
     </row>
@@ -25974,63 +26709,63 @@
       <c r="S135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T135" s="105">
+      <c r="T135" s="104">
         <v>0.5</v>
       </c>
-      <c r="U135" s="106"/>
+      <c r="U135" s="105"/>
       <c r="V135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W135" s="104" t="s">
+      <c r="W135" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X135" s="104"/>
-      <c r="Y135" s="104"/>
+      <c r="X135" s="102"/>
+      <c r="Y135" s="102"/>
       <c r="Z135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA135" s="104" t="s">
+      <c r="AA135" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="AB135" s="104"/>
-      <c r="AC135" s="104"/>
+      <c r="AB135" s="102"/>
+      <c r="AC135" s="102"/>
       <c r="AD135" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE135" s="107">
+      <c r="AE135" s="103">
         <v>1</v>
       </c>
-      <c r="AF135" s="105"/>
+      <c r="AF135" s="104"/>
       <c r="AG135" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH135" s="105">
+      <c r="AH135" s="104">
         <v>-1</v>
       </c>
-      <c r="AI135" s="106"/>
+      <c r="AI135" s="105"/>
       <c r="AJ135" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK135" s="104" t="s">
+      <c r="AK135" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL135" s="104"/>
-      <c r="AM135" s="104"/>
+      <c r="AL135" s="102"/>
+      <c r="AM135" s="102"/>
       <c r="AN135" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO135" s="104" t="s">
+      <c r="AO135" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AP135" s="104"/>
-      <c r="AQ135" s="104"/>
+      <c r="AP135" s="102"/>
+      <c r="AQ135" s="102"/>
       <c r="AR135" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS135" s="107">
+      <c r="AS135" s="103">
         <v>-0.5</v>
       </c>
-      <c r="AT135" s="105"/>
+      <c r="AT135" s="104"/>
       <c r="AX135" s="7"/>
       <c r="BB135" s="4"/>
       <c r="BF135" s="5"/>
@@ -26039,55 +26774,55 @@
       <c r="S136" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T136" s="105">
+      <c r="T136" s="104">
         <v>1</v>
       </c>
-      <c r="U136" s="106"/>
+      <c r="U136" s="105"/>
       <c r="V136" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W136" s="104" t="s">
+      <c r="W136" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X136" s="104"/>
-      <c r="Y136" s="104"/>
+      <c r="X136" s="102"/>
+      <c r="Y136" s="102"/>
       <c r="Z136" s="59"/>
-      <c r="AA136" s="104"/>
-      <c r="AB136" s="104"/>
-      <c r="AC136" s="104"/>
+      <c r="AA136" s="102"/>
+      <c r="AB136" s="102"/>
+      <c r="AC136" s="102"/>
       <c r="AD136" s="55"/>
-      <c r="AE136" s="107"/>
-      <c r="AF136" s="105"/>
+      <c r="AE136" s="103"/>
+      <c r="AF136" s="104"/>
       <c r="AG136" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH136" s="105">
+      <c r="AH136" s="104">
         <v>-0.5</v>
       </c>
-      <c r="AI136" s="106"/>
+      <c r="AI136" s="105"/>
       <c r="AJ136" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK136" s="104" t="s">
+      <c r="AK136" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL136" s="104"/>
-      <c r="AM136" s="104"/>
+      <c r="AL136" s="102"/>
+      <c r="AM136" s="102"/>
       <c r="AN136" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO136" s="104" t="s">
+      <c r="AO136" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AP136" s="104"/>
-      <c r="AQ136" s="104"/>
+      <c r="AP136" s="102"/>
+      <c r="AQ136" s="102"/>
       <c r="AR136" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS136" s="107">
+      <c r="AS136" s="103">
         <v>0.5</v>
       </c>
-      <c r="AT136" s="105"/>
+      <c r="AT136" s="104"/>
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
@@ -26101,295 +26836,295 @@
       <c r="S137" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T137" s="105">
+      <c r="T137" s="104">
         <v>0.5</v>
       </c>
-      <c r="U137" s="106"/>
+      <c r="U137" s="105"/>
       <c r="V137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W137" s="104" t="s">
+      <c r="W137" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X137" s="104"/>
-      <c r="Y137" s="104"/>
+      <c r="X137" s="102"/>
+      <c r="Y137" s="102"/>
       <c r="Z137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA137" s="104" t="s">
+      <c r="AA137" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="AB137" s="104"/>
-      <c r="AC137" s="104"/>
+      <c r="AB137" s="102"/>
+      <c r="AC137" s="102"/>
       <c r="AD137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AE137" s="107">
+      <c r="AE137" s="103">
         <v>1</v>
       </c>
-      <c r="AF137" s="105"/>
+      <c r="AF137" s="104"/>
       <c r="AG137" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH137" s="105">
+      <c r="AH137" s="104">
         <v>0.5</v>
       </c>
-      <c r="AI137" s="106"/>
+      <c r="AI137" s="105"/>
       <c r="AJ137" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK137" s="104" t="s">
+      <c r="AK137" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL137" s="104"/>
-      <c r="AM137" s="104"/>
+      <c r="AL137" s="102"/>
+      <c r="AM137" s="102"/>
       <c r="AN137" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO137" s="104" t="s">
+      <c r="AO137" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AP137" s="104"/>
-      <c r="AQ137" s="104"/>
+      <c r="AP137" s="102"/>
+      <c r="AQ137" s="102"/>
       <c r="AR137" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS137" s="107">
+      <c r="AS137" s="103">
         <v>1</v>
       </c>
-      <c r="AT137" s="105"/>
+      <c r="AT137" s="104"/>
     </row>
     <row r="138" spans="19:58" ht="18" customHeight="1">
       <c r="S138" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T138" s="105">
+      <c r="T138" s="104">
         <v>-0.5</v>
       </c>
-      <c r="U138" s="106"/>
+      <c r="U138" s="105"/>
       <c r="V138" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W138" s="104" t="s">
+      <c r="W138" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X138" s="104"/>
-      <c r="Y138" s="104"/>
+      <c r="X138" s="102"/>
+      <c r="Y138" s="102"/>
       <c r="Z138" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA138" s="104" t="s">
+      <c r="AA138" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="AB138" s="104"/>
-      <c r="AC138" s="104"/>
+      <c r="AB138" s="102"/>
+      <c r="AC138" s="102"/>
       <c r="AD138" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE138" s="107">
+      <c r="AE138" s="103">
         <v>0.5</v>
       </c>
-      <c r="AF138" s="105"/>
+      <c r="AF138" s="104"/>
       <c r="AG138" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH138" s="105">
+      <c r="AH138" s="104">
         <v>1</v>
       </c>
-      <c r="AI138" s="106"/>
+      <c r="AI138" s="105"/>
       <c r="AJ138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AK138" s="104" t="s">
+      <c r="AK138" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL138" s="104"/>
-      <c r="AM138" s="104"/>
+      <c r="AL138" s="102"/>
+      <c r="AM138" s="102"/>
       <c r="AN138" s="59"/>
-      <c r="AO138" s="104"/>
-      <c r="AP138" s="104"/>
-      <c r="AQ138" s="104"/>
+      <c r="AO138" s="102"/>
+      <c r="AP138" s="102"/>
+      <c r="AQ138" s="102"/>
       <c r="AR138" s="55"/>
-      <c r="AS138" s="107"/>
-      <c r="AT138" s="105"/>
+      <c r="AS138" s="103"/>
+      <c r="AT138" s="104"/>
     </row>
     <row r="139" spans="19:58" ht="18" customHeight="1">
       <c r="S139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T139" s="105">
+      <c r="T139" s="104">
         <v>-1</v>
       </c>
-      <c r="U139" s="106"/>
+      <c r="U139" s="105"/>
       <c r="V139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W139" s="104" t="s">
+      <c r="W139" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X139" s="104"/>
-      <c r="Y139" s="104"/>
+      <c r="X139" s="102"/>
+      <c r="Y139" s="102"/>
       <c r="Z139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA139" s="104" t="s">
+      <c r="AA139" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="AB139" s="104"/>
-      <c r="AC139" s="104"/>
+      <c r="AB139" s="102"/>
+      <c r="AC139" s="102"/>
       <c r="AD139" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE139" s="107">
+      <c r="AE139" s="103">
         <v>-0.5</v>
       </c>
-      <c r="AF139" s="105"/>
+      <c r="AF139" s="104"/>
       <c r="AG139" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH139" s="105">
+      <c r="AH139" s="104">
         <v>0.5</v>
       </c>
-      <c r="AI139" s="106"/>
+      <c r="AI139" s="105"/>
       <c r="AJ139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK139" s="104" t="s">
+      <c r="AK139" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL139" s="104"/>
-      <c r="AM139" s="104"/>
+      <c r="AL139" s="102"/>
+      <c r="AM139" s="102"/>
       <c r="AN139" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO139" s="104" t="s">
+      <c r="AO139" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AP139" s="104"/>
-      <c r="AQ139" s="104"/>
+      <c r="AP139" s="102"/>
+      <c r="AQ139" s="102"/>
       <c r="AR139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS139" s="107">
+      <c r="AS139" s="103">
         <v>1</v>
       </c>
-      <c r="AT139" s="105"/>
+      <c r="AT139" s="104"/>
     </row>
     <row r="140" spans="19:58" ht="18" customHeight="1">
       <c r="S140" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T140" s="105">
+      <c r="T140" s="104">
         <v>-1</v>
       </c>
-      <c r="U140" s="106"/>
+      <c r="U140" s="105"/>
       <c r="V140" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="W140" s="104" t="s">
+      <c r="W140" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X140" s="104"/>
-      <c r="Y140" s="104"/>
+      <c r="X140" s="102"/>
+      <c r="Y140" s="102"/>
       <c r="Z140" s="59"/>
-      <c r="AA140" s="104"/>
-      <c r="AB140" s="104"/>
-      <c r="AC140" s="104"/>
+      <c r="AA140" s="102"/>
+      <c r="AB140" s="102"/>
+      <c r="AC140" s="102"/>
       <c r="AD140" s="55"/>
-      <c r="AE140" s="107"/>
-      <c r="AF140" s="105"/>
+      <c r="AE140" s="103"/>
+      <c r="AF140" s="104"/>
       <c r="AG140" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH140" s="105">
+      <c r="AH140" s="104">
         <v>-0.5</v>
       </c>
-      <c r="AI140" s="106"/>
+      <c r="AI140" s="105"/>
       <c r="AJ140" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK140" s="104" t="s">
+      <c r="AK140" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL140" s="104"/>
-      <c r="AM140" s="104"/>
+      <c r="AL140" s="102"/>
+      <c r="AM140" s="102"/>
       <c r="AN140" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO140" s="104" t="s">
+      <c r="AO140" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AP140" s="104"/>
-      <c r="AQ140" s="104"/>
+      <c r="AP140" s="102"/>
+      <c r="AQ140" s="102"/>
       <c r="AR140" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AS140" s="107">
+      <c r="AS140" s="103">
         <v>0.5</v>
       </c>
-      <c r="AT140" s="105"/>
+      <c r="AT140" s="104"/>
     </row>
     <row r="141" spans="19:58" ht="18" customHeight="1">
       <c r="S141" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="105">
+      <c r="T141" s="104">
         <v>-1</v>
       </c>
-      <c r="U141" s="106"/>
+      <c r="U141" s="105"/>
       <c r="V141" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="W141" s="104" t="s">
+      <c r="W141" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="X141" s="104"/>
-      <c r="Y141" s="104"/>
+      <c r="X141" s="102"/>
+      <c r="Y141" s="102"/>
       <c r="Z141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AA141" s="104" t="s">
+      <c r="AA141" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="AB141" s="104"/>
-      <c r="AC141" s="104"/>
+      <c r="AB141" s="102"/>
+      <c r="AC141" s="102"/>
       <c r="AD141" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AE141" s="107">
+      <c r="AE141" s="103">
         <v>-0.5</v>
       </c>
-      <c r="AF141" s="105"/>
+      <c r="AF141" s="104"/>
       <c r="AG141" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AH141" s="105">
+      <c r="AH141" s="104">
         <v>-1</v>
       </c>
-      <c r="AI141" s="106"/>
+      <c r="AI141" s="105"/>
       <c r="AJ141" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="AK141" s="104" t="s">
+      <c r="AK141" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AL141" s="104"/>
-      <c r="AM141" s="104"/>
+      <c r="AL141" s="102"/>
+      <c r="AM141" s="102"/>
       <c r="AN141" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AO141" s="104" t="s">
+      <c r="AO141" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="AP141" s="104"/>
-      <c r="AQ141" s="104"/>
+      <c r="AP141" s="102"/>
+      <c r="AQ141" s="102"/>
       <c r="AR141" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AS141" s="107">
+      <c r="AS141" s="103">
         <v>-0.5</v>
       </c>
-      <c r="AT141" s="105"/>
+      <c r="AT141" s="104"/>
     </row>
     <row r="143" spans="19:58" ht="18" customHeight="1">
       <c r="S143" s="53" t="s">
@@ -26465,40 +27200,64 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AY10:BC10"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="AY31:BD31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BY31:CD31"/>
-    <mergeCell ref="CG31:CI31"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BT41:BV41"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AO135:AQ135"/>
+    <mergeCell ref="AO136:AQ136"/>
+    <mergeCell ref="AH134:AI134"/>
+    <mergeCell ref="AS134:AT134"/>
+    <mergeCell ref="AK134:AM134"/>
+    <mergeCell ref="AA134:AC134"/>
+    <mergeCell ref="AO134:AQ134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AH138:AI138"/>
+    <mergeCell ref="AS138:AT138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="AE139:AF139"/>
+    <mergeCell ref="AH139:AI139"/>
+    <mergeCell ref="AS139:AT139"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AK139:AM139"/>
+    <mergeCell ref="AA138:AC138"/>
+    <mergeCell ref="AA139:AC139"/>
+    <mergeCell ref="AO138:AQ138"/>
+    <mergeCell ref="AO139:AQ139"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="AE140:AF140"/>
+    <mergeCell ref="AH140:AI140"/>
+    <mergeCell ref="AS140:AT140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="AE141:AF141"/>
+    <mergeCell ref="AH141:AI141"/>
+    <mergeCell ref="AS141:AT141"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="AK140:AM140"/>
+    <mergeCell ref="AK141:AM141"/>
+    <mergeCell ref="AA140:AC140"/>
+    <mergeCell ref="AA141:AC141"/>
+    <mergeCell ref="AO140:AQ140"/>
+    <mergeCell ref="AO141:AQ141"/>
     <mergeCell ref="BT10:BV10"/>
     <mergeCell ref="BL10:BQ10"/>
     <mergeCell ref="AK137:AM137"/>
@@ -26523,64 +27282,40 @@
     <mergeCell ref="AK136:AM136"/>
     <mergeCell ref="AA135:AC135"/>
     <mergeCell ref="AA136:AC136"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="AE140:AF140"/>
-    <mergeCell ref="AH140:AI140"/>
-    <mergeCell ref="AS140:AT140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="AE141:AF141"/>
-    <mergeCell ref="AH141:AI141"/>
-    <mergeCell ref="AS141:AT141"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="AK140:AM140"/>
-    <mergeCell ref="AK141:AM141"/>
-    <mergeCell ref="AA140:AC140"/>
-    <mergeCell ref="AA141:AC141"/>
-    <mergeCell ref="AO140:AQ140"/>
-    <mergeCell ref="AO141:AQ141"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AH138:AI138"/>
-    <mergeCell ref="AS138:AT138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="AE139:AF139"/>
-    <mergeCell ref="AH139:AI139"/>
-    <mergeCell ref="AS139:AT139"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AK139:AM139"/>
-    <mergeCell ref="AA138:AC138"/>
-    <mergeCell ref="AA139:AC139"/>
-    <mergeCell ref="AO138:AQ138"/>
-    <mergeCell ref="AO139:AQ139"/>
-    <mergeCell ref="AO135:AQ135"/>
-    <mergeCell ref="AO136:AQ136"/>
-    <mergeCell ref="AH134:AI134"/>
-    <mergeCell ref="AS134:AT134"/>
-    <mergeCell ref="AK134:AM134"/>
-    <mergeCell ref="AA134:AC134"/>
-    <mergeCell ref="AO134:AQ134"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="AY31:BD31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BY31:CD31"/>
+    <mergeCell ref="CG31:CI31"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BT41:BV41"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AY10:BC10"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -27886,35 +28621,35 @@
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="4:40">
-      <c r="E31" s="121" t="s">
+      <c r="E31" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121" t="s">
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121" t="s">
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121" t="s">
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="121"/>
+      <c r="Y31" s="123"/>
       <c r="AA31" t="s">
         <v>183</v>
       </c>
@@ -27944,16 +28679,16 @@
       <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="88" t="s">
+      <c r="T32" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88">
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106">
         <v>1</v>
       </c>
-      <c r="Y32" s="88"/>
+      <c r="Y32" s="106"/>
       <c r="AA32" t="str">
         <f>E32 &amp; " = " &amp; "'"&amp;E32&amp;"'," &amp; "    //" &amp; J32</f>
         <v>conn = 'conn',    //接続/接続解除</v>
@@ -27977,16 +28712,16 @@
       <c r="S33" s="52">
         <v>0</v>
       </c>
-      <c r="T33" s="88" t="s">
+      <c r="T33" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88">
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="106">
         <v>1</v>
       </c>
-      <c r="Y33" s="88"/>
+      <c r="Y33" s="106"/>
       <c r="AN33" t="s">
         <v>215</v>
       </c>
@@ -28022,14 +28757,14 @@
       <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88">
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106">
         <v>1</v>
       </c>
-      <c r="Y34" s="88"/>
+      <c r="Y34" s="106"/>
       <c r="AA34" t="str">
         <f t="shared" ref="AA34:AA48" si="0">E34 &amp; " = " &amp; "'"&amp;E34&amp;"'," &amp; "    //" &amp; J34</f>
         <v>clutch_up = 'clutch_up',    //クラッチ アップ</v>
@@ -28066,14 +28801,14 @@
       <c r="S35" s="52">
         <v>1</v>
       </c>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88">
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106">
         <v>1</v>
       </c>
-      <c r="Y35" s="88"/>
+      <c r="Y35" s="106"/>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
         <v>clutch_dw = 'clutch_dw',    //クラッチ ダウン</v>
@@ -28086,35 +28821,35 @@
       <c r="A36" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E36" s="123" t="s">
+      <c r="E36" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123" t="s">
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="124"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="124"/>
       <c r="S36" s="81">
         <v>1</v>
       </c>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96">
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112">
         <v>1</v>
       </c>
-      <c r="Y36" s="96"/>
+      <c r="Y36" s="112"/>
       <c r="AA36" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_up = 'accel_up',    //アクセル アップ</v>
@@ -28127,35 +28862,35 @@
       <c r="A37" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="123" t="s">
+      <c r="E37" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123" t="s">
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="124"/>
       <c r="S37" s="81">
         <v>1</v>
       </c>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96">
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="112">
         <v>1</v>
       </c>
-      <c r="Y37" s="96"/>
+      <c r="Y37" s="112"/>
       <c r="AA37" s="82" t="str">
         <f t="shared" si="0"/>
         <v>accel_dw = 'accel_dw',    //アクセル ダウン</v>
@@ -28186,14 +28921,14 @@
       <c r="S38" s="52">
         <v>1</v>
       </c>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88">
+      <c r="T38" s="106"/>
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="106">
         <v>1</v>
       </c>
-      <c r="Y38" s="88"/>
+      <c r="Y38" s="106"/>
       <c r="AA38" t="str">
         <f t="shared" si="0"/>
         <v>move_up = 'move_up',    //移動 前進</v>
@@ -28224,14 +28959,14 @@
       <c r="S39" s="52">
         <v>1</v>
       </c>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88">
+      <c r="T39" s="106"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="106">
         <v>1</v>
       </c>
-      <c r="Y39" s="88"/>
+      <c r="Y39" s="106"/>
       <c r="AA39" t="str">
         <f t="shared" si="0"/>
         <v>move_dw = 'move_dw',    //移動 後進</v>
@@ -28262,14 +28997,14 @@
       <c r="S40" s="52">
         <v>1</v>
       </c>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88">
+      <c r="T40" s="106"/>
+      <c r="U40" s="106"/>
+      <c r="V40" s="106"/>
+      <c r="W40" s="106"/>
+      <c r="X40" s="106">
         <v>1</v>
       </c>
-      <c r="Y40" s="88"/>
+      <c r="Y40" s="106"/>
       <c r="AA40" t="str">
         <f t="shared" si="0"/>
         <v>move_right = 'move_right',    //移動 右</v>
@@ -28300,14 +29035,14 @@
       <c r="S41" s="52">
         <v>1</v>
       </c>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88">
+      <c r="T41" s="106"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106">
         <v>1</v>
       </c>
-      <c r="Y41" s="88"/>
+      <c r="Y41" s="106"/>
       <c r="AA41" t="str">
         <f t="shared" si="0"/>
         <v>move_left = 'move_left',    //移動 左</v>
@@ -28338,14 +29073,14 @@
       <c r="S42" s="52">
         <v>1</v>
       </c>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88">
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106">
         <v>1</v>
       </c>
-      <c r="Y42" s="88"/>
+      <c r="Y42" s="106"/>
       <c r="AA42" t="str">
         <f t="shared" si="0"/>
         <v>chute_up = 'chute_up',    //雪射出口 上向き</v>
@@ -28376,14 +29111,14 @@
       <c r="S43" s="52">
         <v>1</v>
       </c>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88">
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106">
         <v>1</v>
       </c>
-      <c r="Y43" s="88"/>
+      <c r="Y43" s="106"/>
       <c r="AA43" t="str">
         <f t="shared" si="0"/>
         <v>chute_dw = 'chute_dw',    //雪射出口 下向き</v>
@@ -28414,14 +29149,14 @@
       <c r="S44" s="52">
         <v>1</v>
       </c>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88">
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106">
         <v>1</v>
       </c>
-      <c r="Y44" s="88"/>
+      <c r="Y44" s="106"/>
       <c r="AA44" t="str">
         <f t="shared" si="0"/>
         <v>chute_left = 'chute_left',    //雪射出口 左向き</v>
@@ -28452,14 +29187,14 @@
       <c r="S45" s="52">
         <v>1</v>
       </c>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88">
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106">
         <v>1</v>
       </c>
-      <c r="Y45" s="88"/>
+      <c r="Y45" s="106"/>
       <c r="AA45" t="str">
         <f t="shared" si="0"/>
         <v>chute_right = 'chute_right',    //雪射出口 右向き</v>
@@ -28490,14 +29225,14 @@
       <c r="S46" s="52">
         <v>1</v>
       </c>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88">
+      <c r="T46" s="106"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106">
         <v>1</v>
       </c>
-      <c r="Y46" s="88"/>
+      <c r="Y46" s="106"/>
       <c r="AA46" t="str">
         <f t="shared" si="0"/>
         <v>btn_on = 'btn_on',    //歯の回転のON</v>
@@ -28531,14 +29266,14 @@
       <c r="S47" s="52">
         <v>1</v>
       </c>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88">
+      <c r="T47" s="106"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106">
         <v>1</v>
       </c>
-      <c r="Y47" s="88"/>
+      <c r="Y47" s="106"/>
       <c r="AA47" t="str">
         <f t="shared" si="0"/>
         <v>btn_off = 'btn_off',    //歯の回転のOFF</v>
@@ -28572,14 +29307,14 @@
       <c r="S48" s="52">
         <v>1</v>
       </c>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88">
+      <c r="T48" s="106"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="106"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="106">
         <v>1</v>
       </c>
-      <c r="Y48" s="88"/>
+      <c r="Y48" s="106"/>
       <c r="AA48" t="str">
         <f t="shared" si="0"/>
         <v>btn_em = 'btn_em',    //緊急停止</v>
@@ -28746,53 +29481,53 @@
       </c>
     </row>
     <row r="78" spans="4:39">
-      <c r="E78" s="121" t="s">
+      <c r="E78" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="121" t="s">
+      <c r="F78" s="123"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K78" s="121"/>
-      <c r="L78" s="121"/>
-      <c r="M78" s="121"/>
-      <c r="N78" s="121"/>
-      <c r="O78" s="121"/>
-      <c r="P78" s="121"/>
-      <c r="Q78" s="121"/>
-      <c r="R78" s="121"/>
-      <c r="S78" s="121" t="s">
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+      <c r="O78" s="123"/>
+      <c r="P78" s="123"/>
+      <c r="Q78" s="123"/>
+      <c r="R78" s="123"/>
+      <c r="S78" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="T78" s="121"/>
-      <c r="U78" s="121"/>
-      <c r="V78" s="121"/>
-      <c r="W78" s="121"/>
-      <c r="X78" s="121" t="s">
+      <c r="T78" s="123"/>
+      <c r="U78" s="123"/>
+      <c r="V78" s="123"/>
+      <c r="W78" s="123"/>
+      <c r="X78" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="Y78" s="121"/>
-      <c r="Z78" s="121" t="s">
+      <c r="Y78" s="123"/>
+      <c r="Z78" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="AA78" s="121"/>
-      <c r="AB78" s="121"/>
-      <c r="AC78" s="121"/>
-      <c r="AD78" s="121"/>
-      <c r="AE78" s="121"/>
-      <c r="AF78" s="121"/>
-      <c r="AG78" s="121" t="s">
+      <c r="AA78" s="123"/>
+      <c r="AB78" s="123"/>
+      <c r="AC78" s="123"/>
+      <c r="AD78" s="123"/>
+      <c r="AE78" s="123"/>
+      <c r="AF78" s="123"/>
+      <c r="AG78" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="AH78" s="121"/>
-      <c r="AI78" s="121"/>
-      <c r="AJ78" s="121"/>
-      <c r="AK78" s="121"/>
-      <c r="AL78" s="121"/>
-      <c r="AM78" s="121"/>
+      <c r="AH78" s="123"/>
+      <c r="AI78" s="123"/>
+      <c r="AJ78" s="123"/>
+      <c r="AK78" s="123"/>
+      <c r="AL78" s="123"/>
+      <c r="AM78" s="123"/>
     </row>
     <row r="79" spans="4:39">
       <c r="E79" s="122" t="s">
@@ -28816,27 +29551,27 @@
       <c r="S79" s="52">
         <v>1</v>
       </c>
-      <c r="T79" s="88" t="s">
+      <c r="T79" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="U79" s="88"/>
-      <c r="V79" s="88"/>
-      <c r="W79" s="88"/>
-      <c r="X79" s="88">
+      <c r="U79" s="106"/>
+      <c r="V79" s="106"/>
+      <c r="W79" s="106"/>
+      <c r="X79" s="106">
         <v>1</v>
       </c>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="124" t="s">
+      <c r="Y79" s="106"/>
+      <c r="Z79" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="AA79" s="124"/>
-      <c r="AB79" s="124"/>
-      <c r="AC79" s="88" t="s">
+      <c r="AA79" s="121"/>
+      <c r="AB79" s="121"/>
+      <c r="AC79" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="AD79" s="88"/>
-      <c r="AE79" s="88"/>
-      <c r="AF79" s="88"/>
+      <c r="AD79" s="106"/>
+      <c r="AE79" s="106"/>
+      <c r="AF79" s="106"/>
       <c r="AG79" s="120" t="s">
         <v>137</v>
       </c>
@@ -28865,23 +29600,23 @@
       <c r="S80" s="52">
         <v>0</v>
       </c>
-      <c r="T80" s="88" t="s">
+      <c r="T80" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="U80" s="88"/>
-      <c r="V80" s="88"/>
-      <c r="W80" s="88"/>
-      <c r="X80" s="88">
+      <c r="U80" s="106"/>
+      <c r="V80" s="106"/>
+      <c r="W80" s="106"/>
+      <c r="X80" s="106">
         <v>1</v>
       </c>
-      <c r="Y80" s="88"/>
-      <c r="Z80" s="124"/>
-      <c r="AA80" s="124"/>
-      <c r="AB80" s="124"/>
-      <c r="AC80" s="88"/>
-      <c r="AD80" s="88"/>
-      <c r="AE80" s="88"/>
-      <c r="AF80" s="88"/>
+      <c r="Y80" s="106"/>
+      <c r="Z80" s="121"/>
+      <c r="AA80" s="121"/>
+      <c r="AB80" s="121"/>
+      <c r="AC80" s="106"/>
+      <c r="AD80" s="106"/>
+      <c r="AE80" s="106"/>
+      <c r="AF80" s="106"/>
       <c r="AG80" s="120"/>
       <c r="AH80" s="120"/>
       <c r="AI80" s="120"/>
@@ -28912,27 +29647,27 @@
       <c r="S81" s="52">
         <v>1</v>
       </c>
-      <c r="T81" s="88" t="s">
+      <c r="T81" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="U81" s="88"/>
-      <c r="V81" s="88"/>
-      <c r="W81" s="88"/>
-      <c r="X81" s="88">
+      <c r="U81" s="106"/>
+      <c r="V81" s="106"/>
+      <c r="W81" s="106"/>
+      <c r="X81" s="106">
         <v>1</v>
       </c>
-      <c r="Y81" s="88"/>
-      <c r="Z81" s="124" t="s">
+      <c r="Y81" s="106"/>
+      <c r="Z81" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="AA81" s="124"/>
-      <c r="AB81" s="124"/>
-      <c r="AC81" s="88" t="s">
+      <c r="AA81" s="121"/>
+      <c r="AB81" s="121"/>
+      <c r="AC81" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="AD81" s="88"/>
-      <c r="AE81" s="88"/>
-      <c r="AF81" s="88"/>
+      <c r="AD81" s="106"/>
+      <c r="AE81" s="106"/>
+      <c r="AF81" s="106"/>
       <c r="AG81" s="120" t="s">
         <v>137</v>
       </c>
@@ -28961,23 +29696,23 @@
       <c r="S82" s="52">
         <v>0</v>
       </c>
-      <c r="T82" s="88" t="s">
+      <c r="T82" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="88"/>
-      <c r="V82" s="88"/>
-      <c r="W82" s="88"/>
-      <c r="X82" s="88">
+      <c r="U82" s="106"/>
+      <c r="V82" s="106"/>
+      <c r="W82" s="106"/>
+      <c r="X82" s="106">
         <v>1</v>
       </c>
-      <c r="Y82" s="88"/>
-      <c r="Z82" s="124"/>
-      <c r="AA82" s="124"/>
-      <c r="AB82" s="124"/>
-      <c r="AC82" s="88"/>
-      <c r="AD82" s="88"/>
-      <c r="AE82" s="88"/>
-      <c r="AF82" s="88"/>
+      <c r="Y82" s="106"/>
+      <c r="Z82" s="121"/>
+      <c r="AA82" s="121"/>
+      <c r="AB82" s="121"/>
+      <c r="AC82" s="106"/>
+      <c r="AD82" s="106"/>
+      <c r="AE82" s="106"/>
+      <c r="AF82" s="106"/>
       <c r="AG82" s="120"/>
       <c r="AH82" s="120"/>
       <c r="AI82" s="120"/>
@@ -29008,27 +29743,27 @@
       <c r="S83" s="52">
         <v>1</v>
       </c>
-      <c r="T83" s="88" t="s">
+      <c r="T83" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="U83" s="88"/>
-      <c r="V83" s="88"/>
-      <c r="W83" s="88"/>
-      <c r="X83" s="88">
+      <c r="U83" s="106"/>
+      <c r="V83" s="106"/>
+      <c r="W83" s="106"/>
+      <c r="X83" s="106">
         <v>1</v>
       </c>
-      <c r="Y83" s="88"/>
-      <c r="Z83" s="124" t="s">
+      <c r="Y83" s="106"/>
+      <c r="Z83" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="AA83" s="124"/>
-      <c r="AB83" s="124"/>
-      <c r="AC83" s="88" t="s">
+      <c r="AA83" s="121"/>
+      <c r="AB83" s="121"/>
+      <c r="AC83" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="AD83" s="88"/>
-      <c r="AE83" s="88"/>
-      <c r="AF83" s="88"/>
+      <c r="AD83" s="106"/>
+      <c r="AE83" s="106"/>
+      <c r="AF83" s="106"/>
       <c r="AG83" s="120" t="s">
         <v>137</v>
       </c>
@@ -29057,23 +29792,23 @@
       <c r="S84" s="52">
         <v>0</v>
       </c>
-      <c r="T84" s="88" t="s">
+      <c r="T84" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="U84" s="88"/>
-      <c r="V84" s="88"/>
-      <c r="W84" s="88"/>
-      <c r="X84" s="88">
+      <c r="U84" s="106"/>
+      <c r="V84" s="106"/>
+      <c r="W84" s="106"/>
+      <c r="X84" s="106">
         <v>1</v>
       </c>
-      <c r="Y84" s="88"/>
-      <c r="Z84" s="124"/>
-      <c r="AA84" s="124"/>
-      <c r="AB84" s="124"/>
-      <c r="AC84" s="88"/>
-      <c r="AD84" s="88"/>
-      <c r="AE84" s="88"/>
-      <c r="AF84" s="88"/>
+      <c r="Y84" s="106"/>
+      <c r="Z84" s="121"/>
+      <c r="AA84" s="121"/>
+      <c r="AB84" s="121"/>
+      <c r="AC84" s="106"/>
+      <c r="AD84" s="106"/>
+      <c r="AE84" s="106"/>
+      <c r="AF84" s="106"/>
       <c r="AG84" s="120"/>
       <c r="AH84" s="120"/>
       <c r="AI84" s="120"/>
@@ -29104,27 +29839,27 @@
       <c r="S85" s="52">
         <v>1</v>
       </c>
-      <c r="T85" s="88" t="s">
+      <c r="T85" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="U85" s="88"/>
-      <c r="V85" s="88"/>
-      <c r="W85" s="88"/>
-      <c r="X85" s="88">
+      <c r="U85" s="106"/>
+      <c r="V85" s="106"/>
+      <c r="W85" s="106"/>
+      <c r="X85" s="106">
         <v>1</v>
       </c>
-      <c r="Y85" s="88"/>
-      <c r="Z85" s="124" t="s">
+      <c r="Y85" s="106"/>
+      <c r="Z85" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="AA85" s="124"/>
-      <c r="AB85" s="124"/>
-      <c r="AC85" s="88" t="s">
+      <c r="AA85" s="121"/>
+      <c r="AB85" s="121"/>
+      <c r="AC85" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="AD85" s="88"/>
-      <c r="AE85" s="88"/>
-      <c r="AF85" s="88"/>
+      <c r="AD85" s="106"/>
+      <c r="AE85" s="106"/>
+      <c r="AF85" s="106"/>
       <c r="AG85" s="120" t="s">
         <v>137</v>
       </c>
@@ -29153,23 +29888,23 @@
       <c r="S86" s="52">
         <v>0</v>
       </c>
-      <c r="T86" s="88" t="s">
+      <c r="T86" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="88"/>
-      <c r="V86" s="88"/>
-      <c r="W86" s="88"/>
-      <c r="X86" s="88">
+      <c r="U86" s="106"/>
+      <c r="V86" s="106"/>
+      <c r="W86" s="106"/>
+      <c r="X86" s="106">
         <v>1</v>
       </c>
-      <c r="Y86" s="88"/>
-      <c r="Z86" s="124"/>
-      <c r="AA86" s="124"/>
-      <c r="AB86" s="124"/>
-      <c r="AC86" s="88"/>
-      <c r="AD86" s="88"/>
-      <c r="AE86" s="88"/>
-      <c r="AF86" s="88"/>
+      <c r="Y86" s="106"/>
+      <c r="Z86" s="121"/>
+      <c r="AA86" s="121"/>
+      <c r="AB86" s="121"/>
+      <c r="AC86" s="106"/>
+      <c r="AD86" s="106"/>
+      <c r="AE86" s="106"/>
+      <c r="AF86" s="106"/>
       <c r="AG86" s="120"/>
       <c r="AH86" s="120"/>
       <c r="AI86" s="120"/>
@@ -29180,112 +29915,6 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="AG85:AM85"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AC86:AF86"/>
-    <mergeCell ref="AG86:AM86"/>
-    <mergeCell ref="E85:I86"/>
-    <mergeCell ref="J85:R86"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="AC85:AF85"/>
-    <mergeCell ref="AG83:AM83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="AC84:AF84"/>
-    <mergeCell ref="AG84:AM84"/>
-    <mergeCell ref="E83:I84"/>
-    <mergeCell ref="J83:R84"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="AC83:AF83"/>
-    <mergeCell ref="AG81:AM81"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="AC82:AF82"/>
-    <mergeCell ref="AG82:AM82"/>
-    <mergeCell ref="E81:I82"/>
-    <mergeCell ref="J81:R82"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="AG79:AM79"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AC80:AF80"/>
-    <mergeCell ref="AG80:AM80"/>
-    <mergeCell ref="E79:I80"/>
-    <mergeCell ref="J79:R80"/>
-    <mergeCell ref="T79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AC79:AF79"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AF78"/>
-    <mergeCell ref="AG78:AM78"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:R44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="T34:W34"/>
@@ -29304,6 +29933,112 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AF78"/>
+    <mergeCell ref="AG78:AM78"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AG79:AM79"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AC80:AF80"/>
+    <mergeCell ref="AG80:AM80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="J79:R80"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AC79:AF79"/>
+    <mergeCell ref="AG81:AM81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="AC82:AF82"/>
+    <mergeCell ref="AG82:AM82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="J81:R82"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="AG83:AM83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="AC84:AF84"/>
+    <mergeCell ref="AG84:AM84"/>
+    <mergeCell ref="E83:I84"/>
+    <mergeCell ref="J83:R84"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="AC83:AF83"/>
+    <mergeCell ref="AG85:AM85"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AC86:AF86"/>
+    <mergeCell ref="AG86:AM86"/>
+    <mergeCell ref="E85:I86"/>
+    <mergeCell ref="J85:R86"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="AC85:AF85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30011,7 +30746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8658EDB6-18A1-4E53-A42F-B01ECA8C46CF}">
   <dimension ref="A1:AJ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
@@ -30091,368 +30826,368 @@
     <row r="10" spans="1:27">
       <c r="A10"/>
       <c r="C10" s="46"/>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="136"/>
+      <c r="AA10" s="136"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="136"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="136"/>
+      <c r="AA14" s="136"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="130"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="136